--- a/Таблицы2017.xlsx
+++ b/Таблицы2017.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="13500" tabRatio="541" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="13500" tabRatio="541" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Slide5" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="630">
   <si>
     <t xml:space="preserve">Демографические параметры населения Украины. Без изменений политики </t>
   </si>
@@ -1595,12 +1595,6 @@
     <t xml:space="preserve">Субсидії на продукти </t>
   </si>
   <si>
-    <t xml:space="preserve">Валовий внутрішній продукт </t>
-  </si>
-  <si>
-    <t>Валова додана вартість в основних цінах</t>
-  </si>
-  <si>
     <t xml:space="preserve">¹Без урахування тимчасово окупованої території Автономної Республіки Крим, м.Севастополя та з 2014 року – також без частини тимчасово окупованих територій у Донецькій та Луганській областях. </t>
   </si>
   <si>
@@ -2239,6 +2233,15 @@
   <si>
     <t>Курс грн/евро</t>
   </si>
+  <si>
+    <t>https://bank.gov.ua/files/Exchange_r.xls</t>
+  </si>
+  <si>
+    <t>Офіційний курс гривні щодо іноземних валют (середній за період)</t>
+  </si>
+  <si>
+    <t>у фактичних цінах; млн.дол</t>
+  </si>
 </sst>
 </file>
 
@@ -2248,7 +2251,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="171" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
   <fonts count="68">
     <font>
@@ -3616,7 +3619,7 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="423">
+  <cellXfs count="426">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4294,6 +4297,65 @@
     <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="3" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="4" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="4" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="4" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4303,6 +4365,9 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4315,98 +4380,110 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="55" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="40" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="30" fillId="0" borderId="53" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="0" borderId="52" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="166" fontId="36" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="56" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="52" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="58" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="5" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="49" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="46" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="47" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="48" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="46" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="47" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="48" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -4430,30 +4507,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="46" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="47" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="48" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -4472,93 +4528,108 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="49" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="46" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="47" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="48" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="30" fillId="0" borderId="53" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="30" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="30" fillId="0" borderId="52" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="36" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="56" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="52" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="58" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="40" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="5" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="55" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4568,6 +4639,12 @@
     <xf numFmtId="0" fontId="52" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="54" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="40" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4577,12 +4654,6 @@
     <xf numFmtId="0" fontId="54" fillId="0" borderId="57" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="54" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="48" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -4619,6 +4690,33 @@
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="56" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="52" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="52" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="54" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="52" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="42" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="43" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4643,106 +4741,20 @@
     <xf numFmtId="0" fontId="62" fillId="0" borderId="57" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="54" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="42" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="43" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="52" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="43" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="56" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="52" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="52" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="52" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="171" fontId="13" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="13" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="13" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="56" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="4" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="4" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="4" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="4" fontId="54" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -5519,11 +5531,6 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="6">
-          <cell r="I6">
-            <v>1408876700</v>
-          </cell>
-        </row>
         <row r="9">
           <cell r="I9">
             <v>688174665.50000012</v>
@@ -5818,16 +5825,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="276" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="276"/>
-      <c r="C1" s="276"/>
-      <c r="D1" s="276"/>
-      <c r="E1" s="276"/>
-      <c r="F1" s="276"/>
-      <c r="G1" s="276"/>
-      <c r="H1" s="276"/>
+      <c r="A1" s="293" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="293"/>
+      <c r="C1" s="293"/>
+      <c r="D1" s="293"/>
+      <c r="E1" s="293"/>
+      <c r="F1" s="293"/>
+      <c r="G1" s="293"/>
+      <c r="H1" s="293"/>
     </row>
     <row r="2" spans="1:20">
       <c r="L2" s="58"/>
@@ -6497,8 +6504,8 @@
       <c r="J19" s="16">
         <v>6.9101597975593796</v>
       </c>
-      <c r="K19" s="400" t="s">
-        <v>626</v>
+      <c r="K19" s="270" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -6564,7 +6571,7 @@
         <f>B9*B23/100</f>
         <v>8.0828750463959302</v>
       </c>
-      <c r="C22" s="399">
+      <c r="C22" s="269">
         <v>7.6</v>
       </c>
       <c r="D22" s="21">
@@ -6589,10 +6596,10 @@
         <v>6.0942562915725027</v>
       </c>
       <c r="K22" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="L22" s="50" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -6805,7 +6812,7 @@
       <c r="J28" s="29">
         <v>12.402099472097303</v>
       </c>
-      <c r="K28" s="400" t="s">
+      <c r="K28" s="270" t="s">
         <v>29</v>
       </c>
     </row>
@@ -6872,7 +6879,7 @@
         <f>B9*B32/100</f>
         <v>9.2614833354366812</v>
       </c>
-      <c r="C31" s="399">
+      <c r="C31" s="269">
         <v>9.2643601509793907</v>
       </c>
       <c r="D31" s="34">
@@ -6901,7 +6908,7 @@
         <v>27</v>
       </c>
       <c r="L31" s="50" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -7038,18 +7045,18 @@
       <c r="A38" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="272" t="s">
+      <c r="B38" s="294" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="273"/>
-      <c r="D38" s="273"/>
-      <c r="E38" s="273"/>
-      <c r="F38" s="273"/>
-      <c r="G38" s="273"/>
-      <c r="H38" s="273"/>
-      <c r="I38" s="273"/>
-      <c r="J38" s="273"/>
-      <c r="K38" s="274"/>
+      <c r="C38" s="295"/>
+      <c r="D38" s="295"/>
+      <c r="E38" s="295"/>
+      <c r="F38" s="295"/>
+      <c r="G38" s="295"/>
+      <c r="H38" s="295"/>
+      <c r="I38" s="295"/>
+      <c r="J38" s="295"/>
+      <c r="K38" s="296"/>
     </row>
     <row r="39" spans="1:11" ht="15.75" thickBot="1">
       <c r="A39" s="44" t="s">
@@ -7090,16 +7097,16 @@
       <c r="A40" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="269"/>
-      <c r="C40" s="270"/>
-      <c r="D40" s="270"/>
-      <c r="E40" s="270"/>
-      <c r="F40" s="270"/>
-      <c r="G40" s="270"/>
-      <c r="H40" s="270"/>
-      <c r="I40" s="270"/>
-      <c r="J40" s="270"/>
-      <c r="K40" s="271"/>
+      <c r="B40" s="290"/>
+      <c r="C40" s="291"/>
+      <c r="D40" s="291"/>
+      <c r="E40" s="291"/>
+      <c r="F40" s="291"/>
+      <c r="G40" s="291"/>
+      <c r="H40" s="291"/>
+      <c r="I40" s="291"/>
+      <c r="J40" s="291"/>
+      <c r="K40" s="292"/>
     </row>
     <row r="41" spans="1:11" ht="15.75" thickBot="1">
       <c r="A41" s="46" t="s">
@@ -7207,36 +7214,36 @@
       </c>
     </row>
     <row r="45" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A45" s="275" t="s">
+      <c r="A45" s="297" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="275"/>
-      <c r="C45" s="275"/>
-      <c r="D45" s="275"/>
-      <c r="E45" s="275"/>
-      <c r="F45" s="275"/>
-      <c r="G45" s="275"/>
-      <c r="H45" s="275"/>
-      <c r="I45" s="275"/>
-      <c r="J45" s="275"/>
-      <c r="K45" s="275"/>
+      <c r="B45" s="297"/>
+      <c r="C45" s="297"/>
+      <c r="D45" s="297"/>
+      <c r="E45" s="297"/>
+      <c r="F45" s="297"/>
+      <c r="G45" s="297"/>
+      <c r="H45" s="297"/>
+      <c r="I45" s="297"/>
+      <c r="J45" s="297"/>
+      <c r="K45" s="297"/>
     </row>
     <row r="46" spans="1:11" ht="15.75" thickBot="1">
       <c r="A46" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B46" s="272" t="s">
+      <c r="B46" s="294" t="s">
         <v>31</v>
       </c>
-      <c r="C46" s="273"/>
-      <c r="D46" s="273"/>
-      <c r="E46" s="273"/>
-      <c r="F46" s="273"/>
-      <c r="G46" s="273"/>
-      <c r="H46" s="273"/>
-      <c r="I46" s="273"/>
-      <c r="J46" s="273"/>
-      <c r="K46" s="274"/>
+      <c r="C46" s="295"/>
+      <c r="D46" s="295"/>
+      <c r="E46" s="295"/>
+      <c r="F46" s="295"/>
+      <c r="G46" s="295"/>
+      <c r="H46" s="295"/>
+      <c r="I46" s="295"/>
+      <c r="J46" s="295"/>
+      <c r="K46" s="296"/>
     </row>
     <row r="47" spans="1:11" ht="15.75" thickBot="1">
       <c r="A47" s="44" t="s">
@@ -7277,31 +7284,31 @@
       <c r="A48" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="269"/>
-      <c r="C48" s="270"/>
-      <c r="D48" s="270"/>
-      <c r="E48" s="270"/>
-      <c r="F48" s="270"/>
-      <c r="G48" s="270"/>
-      <c r="H48" s="270"/>
-      <c r="I48" s="270"/>
-      <c r="J48" s="270"/>
-      <c r="K48" s="271"/>
+      <c r="B48" s="290"/>
+      <c r="C48" s="291"/>
+      <c r="D48" s="291"/>
+      <c r="E48" s="291"/>
+      <c r="F48" s="291"/>
+      <c r="G48" s="291"/>
+      <c r="H48" s="291"/>
+      <c r="I48" s="291"/>
+      <c r="J48" s="291"/>
+      <c r="K48" s="292"/>
     </row>
     <row r="49" spans="1:11" ht="15.75" thickBot="1">
       <c r="A49" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B49" s="269"/>
-      <c r="C49" s="270"/>
-      <c r="D49" s="270"/>
-      <c r="E49" s="270"/>
-      <c r="F49" s="270"/>
-      <c r="G49" s="270"/>
-      <c r="H49" s="270"/>
-      <c r="I49" s="270"/>
-      <c r="J49" s="270"/>
-      <c r="K49" s="271"/>
+      <c r="B49" s="290"/>
+      <c r="C49" s="291"/>
+      <c r="D49" s="291"/>
+      <c r="E49" s="291"/>
+      <c r="F49" s="291"/>
+      <c r="G49" s="291"/>
+      <c r="H49" s="291"/>
+      <c r="I49" s="291"/>
+      <c r="J49" s="291"/>
+      <c r="K49" s="292"/>
     </row>
     <row r="50" spans="1:11" ht="15.75" thickBot="1">
       <c r="A50" s="46" t="s">
@@ -7412,16 +7419,16 @@
       <c r="A53" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B53" s="269"/>
-      <c r="C53" s="270"/>
-      <c r="D53" s="270"/>
-      <c r="E53" s="270"/>
-      <c r="F53" s="270"/>
-      <c r="G53" s="270"/>
-      <c r="H53" s="270"/>
-      <c r="I53" s="270"/>
-      <c r="J53" s="270"/>
-      <c r="K53" s="271"/>
+      <c r="B53" s="290"/>
+      <c r="C53" s="291"/>
+      <c r="D53" s="291"/>
+      <c r="E53" s="291"/>
+      <c r="F53" s="291"/>
+      <c r="G53" s="291"/>
+      <c r="H53" s="291"/>
+      <c r="I53" s="291"/>
+      <c r="J53" s="291"/>
+      <c r="K53" s="292"/>
     </row>
     <row r="54" spans="1:11" ht="15.75" thickBot="1">
       <c r="A54" s="46" t="s">
@@ -7532,16 +7539,16 @@
       <c r="A57" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B57" s="269"/>
-      <c r="C57" s="270"/>
-      <c r="D57" s="270"/>
-      <c r="E57" s="270"/>
-      <c r="F57" s="270"/>
-      <c r="G57" s="270"/>
-      <c r="H57" s="270"/>
-      <c r="I57" s="270"/>
-      <c r="J57" s="270"/>
-      <c r="K57" s="271"/>
+      <c r="B57" s="290"/>
+      <c r="C57" s="291"/>
+      <c r="D57" s="291"/>
+      <c r="E57" s="291"/>
+      <c r="F57" s="291"/>
+      <c r="G57" s="291"/>
+      <c r="H57" s="291"/>
+      <c r="I57" s="291"/>
+      <c r="J57" s="291"/>
+      <c r="K57" s="292"/>
     </row>
     <row r="58" spans="1:11" ht="15.75" thickBot="1">
       <c r="A58" s="46" t="s">
@@ -7652,31 +7659,31 @@
       <c r="A61" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B61" s="269"/>
-      <c r="C61" s="270"/>
-      <c r="D61" s="270"/>
-      <c r="E61" s="270"/>
-      <c r="F61" s="270"/>
-      <c r="G61" s="270"/>
-      <c r="H61" s="270"/>
-      <c r="I61" s="270"/>
-      <c r="J61" s="270"/>
-      <c r="K61" s="271"/>
+      <c r="B61" s="290"/>
+      <c r="C61" s="291"/>
+      <c r="D61" s="291"/>
+      <c r="E61" s="291"/>
+      <c r="F61" s="291"/>
+      <c r="G61" s="291"/>
+      <c r="H61" s="291"/>
+      <c r="I61" s="291"/>
+      <c r="J61" s="291"/>
+      <c r="K61" s="292"/>
     </row>
     <row r="62" spans="1:11" ht="15.75" thickBot="1">
       <c r="A62" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B62" s="269"/>
-      <c r="C62" s="270"/>
-      <c r="D62" s="270"/>
-      <c r="E62" s="270"/>
-      <c r="F62" s="270"/>
-      <c r="G62" s="270"/>
-      <c r="H62" s="270"/>
-      <c r="I62" s="270"/>
-      <c r="J62" s="270"/>
-      <c r="K62" s="271"/>
+      <c r="B62" s="290"/>
+      <c r="C62" s="291"/>
+      <c r="D62" s="291"/>
+      <c r="E62" s="291"/>
+      <c r="F62" s="291"/>
+      <c r="G62" s="291"/>
+      <c r="H62" s="291"/>
+      <c r="I62" s="291"/>
+      <c r="J62" s="291"/>
+      <c r="K62" s="292"/>
     </row>
     <row r="63" spans="1:11" ht="15.75" thickBot="1">
       <c r="A63" s="46" t="s">
@@ -7787,16 +7794,16 @@
       <c r="A66" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B66" s="269"/>
-      <c r="C66" s="270"/>
-      <c r="D66" s="270"/>
-      <c r="E66" s="270"/>
-      <c r="F66" s="270"/>
-      <c r="G66" s="270"/>
-      <c r="H66" s="270"/>
-      <c r="I66" s="270"/>
-      <c r="J66" s="270"/>
-      <c r="K66" s="271"/>
+      <c r="B66" s="290"/>
+      <c r="C66" s="291"/>
+      <c r="D66" s="291"/>
+      <c r="E66" s="291"/>
+      <c r="F66" s="291"/>
+      <c r="G66" s="291"/>
+      <c r="H66" s="291"/>
+      <c r="I66" s="291"/>
+      <c r="J66" s="291"/>
+      <c r="K66" s="292"/>
     </row>
     <row r="67" spans="1:11" ht="15.75" thickBot="1">
       <c r="A67" s="46" t="s">
@@ -7907,16 +7914,16 @@
       <c r="A70" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B70" s="269"/>
-      <c r="C70" s="270"/>
-      <c r="D70" s="270"/>
-      <c r="E70" s="270"/>
-      <c r="F70" s="270"/>
-      <c r="G70" s="270"/>
-      <c r="H70" s="270"/>
-      <c r="I70" s="270"/>
-      <c r="J70" s="270"/>
-      <c r="K70" s="271"/>
+      <c r="B70" s="290"/>
+      <c r="C70" s="291"/>
+      <c r="D70" s="291"/>
+      <c r="E70" s="291"/>
+      <c r="F70" s="291"/>
+      <c r="G70" s="291"/>
+      <c r="H70" s="291"/>
+      <c r="I70" s="291"/>
+      <c r="J70" s="291"/>
+      <c r="K70" s="292"/>
     </row>
     <row r="71" spans="1:11" ht="15.75" thickBot="1">
       <c r="A71" s="46" t="s">
@@ -8027,31 +8034,31 @@
       <c r="A74" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="B74" s="269"/>
-      <c r="C74" s="270"/>
-      <c r="D74" s="270"/>
-      <c r="E74" s="270"/>
-      <c r="F74" s="270"/>
-      <c r="G74" s="270"/>
-      <c r="H74" s="270"/>
-      <c r="I74" s="270"/>
-      <c r="J74" s="270"/>
-      <c r="K74" s="271"/>
+      <c r="B74" s="290"/>
+      <c r="C74" s="291"/>
+      <c r="D74" s="291"/>
+      <c r="E74" s="291"/>
+      <c r="F74" s="291"/>
+      <c r="G74" s="291"/>
+      <c r="H74" s="291"/>
+      <c r="I74" s="291"/>
+      <c r="J74" s="291"/>
+      <c r="K74" s="292"/>
     </row>
     <row r="75" spans="1:11" ht="15.75" thickBot="1">
       <c r="A75" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B75" s="269"/>
-      <c r="C75" s="270"/>
-      <c r="D75" s="270"/>
-      <c r="E75" s="270"/>
-      <c r="F75" s="270"/>
-      <c r="G75" s="270"/>
-      <c r="H75" s="270"/>
-      <c r="I75" s="270"/>
-      <c r="J75" s="270"/>
-      <c r="K75" s="271"/>
+      <c r="B75" s="290"/>
+      <c r="C75" s="291"/>
+      <c r="D75" s="291"/>
+      <c r="E75" s="291"/>
+      <c r="F75" s="291"/>
+      <c r="G75" s="291"/>
+      <c r="H75" s="291"/>
+      <c r="I75" s="291"/>
+      <c r="J75" s="291"/>
+      <c r="K75" s="292"/>
     </row>
     <row r="76" spans="1:11" ht="15.75" thickBot="1">
       <c r="A76" s="46" t="s">
@@ -8162,16 +8169,16 @@
       <c r="A79" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B79" s="269"/>
-      <c r="C79" s="270"/>
-      <c r="D79" s="270"/>
-      <c r="E79" s="270"/>
-      <c r="F79" s="270"/>
-      <c r="G79" s="270"/>
-      <c r="H79" s="270"/>
-      <c r="I79" s="270"/>
-      <c r="J79" s="270"/>
-      <c r="K79" s="271"/>
+      <c r="B79" s="290"/>
+      <c r="C79" s="291"/>
+      <c r="D79" s="291"/>
+      <c r="E79" s="291"/>
+      <c r="F79" s="291"/>
+      <c r="G79" s="291"/>
+      <c r="H79" s="291"/>
+      <c r="I79" s="291"/>
+      <c r="J79" s="291"/>
+      <c r="K79" s="292"/>
     </row>
     <row r="80" spans="1:11" ht="15.75" thickBot="1">
       <c r="A80" s="46" t="s">
@@ -8282,16 +8289,16 @@
       <c r="A83" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B83" s="269"/>
-      <c r="C83" s="270"/>
-      <c r="D83" s="270"/>
-      <c r="E83" s="270"/>
-      <c r="F83" s="270"/>
-      <c r="G83" s="270"/>
-      <c r="H83" s="270"/>
-      <c r="I83" s="270"/>
-      <c r="J83" s="270"/>
-      <c r="K83" s="271"/>
+      <c r="B83" s="290"/>
+      <c r="C83" s="291"/>
+      <c r="D83" s="291"/>
+      <c r="E83" s="291"/>
+      <c r="F83" s="291"/>
+      <c r="G83" s="291"/>
+      <c r="H83" s="291"/>
+      <c r="I83" s="291"/>
+      <c r="J83" s="291"/>
+      <c r="K83" s="292"/>
     </row>
     <row r="84" spans="1:11" ht="15.75" thickBot="1">
       <c r="A84" s="46" t="s">
@@ -8399,36 +8406,36 @@
       </c>
     </row>
     <row r="89" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A89" s="275" t="s">
+      <c r="A89" s="297" t="s">
         <v>47</v>
       </c>
-      <c r="B89" s="275"/>
-      <c r="C89" s="275"/>
-      <c r="D89" s="275"/>
-      <c r="E89" s="275"/>
-      <c r="F89" s="275"/>
-      <c r="G89" s="275"/>
-      <c r="H89" s="275"/>
-      <c r="I89" s="275"/>
-      <c r="J89" s="275"/>
-      <c r="K89" s="275"/>
+      <c r="B89" s="297"/>
+      <c r="C89" s="297"/>
+      <c r="D89" s="297"/>
+      <c r="E89" s="297"/>
+      <c r="F89" s="297"/>
+      <c r="G89" s="297"/>
+      <c r="H89" s="297"/>
+      <c r="I89" s="297"/>
+      <c r="J89" s="297"/>
+      <c r="K89" s="297"/>
     </row>
     <row r="90" spans="1:11" ht="15.75" thickBot="1">
       <c r="A90" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B90" s="272" t="s">
+      <c r="B90" s="294" t="s">
         <v>31</v>
       </c>
-      <c r="C90" s="273"/>
-      <c r="D90" s="273"/>
-      <c r="E90" s="273"/>
-      <c r="F90" s="273"/>
-      <c r="G90" s="273"/>
-      <c r="H90" s="273"/>
-      <c r="I90" s="273"/>
-      <c r="J90" s="273"/>
-      <c r="K90" s="274"/>
+      <c r="C90" s="295"/>
+      <c r="D90" s="295"/>
+      <c r="E90" s="295"/>
+      <c r="F90" s="295"/>
+      <c r="G90" s="295"/>
+      <c r="H90" s="295"/>
+      <c r="I90" s="295"/>
+      <c r="J90" s="295"/>
+      <c r="K90" s="296"/>
     </row>
     <row r="91" spans="1:11" ht="15.75" thickBot="1">
       <c r="A91" s="44" t="s">
@@ -8469,31 +8476,31 @@
       <c r="A92" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="B92" s="269"/>
-      <c r="C92" s="270"/>
-      <c r="D92" s="270"/>
-      <c r="E92" s="270"/>
-      <c r="F92" s="270"/>
-      <c r="G92" s="270"/>
-      <c r="H92" s="270"/>
-      <c r="I92" s="270"/>
-      <c r="J92" s="270"/>
-      <c r="K92" s="271"/>
+      <c r="B92" s="290"/>
+      <c r="C92" s="291"/>
+      <c r="D92" s="291"/>
+      <c r="E92" s="291"/>
+      <c r="F92" s="291"/>
+      <c r="G92" s="291"/>
+      <c r="H92" s="291"/>
+      <c r="I92" s="291"/>
+      <c r="J92" s="291"/>
+      <c r="K92" s="292"/>
     </row>
     <row r="93" spans="1:11" ht="15.75" thickBot="1">
       <c r="A93" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="B93" s="269"/>
-      <c r="C93" s="270"/>
-      <c r="D93" s="270"/>
-      <c r="E93" s="270"/>
-      <c r="F93" s="270"/>
-      <c r="G93" s="270"/>
-      <c r="H93" s="270"/>
-      <c r="I93" s="270"/>
-      <c r="J93" s="270"/>
-      <c r="K93" s="271"/>
+      <c r="B93" s="290"/>
+      <c r="C93" s="291"/>
+      <c r="D93" s="291"/>
+      <c r="E93" s="291"/>
+      <c r="F93" s="291"/>
+      <c r="G93" s="291"/>
+      <c r="H93" s="291"/>
+      <c r="I93" s="291"/>
+      <c r="J93" s="291"/>
+      <c r="K93" s="292"/>
     </row>
     <row r="94" spans="1:11" ht="15.75" thickBot="1">
       <c r="A94" s="46" t="s">
@@ -8604,16 +8611,16 @@
       <c r="A97" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="B97" s="269"/>
-      <c r="C97" s="270"/>
-      <c r="D97" s="270"/>
-      <c r="E97" s="270"/>
-      <c r="F97" s="270"/>
-      <c r="G97" s="270"/>
-      <c r="H97" s="270"/>
-      <c r="I97" s="270"/>
-      <c r="J97" s="270"/>
-      <c r="K97" s="271"/>
+      <c r="B97" s="290"/>
+      <c r="C97" s="291"/>
+      <c r="D97" s="291"/>
+      <c r="E97" s="291"/>
+      <c r="F97" s="291"/>
+      <c r="G97" s="291"/>
+      <c r="H97" s="291"/>
+      <c r="I97" s="291"/>
+      <c r="J97" s="291"/>
+      <c r="K97" s="292"/>
     </row>
     <row r="98" spans="1:11" ht="15.75" thickBot="1">
       <c r="A98" s="46" t="s">
@@ -8733,36 +8740,36 @@
       <c r="J101" s="49"/>
     </row>
     <row r="102" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A102" s="275" t="s">
+      <c r="A102" s="297" t="s">
         <v>54</v>
       </c>
-      <c r="B102" s="275"/>
-      <c r="C102" s="275"/>
-      <c r="D102" s="275"/>
-      <c r="E102" s="275"/>
-      <c r="F102" s="275"/>
-      <c r="G102" s="275"/>
-      <c r="H102" s="275"/>
-      <c r="I102" s="275"/>
-      <c r="J102" s="275"/>
-      <c r="K102" s="275"/>
+      <c r="B102" s="297"/>
+      <c r="C102" s="297"/>
+      <c r="D102" s="297"/>
+      <c r="E102" s="297"/>
+      <c r="F102" s="297"/>
+      <c r="G102" s="297"/>
+      <c r="H102" s="297"/>
+      <c r="I102" s="297"/>
+      <c r="J102" s="297"/>
+      <c r="K102" s="297"/>
     </row>
     <row r="103" spans="1:11" ht="15.75" thickBot="1">
       <c r="A103" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B103" s="272" t="s">
+      <c r="B103" s="294" t="s">
         <v>31</v>
       </c>
-      <c r="C103" s="273"/>
-      <c r="D103" s="273"/>
-      <c r="E103" s="273"/>
-      <c r="F103" s="273"/>
-      <c r="G103" s="273"/>
-      <c r="H103" s="273"/>
-      <c r="I103" s="273"/>
-      <c r="J103" s="273"/>
-      <c r="K103" s="274"/>
+      <c r="C103" s="295"/>
+      <c r="D103" s="295"/>
+      <c r="E103" s="295"/>
+      <c r="F103" s="295"/>
+      <c r="G103" s="295"/>
+      <c r="H103" s="295"/>
+      <c r="I103" s="295"/>
+      <c r="J103" s="295"/>
+      <c r="K103" s="296"/>
     </row>
     <row r="104" spans="1:11" ht="15.75" thickBot="1">
       <c r="A104" s="44" t="s">
@@ -8803,31 +8810,31 @@
       <c r="A105" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="B105" s="269"/>
-      <c r="C105" s="270"/>
-      <c r="D105" s="270"/>
-      <c r="E105" s="270"/>
-      <c r="F105" s="270"/>
-      <c r="G105" s="270"/>
-      <c r="H105" s="270"/>
-      <c r="I105" s="270"/>
-      <c r="J105" s="270"/>
-      <c r="K105" s="271"/>
+      <c r="B105" s="290"/>
+      <c r="C105" s="291"/>
+      <c r="D105" s="291"/>
+      <c r="E105" s="291"/>
+      <c r="F105" s="291"/>
+      <c r="G105" s="291"/>
+      <c r="H105" s="291"/>
+      <c r="I105" s="291"/>
+      <c r="J105" s="291"/>
+      <c r="K105" s="292"/>
     </row>
     <row r="106" spans="1:11" ht="15.75" thickBot="1">
       <c r="A106" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="B106" s="269"/>
-      <c r="C106" s="270"/>
-      <c r="D106" s="270"/>
-      <c r="E106" s="270"/>
-      <c r="F106" s="270"/>
-      <c r="G106" s="270"/>
-      <c r="H106" s="270"/>
-      <c r="I106" s="270"/>
-      <c r="J106" s="270"/>
-      <c r="K106" s="271"/>
+      <c r="B106" s="290"/>
+      <c r="C106" s="291"/>
+      <c r="D106" s="291"/>
+      <c r="E106" s="291"/>
+      <c r="F106" s="291"/>
+      <c r="G106" s="291"/>
+      <c r="H106" s="291"/>
+      <c r="I106" s="291"/>
+      <c r="J106" s="291"/>
+      <c r="K106" s="292"/>
     </row>
     <row r="107" spans="1:11" ht="15.75" thickBot="1">
       <c r="A107" s="46" t="s">
@@ -8938,16 +8945,16 @@
       <c r="A110" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="B110" s="269"/>
-      <c r="C110" s="270"/>
-      <c r="D110" s="270"/>
-      <c r="E110" s="270"/>
-      <c r="F110" s="270"/>
-      <c r="G110" s="270"/>
-      <c r="H110" s="270"/>
-      <c r="I110" s="270"/>
-      <c r="J110" s="270"/>
-      <c r="K110" s="271"/>
+      <c r="B110" s="290"/>
+      <c r="C110" s="291"/>
+      <c r="D110" s="291"/>
+      <c r="E110" s="291"/>
+      <c r="F110" s="291"/>
+      <c r="G110" s="291"/>
+      <c r="H110" s="291"/>
+      <c r="I110" s="291"/>
+      <c r="J110" s="291"/>
+      <c r="K110" s="292"/>
     </row>
     <row r="111" spans="1:11" ht="15.75" thickBot="1">
       <c r="A111" s="46" t="s">
@@ -9061,12 +9068,15 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B48:K48"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B38:K38"/>
-    <mergeCell ref="B40:K40"/>
-    <mergeCell ref="A45:K45"/>
-    <mergeCell ref="B46:K46"/>
+    <mergeCell ref="B105:K105"/>
+    <mergeCell ref="B106:K106"/>
+    <mergeCell ref="B110:K110"/>
+    <mergeCell ref="B90:K90"/>
+    <mergeCell ref="B92:K92"/>
+    <mergeCell ref="B93:K93"/>
+    <mergeCell ref="B97:K97"/>
+    <mergeCell ref="A102:K102"/>
+    <mergeCell ref="B103:K103"/>
     <mergeCell ref="A89:K89"/>
     <mergeCell ref="B49:K49"/>
     <mergeCell ref="B53:K53"/>
@@ -9079,15 +9089,12 @@
     <mergeCell ref="B75:K75"/>
     <mergeCell ref="B79:K79"/>
     <mergeCell ref="B83:K83"/>
-    <mergeCell ref="B105:K105"/>
-    <mergeCell ref="B106:K106"/>
-    <mergeCell ref="B110:K110"/>
-    <mergeCell ref="B90:K90"/>
-    <mergeCell ref="B92:K92"/>
-    <mergeCell ref="B93:K93"/>
-    <mergeCell ref="B97:K97"/>
-    <mergeCell ref="A102:K102"/>
-    <mergeCell ref="B103:K103"/>
+    <mergeCell ref="B48:K48"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B38:K38"/>
+    <mergeCell ref="B40:K40"/>
+    <mergeCell ref="A45:K45"/>
+    <mergeCell ref="B46:K46"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A115" r:id="rId1"/>
@@ -9113,16 +9120,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:11">
-      <c r="A3" s="276" t="s">
+      <c r="A3" s="293" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="276"/>
-      <c r="C3" s="276"/>
-      <c r="D3" s="276"/>
-      <c r="E3" s="276"/>
-      <c r="F3" s="276"/>
-      <c r="G3" s="276"/>
-      <c r="H3" s="276"/>
+      <c r="B3" s="293"/>
+      <c r="C3" s="293"/>
+      <c r="D3" s="293"/>
+      <c r="E3" s="293"/>
+      <c r="F3" s="293"/>
+      <c r="G3" s="293"/>
+      <c r="H3" s="293"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
@@ -9798,7 +9805,7 @@
         <f>B11*B25/100</f>
         <v>8.0828750463959302</v>
       </c>
-      <c r="C24" s="399">
+      <c r="C24" s="269">
         <v>7.6</v>
       </c>
       <c r="D24" s="21">
@@ -11241,7 +11248,7 @@
   </sheetPr>
   <dimension ref="A1:V134"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F149" sqref="F149"/>
     </sheetView>
   </sheetViews>
@@ -11254,106 +11261,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75">
-      <c r="A1" s="279" t="s">
-        <v>627</v>
-      </c>
-      <c r="B1" s="279"/>
-      <c r="C1" s="279"/>
-      <c r="D1" s="279"/>
-      <c r="E1" s="279"/>
-      <c r="F1" s="279"/>
-      <c r="G1" s="279"/>
-      <c r="H1" s="279"/>
-      <c r="I1" s="279"/>
-      <c r="J1" s="279"/>
-      <c r="K1" s="279"/>
-      <c r="L1" s="279"/>
-      <c r="M1" s="279"/>
+      <c r="A1" s="352" t="s">
+        <v>625</v>
+      </c>
+      <c r="B1" s="352"/>
+      <c r="C1" s="352"/>
+      <c r="D1" s="352"/>
+      <c r="E1" s="352"/>
+      <c r="F1" s="352"/>
+      <c r="G1" s="352"/>
+      <c r="H1" s="352"/>
+      <c r="I1" s="352"/>
+      <c r="J1" s="352"/>
+      <c r="K1" s="352"/>
+      <c r="L1" s="352"/>
+      <c r="M1" s="352"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="3" spans="1:13">
-      <c r="A3" s="280" t="s">
+      <c r="A3" s="353" t="s">
         <v>84</v>
       </c>
       <c r="B3" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="283" t="s">
+      <c r="C3" s="356" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="284"/>
-      <c r="E3" s="284"/>
-      <c r="F3" s="285"/>
-      <c r="G3" s="286" t="s">
+      <c r="D3" s="357"/>
+      <c r="E3" s="357"/>
+      <c r="F3" s="358"/>
+      <c r="G3" s="359" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="287"/>
-      <c r="I3" s="287"/>
-      <c r="J3" s="288"/>
-      <c r="K3" s="289" t="s">
+      <c r="H3" s="360"/>
+      <c r="I3" s="360"/>
+      <c r="J3" s="361"/>
+      <c r="K3" s="362" t="s">
         <v>88</v>
       </c>
-      <c r="L3" s="290"/>
-      <c r="M3" s="291"/>
+      <c r="L3" s="363"/>
+      <c r="M3" s="364"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="281"/>
+      <c r="A4" s="354"/>
       <c r="B4" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="298">
+      <c r="C4" s="371">
         <v>42.5</v>
       </c>
-      <c r="D4" s="299"/>
-      <c r="E4" s="299"/>
-      <c r="F4" s="300"/>
-      <c r="G4" s="301">
+      <c r="D4" s="372"/>
+      <c r="E4" s="372"/>
+      <c r="F4" s="373"/>
+      <c r="G4" s="374">
         <v>511.8</v>
       </c>
-      <c r="H4" s="302"/>
-      <c r="I4" s="302"/>
-      <c r="J4" s="303"/>
-      <c r="K4" s="292"/>
-      <c r="L4" s="293"/>
-      <c r="M4" s="294"/>
+      <c r="H4" s="375"/>
+      <c r="I4" s="375"/>
+      <c r="J4" s="376"/>
+      <c r="K4" s="365"/>
+      <c r="L4" s="366"/>
+      <c r="M4" s="367"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="281"/>
+      <c r="A5" s="354"/>
       <c r="B5" s="68" t="s">
-        <v>628</v>
-      </c>
-      <c r="C5" s="401">
+        <v>626</v>
+      </c>
+      <c r="C5" s="377">
         <f>33.4954</f>
         <v>33.495399999999997</v>
       </c>
-      <c r="D5" s="402"/>
-      <c r="E5" s="402"/>
-      <c r="F5" s="403"/>
-      <c r="G5" s="304">
+      <c r="D5" s="378"/>
+      <c r="E5" s="378"/>
+      <c r="F5" s="379"/>
+      <c r="G5" s="380">
         <v>1</v>
       </c>
-      <c r="H5" s="305"/>
-      <c r="I5" s="305"/>
-      <c r="J5" s="306"/>
-      <c r="K5" s="295"/>
-      <c r="L5" s="296"/>
-      <c r="M5" s="297"/>
+      <c r="H5" s="381"/>
+      <c r="I5" s="381"/>
+      <c r="J5" s="382"/>
+      <c r="K5" s="368"/>
+      <c r="L5" s="369"/>
+      <c r="M5" s="370"/>
     </row>
     <row r="6" spans="1:13" ht="52.5" thickBot="1">
-      <c r="A6" s="282"/>
+      <c r="A6" s="355"/>
       <c r="B6" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="412" t="s">
+      <c r="C6" s="279" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="413" t="s">
+      <c r="D6" s="280" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="414" t="s">
+      <c r="E6" s="281" t="s">
         <v>93</v>
       </c>
-      <c r="F6" s="415" t="s">
+      <c r="F6" s="282" t="s">
         <v>94</v>
       </c>
       <c r="G6" s="70" t="s">
@@ -11394,11 +11401,11 @@
         <f>C7/$C$4*1000</f>
         <v>2095.4589374695524</v>
       </c>
-      <c r="F7" s="416">
+      <c r="F7" s="283">
         <f>E7/12</f>
         <v>174.62157812246269</v>
       </c>
-      <c r="G7" s="408"/>
+      <c r="G7" s="275"/>
       <c r="H7" s="78"/>
       <c r="I7" s="79"/>
       <c r="J7" s="80"/>
@@ -11424,11 +11431,11 @@
         <f t="shared" ref="E8:E25" si="0">C8/$C$4*1000</f>
         <v>1862.9999764673571</v>
       </c>
-      <c r="F8" s="416">
+      <c r="F8" s="283">
         <f>E8/12</f>
         <v>155.24999803894642</v>
       </c>
-      <c r="G8" s="408"/>
+      <c r="G8" s="275"/>
       <c r="H8" s="78"/>
       <c r="I8" s="79"/>
       <c r="J8" s="80"/>
@@ -11443,22 +11450,22 @@
       <c r="B9" s="85" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="417">
+      <c r="C9" s="284">
         <f>1209.097/C5</f>
         <v>36.097404419711367</v>
       </c>
-      <c r="D9" s="417" t="s">
+      <c r="D9" s="284" t="s">
         <v>96</v>
       </c>
       <c r="E9" s="93">
         <f t="shared" si="0"/>
         <v>849.35069222850279</v>
       </c>
-      <c r="F9" s="418">
+      <c r="F9" s="285">
         <f t="shared" ref="F9:F11" si="1">E9/12</f>
         <v>70.779224352375238</v>
       </c>
-      <c r="G9" s="409"/>
+      <c r="G9" s="276"/>
       <c r="H9" s="86"/>
       <c r="I9" s="87"/>
       <c r="J9" s="88"/>
@@ -11473,22 +11480,22 @@
       <c r="B10" s="92" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="417">
+      <c r="C10" s="284">
         <f>(477.854+78.673)/C5</f>
         <v>16.615027735151696</v>
       </c>
-      <c r="D10" s="417" t="s">
+      <c r="D10" s="284" t="s">
         <v>96</v>
       </c>
       <c r="E10" s="93">
         <f t="shared" si="0"/>
         <v>390.94182906239286</v>
       </c>
-      <c r="F10" s="418">
+      <c r="F10" s="285">
         <f t="shared" si="1"/>
         <v>32.578485755199402</v>
       </c>
-      <c r="G10" s="409"/>
+      <c r="G10" s="276"/>
       <c r="H10" s="86"/>
       <c r="I10" s="87"/>
       <c r="J10" s="88"/>
@@ -11503,22 +11510,22 @@
       <c r="B11" s="85" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="417">
+      <c r="C11" s="284">
         <f>886.458/C5</f>
         <v>26.465066844999615</v>
       </c>
-      <c r="D11" s="417" t="s">
+      <c r="D11" s="284" t="s">
         <v>96</v>
       </c>
       <c r="E11" s="93">
         <f t="shared" si="0"/>
         <v>622.70745517646151</v>
       </c>
-      <c r="F11" s="418">
+      <c r="F11" s="285">
         <f t="shared" si="1"/>
         <v>51.89228793137179</v>
       </c>
-      <c r="G11" s="409"/>
+      <c r="G11" s="276"/>
       <c r="H11" s="86"/>
       <c r="I11" s="87"/>
       <c r="J11" s="88"/>
@@ -11545,11 +11552,11 @@
         <f t="shared" si="0"/>
         <v>1862.9999764673571</v>
       </c>
-      <c r="F12" s="416">
+      <c r="F12" s="283">
         <f>E12/12</f>
         <v>155.24999803894642</v>
       </c>
-      <c r="G12" s="410">
+      <c r="G12" s="277">
         <v>8362</v>
       </c>
       <c r="H12" s="93">
@@ -11594,11 +11601,11 @@
         <f t="shared" si="0"/>
         <v>892.37698872786393</v>
       </c>
-      <c r="F13" s="416">
+      <c r="F13" s="283">
         <f t="shared" ref="F13:F25" si="2">E13/12</f>
         <v>74.364749060655328</v>
       </c>
-      <c r="G13" s="411">
+      <c r="G13" s="278">
         <f>$G$12*H13/100</f>
         <v>1020.164</v>
       </c>
@@ -11644,11 +11651,11 @@
         <f t="shared" si="0"/>
         <v>68.930999129292204</v>
       </c>
-      <c r="F14" s="416">
+      <c r="F14" s="283">
         <f t="shared" si="2"/>
         <v>5.7442499274410173</v>
       </c>
-      <c r="G14" s="411">
+      <c r="G14" s="278">
         <f t="shared" ref="G14:G25" si="5">$G$12*H14/100</f>
         <v>1087.06</v>
       </c>
@@ -11694,11 +11701,11 @@
         <f t="shared" si="0"/>
         <v>316.70999599945071</v>
       </c>
-      <c r="F15" s="416">
+      <c r="F15" s="283">
         <f t="shared" si="2"/>
         <v>26.392499666620893</v>
       </c>
-      <c r="G15" s="411">
+      <c r="G15" s="278">
         <f t="shared" si="5"/>
         <v>2023.604</v>
       </c>
@@ -11744,11 +11751,11 @@
         <f t="shared" si="0"/>
         <v>57.752999270488068</v>
       </c>
-      <c r="F16" s="416">
+      <c r="F16" s="283">
         <f t="shared" si="2"/>
         <v>4.8127499392073387</v>
       </c>
-      <c r="G16" s="411">
+      <c r="G16" s="278">
         <f t="shared" si="5"/>
         <v>317.75599999999997</v>
       </c>
@@ -11794,11 +11801,11 @@
         <f t="shared" si="0"/>
         <v>102.46499870570464</v>
       </c>
-      <c r="F17" s="416">
+      <c r="F17" s="283">
         <f t="shared" si="2"/>
         <v>8.5387498921420537</v>
       </c>
-      <c r="G17" s="411">
+      <c r="G17" s="278">
         <f t="shared" si="5"/>
         <v>409.73800000000006</v>
       </c>
@@ -11844,11 +11851,11 @@
         <f t="shared" si="0"/>
         <v>70.793999105759568</v>
       </c>
-      <c r="F18" s="416">
+      <c r="F18" s="283">
         <f t="shared" si="2"/>
         <v>5.8994999254799643</v>
       </c>
-      <c r="G18" s="411">
+      <c r="G18" s="278">
         <f t="shared" si="5"/>
         <v>334.48</v>
       </c>
@@ -11894,11 +11901,11 @@
         <f t="shared" si="0"/>
         <v>37.259999529347148</v>
       </c>
-      <c r="F19" s="416">
+      <c r="F19" s="283">
         <f t="shared" si="2"/>
         <v>3.1049999607789291</v>
       </c>
-      <c r="G19" s="411">
+      <c r="G19" s="278">
         <f t="shared" si="5"/>
         <v>459.91</v>
       </c>
@@ -11944,11 +11951,11 @@
         <f t="shared" si="0"/>
         <v>72.656999082226918</v>
       </c>
-      <c r="F20" s="416">
+      <c r="F20" s="283">
         <f t="shared" si="2"/>
         <v>6.0547499235189095</v>
       </c>
-      <c r="G20" s="411">
+      <c r="G20" s="278">
         <f t="shared" si="5"/>
         <v>710.77</v>
       </c>
@@ -11994,11 +12001,11 @@
         <f t="shared" si="0"/>
         <v>46.574999411683926</v>
       </c>
-      <c r="F21" s="416">
+      <c r="F21" s="283">
         <f t="shared" si="2"/>
         <v>3.8812499509736607</v>
       </c>
-      <c r="G21" s="411">
+      <c r="G21" s="278">
         <f t="shared" si="5"/>
         <v>953.26800000000003</v>
       </c>
@@ -12044,11 +12051,11 @@
         <f t="shared" si="0"/>
         <v>42.848999458749212</v>
       </c>
-      <c r="F22" s="416">
+      <c r="F22" s="283">
         <f t="shared" si="2"/>
         <v>3.5707499548957675</v>
       </c>
-      <c r="G22" s="411">
+      <c r="G22" s="278">
         <f t="shared" si="5"/>
         <v>735.85600000000011</v>
       </c>
@@ -12094,11 +12101,11 @@
         <f t="shared" si="0"/>
         <v>44.711999435216576</v>
       </c>
-      <c r="F23" s="416">
+      <c r="F23" s="283">
         <f t="shared" si="2"/>
         <v>3.7259999529347145</v>
       </c>
-      <c r="G23" s="411">
+      <c r="G23" s="278">
         <f t="shared" si="5"/>
         <v>209.05</v>
       </c>
@@ -12144,11 +12151,11 @@
         <f t="shared" si="0"/>
         <v>20.492999741140931</v>
       </c>
-      <c r="F24" s="416">
+      <c r="F24" s="283">
         <f t="shared" si="2"/>
         <v>1.7077499784284109</v>
       </c>
-      <c r="G24" s="411">
+      <c r="G24" s="278">
         <f t="shared" si="5"/>
         <v>91.982000000000014</v>
       </c>
@@ -12177,46 +12184,46 @@
       </c>
     </row>
     <row r="25" spans="1:22" ht="60">
-      <c r="B25" s="404" t="s">
+      <c r="B25" s="271" t="s">
         <v>350</v>
       </c>
       <c r="C25" s="100">
         <f t="shared" si="4"/>
         <v>3.8005199519934085</v>
       </c>
-      <c r="D25" s="419">
+      <c r="D25" s="286">
         <v>4.8</v>
       </c>
       <c r="E25" s="93">
         <f t="shared" si="0"/>
         <v>89.423998870433152</v>
       </c>
-      <c r="F25" s="416">
+      <c r="F25" s="283">
         <f t="shared" si="2"/>
         <v>7.4519999058694291</v>
       </c>
-      <c r="G25" s="420">
+      <c r="G25" s="287">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H25" s="405"/>
-      <c r="I25" s="405">
+      <c r="H25" s="272"/>
+      <c r="I25" s="272">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J25" s="407">
+      <c r="J25" s="274">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K25" s="406">
+      <c r="K25" s="273">
         <f t="shared" si="3"/>
         <v>-89.423998870433152</v>
       </c>
-      <c r="L25" s="421">
+      <c r="L25" s="288">
         <f t="shared" si="3"/>
         <v>-7.4519999058694291</v>
       </c>
-      <c r="M25" s="422">
+      <c r="M25" s="289">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -12247,20 +12254,20 @@
       <c r="F30" s="52" t="s">
         <v>136</v>
       </c>
-      <c r="I30" s="329" t="s">
+      <c r="I30" s="383" t="s">
         <v>251</v>
       </c>
-      <c r="J30" s="329"/>
-      <c r="K30" s="329"/>
-      <c r="L30" s="329"/>
-      <c r="M30" s="329"/>
-      <c r="N30" s="329"/>
-      <c r="O30" s="329"/>
-      <c r="P30" s="329"/>
-      <c r="Q30" s="329"/>
-      <c r="R30" s="329"/>
-      <c r="S30" s="329"/>
-      <c r="T30" s="329"/>
+      <c r="J30" s="383"/>
+      <c r="K30" s="383"/>
+      <c r="L30" s="383"/>
+      <c r="M30" s="383"/>
+      <c r="N30" s="383"/>
+      <c r="O30" s="383"/>
+      <c r="P30" s="383"/>
+      <c r="Q30" s="383"/>
+      <c r="R30" s="383"/>
+      <c r="S30" s="383"/>
+      <c r="T30" s="383"/>
       <c r="U30" s="111"/>
       <c r="V30" s="111"/>
     </row>
@@ -12295,10 +12302,10 @@
       <c r="R31" s="111"/>
       <c r="S31" s="111"/>
       <c r="T31" s="111"/>
-      <c r="U31" s="277" t="s">
+      <c r="U31" s="350" t="s">
         <v>252</v>
       </c>
-      <c r="V31" s="278"/>
+      <c r="V31" s="351"/>
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="52">
@@ -13861,46 +13868,46 @@
       <c r="F59" t="s">
         <v>196</v>
       </c>
-      <c r="I59" s="315" t="s">
+      <c r="I59" s="328" t="s">
         <v>283</v>
       </c>
-      <c r="J59" s="321">
+      <c r="J59" s="330">
         <v>6332.1</v>
       </c>
-      <c r="K59" s="321">
+      <c r="K59" s="330">
         <v>7771</v>
       </c>
-      <c r="L59" s="321">
+      <c r="L59" s="330">
         <v>10126</v>
       </c>
-      <c r="M59" s="321">
+      <c r="M59" s="330">
         <v>13716.3</v>
       </c>
-      <c r="N59" s="321">
+      <c r="N59" s="330">
         <v>14372.8</v>
       </c>
-      <c r="O59" s="321">
+      <c r="O59" s="330">
         <v>18485.599999999999</v>
       </c>
-      <c r="P59" s="321">
+      <c r="P59" s="330">
         <v>21637.9</v>
       </c>
-      <c r="Q59" s="321">
+      <c r="Q59" s="330">
         <v>25206.400000000001</v>
       </c>
-      <c r="R59" s="327">
+      <c r="R59" s="348">
         <v>26719.4</v>
       </c>
-      <c r="S59" s="321">
+      <c r="S59" s="330">
         <v>26782.1</v>
       </c>
-      <c r="T59" s="330">
+      <c r="T59" s="322">
         <v>31803.1</v>
       </c>
-      <c r="U59" s="313">
+      <c r="U59" s="341">
         <v>37079.9</v>
       </c>
-      <c r="V59" s="323">
+      <c r="V59" s="344">
         <v>47269.7</v>
       </c>
     </row>
@@ -13923,20 +13930,20 @@
       <c r="F60" t="s">
         <v>198</v>
       </c>
-      <c r="I60" s="317"/>
-      <c r="J60" s="322"/>
-      <c r="K60" s="322"/>
-      <c r="L60" s="322"/>
-      <c r="M60" s="322"/>
-      <c r="N60" s="322"/>
-      <c r="O60" s="322"/>
-      <c r="P60" s="322"/>
-      <c r="Q60" s="322"/>
-      <c r="R60" s="328"/>
-      <c r="S60" s="322"/>
-      <c r="T60" s="331"/>
-      <c r="U60" s="314"/>
-      <c r="V60" s="324"/>
+      <c r="I60" s="329"/>
+      <c r="J60" s="331"/>
+      <c r="K60" s="331"/>
+      <c r="L60" s="331"/>
+      <c r="M60" s="331"/>
+      <c r="N60" s="331"/>
+      <c r="O60" s="331"/>
+      <c r="P60" s="331"/>
+      <c r="Q60" s="331"/>
+      <c r="R60" s="349"/>
+      <c r="S60" s="331"/>
+      <c r="T60" s="324"/>
+      <c r="U60" s="342"/>
+      <c r="V60" s="345"/>
     </row>
     <row r="61" spans="1:22">
       <c r="A61" s="52">
@@ -13957,46 +13964,46 @@
       <c r="F61" t="s">
         <v>200</v>
       </c>
-      <c r="I61" s="315" t="s">
+      <c r="I61" s="328" t="s">
         <v>284</v>
       </c>
-      <c r="J61" s="318">
+      <c r="J61" s="325">
         <v>123.9</v>
       </c>
-      <c r="K61" s="318">
+      <c r="K61" s="325">
         <v>111.8</v>
       </c>
-      <c r="L61" s="318">
+      <c r="L61" s="325">
         <v>114.8</v>
       </c>
-      <c r="M61" s="318">
+      <c r="M61" s="325">
         <v>107.6</v>
       </c>
-      <c r="N61" s="318">
+      <c r="N61" s="325">
         <v>90</v>
       </c>
-      <c r="O61" s="318">
+      <c r="O61" s="325">
         <v>117.1</v>
       </c>
-      <c r="P61" s="318">
+      <c r="P61" s="325">
         <v>108</v>
       </c>
-      <c r="Q61" s="318">
+      <c r="Q61" s="325">
         <v>113.9</v>
       </c>
-      <c r="R61" s="333">
+      <c r="R61" s="332">
         <v>106.1</v>
       </c>
-      <c r="S61" s="318">
+      <c r="S61" s="325">
         <v>88.5</v>
       </c>
-      <c r="T61" s="330">
+      <c r="T61" s="322">
         <v>79.599999999999994</v>
       </c>
-      <c r="U61" s="310">
+      <c r="U61" s="338">
         <v>102</v>
       </c>
-      <c r="V61" s="325">
+      <c r="V61" s="346">
         <v>110.9</v>
       </c>
     </row>
@@ -14019,20 +14026,20 @@
       <c r="F62" t="s">
         <v>202</v>
       </c>
-      <c r="I62" s="316"/>
-      <c r="J62" s="319"/>
-      <c r="K62" s="319"/>
-      <c r="L62" s="319"/>
-      <c r="M62" s="319"/>
-      <c r="N62" s="319"/>
-      <c r="O62" s="319"/>
-      <c r="P62" s="319"/>
-      <c r="Q62" s="319"/>
-      <c r="R62" s="334"/>
-      <c r="S62" s="319"/>
-      <c r="T62" s="332"/>
-      <c r="U62" s="311"/>
-      <c r="V62" s="326"/>
+      <c r="I62" s="343"/>
+      <c r="J62" s="326"/>
+      <c r="K62" s="326"/>
+      <c r="L62" s="326"/>
+      <c r="M62" s="326"/>
+      <c r="N62" s="326"/>
+      <c r="O62" s="326"/>
+      <c r="P62" s="326"/>
+      <c r="Q62" s="326"/>
+      <c r="R62" s="333"/>
+      <c r="S62" s="326"/>
+      <c r="T62" s="323"/>
+      <c r="U62" s="339"/>
+      <c r="V62" s="347"/>
     </row>
     <row r="63" spans="1:22">
       <c r="A63" s="52">
@@ -14053,20 +14060,20 @@
       <c r="F63" t="s">
         <v>204</v>
       </c>
-      <c r="I63" s="317"/>
-      <c r="J63" s="320"/>
-      <c r="K63" s="320"/>
-      <c r="L63" s="320"/>
-      <c r="M63" s="320"/>
-      <c r="N63" s="320"/>
-      <c r="O63" s="320"/>
-      <c r="P63" s="320"/>
-      <c r="Q63" s="320"/>
-      <c r="R63" s="335"/>
-      <c r="S63" s="320"/>
-      <c r="T63" s="331"/>
-      <c r="U63" s="312"/>
-      <c r="V63" s="326"/>
+      <c r="I63" s="329"/>
+      <c r="J63" s="327"/>
+      <c r="K63" s="327"/>
+      <c r="L63" s="327"/>
+      <c r="M63" s="327"/>
+      <c r="N63" s="327"/>
+      <c r="O63" s="327"/>
+      <c r="P63" s="327"/>
+      <c r="Q63" s="327"/>
+      <c r="R63" s="334"/>
+      <c r="S63" s="327"/>
+      <c r="T63" s="324"/>
+      <c r="U63" s="340"/>
+      <c r="V63" s="347"/>
     </row>
     <row r="64" spans="1:22" ht="16.5">
       <c r="A64" s="52">
@@ -14087,22 +14094,22 @@
       <c r="F64" t="s">
         <v>154</v>
       </c>
-      <c r="I64" s="307" t="s">
+      <c r="I64" s="335" t="s">
         <v>285</v>
       </c>
-      <c r="J64" s="307"/>
-      <c r="K64" s="307"/>
-      <c r="L64" s="307"/>
-      <c r="M64" s="307"/>
-      <c r="N64" s="307"/>
-      <c r="O64" s="307"/>
-      <c r="P64" s="307"/>
-      <c r="Q64" s="307"/>
-      <c r="R64" s="307"/>
-      <c r="S64" s="307"/>
-      <c r="T64" s="307"/>
-      <c r="U64" s="307"/>
-      <c r="V64" s="308"/>
+      <c r="J64" s="335"/>
+      <c r="K64" s="335"/>
+      <c r="L64" s="335"/>
+      <c r="M64" s="335"/>
+      <c r="N64" s="335"/>
+      <c r="O64" s="335"/>
+      <c r="P64" s="335"/>
+      <c r="Q64" s="335"/>
+      <c r="R64" s="335"/>
+      <c r="S64" s="335"/>
+      <c r="T64" s="335"/>
+      <c r="U64" s="335"/>
+      <c r="V64" s="336"/>
     </row>
     <row r="65" spans="1:22">
       <c r="A65" s="52">
@@ -14123,22 +14130,22 @@
       <c r="F65" t="s">
         <v>154</v>
       </c>
-      <c r="I65" s="309" t="s">
+      <c r="I65" s="337" t="s">
         <v>286</v>
       </c>
-      <c r="J65" s="309"/>
-      <c r="K65" s="309"/>
-      <c r="L65" s="309"/>
-      <c r="M65" s="309"/>
-      <c r="N65" s="309"/>
-      <c r="O65" s="309"/>
-      <c r="P65" s="309"/>
-      <c r="Q65" s="309"/>
-      <c r="R65" s="309"/>
-      <c r="S65" s="309"/>
-      <c r="T65" s="309"/>
-      <c r="U65" s="309"/>
-      <c r="V65" s="308"/>
+      <c r="J65" s="337"/>
+      <c r="K65" s="337"/>
+      <c r="L65" s="337"/>
+      <c r="M65" s="337"/>
+      <c r="N65" s="337"/>
+      <c r="O65" s="337"/>
+      <c r="P65" s="337"/>
+      <c r="Q65" s="337"/>
+      <c r="R65" s="337"/>
+      <c r="S65" s="337"/>
+      <c r="T65" s="337"/>
+      <c r="U65" s="337"/>
+      <c r="V65" s="336"/>
     </row>
     <row r="66" spans="1:22">
       <c r="A66" s="52">
@@ -14220,16 +14227,16 @@
         <v>213</v>
       </c>
       <c r="I69" s="136"/>
-      <c r="J69" s="336" t="s">
+      <c r="J69" s="311" t="s">
         <v>287</v>
       </c>
-      <c r="K69" s="336"/>
-      <c r="L69" s="336"/>
-      <c r="M69" s="336"/>
-      <c r="N69" s="336"/>
-      <c r="O69" s="336"/>
-      <c r="P69" s="336"/>
-      <c r="Q69" s="336"/>
+      <c r="K69" s="311"/>
+      <c r="L69" s="311"/>
+      <c r="M69" s="311"/>
+      <c r="N69" s="311"/>
+      <c r="O69" s="311"/>
+      <c r="P69" s="311"/>
+      <c r="Q69" s="311"/>
       <c r="R69" s="136"/>
     </row>
     <row r="70" spans="1:22">
@@ -14251,18 +14258,18 @@
       <c r="F70" t="s">
         <v>215</v>
       </c>
-      <c r="I70" s="340" t="s">
+      <c r="I70" s="315" t="s">
         <v>288</v>
       </c>
-      <c r="J70" s="340"/>
-      <c r="K70" s="340"/>
-      <c r="L70" s="340"/>
-      <c r="M70" s="340"/>
-      <c r="N70" s="340"/>
-      <c r="O70" s="340"/>
-      <c r="P70" s="340"/>
-      <c r="Q70" s="340"/>
-      <c r="R70" s="340"/>
+      <c r="J70" s="315"/>
+      <c r="K70" s="315"/>
+      <c r="L70" s="315"/>
+      <c r="M70" s="315"/>
+      <c r="N70" s="315"/>
+      <c r="O70" s="315"/>
+      <c r="P70" s="315"/>
+      <c r="Q70" s="315"/>
+      <c r="R70" s="315"/>
     </row>
     <row r="71" spans="1:22">
       <c r="A71" s="52">
@@ -14381,16 +14388,16 @@
       <c r="J73" s="138" t="s">
         <v>294</v>
       </c>
-      <c r="K73" s="337" t="s">
+      <c r="K73" s="312" t="s">
         <v>295</v>
       </c>
-      <c r="L73" s="338"/>
-      <c r="M73" s="338"/>
-      <c r="N73" s="338"/>
-      <c r="O73" s="338"/>
-      <c r="P73" s="338"/>
-      <c r="Q73" s="338"/>
-      <c r="R73" s="339"/>
+      <c r="L73" s="313"/>
+      <c r="M73" s="313"/>
+      <c r="N73" s="313"/>
+      <c r="O73" s="313"/>
+      <c r="P73" s="313"/>
+      <c r="Q73" s="313"/>
+      <c r="R73" s="314"/>
     </row>
     <row r="74" spans="1:22" ht="25.5">
       <c r="A74" s="52">
@@ -15071,64 +15078,64 @@
       </c>
     </row>
     <row r="96" spans="1:18" ht="15.75">
-      <c r="C96" s="351" t="s">
+      <c r="C96" s="301" t="s">
         <v>310</v>
       </c>
-      <c r="D96" s="351"/>
-      <c r="E96" s="351"/>
-      <c r="F96" s="351"/>
-      <c r="G96" s="351"/>
-      <c r="H96" s="351"/>
-      <c r="I96" s="351"/>
-      <c r="J96" s="352"/>
+      <c r="D96" s="301"/>
+      <c r="E96" s="301"/>
+      <c r="F96" s="301"/>
+      <c r="G96" s="301"/>
+      <c r="H96" s="301"/>
+      <c r="I96" s="301"/>
+      <c r="J96" s="302"/>
     </row>
     <row r="97" spans="3:10">
-      <c r="C97" s="343"/>
-      <c r="D97" s="346">
+      <c r="C97" s="317"/>
+      <c r="D97" s="305">
         <v>2017</v>
       </c>
-      <c r="E97" s="347"/>
-      <c r="F97" s="347"/>
-      <c r="G97" s="347"/>
-      <c r="H97" s="347"/>
-      <c r="I97" s="347"/>
-      <c r="J97" s="348"/>
+      <c r="E97" s="320"/>
+      <c r="F97" s="320"/>
+      <c r="G97" s="320"/>
+      <c r="H97" s="320"/>
+      <c r="I97" s="320"/>
+      <c r="J97" s="321"/>
     </row>
     <row r="98" spans="3:10">
-      <c r="C98" s="344"/>
-      <c r="D98" s="353" t="s">
+      <c r="C98" s="318"/>
+      <c r="D98" s="303" t="s">
         <v>311</v>
       </c>
-      <c r="E98" s="346" t="s">
+      <c r="E98" s="305" t="s">
         <v>312</v>
       </c>
-      <c r="F98" s="355"/>
-      <c r="G98" s="353" t="s">
+      <c r="F98" s="306"/>
+      <c r="G98" s="303" t="s">
         <v>313</v>
       </c>
-      <c r="H98" s="357" t="s">
+      <c r="H98" s="308" t="s">
         <v>314</v>
       </c>
-      <c r="I98" s="357" t="s">
+      <c r="I98" s="308" t="s">
         <v>315</v>
       </c>
-      <c r="J98" s="346" t="s">
+      <c r="J98" s="305" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="99" spans="3:10">
-      <c r="C99" s="345"/>
-      <c r="D99" s="354"/>
+      <c r="C99" s="319"/>
+      <c r="D99" s="304"/>
       <c r="E99" s="163" t="s">
         <v>317</v>
       </c>
       <c r="F99" s="162" t="s">
         <v>318</v>
       </c>
-      <c r="G99" s="356"/>
-      <c r="H99" s="358"/>
-      <c r="I99" s="358"/>
-      <c r="J99" s="359"/>
+      <c r="G99" s="307"/>
+      <c r="H99" s="309"/>
+      <c r="I99" s="309"/>
+      <c r="J99" s="310"/>
     </row>
     <row r="100" spans="3:10" ht="51">
       <c r="C100" s="165" t="s">
@@ -15157,16 +15164,16 @@
       </c>
     </row>
     <row r="101" spans="3:10">
-      <c r="C101" s="341" t="s">
+      <c r="C101" s="316" t="s">
         <v>295</v>
       </c>
-      <c r="D101" s="342"/>
-      <c r="E101" s="342"/>
-      <c r="F101" s="342"/>
-      <c r="G101" s="342"/>
-      <c r="H101" s="342"/>
-      <c r="I101" s="342"/>
-      <c r="J101" s="342"/>
+      <c r="D101" s="300"/>
+      <c r="E101" s="300"/>
+      <c r="F101" s="300"/>
+      <c r="G101" s="300"/>
+      <c r="H101" s="300"/>
+      <c r="I101" s="300"/>
+      <c r="J101" s="300"/>
     </row>
     <row r="102" spans="3:10" ht="38.25">
       <c r="C102" s="166" t="s">
@@ -15198,12 +15205,12 @@
       <c r="C103" s="167" t="s">
         <v>321</v>
       </c>
-      <c r="D103" s="341"/>
-      <c r="E103" s="341"/>
-      <c r="F103" s="341"/>
-      <c r="G103" s="341"/>
-      <c r="H103" s="341"/>
-      <c r="I103" s="341"/>
+      <c r="D103" s="316"/>
+      <c r="E103" s="316"/>
+      <c r="F103" s="316"/>
+      <c r="G103" s="316"/>
+      <c r="H103" s="316"/>
+      <c r="I103" s="316"/>
       <c r="J103" s="178"/>
     </row>
     <row r="104" spans="3:10" ht="89.25">
@@ -15945,48 +15952,30 @@
       <c r="J133" s="153"/>
     </row>
     <row r="134" spans="3:10">
-      <c r="C134" s="349" t="s">
+      <c r="C134" s="298" t="s">
         <v>352</v>
       </c>
-      <c r="D134" s="350"/>
-      <c r="E134" s="350"/>
-      <c r="F134" s="350"/>
-      <c r="G134" s="350"/>
-      <c r="H134" s="350"/>
-      <c r="I134" s="350"/>
-      <c r="J134" s="342"/>
+      <c r="D134" s="299"/>
+      <c r="E134" s="299"/>
+      <c r="F134" s="299"/>
+      <c r="G134" s="299"/>
+      <c r="H134" s="299"/>
+      <c r="I134" s="299"/>
+      <c r="J134" s="300"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="C134:J134"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="I98:I99"/>
-    <mergeCell ref="H98:H99"/>
-    <mergeCell ref="J98:J99"/>
-    <mergeCell ref="J69:Q69"/>
-    <mergeCell ref="K73:R73"/>
-    <mergeCell ref="I70:R70"/>
-    <mergeCell ref="C101:J101"/>
-    <mergeCell ref="D103:I103"/>
-    <mergeCell ref="C97:C99"/>
-    <mergeCell ref="D97:J97"/>
-    <mergeCell ref="T61:T63"/>
-    <mergeCell ref="N61:N63"/>
-    <mergeCell ref="O61:O63"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="Q61:Q63"/>
-    <mergeCell ref="R61:R63"/>
-    <mergeCell ref="P61:P63"/>
-    <mergeCell ref="N59:N60"/>
-    <mergeCell ref="M59:M60"/>
-    <mergeCell ref="S61:S63"/>
-    <mergeCell ref="O59:O60"/>
-    <mergeCell ref="P59:P60"/>
+    <mergeCell ref="U31:V31"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="K3:M5"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="I30:T30"/>
     <mergeCell ref="I64:V64"/>
     <mergeCell ref="I65:V65"/>
     <mergeCell ref="U61:U63"/>
@@ -16003,17 +15992,35 @@
     <mergeCell ref="R59:R60"/>
     <mergeCell ref="S59:S60"/>
     <mergeCell ref="T59:T60"/>
-    <mergeCell ref="U31:V31"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="K3:M5"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="I30:T30"/>
+    <mergeCell ref="T61:T63"/>
+    <mergeCell ref="N61:N63"/>
+    <mergeCell ref="O61:O63"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="Q61:Q63"/>
+    <mergeCell ref="R61:R63"/>
+    <mergeCell ref="P61:P63"/>
+    <mergeCell ref="N59:N60"/>
+    <mergeCell ref="M59:M60"/>
+    <mergeCell ref="S61:S63"/>
+    <mergeCell ref="O59:O60"/>
+    <mergeCell ref="P59:P60"/>
+    <mergeCell ref="J69:Q69"/>
+    <mergeCell ref="K73:R73"/>
+    <mergeCell ref="I70:R70"/>
+    <mergeCell ref="C101:J101"/>
+    <mergeCell ref="D103:I103"/>
+    <mergeCell ref="C97:C99"/>
+    <mergeCell ref="D97:J97"/>
+    <mergeCell ref="C134:J134"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="I98:I99"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="J98:J99"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -16024,20 +16031,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V152"/>
+  <dimension ref="A1:AH152"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="P61" sqref="P61"/>
+    <sheetView tabSelected="1" topLeftCell="N7" workbookViewId="0">
+      <selection activeCell="AA9" sqref="AA9:AH9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="27" max="28" width="10" bestFit="1" customWidth="1"/>
+    <col min="30" max="34" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="19.5">
+    <row r="1" spans="1:34" ht="19.5">
       <c r="A1" s="192" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="31.5">
+    <row r="2" spans="1:34" ht="31.5">
       <c r="A2" s="193"/>
       <c r="B2" s="194" t="s">
         <v>379</v>
@@ -16058,7 +16069,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="16.5">
+    <row r="3" spans="1:34" ht="16.5">
       <c r="A3" s="197" t="s">
         <v>380</v>
       </c>
@@ -16079,18 +16090,21 @@
         <v>7.9930000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:34">
       <c r="A4" s="194"/>
       <c r="B4" s="198"/>
-      <c r="C4" s="360" t="s">
+      <c r="C4" s="384" t="s">
         <v>381</v>
       </c>
-      <c r="D4" s="361"/>
-      <c r="E4" s="361"/>
-      <c r="F4" s="361"/>
-      <c r="G4" s="362"/>
-    </row>
-    <row r="5" spans="1:22" ht="42">
+      <c r="D4" s="385"/>
+      <c r="E4" s="385"/>
+      <c r="F4" s="385"/>
+      <c r="G4" s="386"/>
+      <c r="Z4" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" ht="42">
       <c r="A5" s="200" t="s">
         <v>363</v>
       </c>
@@ -16112,20 +16126,23 @@
       <c r="G5" s="202">
         <v>121972.22569748529</v>
       </c>
-      <c r="M5" s="367" t="s">
+      <c r="M5" s="388" t="s">
         <v>425</v>
       </c>
-      <c r="N5" s="367"/>
-      <c r="O5" s="367"/>
-      <c r="P5" s="367"/>
-      <c r="Q5" s="367"/>
-      <c r="R5" s="367"/>
-      <c r="S5" s="367"/>
-      <c r="T5" s="367"/>
-      <c r="U5" s="367"/>
-      <c r="V5" s="367"/>
-    </row>
-    <row r="6" spans="1:22" ht="115.5">
+      <c r="N5" s="388"/>
+      <c r="O5" s="388"/>
+      <c r="P5" s="388"/>
+      <c r="Q5" s="388"/>
+      <c r="R5" s="388"/>
+      <c r="S5" s="388"/>
+      <c r="T5" s="388"/>
+      <c r="U5" s="388"/>
+      <c r="V5" s="388"/>
+      <c r="Z5" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" ht="115.5">
       <c r="A6" s="200" t="s">
         <v>383</v>
       </c>
@@ -16148,17 +16165,40 @@
         <v>49949.831102214433</v>
       </c>
       <c r="M6" s="207"/>
-      <c r="N6" s="206"/>
-      <c r="O6" s="206"/>
-      <c r="P6" s="206"/>
-      <c r="Q6" s="206"/>
       <c r="R6" s="206"/>
       <c r="S6" s="206"/>
       <c r="T6" s="206"/>
       <c r="U6" s="206"/>
       <c r="V6" s="206"/>
-    </row>
-    <row r="7" spans="1:22" ht="94.5">
+      <c r="Z6" s="199" t="s">
+        <v>380</v>
+      </c>
+      <c r="AA6" s="199">
+        <v>7.9356</v>
+      </c>
+      <c r="AB6" s="199">
+        <v>7.9676</v>
+      </c>
+      <c r="AC6" s="199">
+        <v>7.9909999999999997</v>
+      </c>
+      <c r="AD6" s="423">
+        <v>7.9930000000000003</v>
+      </c>
+      <c r="AE6" s="423">
+        <v>11.886699999999999</v>
+      </c>
+      <c r="AF6" s="423">
+        <v>21.8447</v>
+      </c>
+      <c r="AG6" s="423">
+        <v>25.551300000000001</v>
+      </c>
+      <c r="AH6" s="423">
+        <v>26.596599999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" ht="94.5">
       <c r="A7" s="200" t="s">
         <v>385</v>
       </c>
@@ -16208,8 +16248,36 @@
       <c r="V7" s="210">
         <v>2017</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" ht="126">
+      <c r="Y7" s="208"/>
+      <c r="Z7" s="209" t="s">
+        <v>379</v>
+      </c>
+      <c r="AA7" s="209">
+        <v>2010</v>
+      </c>
+      <c r="AB7" s="209">
+        <v>2011</v>
+      </c>
+      <c r="AC7" s="209">
+        <v>2012</v>
+      </c>
+      <c r="AD7" s="209">
+        <v>2013</v>
+      </c>
+      <c r="AE7" s="209">
+        <v>2014</v>
+      </c>
+      <c r="AF7" s="209">
+        <v>2015</v>
+      </c>
+      <c r="AG7" s="210">
+        <v>2016</v>
+      </c>
+      <c r="AH7" s="210">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" ht="126">
       <c r="A8" s="200" t="s">
         <v>387</v>
       </c>
@@ -16233,18 +16301,30 @@
       </c>
       <c r="M8" s="208"/>
       <c r="N8" s="208"/>
-      <c r="O8" s="363" t="s">
+      <c r="O8" s="389" t="s">
         <v>426</v>
       </c>
-      <c r="P8" s="364"/>
-      <c r="Q8" s="364"/>
-      <c r="R8" s="364"/>
-      <c r="S8" s="364"/>
-      <c r="T8" s="364"/>
-      <c r="U8" s="364"/>
-      <c r="V8" s="365"/>
-    </row>
-    <row r="9" spans="1:22" ht="52.5">
+      <c r="P8" s="390"/>
+      <c r="Q8" s="390"/>
+      <c r="R8" s="390"/>
+      <c r="S8" s="390"/>
+      <c r="T8" s="390"/>
+      <c r="U8" s="390"/>
+      <c r="V8" s="391"/>
+      <c r="Y8" s="208"/>
+      <c r="Z8" s="208"/>
+      <c r="AA8" s="389" t="s">
+        <v>629</v>
+      </c>
+      <c r="AB8" s="390"/>
+      <c r="AC8" s="390"/>
+      <c r="AD8" s="390"/>
+      <c r="AE8" s="390"/>
+      <c r="AF8" s="390"/>
+      <c r="AG8" s="390"/>
+      <c r="AH8" s="391"/>
+    </row>
+    <row r="9" spans="1:34" ht="52.5">
       <c r="A9" s="200" t="s">
         <v>366</v>
       </c>
@@ -16294,8 +16374,44 @@
       <c r="V9" s="216">
         <v>6719718</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" ht="78.75">
+      <c r="Y9" s="208" t="s">
+        <v>427</v>
+      </c>
+      <c r="Z9" s="211"/>
+      <c r="AA9" s="425">
+        <f>O9/$AA$6</f>
+        <v>315973.46136398002</v>
+      </c>
+      <c r="AB9" s="425">
+        <f>P9/$AB$6</f>
+        <v>382203.047341734</v>
+      </c>
+      <c r="AC9" s="425">
+        <f>Q9/$AC$6</f>
+        <v>404727.06795144541</v>
+      </c>
+      <c r="AD9" s="425">
+        <f>R9/$AD$6</f>
+        <v>407926.06030276488</v>
+      </c>
+      <c r="AE9" s="425">
+        <f>S9/$AE$6</f>
+        <v>299344.89807936602</v>
+      </c>
+      <c r="AF9" s="425">
+        <f>T9/$AF$6</f>
+        <v>205468.51181293404</v>
+      </c>
+      <c r="AG9" s="425">
+        <f>U9/$AG$6</f>
+        <v>212139.22579281678</v>
+      </c>
+      <c r="AH9" s="425">
+        <f>V9/$AH$6</f>
+        <v>252653.27147078951</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" ht="78.75">
       <c r="A10" s="200" t="s">
         <v>390</v>
       </c>
@@ -16347,8 +16463,46 @@
       <c r="V10" s="217">
         <v>727352</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" ht="94.5">
+      <c r="Y10" s="212" t="s">
+        <v>385</v>
+      </c>
+      <c r="Z10" s="211" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA10" s="424">
+        <f>O10/$AA$6</f>
+        <v>23863.728010484399</v>
+      </c>
+      <c r="AB10" s="424">
+        <f t="shared" ref="AB10:AB31" si="0">P10/$AB$6</f>
+        <v>31814.473618153523</v>
+      </c>
+      <c r="AC10" s="424">
+        <f t="shared" ref="AC10:AC31" si="1">Q10/$AC$6</f>
+        <v>32750.218996370917</v>
+      </c>
+      <c r="AD10" s="424">
+        <f t="shared" ref="AD10:AD31" si="2">R10/$AD$6</f>
+        <v>38408.357312648564</v>
+      </c>
+      <c r="AE10" s="424">
+        <f t="shared" ref="AE10:AE31" si="3">S10/$AE$6</f>
+        <v>32071.72722454508</v>
+      </c>
+      <c r="AF10" s="424">
+        <f t="shared" ref="AF10:AF31" si="4">T10/$AF$6</f>
+        <v>25580.026276396562</v>
+      </c>
+      <c r="AG10" s="424">
+        <f t="shared" ref="AG10:AG31" si="5">U10/$AG$6</f>
+        <v>25656.972443672141</v>
+      </c>
+      <c r="AH10" s="424">
+        <f t="shared" ref="AH10:AH31" si="6">V10/$AH$6</f>
+        <v>27347.555702608606</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" ht="94.5">
       <c r="A11" s="200" t="s">
         <v>392</v>
       </c>
@@ -16400,8 +16554,46 @@
       <c r="V11" s="217">
         <v>344157</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" ht="42">
+      <c r="Y11" s="212" t="s">
+        <v>390</v>
+      </c>
+      <c r="Z11" s="211" t="s">
+        <v>391</v>
+      </c>
+      <c r="AA11" s="424">
+        <f t="shared" ref="AA11:AA55" si="7">O11/$AA$6</f>
+        <v>14960.431473360553</v>
+      </c>
+      <c r="AB11" s="424">
+        <f t="shared" si="0"/>
+        <v>19579.421657713741</v>
+      </c>
+      <c r="AC11" s="424">
+        <f t="shared" si="1"/>
+        <v>18957.076711300215</v>
+      </c>
+      <c r="AD11" s="424">
+        <f t="shared" si="2"/>
+        <v>19261.478793944701</v>
+      </c>
+      <c r="AE11" s="424">
+        <f t="shared" si="3"/>
+        <v>13140.064105260502</v>
+      </c>
+      <c r="AF11" s="424">
+        <f t="shared" si="4"/>
+        <v>8523.5320237860906</v>
+      </c>
+      <c r="AG11" s="424">
+        <f t="shared" si="5"/>
+        <v>9931.7842927757101</v>
+      </c>
+      <c r="AH11" s="424">
+        <f t="shared" si="6"/>
+        <v>12939.887053232369</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" ht="42">
       <c r="A12" s="200" t="s">
         <v>394</v>
       </c>
@@ -16453,8 +16645,46 @@
       <c r="V12" s="217">
         <v>1805097</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" ht="78.75">
+      <c r="Y12" s="212" t="s">
+        <v>428</v>
+      </c>
+      <c r="Z12" s="211" t="s">
+        <v>429</v>
+      </c>
+      <c r="AA12" s="424">
+        <f t="shared" si="7"/>
+        <v>99843.36408085085</v>
+      </c>
+      <c r="AB12" s="424">
+        <f t="shared" si="0"/>
+        <v>119076.88638987902</v>
+      </c>
+      <c r="AC12" s="424">
+        <f t="shared" si="1"/>
+        <v>119224.87798773621</v>
+      </c>
+      <c r="AD12" s="424">
+        <f t="shared" si="2"/>
+        <v>110524.95933942198</v>
+      </c>
+      <c r="AE12" s="424">
+        <f t="shared" si="3"/>
+        <v>82081.233647690286</v>
+      </c>
+      <c r="AF12" s="424">
+        <f t="shared" si="4"/>
+        <v>55210.050950573823</v>
+      </c>
+      <c r="AG12" s="424">
+        <f t="shared" si="5"/>
+        <v>57092.437566777422</v>
+      </c>
+      <c r="AH12" s="424">
+        <f t="shared" si="6"/>
+        <v>67869.464518021108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" ht="78.75">
       <c r="A13" s="200" t="s">
         <v>368</v>
       </c>
@@ -16506,8 +16736,46 @@
       <c r="V13" s="217">
         <v>283985</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" ht="56.25">
+      <c r="Y13" s="212" t="s">
+        <v>392</v>
+      </c>
+      <c r="Z13" s="211" t="s">
+        <v>393</v>
+      </c>
+      <c r="AA13" s="424">
+        <f t="shared" si="7"/>
+        <v>11791.294924139322</v>
+      </c>
+      <c r="AB13" s="424">
+        <f t="shared" si="0"/>
+        <v>15485.591646166977</v>
+      </c>
+      <c r="AC13" s="424">
+        <f t="shared" si="1"/>
+        <v>17266.424727818798</v>
+      </c>
+      <c r="AD13" s="424">
+        <f t="shared" si="2"/>
+        <v>16829.225572375828</v>
+      </c>
+      <c r="AE13" s="424">
+        <f t="shared" si="3"/>
+        <v>12485.214567541876</v>
+      </c>
+      <c r="AF13" s="424">
+        <f t="shared" si="4"/>
+        <v>8092.0314767426426</v>
+      </c>
+      <c r="AG13" s="424">
+        <f t="shared" si="5"/>
+        <v>9480.3786891469317</v>
+      </c>
+      <c r="AH13" s="424">
+        <f t="shared" si="6"/>
+        <v>10677.492611837604</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" ht="56.25">
       <c r="A14" s="200" t="s">
         <v>397</v>
       </c>
@@ -16559,8 +16827,46 @@
       <c r="V14" s="217">
         <v>37104</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" ht="42">
+      <c r="Y14" s="212" t="s">
+        <v>411</v>
+      </c>
+      <c r="Z14" s="211" t="s">
+        <v>430</v>
+      </c>
+      <c r="AA14" s="424">
+        <f t="shared" si="7"/>
+        <v>3031.9068501436564</v>
+      </c>
+      <c r="AB14" s="424">
+        <f t="shared" si="0"/>
+        <v>3116.4968120889603</v>
+      </c>
+      <c r="AC14" s="424">
+        <f t="shared" si="1"/>
+        <v>2860.5931673132277</v>
+      </c>
+      <c r="AD14" s="424">
+        <f t="shared" si="2"/>
+        <v>2669.0854497685473</v>
+      </c>
+      <c r="AE14" s="424">
+        <f t="shared" si="3"/>
+        <v>1974.0550363010761</v>
+      </c>
+      <c r="AF14" s="424">
+        <f t="shared" si="4"/>
+        <v>1235.1737492389459</v>
+      </c>
+      <c r="AG14" s="424">
+        <f t="shared" si="5"/>
+        <v>1200.7216853936982</v>
+      </c>
+      <c r="AH14" s="424">
+        <f t="shared" si="6"/>
+        <v>1395.0655346924043</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" ht="42">
       <c r="A15" s="200" t="s">
         <v>399</v>
       </c>
@@ -16612,8 +16918,46 @@
       <c r="V15" s="217">
         <v>326496</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" ht="115.5">
+      <c r="Y15" s="212" t="s">
+        <v>366</v>
+      </c>
+      <c r="Z15" s="211" t="s">
+        <v>431</v>
+      </c>
+      <c r="AA15" s="424">
+        <f t="shared" si="7"/>
+        <v>16678.133978527145</v>
+      </c>
+      <c r="AB15" s="424">
+        <f t="shared" si="0"/>
+        <v>20003.263216024901</v>
+      </c>
+      <c r="AC15" s="424">
+        <f t="shared" si="1"/>
+        <v>22303.216118132899</v>
+      </c>
+      <c r="AD15" s="424">
+        <f t="shared" si="2"/>
+        <v>20917.803077692981</v>
+      </c>
+      <c r="AE15" s="424">
+        <f t="shared" si="3"/>
+        <v>13675.031758183517</v>
+      </c>
+      <c r="AF15" s="424">
+        <f t="shared" si="4"/>
+        <v>8633.4442679460008</v>
+      </c>
+      <c r="AG15" s="424">
+        <f t="shared" si="5"/>
+        <v>9405.6662479012812</v>
+      </c>
+      <c r="AH15" s="424">
+        <f t="shared" si="6"/>
+        <v>12275.854808509359</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" ht="115.5">
       <c r="A16" s="200" t="s">
         <v>401</v>
       </c>
@@ -16665,8 +17009,46 @@
       <c r="V16" s="217">
         <v>832350</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" ht="78.75">
+      <c r="Y16" s="212" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z16" s="211" t="s">
+        <v>432</v>
+      </c>
+      <c r="AA16" s="424">
+        <f t="shared" si="7"/>
+        <v>35733.403901406324</v>
+      </c>
+      <c r="AB16" s="424">
+        <f t="shared" si="0"/>
+        <v>43608.991415231685</v>
+      </c>
+      <c r="AC16" s="424">
+        <f t="shared" si="1"/>
+        <v>47847.828807408339</v>
+      </c>
+      <c r="AD16" s="424">
+        <f t="shared" si="2"/>
+        <v>48935.818841486296</v>
+      </c>
+      <c r="AE16" s="424">
+        <f t="shared" si="3"/>
+        <v>37264.758090975629</v>
+      </c>
+      <c r="AF16" s="424">
+        <f t="shared" si="4"/>
+        <v>25139.415968175348</v>
+      </c>
+      <c r="AG16" s="424">
+        <f t="shared" si="5"/>
+        <v>25250.026417442554</v>
+      </c>
+      <c r="AH16" s="424">
+        <f t="shared" si="6"/>
+        <v>31295.353541430108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" ht="78.75">
       <c r="A17" s="200" t="s">
         <v>403</v>
       </c>
@@ -16718,8 +17100,46 @@
       <c r="V17" s="217">
         <v>420484</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" ht="73.5">
+      <c r="Y17" s="212" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z17" s="211" t="s">
+        <v>433</v>
+      </c>
+      <c r="AA17" s="424">
+        <f t="shared" si="7"/>
+        <v>20386.486214022883</v>
+      </c>
+      <c r="AB17" s="424">
+        <f t="shared" si="0"/>
+        <v>25848.687183091519</v>
+      </c>
+      <c r="AC17" s="424">
+        <f t="shared" si="1"/>
+        <v>26565.636340883495</v>
+      </c>
+      <c r="AD17" s="424">
+        <f t="shared" si="2"/>
+        <v>27510.446640810707</v>
+      </c>
+      <c r="AE17" s="424">
+        <f t="shared" si="3"/>
+        <v>18279.842176550264</v>
+      </c>
+      <c r="AF17" s="424">
+        <f t="shared" si="4"/>
+        <v>13533.442894615169</v>
+      </c>
+      <c r="AG17" s="424">
+        <f t="shared" si="5"/>
+        <v>13382.411071060964</v>
+      </c>
+      <c r="AH17" s="424">
+        <f t="shared" si="6"/>
+        <v>15809.689960370875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" ht="73.5">
       <c r="A18" s="200" t="s">
         <v>405</v>
       </c>
@@ -16771,8 +17191,46 @@
       <c r="V18" s="217">
         <v>37737</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" ht="94.5">
+      <c r="Y18" s="212" t="s">
+        <v>409</v>
+      </c>
+      <c r="Z18" s="211" t="s">
+        <v>434</v>
+      </c>
+      <c r="AA18" s="424">
+        <f t="shared" si="7"/>
+        <v>2508.9470235394929</v>
+      </c>
+      <c r="AB18" s="424">
+        <f t="shared" si="0"/>
+        <v>2790.5517345248254</v>
+      </c>
+      <c r="AC18" s="424">
+        <f t="shared" si="1"/>
+        <v>2756.1006131898389</v>
+      </c>
+      <c r="AD18" s="424">
+        <f t="shared" si="2"/>
+        <v>2742.0242712373324</v>
+      </c>
+      <c r="AE18" s="424">
+        <f t="shared" si="3"/>
+        <v>1803.5283131567214</v>
+      </c>
+      <c r="AF18" s="424">
+        <f t="shared" si="4"/>
+        <v>1165.4085430333216</v>
+      </c>
+      <c r="AG18" s="424">
+        <f t="shared" si="5"/>
+        <v>1277.3127003322727</v>
+      </c>
+      <c r="AH18" s="424">
+        <f t="shared" si="6"/>
+        <v>1418.865569283292</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" ht="94.5">
       <c r="A19" s="200" t="s">
         <v>407</v>
       </c>
@@ -16824,8 +17282,46 @@
       <c r="V19" s="217">
         <v>225659</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" ht="84">
+      <c r="Y19" s="212" t="s">
+        <v>399</v>
+      </c>
+      <c r="Z19" s="211" t="s">
+        <v>400</v>
+      </c>
+      <c r="AA19" s="424">
+        <f t="shared" si="7"/>
+        <v>8606.7846161600883</v>
+      </c>
+      <c r="AB19" s="424">
+        <f t="shared" si="0"/>
+        <v>9931.8489884030314</v>
+      </c>
+      <c r="AC19" s="424">
+        <f t="shared" si="1"/>
+        <v>11086.847703666626</v>
+      </c>
+      <c r="AD19" s="424">
+        <f t="shared" si="2"/>
+        <v>12198.048292255724</v>
+      </c>
+      <c r="AE19" s="424">
+        <f t="shared" si="3"/>
+        <v>8843.1608436319584</v>
+      </c>
+      <c r="AF19" s="424">
+        <f t="shared" si="4"/>
+        <v>6510.6410250541321</v>
+      </c>
+      <c r="AG19" s="424">
+        <f t="shared" si="5"/>
+        <v>7157.6005917507127</v>
+      </c>
+      <c r="AH19" s="424">
+        <f t="shared" si="6"/>
+        <v>8484.505538301888</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" ht="84">
       <c r="A20" s="200" t="s">
         <v>409</v>
       </c>
@@ -16877,8 +17373,46 @@
       <c r="V20" s="217">
         <v>121142</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" ht="84">
+      <c r="Y20" s="212" t="s">
+        <v>397</v>
+      </c>
+      <c r="Z20" s="211" t="s">
+        <v>398</v>
+      </c>
+      <c r="AA20" s="424">
+        <f t="shared" si="7"/>
+        <v>12461.313574272897</v>
+      </c>
+      <c r="AB20" s="424">
+        <f t="shared" si="0"/>
+        <v>11943.998192680356</v>
+      </c>
+      <c r="AC20" s="424">
+        <f t="shared" si="1"/>
+        <v>12269.302965836567</v>
+      </c>
+      <c r="AD20" s="424">
+        <f t="shared" si="2"/>
+        <v>13037.15751282372</v>
+      </c>
+      <c r="AE20" s="424">
+        <f t="shared" si="3"/>
+        <v>9828.2954899173037</v>
+      </c>
+      <c r="AF20" s="424">
+        <f t="shared" si="4"/>
+        <v>4933.1874550806378</v>
+      </c>
+      <c r="AG20" s="424">
+        <f t="shared" si="5"/>
+        <v>4211.7230825828819</v>
+      </c>
+      <c r="AH20" s="424">
+        <f t="shared" si="6"/>
+        <v>4554.7927178661939</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" ht="84">
       <c r="A21" s="200" t="s">
         <v>411</v>
       </c>
@@ -16930,8 +17464,46 @@
       <c r="V21" s="217">
         <v>238141</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" ht="45">
+      <c r="Y21" s="212" t="s">
+        <v>394</v>
+      </c>
+      <c r="Z21" s="211" t="s">
+        <v>435</v>
+      </c>
+      <c r="AA21" s="424">
+        <f t="shared" si="7"/>
+        <v>11351.630626543676</v>
+      </c>
+      <c r="AB21" s="424">
+        <f t="shared" si="0"/>
+        <v>13664.968120889604</v>
+      </c>
+      <c r="AC21" s="424">
+        <f t="shared" si="1"/>
+        <v>15178.701038668503</v>
+      </c>
+      <c r="AD21" s="424">
+        <f t="shared" si="2"/>
+        <v>16925.184536469409</v>
+      </c>
+      <c r="AE21" s="424">
+        <f t="shared" si="3"/>
+        <v>11765.081982383674</v>
+      </c>
+      <c r="AF21" s="424">
+        <f t="shared" si="4"/>
+        <v>8060.444867633797</v>
+      </c>
+      <c r="AG21" s="424">
+        <f t="shared" si="5"/>
+        <v>8146.1217237479104</v>
+      </c>
+      <c r="AH21" s="424">
+        <f t="shared" si="6"/>
+        <v>8953.8136453531661</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" ht="45">
       <c r="A22" s="200" t="s">
         <v>413</v>
       </c>
@@ -16983,8 +17555,46 @@
       <c r="V22" s="217">
         <v>171630</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" ht="90">
+      <c r="Y22" s="212" t="s">
+        <v>403</v>
+      </c>
+      <c r="Z22" s="211" t="s">
+        <v>436</v>
+      </c>
+      <c r="AA22" s="424">
+        <f t="shared" si="7"/>
+        <v>6797.9736881899289</v>
+      </c>
+      <c r="AB22" s="424">
+        <f t="shared" si="0"/>
+        <v>7743.9881520156632</v>
+      </c>
+      <c r="AC22" s="424">
+        <f t="shared" si="1"/>
+        <v>10762.107370792142</v>
+      </c>
+      <c r="AD22" s="424">
+        <f t="shared" si="2"/>
+        <v>11949.205554860502</v>
+      </c>
+      <c r="AE22" s="424">
+        <f t="shared" si="3"/>
+        <v>7759.0920945258149</v>
+      </c>
+      <c r="AF22" s="424">
+        <f t="shared" si="4"/>
+        <v>4903.8897306898243</v>
+      </c>
+      <c r="AG22" s="424">
+        <f t="shared" si="5"/>
+        <v>5289.0068215707224</v>
+      </c>
+      <c r="AH22" s="424">
+        <f t="shared" si="6"/>
+        <v>6453.0804689321194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" ht="90">
       <c r="A23" s="200" t="s">
         <v>415</v>
       </c>
@@ -17036,8 +17646,46 @@
       <c r="V23" s="217">
         <v>70820</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" ht="78.75">
+      <c r="Y23" s="212" t="s">
+        <v>407</v>
+      </c>
+      <c r="Z23" s="211" t="s">
+        <v>437</v>
+      </c>
+      <c r="AA23" s="424">
+        <f t="shared" si="7"/>
+        <v>3075.1297948485308</v>
+      </c>
+      <c r="AB23" s="424">
+        <f t="shared" si="0"/>
+        <v>3792.484562478036</v>
+      </c>
+      <c r="AC23" s="424">
+        <f t="shared" si="1"/>
+        <v>4138.6559879864853</v>
+      </c>
+      <c r="AD23" s="424">
+        <f t="shared" si="2"/>
+        <v>4484.6740898285998</v>
+      </c>
+      <c r="AE23" s="424">
+        <f t="shared" si="3"/>
+        <v>3023.379070726106</v>
+      </c>
+      <c r="AF23" s="424">
+        <f t="shared" si="4"/>
+        <v>1985.3786044212097</v>
+      </c>
+      <c r="AG23" s="424">
+        <f t="shared" si="5"/>
+        <v>2322.3084539729875</v>
+      </c>
+      <c r="AH23" s="424">
+        <f t="shared" si="6"/>
+        <v>2662.7463660768672</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" ht="78.75">
       <c r="A24" s="203" t="s">
         <v>417</v>
       </c>
@@ -17087,8 +17735,46 @@
       <c r="V24" s="217">
         <v>236970</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" ht="31.5">
+      <c r="Y24" s="212" t="s">
+        <v>401</v>
+      </c>
+      <c r="Z24" s="211" t="s">
+        <v>438</v>
+      </c>
+      <c r="AA24" s="424">
+        <f t="shared" si="7"/>
+        <v>8749.6849639598768</v>
+      </c>
+      <c r="AB24" s="424">
+        <f t="shared" si="0"/>
+        <v>8922.385661930819</v>
+      </c>
+      <c r="AC24" s="424">
+        <f t="shared" si="1"/>
+        <v>10349.518207983983</v>
+      </c>
+      <c r="AD24" s="424">
+        <f t="shared" si="2"/>
+        <v>11376.204178656324</v>
+      </c>
+      <c r="AE24" s="424">
+        <f t="shared" si="3"/>
+        <v>9857.0671422682499</v>
+      </c>
+      <c r="AF24" s="424">
+        <f t="shared" si="4"/>
+        <v>6755.7805783553904</v>
+      </c>
+      <c r="AG24" s="424">
+        <f t="shared" si="5"/>
+        <v>7129.1088907413705</v>
+      </c>
+      <c r="AH24" s="424">
+        <f t="shared" si="6"/>
+        <v>8909.7854612995652</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" ht="31.5">
       <c r="A25" s="200" t="s">
         <v>375</v>
       </c>
@@ -17138,8 +17824,46 @@
       <c r="V25" s="217">
         <v>180011</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" ht="56.25">
+      <c r="Y25" s="212" t="s">
+        <v>368</v>
+      </c>
+      <c r="Z25" s="211" t="s">
+        <v>439</v>
+      </c>
+      <c r="AA25" s="424">
+        <f t="shared" si="7"/>
+        <v>10125.132315136852</v>
+      </c>
+      <c r="AB25" s="424">
+        <f t="shared" si="0"/>
+        <v>10949.595863246146</v>
+      </c>
+      <c r="AC25" s="424">
+        <f t="shared" si="1"/>
+        <v>12742.209986234515</v>
+      </c>
+      <c r="AD25" s="424">
+        <f t="shared" si="2"/>
+        <v>13452.77117477793</v>
+      </c>
+      <c r="AE25" s="424">
+        <f t="shared" si="3"/>
+        <v>8943.1886057526481</v>
+      </c>
+      <c r="AF25" s="424">
+        <f t="shared" si="4"/>
+        <v>5490.0273292835336</v>
+      </c>
+      <c r="AG25" s="424">
+        <f t="shared" si="5"/>
+        <v>5195.2346847322833</v>
+      </c>
+      <c r="AH25" s="424">
+        <f t="shared" si="6"/>
+        <v>6768.1959348187365</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" ht="56.25">
       <c r="A26" s="200" t="s">
         <v>376</v>
       </c>
@@ -17189,8 +17913,46 @@
       <c r="V26" s="217">
         <v>131970</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" ht="63">
+      <c r="Y26" s="212" t="s">
+        <v>405</v>
+      </c>
+      <c r="Z26" s="211" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA26" s="424">
+        <f t="shared" si="7"/>
+        <v>7369.0710217248852</v>
+      </c>
+      <c r="AB26" s="424">
+        <f t="shared" si="0"/>
+        <v>8070.5607711230487</v>
+      </c>
+      <c r="AC26" s="424">
+        <f t="shared" si="1"/>
+        <v>9276.8114128394445</v>
+      </c>
+      <c r="AD26" s="424">
+        <f t="shared" si="2"/>
+        <v>9083.3229075441013</v>
+      </c>
+      <c r="AE26" s="424">
+        <f t="shared" si="3"/>
+        <v>6036.5786971993912</v>
+      </c>
+      <c r="AF26" s="424">
+        <f t="shared" si="4"/>
+        <v>4057.5517173502039</v>
+      </c>
+      <c r="AG26" s="424">
+        <f t="shared" si="5"/>
+        <v>3886.4558750435399</v>
+      </c>
+      <c r="AH26" s="424">
+        <f t="shared" si="6"/>
+        <v>4961.9124248964154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" ht="63">
       <c r="A27" s="203" t="s">
         <v>418</v>
       </c>
@@ -17240,8 +18002,46 @@
       <c r="V27" s="217">
         <v>28264</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" ht="33.75">
+      <c r="Y27" s="212" t="s">
+        <v>415</v>
+      </c>
+      <c r="Z27" s="211" t="s">
+        <v>441</v>
+      </c>
+      <c r="AA27" s="424">
+        <f t="shared" si="7"/>
+        <v>1248.5508342154342</v>
+      </c>
+      <c r="AB27" s="424">
+        <f t="shared" si="0"/>
+        <v>1549.2745619760028</v>
+      </c>
+      <c r="AC27" s="424">
+        <f t="shared" si="1"/>
+        <v>2167.3132273808037</v>
+      </c>
+      <c r="AD27" s="424">
+        <f t="shared" si="2"/>
+        <v>2447.5165770048793</v>
+      </c>
+      <c r="AE27" s="424">
+        <f t="shared" si="3"/>
+        <v>1609.782361799322</v>
+      </c>
+      <c r="AF27" s="424">
+        <f t="shared" si="4"/>
+        <v>935.51296195415819</v>
+      </c>
+      <c r="AG27" s="424">
+        <f t="shared" si="5"/>
+        <v>906.21612207598048</v>
+      </c>
+      <c r="AH27" s="424">
+        <f t="shared" si="6"/>
+        <v>1062.6922238180821</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" ht="33.75">
       <c r="M28" s="212" t="s">
         <v>413</v>
       </c>
@@ -17272,8 +18072,46 @@
       <c r="V28" s="217">
         <v>36028</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" ht="52.5">
+      <c r="Y28" s="212" t="s">
+        <v>413</v>
+      </c>
+      <c r="Z28" s="211" t="s">
+        <v>442</v>
+      </c>
+      <c r="AA28" s="424">
+        <f t="shared" si="7"/>
+        <v>1654.5692827259438</v>
+      </c>
+      <c r="AB28" s="424">
+        <f t="shared" si="0"/>
+        <v>2040.2630654149305</v>
+      </c>
+      <c r="AC28" s="424">
+        <f t="shared" si="1"/>
+        <v>2246.6524840445504</v>
+      </c>
+      <c r="AD28" s="424">
+        <f t="shared" si="2"/>
+        <v>2479.6697109971224</v>
+      </c>
+      <c r="AE28" s="424">
+        <f t="shared" si="3"/>
+        <v>1725.2896093953748</v>
+      </c>
+      <c r="AF28" s="424">
+        <f t="shared" si="4"/>
+        <v>1028.8536807555151</v>
+      </c>
+      <c r="AG28" s="424">
+        <f t="shared" si="5"/>
+        <v>1044.7217949771634</v>
+      </c>
+      <c r="AH28" s="424">
+        <f t="shared" si="6"/>
+        <v>1354.6092357669777</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" ht="52.5">
       <c r="A29" t="s">
         <v>419</v>
       </c>
@@ -17308,8 +18146,44 @@
       <c r="V29" s="218">
         <v>6255397</v>
       </c>
-    </row>
-    <row r="30" spans="1:22" ht="22.5">
+      <c r="Y29" s="208" t="s">
+        <v>443</v>
+      </c>
+      <c r="Z29" s="213"/>
+      <c r="AA29" s="424">
+        <f t="shared" si="7"/>
+        <v>300237.53717425273</v>
+      </c>
+      <c r="AB29" s="424">
+        <f t="shared" si="0"/>
+        <v>359933.73161303281</v>
+      </c>
+      <c r="AC29" s="424">
+        <f t="shared" si="1"/>
+        <v>380750.09385558753</v>
+      </c>
+      <c r="AD29" s="424">
+        <f t="shared" si="2"/>
+        <v>385232.95383460529</v>
+      </c>
+      <c r="AE29" s="424">
+        <f t="shared" si="3"/>
+        <v>282166.37081780477</v>
+      </c>
+      <c r="AF29" s="424">
+        <f t="shared" si="4"/>
+        <v>191773.7941010863</v>
+      </c>
+      <c r="AG29" s="424">
+        <f t="shared" si="5"/>
+        <v>197966.20915569854</v>
+      </c>
+      <c r="AH29" s="424">
+        <f t="shared" si="6"/>
+        <v>235195.36331711573</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" ht="22.5">
       <c r="A30" t="s">
         <v>420</v>
       </c>
@@ -17345,8 +18219,44 @@
       <c r="V30" s="219">
         <v>473084</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" ht="22.5">
+      <c r="Y30" s="212" t="s">
+        <v>375</v>
+      </c>
+      <c r="Z30" s="214"/>
+      <c r="AA30" s="424">
+        <f t="shared" si="7"/>
+        <v>16048.943999193507</v>
+      </c>
+      <c r="AB30" s="424">
+        <f t="shared" si="0"/>
+        <v>22503.137707716251</v>
+      </c>
+      <c r="AC30" s="424">
+        <f t="shared" si="1"/>
+        <v>24458.766111875862</v>
+      </c>
+      <c r="AD30" s="424">
+        <f t="shared" si="2"/>
+        <v>22968.347303890903</v>
+      </c>
+      <c r="AE30" s="424">
+        <f t="shared" si="3"/>
+        <v>17358.560407850793</v>
+      </c>
+      <c r="AF30" s="424">
+        <f t="shared" si="4"/>
+        <v>13840.611223775104</v>
+      </c>
+      <c r="AG30" s="424">
+        <f t="shared" si="5"/>
+        <v>14394.023004700348</v>
+      </c>
+      <c r="AH30" s="424">
+        <f t="shared" si="6"/>
+        <v>17787.386357654737</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" ht="22.5">
       <c r="A31" t="s">
         <v>421</v>
       </c>
@@ -17381,8 +18291,44 @@
       <c r="V31" s="219">
         <v>-8763</v>
       </c>
-    </row>
-    <row r="32" spans="1:22">
+      <c r="Y31" s="212" t="s">
+        <v>444</v>
+      </c>
+      <c r="Z31" s="214"/>
+      <c r="AA31" s="424">
+        <f t="shared" si="7"/>
+        <v>-313.01980946620296</v>
+      </c>
+      <c r="AB31" s="424">
+        <f t="shared" si="0"/>
+        <v>-233.82197901501078</v>
+      </c>
+      <c r="AC31" s="424">
+        <f t="shared" si="1"/>
+        <v>-481.79201601802032</v>
+      </c>
+      <c r="AD31" s="424">
+        <f t="shared" si="2"/>
+        <v>-275.24083573126484</v>
+      </c>
+      <c r="AE31" s="424">
+        <f t="shared" si="3"/>
+        <v>-180.0331462895505</v>
+      </c>
+      <c r="AF31" s="424">
+        <f t="shared" si="4"/>
+        <v>-145.89351192737826</v>
+      </c>
+      <c r="AG31" s="424">
+        <f t="shared" si="5"/>
+        <v>-221.00636758207997</v>
+      </c>
+      <c r="AH31" s="424">
+        <f t="shared" si="6"/>
+        <v>-329.47820398095996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34">
       <c r="A32" t="s">
         <v>422</v>
       </c>
@@ -17392,52 +18338,54 @@
       </c>
       <c r="M32" s="208"/>
       <c r="N32" s="214"/>
-      <c r="O32" s="363"/>
-      <c r="P32" s="364"/>
-      <c r="Q32" s="364"/>
-      <c r="R32" s="364"/>
-      <c r="S32" s="364"/>
-      <c r="T32" s="364"/>
-      <c r="U32" s="364"/>
-      <c r="V32" s="365"/>
-    </row>
-    <row r="33" spans="1:22" ht="31.5">
+      <c r="O32" s="389"/>
+      <c r="P32" s="390"/>
+      <c r="Q32" s="390"/>
+      <c r="R32" s="390"/>
+      <c r="S32" s="390"/>
+      <c r="T32" s="390"/>
+      <c r="U32" s="390"/>
+      <c r="V32" s="391"/>
+      <c r="Y32" s="208"/>
+      <c r="Z32" s="214"/>
+      <c r="AA32" s="389"/>
+      <c r="AB32" s="390"/>
+      <c r="AC32" s="390"/>
+      <c r="AD32" s="390"/>
+      <c r="AE32" s="390"/>
+      <c r="AF32" s="390"/>
+      <c r="AG32" s="390"/>
+      <c r="AH32" s="391"/>
+    </row>
+    <row r="33" spans="1:34">
       <c r="A33" t="s">
         <v>423</v>
       </c>
       <c r="G33" s="204">
         <v>4855.1510196421859</v>
       </c>
-      <c r="M33" s="208" t="s">
-        <v>445</v>
-      </c>
+      <c r="M33" s="208"/>
       <c r="N33" s="214"/>
-      <c r="O33" s="216">
-        <v>1079346</v>
-      </c>
-      <c r="P33" s="216">
-        <v>1299991</v>
-      </c>
-      <c r="Q33" s="216">
-        <v>1404669</v>
-      </c>
-      <c r="R33" s="216">
-        <v>1465198</v>
-      </c>
-      <c r="S33" s="216">
-        <v>1586915</v>
-      </c>
-      <c r="T33" s="216">
-        <v>1988544</v>
-      </c>
-      <c r="U33" s="216">
-        <v>2385367</v>
-      </c>
-      <c r="V33" s="216">
-        <v>2983882</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" ht="78.75">
+      <c r="O33" s="216"/>
+      <c r="P33" s="216"/>
+      <c r="Q33" s="216"/>
+      <c r="R33" s="216"/>
+      <c r="S33" s="216"/>
+      <c r="T33" s="216"/>
+      <c r="U33" s="216"/>
+      <c r="V33" s="216"/>
+      <c r="Y33" s="208"/>
+      <c r="Z33" s="214"/>
+      <c r="AA33" s="216"/>
+      <c r="AB33" s="216"/>
+      <c r="AC33" s="216"/>
+      <c r="AD33" s="216"/>
+      <c r="AE33" s="216"/>
+      <c r="AF33" s="216"/>
+      <c r="AG33" s="216"/>
+      <c r="AH33" s="216"/>
+    </row>
+    <row r="34" spans="1:34">
       <c r="A34" t="s">
         <v>422</v>
       </c>
@@ -17445,38 +18393,28 @@
         <f>G33/G27</f>
         <v>1.1592578217417174E-2</v>
       </c>
-      <c r="M34" s="212" t="s">
-        <v>385</v>
-      </c>
-      <c r="N34" s="215" t="s">
-        <v>386</v>
-      </c>
-      <c r="O34" s="217">
-        <v>80385</v>
-      </c>
-      <c r="P34" s="217">
-        <v>106555</v>
-      </c>
-      <c r="Q34" s="217">
-        <v>109785</v>
-      </c>
-      <c r="R34" s="217">
-        <v>128738</v>
-      </c>
-      <c r="S34" s="217">
-        <v>161145</v>
-      </c>
-      <c r="T34" s="217">
-        <v>239806</v>
-      </c>
-      <c r="U34" s="217">
-        <v>279701</v>
-      </c>
-      <c r="V34" s="217">
-        <v>303949</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" ht="56.25">
+      <c r="M34" s="212"/>
+      <c r="N34" s="215"/>
+      <c r="O34" s="217"/>
+      <c r="P34" s="217"/>
+      <c r="Q34" s="217"/>
+      <c r="R34" s="217"/>
+      <c r="S34" s="217"/>
+      <c r="T34" s="217"/>
+      <c r="U34" s="217"/>
+      <c r="V34" s="217"/>
+      <c r="Y34" s="212"/>
+      <c r="Z34" s="215"/>
+      <c r="AA34" s="216"/>
+      <c r="AB34" s="217"/>
+      <c r="AC34" s="217"/>
+      <c r="AD34" s="217"/>
+      <c r="AE34" s="217"/>
+      <c r="AF34" s="217"/>
+      <c r="AG34" s="217"/>
+      <c r="AH34" s="217"/>
+    </row>
+    <row r="35" spans="1:34">
       <c r="A35" t="s">
         <v>424</v>
       </c>
@@ -17484,38 +18422,28 @@
         <f>'[1]Сжатая версия'!$I$9/G3/1000</f>
         <v>86097.168209683485</v>
       </c>
-      <c r="M35" s="212" t="s">
-        <v>390</v>
-      </c>
-      <c r="N35" s="215" t="s">
-        <v>391</v>
-      </c>
-      <c r="O35" s="217">
-        <v>63436</v>
-      </c>
-      <c r="P35" s="217">
-        <v>84872</v>
-      </c>
-      <c r="Q35" s="217">
-        <v>81660</v>
-      </c>
-      <c r="R35" s="217">
-        <v>81259</v>
-      </c>
-      <c r="S35" s="217">
-        <v>79120</v>
-      </c>
-      <c r="T35" s="217">
-        <v>95141</v>
-      </c>
-      <c r="U35" s="217">
-        <v>131650</v>
-      </c>
-      <c r="V35" s="217">
-        <v>177170</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" ht="33.75">
+      <c r="M35" s="212"/>
+      <c r="N35" s="215"/>
+      <c r="O35" s="217"/>
+      <c r="P35" s="217"/>
+      <c r="Q35" s="217"/>
+      <c r="R35" s="217"/>
+      <c r="S35" s="217"/>
+      <c r="T35" s="217"/>
+      <c r="U35" s="217"/>
+      <c r="V35" s="217"/>
+      <c r="Y35" s="212"/>
+      <c r="Z35" s="215"/>
+      <c r="AA35" s="216"/>
+      <c r="AB35" s="217"/>
+      <c r="AC35" s="217"/>
+      <c r="AD35" s="217"/>
+      <c r="AE35" s="217"/>
+      <c r="AF35" s="217"/>
+      <c r="AG35" s="217"/>
+      <c r="AH35" s="217"/>
+    </row>
+    <row r="36" spans="1:34">
       <c r="A36" t="s">
         <v>422</v>
       </c>
@@ -17523,657 +18451,478 @@
         <f>G35/G27</f>
         <v>0.20557304041233224</v>
       </c>
-      <c r="M36" s="212" t="s">
-        <v>428</v>
-      </c>
-      <c r="N36" s="215" t="s">
-        <v>429</v>
-      </c>
-      <c r="O36" s="217">
-        <v>142700</v>
-      </c>
-      <c r="P36" s="217">
-        <v>154675</v>
-      </c>
-      <c r="Q36" s="217">
-        <v>173912</v>
-      </c>
-      <c r="R36" s="217">
-        <v>165055</v>
-      </c>
-      <c r="S36" s="217">
-        <v>194050</v>
-      </c>
-      <c r="T36" s="217">
-        <v>236692</v>
-      </c>
-      <c r="U36" s="217">
-        <v>291471</v>
-      </c>
-      <c r="V36" s="217">
-        <v>359867</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" ht="78.75">
-      <c r="M37" s="212" t="s">
-        <v>392</v>
-      </c>
-      <c r="N37" s="215" t="s">
-        <v>393</v>
-      </c>
-      <c r="O37" s="217">
-        <v>30295</v>
-      </c>
-      <c r="P37" s="217">
-        <v>39994</v>
-      </c>
-      <c r="Q37" s="217">
-        <v>43491</v>
-      </c>
-      <c r="R37" s="217">
-        <v>42366</v>
-      </c>
-      <c r="S37" s="217">
-        <v>44836</v>
-      </c>
-      <c r="T37" s="217">
-        <v>53385</v>
-      </c>
-      <c r="U37" s="217">
-        <v>73809</v>
-      </c>
-      <c r="V37" s="217">
-        <v>85970</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" ht="56.25">
-      <c r="M38" s="212" t="s">
-        <v>411</v>
-      </c>
-      <c r="N38" s="215" t="s">
-        <v>430</v>
-      </c>
-      <c r="O38" s="217">
-        <v>7736</v>
-      </c>
-      <c r="P38" s="217">
-        <v>7302</v>
-      </c>
-      <c r="Q38" s="217">
-        <v>6625</v>
-      </c>
-      <c r="R38" s="217">
-        <v>6573</v>
-      </c>
-      <c r="S38" s="217">
-        <v>7236</v>
-      </c>
-      <c r="T38" s="217">
-        <v>7924</v>
-      </c>
-      <c r="U38" s="217">
-        <v>8502</v>
-      </c>
-      <c r="V38" s="217">
-        <v>9880</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" ht="22.5">
-      <c r="M39" s="212" t="s">
-        <v>366</v>
-      </c>
-      <c r="N39" s="215" t="s">
-        <v>431</v>
-      </c>
-      <c r="O39" s="217">
-        <v>35366</v>
-      </c>
-      <c r="P39" s="217">
-        <v>39575</v>
-      </c>
-      <c r="Q39" s="217">
-        <v>39049</v>
-      </c>
-      <c r="R39" s="217">
-        <v>36902</v>
-      </c>
-      <c r="S39" s="217">
-        <v>36876</v>
-      </c>
-      <c r="T39" s="217">
-        <v>38928</v>
-      </c>
-      <c r="U39" s="217">
-        <v>47457</v>
-      </c>
-      <c r="V39" s="217">
-        <v>64431</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" ht="90">
-      <c r="M40" s="212" t="s">
-        <v>383</v>
-      </c>
-      <c r="N40" s="215" t="s">
-        <v>432</v>
-      </c>
-      <c r="O40" s="217">
-        <v>154994</v>
-      </c>
-      <c r="P40" s="217">
-        <v>193357</v>
-      </c>
-      <c r="Q40" s="217">
-        <v>200763</v>
-      </c>
-      <c r="R40" s="217">
-        <v>212090</v>
-      </c>
-      <c r="S40" s="217">
-        <v>233702</v>
-      </c>
-      <c r="T40" s="217">
-        <v>273989</v>
-      </c>
-      <c r="U40" s="217">
-        <v>318075</v>
-      </c>
-      <c r="V40" s="217">
-        <v>409994</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" ht="78.75">
-      <c r="M41" s="212" t="s">
-        <v>387</v>
-      </c>
-      <c r="N41" s="215" t="s">
-        <v>433</v>
-      </c>
-      <c r="O41" s="217">
-        <v>83027</v>
-      </c>
-      <c r="P41" s="217">
-        <v>103179</v>
-      </c>
-      <c r="Q41" s="217">
-        <v>98859</v>
-      </c>
-      <c r="R41" s="217">
-        <v>104483</v>
-      </c>
-      <c r="S41" s="217">
-        <v>100889</v>
-      </c>
-      <c r="T41" s="217">
-        <v>134978</v>
-      </c>
-      <c r="U41" s="217">
-        <v>156745</v>
-      </c>
-      <c r="V41" s="217">
-        <v>191209</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" ht="56.25">
-      <c r="M42" s="212" t="s">
-        <v>409</v>
-      </c>
-      <c r="N42" s="215" t="s">
-        <v>434</v>
-      </c>
-      <c r="O42" s="217">
-        <v>8932</v>
-      </c>
-      <c r="P42" s="217">
-        <v>10256</v>
-      </c>
-      <c r="Q42" s="217">
-        <v>10122</v>
-      </c>
-      <c r="R42" s="217">
-        <v>10150</v>
-      </c>
-      <c r="S42" s="217">
-        <v>9927</v>
-      </c>
-      <c r="T42" s="217">
-        <v>11946</v>
-      </c>
-      <c r="U42" s="217">
-        <v>15551</v>
-      </c>
-      <c r="V42" s="217">
-        <v>18727</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" ht="45">
-      <c r="M43" s="212" t="s">
-        <v>399</v>
-      </c>
-      <c r="N43" s="215" t="s">
-        <v>400</v>
-      </c>
-      <c r="O43" s="217">
-        <v>33011</v>
-      </c>
-      <c r="P43" s="217">
-        <v>38390</v>
-      </c>
-      <c r="Q43" s="217">
-        <v>43379</v>
-      </c>
-      <c r="R43" s="217">
-        <v>48372</v>
-      </c>
-      <c r="S43" s="217">
-        <v>52724</v>
-      </c>
-      <c r="T43" s="217">
-        <v>72596</v>
-      </c>
-      <c r="U43" s="217">
-        <v>89268</v>
-      </c>
-      <c r="V43" s="217">
-        <v>110296</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" ht="33.75">
-      <c r="M44" s="212" t="s">
-        <v>397</v>
-      </c>
-      <c r="N44" s="215" t="s">
-        <v>398</v>
-      </c>
-      <c r="O44" s="217">
-        <v>61263</v>
-      </c>
-      <c r="P44" s="217">
-        <v>58213</v>
-      </c>
-      <c r="Q44" s="217">
-        <v>61055</v>
-      </c>
-      <c r="R44" s="217">
-        <v>66232</v>
-      </c>
-      <c r="S44" s="217">
-        <v>70601</v>
-      </c>
-      <c r="T44" s="217">
-        <v>67512</v>
-      </c>
-      <c r="U44" s="217">
-        <v>65445</v>
-      </c>
-      <c r="V44" s="217">
-        <v>81369</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" ht="33.75">
-      <c r="M45" s="212" t="s">
-        <v>394</v>
-      </c>
-      <c r="N45" s="215" t="s">
-        <v>435</v>
-      </c>
-      <c r="O45" s="217">
-        <v>57699</v>
-      </c>
-      <c r="P45" s="217">
-        <v>69035</v>
-      </c>
-      <c r="Q45" s="217">
-        <v>83502</v>
-      </c>
-      <c r="R45" s="217">
-        <v>95272</v>
-      </c>
-      <c r="S45" s="217">
-        <v>99144</v>
-      </c>
-      <c r="T45" s="217">
-        <v>123021</v>
-      </c>
-      <c r="U45" s="217">
-        <v>145984</v>
-      </c>
-      <c r="V45" s="217">
-        <v>171674</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" ht="45">
-      <c r="M46" s="212" t="s">
-        <v>403</v>
-      </c>
-      <c r="N46" s="215" t="s">
-        <v>436</v>
-      </c>
-      <c r="O46" s="217">
-        <v>27265</v>
-      </c>
-      <c r="P46" s="217">
-        <v>30471</v>
-      </c>
-      <c r="Q46" s="217">
-        <v>41966</v>
-      </c>
-      <c r="R46" s="217">
-        <v>47712</v>
-      </c>
-      <c r="S46" s="217">
-        <v>47139</v>
-      </c>
-      <c r="T46" s="217">
-        <v>55789</v>
-      </c>
-      <c r="U46" s="217">
-        <v>68460</v>
-      </c>
-      <c r="V46" s="217">
-        <v>86537</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" ht="90">
-      <c r="M47" s="212" t="s">
-        <v>407</v>
-      </c>
-      <c r="N47" s="215" t="s">
-        <v>437</v>
-      </c>
-      <c r="O47" s="217">
-        <v>11832</v>
-      </c>
-      <c r="P47" s="217">
-        <v>14300</v>
-      </c>
-      <c r="Q47" s="217">
-        <v>16135</v>
-      </c>
-      <c r="R47" s="217">
-        <v>17715</v>
-      </c>
-      <c r="S47" s="217">
-        <v>18061</v>
-      </c>
-      <c r="T47" s="217">
-        <v>21624</v>
-      </c>
-      <c r="U47" s="217">
-        <v>29584</v>
-      </c>
-      <c r="V47" s="217">
-        <v>35471</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" ht="78.75">
-      <c r="M48" s="212" t="s">
-        <v>401</v>
-      </c>
-      <c r="N48" s="215" t="s">
-        <v>438</v>
-      </c>
-      <c r="O48" s="217">
-        <v>49863</v>
-      </c>
-      <c r="P48" s="217">
-        <v>53464</v>
-      </c>
-      <c r="Q48" s="217">
-        <v>59752</v>
-      </c>
-      <c r="R48" s="217">
-        <v>68225</v>
-      </c>
-      <c r="S48" s="217">
-        <v>78731</v>
-      </c>
-      <c r="T48" s="217">
-        <v>95085</v>
-      </c>
-      <c r="U48" s="217">
-        <v>123065</v>
-      </c>
-      <c r="V48" s="217">
-        <v>163798</v>
-      </c>
-    </row>
-    <row r="49" spans="13:22">
-      <c r="M49" s="212" t="s">
-        <v>368</v>
-      </c>
-      <c r="N49" s="215" t="s">
-        <v>439</v>
-      </c>
-      <c r="O49" s="217">
-        <v>53462</v>
-      </c>
-      <c r="P49" s="217">
-        <v>59377</v>
-      </c>
-      <c r="Q49" s="217">
-        <v>71771</v>
-      </c>
-      <c r="R49" s="217">
-        <v>77986</v>
-      </c>
-      <c r="S49" s="217">
-        <v>76068</v>
-      </c>
-      <c r="T49" s="217">
-        <v>82778</v>
-      </c>
-      <c r="U49" s="217">
-        <v>88996</v>
-      </c>
-      <c r="V49" s="217">
-        <v>133213</v>
-      </c>
-    </row>
-    <row r="50" spans="13:22" ht="56.25">
-      <c r="M50" s="212" t="s">
-        <v>405</v>
-      </c>
-      <c r="N50" s="215" t="s">
-        <v>440</v>
-      </c>
-      <c r="O50" s="217">
-        <v>38555</v>
-      </c>
-      <c r="P50" s="217">
-        <v>41855</v>
-      </c>
-      <c r="Q50" s="217">
-        <v>49234</v>
-      </c>
-      <c r="R50" s="217">
-        <v>48247</v>
-      </c>
-      <c r="S50" s="217">
-        <v>46250</v>
-      </c>
-      <c r="T50" s="217">
-        <v>51480</v>
-      </c>
-      <c r="U50" s="217">
-        <v>58858</v>
-      </c>
-      <c r="V50" s="217">
-        <v>76140</v>
-      </c>
-    </row>
-    <row r="51" spans="13:22" ht="45">
-      <c r="M51" s="212" t="s">
-        <v>415</v>
-      </c>
-      <c r="N51" s="215" t="s">
-        <v>441</v>
-      </c>
-      <c r="O51" s="217">
-        <v>6074</v>
-      </c>
-      <c r="P51" s="217">
-        <v>7161</v>
-      </c>
-      <c r="Q51" s="217">
-        <v>9727</v>
-      </c>
-      <c r="R51" s="217">
-        <v>12704</v>
-      </c>
-      <c r="S51" s="217">
-        <v>12339</v>
-      </c>
-      <c r="T51" s="217">
-        <v>12357</v>
-      </c>
-      <c r="U51" s="217">
-        <v>13554</v>
-      </c>
-      <c r="V51" s="217">
-        <v>17376</v>
-      </c>
-    </row>
-    <row r="52" spans="13:22" ht="33.75">
-      <c r="M52" s="212" t="s">
-        <v>413</v>
-      </c>
-      <c r="N52" s="215" t="s">
-        <v>442</v>
-      </c>
-      <c r="O52" s="217">
-        <v>8577</v>
-      </c>
-      <c r="P52" s="217">
-        <v>10527</v>
-      </c>
-      <c r="Q52" s="217">
-        <v>12282</v>
-      </c>
-      <c r="R52" s="217">
-        <v>13731</v>
-      </c>
-      <c r="S52" s="217">
-        <v>13881</v>
-      </c>
-      <c r="T52" s="217">
-        <v>14356</v>
-      </c>
-      <c r="U52" s="217">
-        <v>17053</v>
-      </c>
-      <c r="V52" s="217">
-        <v>22490</v>
-      </c>
-    </row>
-    <row r="53" spans="13:22" ht="52.5">
-      <c r="M53" s="208" t="s">
-        <v>446</v>
-      </c>
+      <c r="M36" s="212"/>
+      <c r="N36" s="215"/>
+      <c r="O36" s="217"/>
+      <c r="P36" s="217"/>
+      <c r="Q36" s="217"/>
+      <c r="R36" s="217"/>
+      <c r="S36" s="217"/>
+      <c r="T36" s="217"/>
+      <c r="U36" s="217"/>
+      <c r="V36" s="217"/>
+      <c r="Y36" s="212"/>
+      <c r="Z36" s="215"/>
+      <c r="AA36" s="216"/>
+      <c r="AB36" s="217"/>
+      <c r="AC36" s="217"/>
+      <c r="AD36" s="217"/>
+      <c r="AE36" s="217"/>
+      <c r="AF36" s="217"/>
+      <c r="AG36" s="217"/>
+      <c r="AH36" s="217"/>
+    </row>
+    <row r="37" spans="1:34">
+      <c r="M37" s="212"/>
+      <c r="N37" s="215"/>
+      <c r="O37" s="217"/>
+      <c r="P37" s="217"/>
+      <c r="Q37" s="217"/>
+      <c r="R37" s="217"/>
+      <c r="S37" s="217"/>
+      <c r="T37" s="217"/>
+      <c r="U37" s="217"/>
+      <c r="V37" s="217"/>
+      <c r="Y37" s="212"/>
+      <c r="Z37" s="215"/>
+      <c r="AA37" s="216"/>
+      <c r="AB37" s="217"/>
+      <c r="AC37" s="217"/>
+      <c r="AD37" s="217"/>
+      <c r="AE37" s="217"/>
+      <c r="AF37" s="217"/>
+      <c r="AG37" s="217"/>
+      <c r="AH37" s="217"/>
+    </row>
+    <row r="38" spans="1:34">
+      <c r="M38" s="212"/>
+      <c r="N38" s="215"/>
+      <c r="O38" s="217"/>
+      <c r="P38" s="217"/>
+      <c r="Q38" s="217"/>
+      <c r="R38" s="217"/>
+      <c r="S38" s="217"/>
+      <c r="T38" s="217"/>
+      <c r="U38" s="217"/>
+      <c r="V38" s="217"/>
+      <c r="Y38" s="212"/>
+      <c r="Z38" s="215"/>
+      <c r="AA38" s="216"/>
+      <c r="AB38" s="217"/>
+      <c r="AC38" s="217"/>
+      <c r="AD38" s="217"/>
+      <c r="AE38" s="217"/>
+      <c r="AF38" s="217"/>
+      <c r="AG38" s="217"/>
+      <c r="AH38" s="217"/>
+    </row>
+    <row r="39" spans="1:34">
+      <c r="M39" s="212"/>
+      <c r="N39" s="215"/>
+      <c r="O39" s="217"/>
+      <c r="P39" s="217"/>
+      <c r="Q39" s="217"/>
+      <c r="R39" s="217"/>
+      <c r="S39" s="217"/>
+      <c r="T39" s="217"/>
+      <c r="U39" s="217"/>
+      <c r="V39" s="217"/>
+      <c r="Y39" s="212"/>
+      <c r="Z39" s="215"/>
+      <c r="AA39" s="216"/>
+      <c r="AB39" s="217"/>
+      <c r="AC39" s="217"/>
+      <c r="AD39" s="217"/>
+      <c r="AE39" s="217"/>
+      <c r="AF39" s="217"/>
+      <c r="AG39" s="217"/>
+      <c r="AH39" s="217"/>
+    </row>
+    <row r="40" spans="1:34">
+      <c r="M40" s="212"/>
+      <c r="N40" s="215"/>
+      <c r="O40" s="217"/>
+      <c r="P40" s="217"/>
+      <c r="Q40" s="217"/>
+      <c r="R40" s="217"/>
+      <c r="S40" s="217"/>
+      <c r="T40" s="217"/>
+      <c r="U40" s="217"/>
+      <c r="V40" s="217"/>
+      <c r="Y40" s="212"/>
+      <c r="Z40" s="215"/>
+      <c r="AA40" s="216"/>
+      <c r="AB40" s="217"/>
+      <c r="AC40" s="217"/>
+      <c r="AD40" s="217"/>
+      <c r="AE40" s="217"/>
+      <c r="AF40" s="217"/>
+      <c r="AG40" s="217"/>
+      <c r="AH40" s="217"/>
+    </row>
+    <row r="41" spans="1:34">
+      <c r="M41" s="212"/>
+      <c r="N41" s="215"/>
+      <c r="O41" s="217"/>
+      <c r="P41" s="217"/>
+      <c r="Q41" s="217"/>
+      <c r="R41" s="217"/>
+      <c r="S41" s="217"/>
+      <c r="T41" s="217"/>
+      <c r="U41" s="217"/>
+      <c r="V41" s="217"/>
+      <c r="Y41" s="212"/>
+      <c r="Z41" s="215"/>
+      <c r="AA41" s="216"/>
+      <c r="AB41" s="217"/>
+      <c r="AC41" s="217"/>
+      <c r="AD41" s="217"/>
+      <c r="AE41" s="217"/>
+      <c r="AF41" s="217"/>
+      <c r="AG41" s="217"/>
+      <c r="AH41" s="217"/>
+    </row>
+    <row r="42" spans="1:34">
+      <c r="M42" s="212"/>
+      <c r="N42" s="215"/>
+      <c r="O42" s="217"/>
+      <c r="P42" s="217"/>
+      <c r="Q42" s="217"/>
+      <c r="R42" s="217"/>
+      <c r="S42" s="217"/>
+      <c r="T42" s="217"/>
+      <c r="U42" s="217"/>
+      <c r="V42" s="217"/>
+      <c r="Y42" s="212"/>
+      <c r="Z42" s="215"/>
+      <c r="AA42" s="216"/>
+      <c r="AB42" s="217"/>
+      <c r="AC42" s="217"/>
+      <c r="AD42" s="217"/>
+      <c r="AE42" s="217"/>
+      <c r="AF42" s="217"/>
+      <c r="AG42" s="217"/>
+      <c r="AH42" s="217"/>
+    </row>
+    <row r="43" spans="1:34">
+      <c r="M43" s="212"/>
+      <c r="N43" s="215"/>
+      <c r="O43" s="217"/>
+      <c r="P43" s="217"/>
+      <c r="Q43" s="217"/>
+      <c r="R43" s="217"/>
+      <c r="S43" s="217"/>
+      <c r="T43" s="217"/>
+      <c r="U43" s="217"/>
+      <c r="V43" s="217"/>
+      <c r="Y43" s="212"/>
+      <c r="Z43" s="215"/>
+      <c r="AA43" s="216"/>
+      <c r="AB43" s="217"/>
+      <c r="AC43" s="217"/>
+      <c r="AD43" s="217"/>
+      <c r="AE43" s="217"/>
+      <c r="AF43" s="217"/>
+      <c r="AG43" s="217"/>
+      <c r="AH43" s="217"/>
+    </row>
+    <row r="44" spans="1:34">
+      <c r="M44" s="212"/>
+      <c r="N44" s="215"/>
+      <c r="O44" s="217"/>
+      <c r="P44" s="217"/>
+      <c r="Q44" s="217"/>
+      <c r="R44" s="217"/>
+      <c r="S44" s="217"/>
+      <c r="T44" s="217"/>
+      <c r="U44" s="217"/>
+      <c r="V44" s="217"/>
+      <c r="Y44" s="212"/>
+      <c r="Z44" s="215"/>
+      <c r="AA44" s="216"/>
+      <c r="AB44" s="217"/>
+      <c r="AC44" s="217"/>
+      <c r="AD44" s="217"/>
+      <c r="AE44" s="217"/>
+      <c r="AF44" s="217"/>
+      <c r="AG44" s="217"/>
+      <c r="AH44" s="217"/>
+    </row>
+    <row r="45" spans="1:34">
+      <c r="M45" s="212"/>
+      <c r="N45" s="215"/>
+      <c r="O45" s="217"/>
+      <c r="P45" s="217"/>
+      <c r="Q45" s="217"/>
+      <c r="R45" s="217"/>
+      <c r="S45" s="217"/>
+      <c r="T45" s="217"/>
+      <c r="U45" s="217"/>
+      <c r="V45" s="217"/>
+      <c r="Y45" s="212"/>
+      <c r="Z45" s="215"/>
+      <c r="AA45" s="216"/>
+      <c r="AB45" s="217"/>
+      <c r="AC45" s="217"/>
+      <c r="AD45" s="217"/>
+      <c r="AE45" s="217"/>
+      <c r="AF45" s="217"/>
+      <c r="AG45" s="217"/>
+      <c r="AH45" s="217"/>
+    </row>
+    <row r="46" spans="1:34">
+      <c r="M46" s="212"/>
+      <c r="N46" s="215"/>
+      <c r="O46" s="217"/>
+      <c r="P46" s="217"/>
+      <c r="Q46" s="217"/>
+      <c r="R46" s="217"/>
+      <c r="S46" s="217"/>
+      <c r="T46" s="217"/>
+      <c r="U46" s="217"/>
+      <c r="V46" s="217"/>
+      <c r="Y46" s="212"/>
+      <c r="Z46" s="215"/>
+      <c r="AA46" s="216"/>
+      <c r="AB46" s="217"/>
+      <c r="AC46" s="217"/>
+      <c r="AD46" s="217"/>
+      <c r="AE46" s="217"/>
+      <c r="AF46" s="217"/>
+      <c r="AG46" s="217"/>
+      <c r="AH46" s="217"/>
+    </row>
+    <row r="47" spans="1:34">
+      <c r="M47" s="212"/>
+      <c r="N47" s="215"/>
+      <c r="O47" s="217"/>
+      <c r="P47" s="217"/>
+      <c r="Q47" s="217"/>
+      <c r="R47" s="217"/>
+      <c r="S47" s="217"/>
+      <c r="T47" s="217"/>
+      <c r="U47" s="217"/>
+      <c r="V47" s="217"/>
+      <c r="Y47" s="212"/>
+      <c r="Z47" s="215"/>
+      <c r="AA47" s="216"/>
+      <c r="AB47" s="217"/>
+      <c r="AC47" s="217"/>
+      <c r="AD47" s="217"/>
+      <c r="AE47" s="217"/>
+      <c r="AF47" s="217"/>
+      <c r="AG47" s="217"/>
+      <c r="AH47" s="217"/>
+    </row>
+    <row r="48" spans="1:34">
+      <c r="M48" s="212"/>
+      <c r="N48" s="215"/>
+      <c r="O48" s="217"/>
+      <c r="P48" s="217"/>
+      <c r="Q48" s="217"/>
+      <c r="R48" s="217"/>
+      <c r="S48" s="217"/>
+      <c r="T48" s="217"/>
+      <c r="U48" s="217"/>
+      <c r="V48" s="217"/>
+      <c r="Y48" s="212"/>
+      <c r="Z48" s="215"/>
+      <c r="AA48" s="216"/>
+      <c r="AB48" s="217"/>
+      <c r="AC48" s="217"/>
+      <c r="AD48" s="217"/>
+      <c r="AE48" s="217"/>
+      <c r="AF48" s="217"/>
+      <c r="AG48" s="217"/>
+      <c r="AH48" s="217"/>
+    </row>
+    <row r="49" spans="13:34">
+      <c r="M49" s="212"/>
+      <c r="N49" s="215"/>
+      <c r="O49" s="217"/>
+      <c r="P49" s="217"/>
+      <c r="Q49" s="217"/>
+      <c r="R49" s="217"/>
+      <c r="S49" s="217"/>
+      <c r="T49" s="217"/>
+      <c r="U49" s="217"/>
+      <c r="V49" s="217"/>
+      <c r="Y49" s="212"/>
+      <c r="Z49" s="215"/>
+      <c r="AA49" s="216"/>
+      <c r="AB49" s="217"/>
+      <c r="AC49" s="217"/>
+      <c r="AD49" s="217"/>
+      <c r="AE49" s="217"/>
+      <c r="AF49" s="217"/>
+      <c r="AG49" s="217"/>
+      <c r="AH49" s="217"/>
+    </row>
+    <row r="50" spans="13:34">
+      <c r="M50" s="212"/>
+      <c r="N50" s="215"/>
+      <c r="O50" s="217"/>
+      <c r="P50" s="217"/>
+      <c r="Q50" s="217"/>
+      <c r="R50" s="217"/>
+      <c r="S50" s="217"/>
+      <c r="T50" s="217"/>
+      <c r="U50" s="217"/>
+      <c r="V50" s="217"/>
+      <c r="Y50" s="212"/>
+      <c r="Z50" s="215"/>
+      <c r="AA50" s="216"/>
+      <c r="AB50" s="217"/>
+      <c r="AC50" s="217"/>
+      <c r="AD50" s="217"/>
+      <c r="AE50" s="217"/>
+      <c r="AF50" s="217"/>
+      <c r="AG50" s="217"/>
+      <c r="AH50" s="217"/>
+    </row>
+    <row r="51" spans="13:34">
+      <c r="M51" s="212"/>
+      <c r="N51" s="215"/>
+      <c r="O51" s="217"/>
+      <c r="P51" s="217"/>
+      <c r="Q51" s="217"/>
+      <c r="R51" s="217"/>
+      <c r="S51" s="217"/>
+      <c r="T51" s="217"/>
+      <c r="U51" s="217"/>
+      <c r="V51" s="217"/>
+      <c r="Y51" s="212"/>
+      <c r="Z51" s="215"/>
+      <c r="AA51" s="216"/>
+      <c r="AB51" s="217"/>
+      <c r="AC51" s="217"/>
+      <c r="AD51" s="217"/>
+      <c r="AE51" s="217"/>
+      <c r="AF51" s="217"/>
+      <c r="AG51" s="217"/>
+      <c r="AH51" s="217"/>
+    </row>
+    <row r="52" spans="13:34">
+      <c r="M52" s="212"/>
+      <c r="N52" s="215"/>
+      <c r="O52" s="217"/>
+      <c r="P52" s="217"/>
+      <c r="Q52" s="217"/>
+      <c r="R52" s="217"/>
+      <c r="S52" s="217"/>
+      <c r="T52" s="217"/>
+      <c r="U52" s="217"/>
+      <c r="V52" s="217"/>
+      <c r="Y52" s="212"/>
+      <c r="Z52" s="215"/>
+      <c r="AA52" s="216"/>
+      <c r="AB52" s="217"/>
+      <c r="AC52" s="217"/>
+      <c r="AD52" s="217"/>
+      <c r="AE52" s="217"/>
+      <c r="AF52" s="217"/>
+      <c r="AG52" s="217"/>
+      <c r="AH52" s="217"/>
+    </row>
+    <row r="53" spans="13:34">
+      <c r="M53" s="208"/>
       <c r="N53" s="215"/>
-      <c r="O53" s="216">
-        <v>954472</v>
-      </c>
-      <c r="P53" s="216">
-        <v>1122558</v>
-      </c>
-      <c r="Q53" s="216">
-        <v>1213069</v>
-      </c>
-      <c r="R53" s="216">
-        <v>1283812</v>
-      </c>
-      <c r="S53" s="216">
-        <v>1382719</v>
-      </c>
-      <c r="T53" s="216">
-        <v>1689387</v>
-      </c>
-      <c r="U53" s="216">
-        <v>2023228</v>
-      </c>
-      <c r="V53" s="216">
-        <v>2519561</v>
-      </c>
-    </row>
-    <row r="54" spans="13:22" ht="22.5">
-      <c r="M54" s="212" t="s">
-        <v>375</v>
-      </c>
+      <c r="O53" s="216"/>
+      <c r="P53" s="216"/>
+      <c r="Q53" s="216"/>
+      <c r="R53" s="216"/>
+      <c r="S53" s="216"/>
+      <c r="T53" s="216"/>
+      <c r="U53" s="216"/>
+      <c r="V53" s="216"/>
+      <c r="Y53" s="208"/>
+      <c r="Z53" s="215"/>
+      <c r="AA53" s="216"/>
+      <c r="AB53" s="216"/>
+      <c r="AC53" s="216"/>
+      <c r="AD53" s="216"/>
+      <c r="AE53" s="216"/>
+      <c r="AF53" s="216"/>
+      <c r="AG53" s="216"/>
+      <c r="AH53" s="216"/>
+    </row>
+    <row r="54" spans="13:34">
+      <c r="M54" s="212"/>
       <c r="N54" s="212"/>
-      <c r="O54" s="217">
-        <v>127358</v>
-      </c>
-      <c r="P54" s="217">
-        <v>179296</v>
-      </c>
-      <c r="Q54" s="217">
-        <v>195450</v>
-      </c>
-      <c r="R54" s="217">
-        <v>183586</v>
-      </c>
-      <c r="S54" s="217">
-        <v>206336</v>
-      </c>
-      <c r="T54" s="217">
-        <v>302344</v>
-      </c>
-      <c r="U54" s="217">
-        <v>367786</v>
-      </c>
-      <c r="V54" s="217">
-        <v>473084</v>
-      </c>
-    </row>
-    <row r="55" spans="13:22" ht="22.5">
-      <c r="M55" s="212" t="s">
-        <v>444</v>
-      </c>
+      <c r="O54" s="217"/>
+      <c r="P54" s="217"/>
+      <c r="Q54" s="217"/>
+      <c r="R54" s="217"/>
+      <c r="S54" s="217"/>
+      <c r="T54" s="217"/>
+      <c r="U54" s="217"/>
+      <c r="V54" s="217"/>
+      <c r="Y54" s="212"/>
+      <c r="Z54" s="212"/>
+      <c r="AA54" s="216"/>
+      <c r="AB54" s="217"/>
+      <c r="AC54" s="217"/>
+      <c r="AD54" s="217"/>
+      <c r="AE54" s="217"/>
+      <c r="AF54" s="217"/>
+      <c r="AG54" s="217"/>
+      <c r="AH54" s="217"/>
+    </row>
+    <row r="55" spans="13:34">
+      <c r="M55" s="212"/>
       <c r="N55" s="212"/>
-      <c r="O55" s="217">
-        <v>-2484</v>
-      </c>
-      <c r="P55" s="217">
-        <v>-1863</v>
-      </c>
-      <c r="Q55" s="217">
-        <v>-3850</v>
-      </c>
-      <c r="R55" s="217">
-        <v>-2200</v>
-      </c>
-      <c r="S55" s="217">
-        <v>-2140</v>
-      </c>
-      <c r="T55" s="217">
-        <v>-3187</v>
-      </c>
-      <c r="U55" s="217">
-        <v>-5647</v>
-      </c>
-      <c r="V55" s="217">
-        <v>-8763</v>
-      </c>
-    </row>
-    <row r="56" spans="13:22" ht="15" customHeight="1">
-      <c r="M56" s="366" t="s">
-        <v>447</v>
-      </c>
-      <c r="N56" s="366"/>
-      <c r="O56" s="366"/>
-      <c r="P56" s="366"/>
-      <c r="Q56" s="366"/>
-      <c r="R56" s="366"/>
-      <c r="S56" s="366"/>
-      <c r="T56" s="366"/>
-      <c r="U56" s="366"/>
-      <c r="V56" s="366"/>
+      <c r="O55" s="217"/>
+      <c r="P55" s="217"/>
+      <c r="Q55" s="217"/>
+      <c r="R55" s="217"/>
+      <c r="S55" s="217"/>
+      <c r="T55" s="217"/>
+      <c r="U55" s="217"/>
+      <c r="V55" s="217"/>
+      <c r="Y55" s="212"/>
+      <c r="Z55" s="212"/>
+      <c r="AA55" s="216"/>
+      <c r="AB55" s="217"/>
+      <c r="AC55" s="217"/>
+      <c r="AD55" s="217"/>
+      <c r="AE55" s="217"/>
+      <c r="AF55" s="217"/>
+      <c r="AG55" s="217"/>
+      <c r="AH55" s="217"/>
+    </row>
+    <row r="56" spans="13:34" ht="15" customHeight="1">
+      <c r="M56" s="387" t="s">
+        <v>445</v>
+      </c>
+      <c r="N56" s="387"/>
+      <c r="O56" s="387"/>
+      <c r="P56" s="387"/>
+      <c r="Q56" s="387"/>
+      <c r="R56" s="387"/>
+      <c r="S56" s="387"/>
+      <c r="T56" s="387"/>
+      <c r="U56" s="387"/>
+      <c r="V56" s="387"/>
+      <c r="Y56" s="387" t="s">
+        <v>445</v>
+      </c>
+      <c r="Z56" s="387"/>
+      <c r="AA56" s="387"/>
+      <c r="AB56" s="387"/>
+      <c r="AC56" s="387"/>
+      <c r="AD56" s="387"/>
+      <c r="AE56" s="387"/>
+      <c r="AF56" s="387"/>
+      <c r="AG56" s="387"/>
+      <c r="AH56" s="387"/>
     </row>
     <row r="104" ht="15" customHeight="1"/>
     <row r="152" ht="15" customHeight="1"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
+    <mergeCell ref="AA8:AH8"/>
+    <mergeCell ref="AA32:AH32"/>
+    <mergeCell ref="Y56:AH56"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="M56:V56"/>
     <mergeCell ref="M5:V5"/>
@@ -18181,6 +18930,7 @@
     <mergeCell ref="O32:V32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -18198,54 +18948,54 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
-      <c r="B2" s="372" t="s">
+      <c r="B2" s="396" t="s">
         <v>353</v>
       </c>
-      <c r="C2" s="372"/>
-      <c r="D2" s="372"/>
-      <c r="E2" s="372"/>
-      <c r="F2" s="372"/>
-      <c r="G2" s="372"/>
+      <c r="C2" s="396"/>
+      <c r="D2" s="396"/>
+      <c r="E2" s="396"/>
+      <c r="F2" s="396"/>
+      <c r="G2" s="396"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="B3" s="373" t="s">
+      <c r="B3" s="397" t="s">
         <v>354</v>
       </c>
-      <c r="C3" s="373"/>
-      <c r="D3" s="373"/>
-      <c r="E3" s="373"/>
+      <c r="C3" s="397"/>
+      <c r="D3" s="397"/>
+      <c r="E3" s="397"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="374" t="s">
+      <c r="A4" s="398" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="374" t="s">
+      <c r="B4" s="398" t="s">
         <v>355</v>
       </c>
-      <c r="C4" s="376" t="s">
+      <c r="C4" s="400" t="s">
         <v>356</v>
       </c>
-      <c r="D4" s="376" t="s">
+      <c r="D4" s="400" t="s">
         <v>357</v>
       </c>
-      <c r="E4" s="376" t="s">
+      <c r="E4" s="400" t="s">
         <v>358</v>
       </c>
-      <c r="F4" s="376" t="s">
+      <c r="F4" s="400" t="s">
         <v>359</v>
       </c>
-      <c r="G4" s="376" t="s">
+      <c r="G4" s="400" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="375"/>
-      <c r="B5" s="375"/>
-      <c r="C5" s="377"/>
-      <c r="D5" s="377"/>
-      <c r="E5" s="377"/>
-      <c r="F5" s="378"/>
-      <c r="G5" s="378"/>
+      <c r="A5" s="399"/>
+      <c r="B5" s="399"/>
+      <c r="C5" s="401"/>
+      <c r="D5" s="401"/>
+      <c r="E5" s="401"/>
+      <c r="F5" s="402"/>
+      <c r="G5" s="402"/>
     </row>
     <row r="6" spans="1:7" ht="114.75">
       <c r="A6" s="182">
@@ -18287,10 +19037,10 @@
       <c r="E7" s="183">
         <v>83203</v>
       </c>
-      <c r="F7" s="368">
+      <c r="F7" s="392">
         <v>3303</v>
       </c>
-      <c r="G7" s="370">
+      <c r="G7" s="394">
         <f>(E7+E8)/F7*1000</f>
         <v>81180.744777475033</v>
       </c>
@@ -18311,8 +19061,8 @@
       <c r="E8" s="183">
         <v>184937</v>
       </c>
-      <c r="F8" s="369"/>
-      <c r="G8" s="371"/>
+      <c r="F8" s="393"/>
+      <c r="G8" s="395"/>
     </row>
     <row r="9" spans="1:7" ht="102">
       <c r="A9" s="184">
@@ -18631,648 +19381,648 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:56" ht="18.75">
-      <c r="A1" s="380" t="s">
+      <c r="A1" s="413" t="s">
+        <v>446</v>
+      </c>
+      <c r="B1" s="413"/>
+      <c r="C1" s="413"/>
+      <c r="D1" s="413"/>
+      <c r="E1" s="413"/>
+      <c r="F1" s="413"/>
+      <c r="G1" s="413"/>
+      <c r="H1" s="413"/>
+      <c r="I1" s="413"/>
+      <c r="J1" s="413"/>
+      <c r="K1" s="413"/>
+      <c r="L1" s="413"/>
+      <c r="M1" s="413"/>
+      <c r="N1" s="413"/>
+      <c r="O1" s="413"/>
+      <c r="P1" s="413"/>
+      <c r="Q1" s="413"/>
+      <c r="R1" s="413"/>
+      <c r="S1" s="413"/>
+      <c r="T1" s="413"/>
+      <c r="U1" s="413"/>
+      <c r="V1" s="413"/>
+      <c r="W1" s="413"/>
+      <c r="X1" s="413"/>
+      <c r="Y1" s="413"/>
+      <c r="Z1" s="413"/>
+      <c r="AA1" s="413"/>
+      <c r="AB1" s="413"/>
+      <c r="AC1" s="413"/>
+      <c r="AD1" s="413"/>
+      <c r="AE1" s="413"/>
+      <c r="AF1" s="413"/>
+      <c r="AG1" s="413"/>
+      <c r="AH1" s="413"/>
+      <c r="AI1" s="413"/>
+      <c r="AJ1" s="413"/>
+      <c r="AK1" s="413"/>
+      <c r="AL1" s="413"/>
+      <c r="AM1" s="413"/>
+      <c r="AN1" s="413"/>
+      <c r="AO1" s="413"/>
+      <c r="AP1" s="413"/>
+      <c r="AQ1" s="413"/>
+      <c r="AR1" s="413"/>
+      <c r="AS1" s="413"/>
+      <c r="AT1" s="413"/>
+      <c r="AU1" s="413"/>
+      <c r="AV1" s="413"/>
+      <c r="AW1" s="413"/>
+      <c r="AX1" s="413"/>
+      <c r="AY1" s="413"/>
+      <c r="AZ1" s="413"/>
+      <c r="BA1" s="413"/>
+      <c r="BB1" s="413"/>
+      <c r="BC1" s="413"/>
+      <c r="BD1" s="413"/>
+    </row>
+    <row r="2" spans="1:56">
+      <c r="A2" s="414" t="s">
+        <v>447</v>
+      </c>
+      <c r="B2" s="414"/>
+      <c r="C2" s="414"/>
+      <c r="D2" s="414"/>
+      <c r="E2" s="414"/>
+      <c r="F2" s="414"/>
+      <c r="G2" s="414"/>
+      <c r="H2" s="414"/>
+      <c r="I2" s="414"/>
+      <c r="J2" s="414"/>
+      <c r="K2" s="414"/>
+      <c r="L2" s="414"/>
+      <c r="M2" s="414"/>
+      <c r="N2" s="414"/>
+      <c r="O2" s="414"/>
+      <c r="P2" s="414"/>
+      <c r="Q2" s="414"/>
+      <c r="R2" s="414"/>
+      <c r="S2" s="414"/>
+      <c r="T2" s="414"/>
+      <c r="U2" s="414"/>
+      <c r="V2" s="414"/>
+      <c r="W2" s="414"/>
+      <c r="X2" s="414"/>
+      <c r="Y2" s="414"/>
+      <c r="Z2" s="414"/>
+      <c r="AA2" s="414"/>
+      <c r="AB2" s="414"/>
+      <c r="AC2" s="414"/>
+      <c r="AD2" s="414"/>
+      <c r="AE2" s="414"/>
+      <c r="AF2" s="414"/>
+      <c r="AG2" s="414"/>
+      <c r="AH2" s="414"/>
+      <c r="AI2" s="414"/>
+      <c r="AJ2" s="414"/>
+      <c r="AK2" s="414"/>
+      <c r="AL2" s="414"/>
+      <c r="AM2" s="414"/>
+      <c r="AN2" s="414"/>
+      <c r="AO2" s="414"/>
+      <c r="AP2" s="414"/>
+      <c r="AQ2" s="414"/>
+      <c r="AR2" s="414"/>
+      <c r="AS2" s="414"/>
+      <c r="AT2" s="415"/>
+      <c r="AU2" s="415"/>
+      <c r="AV2" s="415"/>
+      <c r="AW2" s="415"/>
+      <c r="AX2" s="415"/>
+      <c r="AY2" s="415"/>
+      <c r="AZ2" s="415"/>
+      <c r="BA2" s="415"/>
+      <c r="BB2" s="415"/>
+      <c r="BC2" s="415"/>
+      <c r="BD2" s="415"/>
+    </row>
+    <row r="3" spans="1:56">
+      <c r="A3" s="416"/>
+      <c r="B3" s="220"/>
+      <c r="C3" s="418" t="s">
         <v>448</v>
       </c>
-      <c r="B1" s="380"/>
-      <c r="C1" s="380"/>
-      <c r="D1" s="380"/>
-      <c r="E1" s="380"/>
-      <c r="F1" s="380"/>
-      <c r="G1" s="380"/>
-      <c r="H1" s="380"/>
-      <c r="I1" s="380"/>
-      <c r="J1" s="380"/>
-      <c r="K1" s="380"/>
-      <c r="L1" s="380"/>
-      <c r="M1" s="380"/>
-      <c r="N1" s="380"/>
-      <c r="O1" s="380"/>
-      <c r="P1" s="380"/>
-      <c r="Q1" s="380"/>
-      <c r="R1" s="380"/>
-      <c r="S1" s="380"/>
-      <c r="T1" s="380"/>
-      <c r="U1" s="380"/>
-      <c r="V1" s="380"/>
-      <c r="W1" s="380"/>
-      <c r="X1" s="380"/>
-      <c r="Y1" s="380"/>
-      <c r="Z1" s="380"/>
-      <c r="AA1" s="380"/>
-      <c r="AB1" s="380"/>
-      <c r="AC1" s="380"/>
-      <c r="AD1" s="380"/>
-      <c r="AE1" s="380"/>
-      <c r="AF1" s="380"/>
-      <c r="AG1" s="380"/>
-      <c r="AH1" s="380"/>
-      <c r="AI1" s="380"/>
-      <c r="AJ1" s="380"/>
-      <c r="AK1" s="380"/>
-      <c r="AL1" s="380"/>
-      <c r="AM1" s="380"/>
-      <c r="AN1" s="380"/>
-      <c r="AO1" s="380"/>
-      <c r="AP1" s="380"/>
-      <c r="AQ1" s="380"/>
-      <c r="AR1" s="380"/>
-      <c r="AS1" s="380"/>
-      <c r="AT1" s="380"/>
-      <c r="AU1" s="380"/>
-      <c r="AV1" s="380"/>
-      <c r="AW1" s="380"/>
-      <c r="AX1" s="380"/>
-      <c r="AY1" s="380"/>
-      <c r="AZ1" s="380"/>
-      <c r="BA1" s="380"/>
-      <c r="BB1" s="380"/>
-      <c r="BC1" s="380"/>
-      <c r="BD1" s="380"/>
-    </row>
-    <row r="2" spans="1:56">
-      <c r="A2" s="381" t="s">
+      <c r="D3" s="419"/>
+      <c r="E3" s="419"/>
+      <c r="F3" s="419"/>
+      <c r="G3" s="419"/>
+      <c r="H3" s="419"/>
+      <c r="I3" s="419"/>
+      <c r="J3" s="419"/>
+      <c r="K3" s="419"/>
+      <c r="L3" s="419"/>
+      <c r="M3" s="419"/>
+      <c r="N3" s="419"/>
+      <c r="O3" s="419"/>
+      <c r="P3" s="419"/>
+      <c r="Q3" s="419"/>
+      <c r="R3" s="419"/>
+      <c r="S3" s="419"/>
+      <c r="T3" s="419"/>
+      <c r="U3" s="419"/>
+      <c r="V3" s="419"/>
+      <c r="W3" s="419"/>
+      <c r="X3" s="419"/>
+      <c r="Y3" s="419"/>
+      <c r="Z3" s="419"/>
+      <c r="AA3" s="419"/>
+      <c r="AB3" s="419"/>
+      <c r="AC3" s="419"/>
+      <c r="AD3" s="419"/>
+      <c r="AE3" s="419"/>
+      <c r="AF3" s="419"/>
+      <c r="AG3" s="419"/>
+      <c r="AH3" s="419"/>
+      <c r="AI3" s="419"/>
+      <c r="AJ3" s="419"/>
+      <c r="AK3" s="419"/>
+      <c r="AL3" s="419"/>
+      <c r="AM3" s="419"/>
+      <c r="AN3" s="419"/>
+      <c r="AO3" s="419"/>
+      <c r="AP3" s="419"/>
+      <c r="AQ3" s="419"/>
+      <c r="AR3" s="419"/>
+      <c r="AS3" s="420"/>
+      <c r="AT3" s="419" t="s">
         <v>449</v>
       </c>
-      <c r="B2" s="381"/>
-      <c r="C2" s="381"/>
-      <c r="D2" s="381"/>
-      <c r="E2" s="381"/>
-      <c r="F2" s="381"/>
-      <c r="G2" s="381"/>
-      <c r="H2" s="381"/>
-      <c r="I2" s="381"/>
-      <c r="J2" s="381"/>
-      <c r="K2" s="381"/>
-      <c r="L2" s="381"/>
-      <c r="M2" s="381"/>
-      <c r="N2" s="381"/>
-      <c r="O2" s="381"/>
-      <c r="P2" s="381"/>
-      <c r="Q2" s="381"/>
-      <c r="R2" s="381"/>
-      <c r="S2" s="381"/>
-      <c r="T2" s="381"/>
-      <c r="U2" s="381"/>
-      <c r="V2" s="381"/>
-      <c r="W2" s="381"/>
-      <c r="X2" s="381"/>
-      <c r="Y2" s="381"/>
-      <c r="Z2" s="381"/>
-      <c r="AA2" s="381"/>
-      <c r="AB2" s="381"/>
-      <c r="AC2" s="381"/>
-      <c r="AD2" s="381"/>
-      <c r="AE2" s="381"/>
-      <c r="AF2" s="381"/>
-      <c r="AG2" s="381"/>
-      <c r="AH2" s="381"/>
-      <c r="AI2" s="381"/>
-      <c r="AJ2" s="381"/>
-      <c r="AK2" s="381"/>
-      <c r="AL2" s="381"/>
-      <c r="AM2" s="381"/>
-      <c r="AN2" s="381"/>
-      <c r="AO2" s="381"/>
-      <c r="AP2" s="381"/>
-      <c r="AQ2" s="381"/>
-      <c r="AR2" s="381"/>
-      <c r="AS2" s="381"/>
-      <c r="AT2" s="382"/>
-      <c r="AU2" s="382"/>
-      <c r="AV2" s="382"/>
-      <c r="AW2" s="382"/>
-      <c r="AX2" s="382"/>
-      <c r="AY2" s="382"/>
-      <c r="AZ2" s="382"/>
-      <c r="BA2" s="382"/>
-      <c r="BB2" s="382"/>
-      <c r="BC2" s="382"/>
-      <c r="BD2" s="382"/>
-    </row>
-    <row r="3" spans="1:56">
-      <c r="A3" s="383"/>
-      <c r="B3" s="220"/>
-      <c r="C3" s="385" t="s">
+      <c r="AU3" s="419"/>
+      <c r="AV3" s="419"/>
+      <c r="AW3" s="420"/>
+      <c r="AX3" s="418" t="s">
         <v>450</v>
       </c>
-      <c r="D3" s="386"/>
-      <c r="E3" s="386"/>
-      <c r="F3" s="386"/>
-      <c r="G3" s="386"/>
-      <c r="H3" s="386"/>
-      <c r="I3" s="386"/>
-      <c r="J3" s="386"/>
-      <c r="K3" s="386"/>
-      <c r="L3" s="386"/>
-      <c r="M3" s="386"/>
-      <c r="N3" s="386"/>
-      <c r="O3" s="386"/>
-      <c r="P3" s="386"/>
-      <c r="Q3" s="386"/>
-      <c r="R3" s="386"/>
-      <c r="S3" s="386"/>
-      <c r="T3" s="386"/>
-      <c r="U3" s="386"/>
-      <c r="V3" s="386"/>
-      <c r="W3" s="386"/>
-      <c r="X3" s="386"/>
-      <c r="Y3" s="386"/>
-      <c r="Z3" s="386"/>
-      <c r="AA3" s="386"/>
-      <c r="AB3" s="386"/>
-      <c r="AC3" s="386"/>
-      <c r="AD3" s="386"/>
-      <c r="AE3" s="386"/>
-      <c r="AF3" s="386"/>
-      <c r="AG3" s="386"/>
-      <c r="AH3" s="386"/>
-      <c r="AI3" s="386"/>
-      <c r="AJ3" s="386"/>
-      <c r="AK3" s="386"/>
-      <c r="AL3" s="386"/>
-      <c r="AM3" s="386"/>
-      <c r="AN3" s="386"/>
-      <c r="AO3" s="386"/>
-      <c r="AP3" s="386"/>
-      <c r="AQ3" s="386"/>
-      <c r="AR3" s="386"/>
-      <c r="AS3" s="387"/>
-      <c r="AT3" s="386" t="s">
+      <c r="AY3" s="419"/>
+      <c r="AZ3" s="419"/>
+      <c r="BA3" s="420"/>
+      <c r="BB3" s="407" t="s">
         <v>451</v>
       </c>
-      <c r="AU3" s="386"/>
-      <c r="AV3" s="386"/>
-      <c r="AW3" s="387"/>
-      <c r="AX3" s="385" t="s">
+      <c r="BC3" s="407" t="s">
         <v>452</v>
       </c>
-      <c r="AY3" s="386"/>
-      <c r="AZ3" s="386"/>
-      <c r="BA3" s="387"/>
-      <c r="BB3" s="388" t="s">
+      <c r="BD3" s="410" t="s">
         <v>453</v>
       </c>
-      <c r="BC3" s="388" t="s">
+    </row>
+    <row r="4" spans="1:56">
+      <c r="A4" s="417"/>
+      <c r="B4" s="421" t="s">
         <v>454</v>
       </c>
-      <c r="BD3" s="390" t="s">
+      <c r="C4" s="422" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="4" spans="1:56">
-      <c r="A4" s="384"/>
-      <c r="B4" s="392" t="s">
+      <c r="D4" s="403" t="s">
         <v>456</v>
       </c>
-      <c r="C4" s="393" t="s">
+      <c r="E4" s="403" t="s">
         <v>457</v>
       </c>
-      <c r="D4" s="379" t="s">
+      <c r="F4" s="403" t="s">
         <v>458</v>
       </c>
-      <c r="E4" s="379" t="s">
+      <c r="G4" s="403" t="s">
         <v>459</v>
       </c>
-      <c r="F4" s="379" t="s">
+      <c r="H4" s="403" t="s">
         <v>460</v>
       </c>
-      <c r="G4" s="379" t="s">
+      <c r="I4" s="403" t="s">
         <v>461</v>
       </c>
-      <c r="H4" s="379" t="s">
+      <c r="J4" s="403" t="s">
         <v>462</v>
       </c>
-      <c r="I4" s="379" t="s">
+      <c r="K4" s="403" t="s">
         <v>463</v>
       </c>
-      <c r="J4" s="379" t="s">
+      <c r="L4" s="403" t="s">
         <v>464</v>
       </c>
-      <c r="K4" s="379" t="s">
+      <c r="M4" s="403" t="s">
         <v>465</v>
       </c>
-      <c r="L4" s="379" t="s">
+      <c r="N4" s="403" t="s">
         <v>466</v>
       </c>
-      <c r="M4" s="379" t="s">
+      <c r="O4" s="403" t="s">
         <v>467</v>
       </c>
-      <c r="N4" s="379" t="s">
+      <c r="P4" s="403" t="s">
         <v>468</v>
       </c>
-      <c r="O4" s="379" t="s">
+      <c r="Q4" s="403" t="s">
         <v>469</v>
       </c>
-      <c r="P4" s="379" t="s">
+      <c r="R4" s="403" t="s">
         <v>470</v>
       </c>
-      <c r="Q4" s="379" t="s">
+      <c r="S4" s="403" t="s">
         <v>471</v>
       </c>
-      <c r="R4" s="379" t="s">
+      <c r="T4" s="403" t="s">
         <v>472</v>
       </c>
-      <c r="S4" s="379" t="s">
+      <c r="U4" s="403" t="s">
         <v>473</v>
       </c>
-      <c r="T4" s="379" t="s">
+      <c r="V4" s="403" t="s">
         <v>474</v>
       </c>
-      <c r="U4" s="379" t="s">
+      <c r="W4" s="403" t="s">
         <v>475</v>
       </c>
-      <c r="V4" s="379" t="s">
+      <c r="X4" s="403" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y4" s="403" t="s">
+        <v>411</v>
+      </c>
+      <c r="Z4" s="403" t="s">
+        <v>366</v>
+      </c>
+      <c r="AA4" s="403" t="s">
+        <v>383</v>
+      </c>
+      <c r="AB4" s="403" t="s">
         <v>476</v>
       </c>
-      <c r="W4" s="379" t="s">
+      <c r="AC4" s="403" t="s">
         <v>477</v>
       </c>
-      <c r="X4" s="379" t="s">
-        <v>392</v>
-      </c>
-      <c r="Y4" s="379" t="s">
-        <v>411</v>
-      </c>
-      <c r="Z4" s="379" t="s">
-        <v>366</v>
-      </c>
-      <c r="AA4" s="379" t="s">
-        <v>383</v>
-      </c>
-      <c r="AB4" s="379" t="s">
+      <c r="AD4" s="403" t="s">
+        <v>409</v>
+      </c>
+      <c r="AE4" s="403" t="s">
         <v>478</v>
       </c>
-      <c r="AC4" s="379" t="s">
+      <c r="AF4" s="403" t="s">
         <v>479</v>
       </c>
-      <c r="AD4" s="379" t="s">
-        <v>409</v>
-      </c>
-      <c r="AE4" s="379" t="s">
+      <c r="AG4" s="403" t="s">
         <v>480</v>
       </c>
-      <c r="AF4" s="379" t="s">
+      <c r="AH4" s="403" t="s">
+        <v>397</v>
+      </c>
+      <c r="AI4" s="403" t="s">
+        <v>394</v>
+      </c>
+      <c r="AJ4" s="403" t="s">
         <v>481</v>
       </c>
-      <c r="AG4" s="379" t="s">
+      <c r="AK4" s="403" t="s">
         <v>482</v>
       </c>
-      <c r="AH4" s="379" t="s">
-        <v>397</v>
-      </c>
-      <c r="AI4" s="379" t="s">
-        <v>394</v>
-      </c>
-      <c r="AJ4" s="379" t="s">
+      <c r="AL4" s="403" t="s">
         <v>483</v>
       </c>
-      <c r="AK4" s="379" t="s">
+      <c r="AM4" s="403" t="s">
+        <v>407</v>
+      </c>
+      <c r="AN4" s="403" t="s">
+        <v>401</v>
+      </c>
+      <c r="AO4" s="412" t="s">
+        <v>368</v>
+      </c>
+      <c r="AP4" s="403" t="s">
+        <v>405</v>
+      </c>
+      <c r="AQ4" s="403" t="s">
+        <v>415</v>
+      </c>
+      <c r="AR4" s="403" t="s">
+        <v>413</v>
+      </c>
+      <c r="AS4" s="406" t="s">
         <v>484</v>
       </c>
-      <c r="AL4" s="379" t="s">
+      <c r="AT4" s="407" t="s">
+        <v>484</v>
+      </c>
+      <c r="AU4" s="403" t="s">
         <v>485</v>
       </c>
-      <c r="AM4" s="379" t="s">
-        <v>407</v>
-      </c>
-      <c r="AN4" s="379" t="s">
-        <v>401</v>
-      </c>
-      <c r="AO4" s="394" t="s">
-        <v>368</v>
-      </c>
-      <c r="AP4" s="379" t="s">
-        <v>405</v>
-      </c>
-      <c r="AQ4" s="379" t="s">
-        <v>415</v>
-      </c>
-      <c r="AR4" s="379" t="s">
-        <v>413</v>
-      </c>
-      <c r="AS4" s="397" t="s">
+      <c r="AV4" s="403" t="s">
         <v>486</v>
       </c>
-      <c r="AT4" s="388" t="s">
-        <v>486</v>
-      </c>
-      <c r="AU4" s="379" t="s">
+      <c r="AW4" s="409" t="s">
         <v>487</v>
       </c>
-      <c r="AV4" s="379" t="s">
+      <c r="AX4" s="410" t="s">
+        <v>484</v>
+      </c>
+      <c r="AY4" s="403" t="s">
         <v>488</v>
       </c>
-      <c r="AW4" s="398" t="s">
+      <c r="AZ4" s="403" t="s">
         <v>489</v>
       </c>
-      <c r="AX4" s="390" t="s">
-        <v>486</v>
-      </c>
-      <c r="AY4" s="379" t="s">
+      <c r="BA4" s="404" t="s">
         <v>490</v>
       </c>
-      <c r="AZ4" s="379" t="s">
-        <v>491</v>
-      </c>
-      <c r="BA4" s="395" t="s">
-        <v>492</v>
-      </c>
-      <c r="BB4" s="389"/>
-      <c r="BC4" s="389"/>
-      <c r="BD4" s="391"/>
+      <c r="BB4" s="408"/>
+      <c r="BC4" s="408"/>
+      <c r="BD4" s="411"/>
     </row>
     <row r="5" spans="1:56">
-      <c r="A5" s="384"/>
-      <c r="B5" s="392"/>
-      <c r="C5" s="393"/>
-      <c r="D5" s="379"/>
-      <c r="E5" s="379"/>
-      <c r="F5" s="379"/>
-      <c r="G5" s="379"/>
-      <c r="H5" s="379"/>
-      <c r="I5" s="379"/>
-      <c r="J5" s="379"/>
-      <c r="K5" s="379"/>
-      <c r="L5" s="379"/>
-      <c r="M5" s="379"/>
-      <c r="N5" s="379"/>
-      <c r="O5" s="379"/>
-      <c r="P5" s="379"/>
-      <c r="Q5" s="379"/>
-      <c r="R5" s="379"/>
-      <c r="S5" s="379"/>
-      <c r="T5" s="379"/>
-      <c r="U5" s="379"/>
-      <c r="V5" s="379"/>
-      <c r="W5" s="379"/>
-      <c r="X5" s="379"/>
-      <c r="Y5" s="379"/>
-      <c r="Z5" s="379"/>
-      <c r="AA5" s="379"/>
-      <c r="AB5" s="379"/>
-      <c r="AC5" s="379"/>
-      <c r="AD5" s="379"/>
-      <c r="AE5" s="379"/>
-      <c r="AF5" s="379"/>
-      <c r="AG5" s="379"/>
-      <c r="AH5" s="379"/>
-      <c r="AI5" s="379"/>
-      <c r="AJ5" s="379"/>
-      <c r="AK5" s="379"/>
-      <c r="AL5" s="379"/>
-      <c r="AM5" s="394"/>
-      <c r="AN5" s="394"/>
-      <c r="AO5" s="394"/>
-      <c r="AP5" s="394"/>
-      <c r="AQ5" s="394"/>
-      <c r="AR5" s="394"/>
-      <c r="AS5" s="397"/>
-      <c r="AT5" s="389"/>
-      <c r="AU5" s="379"/>
-      <c r="AV5" s="379"/>
-      <c r="AW5" s="398"/>
-      <c r="AX5" s="391"/>
-      <c r="AY5" s="379"/>
-      <c r="AZ5" s="379"/>
-      <c r="BA5" s="396"/>
-      <c r="BB5" s="389"/>
-      <c r="BC5" s="389"/>
-      <c r="BD5" s="391"/>
+      <c r="A5" s="417"/>
+      <c r="B5" s="421"/>
+      <c r="C5" s="422"/>
+      <c r="D5" s="403"/>
+      <c r="E5" s="403"/>
+      <c r="F5" s="403"/>
+      <c r="G5" s="403"/>
+      <c r="H5" s="403"/>
+      <c r="I5" s="403"/>
+      <c r="J5" s="403"/>
+      <c r="K5" s="403"/>
+      <c r="L5" s="403"/>
+      <c r="M5" s="403"/>
+      <c r="N5" s="403"/>
+      <c r="O5" s="403"/>
+      <c r="P5" s="403"/>
+      <c r="Q5" s="403"/>
+      <c r="R5" s="403"/>
+      <c r="S5" s="403"/>
+      <c r="T5" s="403"/>
+      <c r="U5" s="403"/>
+      <c r="V5" s="403"/>
+      <c r="W5" s="403"/>
+      <c r="X5" s="403"/>
+      <c r="Y5" s="403"/>
+      <c r="Z5" s="403"/>
+      <c r="AA5" s="403"/>
+      <c r="AB5" s="403"/>
+      <c r="AC5" s="403"/>
+      <c r="AD5" s="403"/>
+      <c r="AE5" s="403"/>
+      <c r="AF5" s="403"/>
+      <c r="AG5" s="403"/>
+      <c r="AH5" s="403"/>
+      <c r="AI5" s="403"/>
+      <c r="AJ5" s="403"/>
+      <c r="AK5" s="403"/>
+      <c r="AL5" s="403"/>
+      <c r="AM5" s="412"/>
+      <c r="AN5" s="412"/>
+      <c r="AO5" s="412"/>
+      <c r="AP5" s="412"/>
+      <c r="AQ5" s="412"/>
+      <c r="AR5" s="412"/>
+      <c r="AS5" s="406"/>
+      <c r="AT5" s="408"/>
+      <c r="AU5" s="403"/>
+      <c r="AV5" s="403"/>
+      <c r="AW5" s="409"/>
+      <c r="AX5" s="411"/>
+      <c r="AY5" s="403"/>
+      <c r="AZ5" s="403"/>
+      <c r="BA5" s="405"/>
+      <c r="BB5" s="408"/>
+      <c r="BC5" s="408"/>
+      <c r="BD5" s="411"/>
     </row>
     <row r="6" spans="1:56">
-      <c r="A6" s="384"/>
-      <c r="B6" s="392"/>
-      <c r="C6" s="393"/>
-      <c r="D6" s="379"/>
-      <c r="E6" s="379"/>
-      <c r="F6" s="379"/>
-      <c r="G6" s="379"/>
-      <c r="H6" s="379"/>
-      <c r="I6" s="379"/>
-      <c r="J6" s="379"/>
-      <c r="K6" s="379"/>
-      <c r="L6" s="379"/>
-      <c r="M6" s="379"/>
-      <c r="N6" s="379"/>
-      <c r="O6" s="379"/>
-      <c r="P6" s="379"/>
-      <c r="Q6" s="379"/>
-      <c r="R6" s="379"/>
-      <c r="S6" s="379"/>
-      <c r="T6" s="379"/>
-      <c r="U6" s="379"/>
-      <c r="V6" s="379"/>
-      <c r="W6" s="379"/>
-      <c r="X6" s="379"/>
-      <c r="Y6" s="379"/>
-      <c r="Z6" s="379"/>
-      <c r="AA6" s="379"/>
-      <c r="AB6" s="379"/>
-      <c r="AC6" s="379"/>
-      <c r="AD6" s="379"/>
-      <c r="AE6" s="379"/>
-      <c r="AF6" s="379"/>
-      <c r="AG6" s="379"/>
-      <c r="AH6" s="379"/>
-      <c r="AI6" s="379"/>
-      <c r="AJ6" s="379"/>
-      <c r="AK6" s="379"/>
-      <c r="AL6" s="379"/>
-      <c r="AM6" s="394"/>
-      <c r="AN6" s="394"/>
-      <c r="AO6" s="394"/>
-      <c r="AP6" s="394"/>
-      <c r="AQ6" s="394"/>
-      <c r="AR6" s="394"/>
-      <c r="AS6" s="397"/>
-      <c r="AT6" s="389"/>
-      <c r="AU6" s="379"/>
-      <c r="AV6" s="379"/>
-      <c r="AW6" s="398"/>
-      <c r="AX6" s="391"/>
-      <c r="AY6" s="379"/>
-      <c r="AZ6" s="379"/>
-      <c r="BA6" s="396"/>
-      <c r="BB6" s="389"/>
-      <c r="BC6" s="389"/>
-      <c r="BD6" s="391"/>
+      <c r="A6" s="417"/>
+      <c r="B6" s="421"/>
+      <c r="C6" s="422"/>
+      <c r="D6" s="403"/>
+      <c r="E6" s="403"/>
+      <c r="F6" s="403"/>
+      <c r="G6" s="403"/>
+      <c r="H6" s="403"/>
+      <c r="I6" s="403"/>
+      <c r="J6" s="403"/>
+      <c r="K6" s="403"/>
+      <c r="L6" s="403"/>
+      <c r="M6" s="403"/>
+      <c r="N6" s="403"/>
+      <c r="O6" s="403"/>
+      <c r="P6" s="403"/>
+      <c r="Q6" s="403"/>
+      <c r="R6" s="403"/>
+      <c r="S6" s="403"/>
+      <c r="T6" s="403"/>
+      <c r="U6" s="403"/>
+      <c r="V6" s="403"/>
+      <c r="W6" s="403"/>
+      <c r="X6" s="403"/>
+      <c r="Y6" s="403"/>
+      <c r="Z6" s="403"/>
+      <c r="AA6" s="403"/>
+      <c r="AB6" s="403"/>
+      <c r="AC6" s="403"/>
+      <c r="AD6" s="403"/>
+      <c r="AE6" s="403"/>
+      <c r="AF6" s="403"/>
+      <c r="AG6" s="403"/>
+      <c r="AH6" s="403"/>
+      <c r="AI6" s="403"/>
+      <c r="AJ6" s="403"/>
+      <c r="AK6" s="403"/>
+      <c r="AL6" s="403"/>
+      <c r="AM6" s="412"/>
+      <c r="AN6" s="412"/>
+      <c r="AO6" s="412"/>
+      <c r="AP6" s="412"/>
+      <c r="AQ6" s="412"/>
+      <c r="AR6" s="412"/>
+      <c r="AS6" s="406"/>
+      <c r="AT6" s="408"/>
+      <c r="AU6" s="403"/>
+      <c r="AV6" s="403"/>
+      <c r="AW6" s="409"/>
+      <c r="AX6" s="411"/>
+      <c r="AY6" s="403"/>
+      <c r="AZ6" s="403"/>
+      <c r="BA6" s="405"/>
+      <c r="BB6" s="408"/>
+      <c r="BC6" s="408"/>
+      <c r="BD6" s="411"/>
     </row>
     <row r="7" spans="1:56" ht="25.5">
       <c r="A7" s="221"/>
       <c r="B7" s="222"/>
       <c r="C7" s="223" t="s">
+        <v>491</v>
+      </c>
+      <c r="D7" s="224" t="s">
+        <v>492</v>
+      </c>
+      <c r="E7" s="224" t="s">
         <v>493</v>
       </c>
-      <c r="D7" s="224" t="s">
+      <c r="F7" s="224" t="s">
         <v>494</v>
       </c>
-      <c r="E7" s="224" t="s">
+      <c r="G7" s="224" t="s">
         <v>495</v>
       </c>
-      <c r="F7" s="224" t="s">
+      <c r="H7" s="224" t="s">
         <v>496</v>
       </c>
-      <c r="G7" s="224" t="s">
+      <c r="I7" s="224" t="s">
         <v>497</v>
       </c>
-      <c r="H7" s="224" t="s">
+      <c r="J7" s="224" t="s">
         <v>498</v>
       </c>
-      <c r="I7" s="224" t="s">
+      <c r="K7" s="224" t="s">
         <v>499</v>
       </c>
-      <c r="J7" s="224" t="s">
+      <c r="L7" s="224" t="s">
         <v>500</v>
       </c>
-      <c r="K7" s="224" t="s">
+      <c r="M7" s="224" t="s">
         <v>501</v>
       </c>
-      <c r="L7" s="224" t="s">
+      <c r="N7" s="224" t="s">
         <v>502</v>
       </c>
-      <c r="M7" s="224" t="s">
+      <c r="O7" s="224" t="s">
         <v>503</v>
       </c>
-      <c r="N7" s="224" t="s">
+      <c r="P7" s="224" t="s">
         <v>504</v>
       </c>
-      <c r="O7" s="224" t="s">
+      <c r="Q7" s="224" t="s">
         <v>505</v>
       </c>
-      <c r="P7" s="224" t="s">
+      <c r="R7" s="224" t="s">
         <v>506</v>
       </c>
-      <c r="Q7" s="224" t="s">
+      <c r="S7" s="224" t="s">
         <v>507</v>
       </c>
-      <c r="R7" s="224" t="s">
+      <c r="T7" s="224" t="s">
         <v>508</v>
       </c>
-      <c r="S7" s="224" t="s">
+      <c r="U7" s="224" t="s">
         <v>509</v>
       </c>
-      <c r="T7" s="224" t="s">
+      <c r="V7" s="224" t="s">
         <v>510</v>
       </c>
-      <c r="U7" s="224" t="s">
+      <c r="W7" s="225" t="s">
         <v>511</v>
       </c>
-      <c r="V7" s="224" t="s">
+      <c r="X7" s="224" t="s">
         <v>512</v>
       </c>
-      <c r="W7" s="225" t="s">
+      <c r="Y7" s="224" t="s">
         <v>513</v>
       </c>
-      <c r="X7" s="224" t="s">
+      <c r="Z7" s="224" t="s">
         <v>514</v>
       </c>
-      <c r="Y7" s="224" t="s">
+      <c r="AA7" s="224" t="s">
         <v>515</v>
       </c>
-      <c r="Z7" s="224" t="s">
+      <c r="AB7" s="224" t="s">
         <v>516</v>
       </c>
-      <c r="AA7" s="224" t="s">
+      <c r="AC7" s="224" t="s">
         <v>517</v>
       </c>
-      <c r="AB7" s="224" t="s">
+      <c r="AD7" s="224" t="s">
         <v>518</v>
       </c>
-      <c r="AC7" s="224" t="s">
+      <c r="AE7" s="224" t="s">
         <v>519</v>
       </c>
-      <c r="AD7" s="224" t="s">
+      <c r="AF7" s="224" t="s">
         <v>520</v>
       </c>
-      <c r="AE7" s="224" t="s">
+      <c r="AG7" s="224" t="s">
         <v>521</v>
       </c>
-      <c r="AF7" s="224" t="s">
+      <c r="AH7" s="224" t="s">
         <v>522</v>
       </c>
-      <c r="AG7" s="224" t="s">
+      <c r="AI7" s="224" t="s">
         <v>523</v>
       </c>
-      <c r="AH7" s="224" t="s">
+      <c r="AJ7" s="224" t="s">
         <v>524</v>
       </c>
-      <c r="AI7" s="224" t="s">
+      <c r="AK7" s="224" t="s">
         <v>525</v>
       </c>
-      <c r="AJ7" s="224" t="s">
+      <c r="AL7" s="224" t="s">
         <v>526</v>
       </c>
-      <c r="AK7" s="224" t="s">
+      <c r="AM7" s="225" t="s">
         <v>527</v>
       </c>
-      <c r="AL7" s="224" t="s">
+      <c r="AN7" s="225" t="s">
         <v>528</v>
       </c>
-      <c r="AM7" s="225" t="s">
+      <c r="AO7" s="225" t="s">
         <v>529</v>
       </c>
-      <c r="AN7" s="225" t="s">
+      <c r="AP7" s="225" t="s">
         <v>530</v>
       </c>
-      <c r="AO7" s="225" t="s">
+      <c r="AQ7" s="225" t="s">
         <v>531</v>
       </c>
-      <c r="AP7" s="225" t="s">
+      <c r="AR7" s="225" t="s">
         <v>532</v>
-      </c>
-      <c r="AQ7" s="225" t="s">
-        <v>533</v>
-      </c>
-      <c r="AR7" s="225" t="s">
-        <v>534</v>
       </c>
       <c r="AS7" s="226"/>
       <c r="AT7" s="227" t="s">
+        <v>533</v>
+      </c>
+      <c r="AU7" s="224" t="s">
+        <v>534</v>
+      </c>
+      <c r="AV7" s="224" t="s">
         <v>535</v>
       </c>
-      <c r="AU7" s="224" t="s">
+      <c r="AW7" s="228" t="s">
         <v>536</v>
       </c>
-      <c r="AV7" s="224" t="s">
+      <c r="AX7" s="227" t="s">
         <v>537</v>
       </c>
-      <c r="AW7" s="228" t="s">
+      <c r="AY7" s="224" t="s">
         <v>538</v>
       </c>
-      <c r="AX7" s="227" t="s">
+      <c r="AZ7" s="224" t="s">
         <v>539</v>
       </c>
-      <c r="AY7" s="224" t="s">
+      <c r="BA7" s="228" t="s">
         <v>540</v>
       </c>
-      <c r="AZ7" s="224" t="s">
+      <c r="BB7" s="224" t="s">
         <v>541</v>
       </c>
-      <c r="BA7" s="228" t="s">
+      <c r="BC7" s="228" t="s">
         <v>542</v>
-      </c>
-      <c r="BB7" s="224" t="s">
-        <v>543</v>
-      </c>
-      <c r="BC7" s="228" t="s">
-        <v>544</v>
       </c>
       <c r="BD7" s="229"/>
     </row>
     <row r="8" spans="1:56" ht="64.5">
       <c r="A8" s="230" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B8" s="231" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C8" s="232">
         <v>167424</v>
@@ -19439,10 +20189,10 @@
     </row>
     <row r="9" spans="1:56" ht="64.5">
       <c r="A9" s="238" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B9" s="231" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C9" s="232">
         <v>715</v>
@@ -19609,10 +20359,10 @@
     </row>
     <row r="10" spans="1:56" ht="64.5">
       <c r="A10" s="238" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B10" s="231" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C10" s="232">
         <v>5148</v>
@@ -19779,10 +20529,10 @@
     </row>
     <row r="11" spans="1:56" ht="294">
       <c r="A11" s="238" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B11" s="231" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C11" s="232">
         <v>501</v>
@@ -19949,10 +20699,10 @@
     </row>
     <row r="12" spans="1:56" ht="90">
       <c r="A12" s="238" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B12" s="231" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C12" s="232">
         <v>4991</v>
@@ -20119,10 +20869,10 @@
     </row>
     <row r="13" spans="1:56" ht="115.5">
       <c r="A13" s="238" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B13" s="231" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C13" s="232">
         <v>226</v>
@@ -20289,10 +21039,10 @@
     </row>
     <row r="14" spans="1:56" ht="128.25">
       <c r="A14" s="238" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B14" s="231" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C14" s="232">
         <v>1240</v>
@@ -20459,10 +21209,10 @@
     </row>
     <row r="15" spans="1:56" ht="64.5">
       <c r="A15" s="238" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B15" s="231" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C15" s="232">
         <v>911</v>
@@ -20629,10 +21379,10 @@
     </row>
     <row r="16" spans="1:56" ht="77.25">
       <c r="A16" s="238" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B16" s="231" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C16" s="232">
         <v>43477</v>
@@ -20799,10 +21549,10 @@
     </row>
     <row r="17" spans="1:56" ht="77.25">
       <c r="A17" s="238" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B17" s="231" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C17" s="232">
         <v>82471</v>
@@ -20969,10 +21719,10 @@
     </row>
     <row r="18" spans="1:56" ht="141">
       <c r="A18" s="238" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B18" s="231" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C18" s="232">
         <v>4723</v>
@@ -21139,10 +21889,10 @@
     </row>
     <row r="19" spans="1:56" ht="77.25">
       <c r="A19" s="238" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B19" s="231" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C19" s="232">
         <v>4150</v>
@@ -21309,10 +22059,10 @@
     </row>
     <row r="20" spans="1:56" ht="90">
       <c r="A20" s="238" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B20" s="231" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C20" s="232">
         <v>2773</v>
@@ -21479,10 +22229,10 @@
     </row>
     <row r="21" spans="1:56" ht="51.75">
       <c r="A21" s="238" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B21" s="231" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C21" s="232">
         <v>1420</v>
@@ -21649,10 +22399,10 @@
     </row>
     <row r="22" spans="1:56" ht="114.75">
       <c r="A22" s="239" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B22" s="231" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C22" s="232">
         <v>1676</v>
@@ -21819,10 +22569,10 @@
     </row>
     <row r="23" spans="1:56" ht="102.75">
       <c r="A23" s="238" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B23" s="231" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C23" s="232">
         <v>2635</v>
@@ -21989,10 +22739,10 @@
     </row>
     <row r="24" spans="1:56" ht="77.25">
       <c r="A24" s="238" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B24" s="231" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C24" s="232">
         <v>513</v>
@@ -22159,10 +22909,10 @@
     </row>
     <row r="25" spans="1:56" ht="128.25">
       <c r="A25" s="238" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B25" s="231" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C25" s="232">
         <v>14838</v>
@@ -22329,10 +23079,10 @@
     </row>
     <row r="26" spans="1:56" ht="102.75">
       <c r="A26" s="238" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B26" s="231" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C26" s="232">
         <v>14332</v>
@@ -22499,10 +23249,10 @@
     </row>
     <row r="27" spans="1:56" ht="64.5">
       <c r="A27" s="238" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B27" s="231" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C27" s="232">
         <v>2038</v>
@@ -22669,10 +23419,10 @@
     </row>
     <row r="28" spans="1:56" ht="128.25">
       <c r="A28" s="238" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B28" s="231" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C28" s="232">
         <v>524</v>
@@ -22839,10 +23589,10 @@
     </row>
     <row r="29" spans="1:56" ht="115.5">
       <c r="A29" s="238" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B29" s="231" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C29" s="240">
         <v>11561</v>
@@ -23009,10 +23759,10 @@
     </row>
     <row r="30" spans="1:56" ht="90">
       <c r="A30" s="238" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B30" s="231" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C30" s="240">
         <v>707</v>
@@ -23182,7 +23932,7 @@
         <v>366</v>
       </c>
       <c r="B31" s="231" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C31" s="232">
         <v>2580</v>
@@ -23349,10 +24099,10 @@
     </row>
     <row r="32" spans="1:56" ht="115.5">
       <c r="A32" s="238" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B32" s="231" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C32" s="232">
         <v>94928</v>
@@ -23519,10 +24269,10 @@
     </row>
     <row r="33" spans="1:56" ht="64.5">
       <c r="A33" s="238" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B33" s="231" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C33" s="232">
         <v>33402</v>
@@ -23689,10 +24439,10 @@
     </row>
     <row r="34" spans="1:56" ht="51.75">
       <c r="A34" s="238" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B34" s="231" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C34" s="232">
         <v>61</v>
@@ -23859,10 +24609,10 @@
     </row>
     <row r="35" spans="1:56" ht="102.75">
       <c r="A35" s="238" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B35" s="231" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C35" s="232">
         <v>171</v>
@@ -24029,10 +24779,10 @@
     </row>
     <row r="36" spans="1:56" ht="268.5">
       <c r="A36" s="238" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B36" s="231" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C36" s="232">
         <v>114</v>
@@ -24199,10 +24949,10 @@
     </row>
     <row r="37" spans="1:56" ht="51.75">
       <c r="A37" s="238" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B37" s="231" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C37" s="232">
         <v>563</v>
@@ -24369,10 +25119,10 @@
     </row>
     <row r="38" spans="1:56" ht="128.25">
       <c r="A38" s="238" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B38" s="231" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C38" s="232">
         <v>225</v>
@@ -24539,10 +25289,10 @@
     </row>
     <row r="39" spans="1:56" ht="51.75">
       <c r="A39" s="238" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B39" s="231" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C39" s="232">
         <v>6785</v>
@@ -24712,7 +25462,7 @@
         <v>394</v>
       </c>
       <c r="B40" s="231" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C40" s="232">
         <v>1441</v>
@@ -24879,10 +25629,10 @@
     </row>
     <row r="41" spans="1:56" ht="357.75">
       <c r="A41" s="238" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B41" s="231" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C41" s="232">
         <v>6534</v>
@@ -25049,10 +25799,10 @@
     </row>
     <row r="42" spans="1:56" ht="51.75">
       <c r="A42" s="238" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B42" s="231" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C42" s="232">
         <v>42</v>
@@ -25219,10 +25969,10 @@
     </row>
     <row r="43" spans="1:56" ht="204.75">
       <c r="A43" s="238" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B43" s="231" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C43" s="232">
         <v>1304</v>
@@ -25389,10 +26139,10 @@
     </row>
     <row r="44" spans="1:56" ht="115.5">
       <c r="A44" s="238" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B44" s="231" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C44" s="232">
         <v>4275</v>
@@ -25559,10 +26309,10 @@
     </row>
     <row r="45" spans="1:56" ht="115.5">
       <c r="A45" s="238" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B45" s="231" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C45" s="232">
         <v>741</v>
@@ -25732,7 +26482,7 @@
         <v>368</v>
       </c>
       <c r="B46" s="231" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C46" s="232">
         <v>51</v>
@@ -25899,10 +26649,10 @@
     </row>
     <row r="47" spans="1:56" ht="90">
       <c r="A47" s="238" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B47" s="231" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C47" s="232">
         <v>134</v>
@@ -26069,10 +26819,10 @@
     </row>
     <row r="48" spans="1:56" ht="77.25">
       <c r="A48" s="238" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B48" s="231" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C48" s="232">
         <v>33</v>
@@ -26242,7 +26992,7 @@
         <v>413</v>
       </c>
       <c r="B49" s="231" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C49" s="232">
         <v>197</v>
@@ -26409,10 +27159,10 @@
     </row>
     <row r="50" spans="1:56">
       <c r="A50" s="241" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B50" s="242" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C50" s="243">
         <v>522575</v>
@@ -26579,10 +27329,10 @@
     </row>
     <row r="51" spans="1:56" ht="64.5">
       <c r="A51" s="248" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B51" s="249" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C51" s="233">
         <v>54657</v>
@@ -26727,10 +27477,10 @@
     </row>
     <row r="52" spans="1:56" ht="64.5">
       <c r="A52" s="248" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B52" s="249" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C52" s="233">
         <v>13982</v>
@@ -26875,10 +27625,10 @@
     </row>
     <row r="53" spans="1:56" ht="64.5">
       <c r="A53" s="248" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B53" s="249" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C53" s="233">
         <v>-6047</v>
@@ -27023,10 +27773,10 @@
     </row>
     <row r="54" spans="1:56" ht="51.75">
       <c r="A54" s="248" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B54" s="249" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C54" s="233">
         <v>252566</v>
@@ -27171,10 +27921,10 @@
     </row>
     <row r="55" spans="1:56" ht="77.25">
       <c r="A55" s="251" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B55" s="242" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C55" s="235">
         <v>315158</v>
@@ -27319,10 +28069,10 @@
     </row>
     <row r="56" spans="1:56">
       <c r="A56" s="253" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B56" s="254" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C56" s="255">
         <v>837733</v>
@@ -27467,7 +28217,7 @@
     </row>
     <row r="57" spans="1:56" ht="39">
       <c r="A57" s="248" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B57" s="248"/>
       <c r="C57" s="233"/>
@@ -27527,10 +28277,10 @@
     </row>
     <row r="58" spans="1:56" ht="39">
       <c r="A58" s="248" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B58" s="257" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C58" s="258">
         <v>303949</v>
@@ -27675,10 +28425,10 @@
     </row>
     <row r="59" spans="1:56" ht="39">
       <c r="A59" s="248" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B59" s="257" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C59" s="258">
         <v>727352</v>
@@ -27823,7 +28573,7 @@
     </row>
     <row r="60" spans="1:56" ht="51.75">
       <c r="A60" s="248" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B60" s="248"/>
       <c r="C60" s="258">
@@ -27927,51 +28677,6 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="AY4:AY6"/>
-    <mergeCell ref="AZ4:AZ6"/>
-    <mergeCell ref="BA4:BA6"/>
-    <mergeCell ref="AS4:AS6"/>
-    <mergeCell ref="AT4:AT6"/>
-    <mergeCell ref="AU4:AU6"/>
-    <mergeCell ref="AV4:AV6"/>
-    <mergeCell ref="AW4:AW6"/>
-    <mergeCell ref="AX4:AX6"/>
-    <mergeCell ref="AR4:AR6"/>
-    <mergeCell ref="AG4:AG6"/>
-    <mergeCell ref="AH4:AH6"/>
-    <mergeCell ref="AI4:AI6"/>
-    <mergeCell ref="AJ4:AJ6"/>
-    <mergeCell ref="AK4:AK6"/>
-    <mergeCell ref="AL4:AL6"/>
-    <mergeCell ref="AM4:AM6"/>
-    <mergeCell ref="AN4:AN6"/>
-    <mergeCell ref="AO4:AO6"/>
-    <mergeCell ref="AP4:AP6"/>
-    <mergeCell ref="AQ4:AQ6"/>
-    <mergeCell ref="AF4:AF6"/>
-    <mergeCell ref="U4:U6"/>
-    <mergeCell ref="V4:V6"/>
-    <mergeCell ref="W4:W6"/>
-    <mergeCell ref="X4:X6"/>
-    <mergeCell ref="Y4:Y6"/>
-    <mergeCell ref="Z4:Z6"/>
-    <mergeCell ref="AA4:AA6"/>
-    <mergeCell ref="AB4:AB6"/>
-    <mergeCell ref="AC4:AC6"/>
-    <mergeCell ref="AD4:AD6"/>
-    <mergeCell ref="AE4:AE6"/>
-    <mergeCell ref="T4:T6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="Q4:Q6"/>
-    <mergeCell ref="R4:R6"/>
-    <mergeCell ref="S4:S6"/>
     <mergeCell ref="H4:H6"/>
     <mergeCell ref="A1:BD1"/>
     <mergeCell ref="A2:BD2"/>
@@ -27988,6 +28693,51 @@
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="G4:G6"/>
+    <mergeCell ref="T4:T6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="AF4:AF6"/>
+    <mergeCell ref="U4:U6"/>
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="W4:W6"/>
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="Y4:Y6"/>
+    <mergeCell ref="Z4:Z6"/>
+    <mergeCell ref="AA4:AA6"/>
+    <mergeCell ref="AB4:AB6"/>
+    <mergeCell ref="AC4:AC6"/>
+    <mergeCell ref="AD4:AD6"/>
+    <mergeCell ref="AE4:AE6"/>
+    <mergeCell ref="AR4:AR6"/>
+    <mergeCell ref="AG4:AG6"/>
+    <mergeCell ref="AH4:AH6"/>
+    <mergeCell ref="AI4:AI6"/>
+    <mergeCell ref="AJ4:AJ6"/>
+    <mergeCell ref="AK4:AK6"/>
+    <mergeCell ref="AL4:AL6"/>
+    <mergeCell ref="AM4:AM6"/>
+    <mergeCell ref="AN4:AN6"/>
+    <mergeCell ref="AO4:AO6"/>
+    <mergeCell ref="AP4:AP6"/>
+    <mergeCell ref="AQ4:AQ6"/>
+    <mergeCell ref="AY4:AY6"/>
+    <mergeCell ref="AZ4:AZ6"/>
+    <mergeCell ref="BA4:BA6"/>
+    <mergeCell ref="AS4:AS6"/>
+    <mergeCell ref="AT4:AT6"/>
+    <mergeCell ref="AU4:AU6"/>
+    <mergeCell ref="AV4:AV6"/>
+    <mergeCell ref="AW4:AW6"/>
+    <mergeCell ref="AX4:AX6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -28019,7 +28769,7 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="U1" s="153" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -29230,7 +29980,7 @@
   <sheetData>
     <row r="5" spans="1:22">
       <c r="A5" s="153" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="69.75" customHeight="1">
@@ -29253,22 +30003,22 @@
         <v>67</v>
       </c>
       <c r="G6" s="261" t="s">
+        <v>599</v>
+      </c>
+      <c r="H6" s="261" t="s">
+        <v>600</v>
+      </c>
+      <c r="I6" s="261" t="s">
         <v>601</v>
       </c>
-      <c r="H6" s="261" t="s">
+      <c r="J6" s="261" t="s">
         <v>602</v>
       </c>
-      <c r="I6" s="261" t="s">
+      <c r="K6" s="261" t="s">
         <v>603</v>
       </c>
-      <c r="J6" s="261" t="s">
+      <c r="L6" s="261" t="s">
         <v>604</v>
-      </c>
-      <c r="K6" s="261" t="s">
-        <v>605</v>
-      </c>
-      <c r="L6" s="261" t="s">
-        <v>606</v>
       </c>
       <c r="M6" s="261" t="s">
         <v>68</v>
@@ -29419,7 +30169,7 @@
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="153" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B10" s="264">
         <v>-100</v>
@@ -29484,7 +30234,7 @@
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="153" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B11" s="264">
         <f>B10*12</f>
@@ -29569,7 +30319,7 @@
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="266" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B12" s="264"/>
       <c r="C12" s="264"/>
@@ -29603,7 +30353,7 @@
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="266" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B13" s="264"/>
       <c r="C13" s="264"/>
@@ -29637,7 +30387,7 @@
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="266" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B14" s="264"/>
       <c r="C14" s="264"/>
@@ -29672,7 +30422,7 @@
     </row>
     <row r="15" spans="1:22">
       <c r="A15" s="266" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B15" s="264"/>
       <c r="C15" s="264"/>
@@ -29707,7 +30457,7 @@
     </row>
     <row r="16" spans="1:22">
       <c r="A16" s="266" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B16" s="264"/>
       <c r="C16" s="264"/>
@@ -30398,7 +31148,7 @@
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="266" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B28" s="264"/>
       <c r="C28" s="264"/>
@@ -30433,7 +31183,7 @@
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="266" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B29" s="264"/>
       <c r="C29" s="264"/>
@@ -30468,7 +31218,7 @@
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="266" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B30" s="264"/>
       <c r="C30" s="264"/>
@@ -30503,7 +31253,7 @@
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="266" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B31" s="264"/>
       <c r="C31" s="264"/>
@@ -30538,7 +31288,7 @@
     </row>
     <row r="32" spans="1:21">
       <c r="A32" s="266" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B32" s="264"/>
       <c r="C32" s="264"/>
@@ -30573,7 +31323,7 @@
     </row>
     <row r="33" spans="1:22">
       <c r="A33" s="266" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B33" s="264">
         <f t="shared" ref="B33:F33" si="7">(B28+B29+B30+B31+B32)*12*B9</f>
@@ -30658,7 +31408,7 @@
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="266" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B34" s="264">
         <f t="shared" ref="B34:U34" si="9">B25+B33</f>
@@ -30743,7 +31493,7 @@
     </row>
     <row r="35" spans="1:22">
       <c r="A35" s="266" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B35" s="264">
         <f>B34</f>
@@ -30893,7 +31643,7 @@
     </row>
     <row r="40" spans="1:22">
       <c r="A40" s="153" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B40" s="153">
         <v>0</v>
@@ -30961,7 +31711,7 @@
     </row>
     <row r="41" spans="1:22">
       <c r="A41" s="153" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B41" s="153">
         <v>0</v>

--- a/Таблицы2017.xlsx
+++ b/Таблицы2017.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="13500" tabRatio="541" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="13500" tabRatio="541" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Slide5" sheetId="1" r:id="rId1"/>
@@ -17,8 +17,8 @@
     <sheet name="Slide9" sheetId="3" r:id="rId3"/>
     <sheet name="Slide14" sheetId="4" r:id="rId4"/>
     <sheet name="Slide21" sheetId="5" r:id="rId5"/>
-    <sheet name="Slide23" sheetId="6" r:id="rId6"/>
-    <sheet name="Slide22" sheetId="10" r:id="rId7"/>
+    <sheet name="Slide22" sheetId="11" r:id="rId6"/>
+    <sheet name="Slide23" sheetId="6" r:id="rId7"/>
     <sheet name="Модель бездетной" sheetId="8" r:id="rId8"/>
     <sheet name="Модель многодетной" sheetId="9" r:id="rId9"/>
   </sheets>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="505">
   <si>
     <t xml:space="preserve">Демографические параметры населения Украины. Без изменений политики </t>
   </si>
@@ -1759,6 +1759,21 @@
   <si>
     <t>http://www.ukrstat.gov.ua/druk/publicat/kat_u/2018/zb/06/zb_ztutp2017.xls</t>
   </si>
+  <si>
+    <t>млн.дол.США</t>
+  </si>
+  <si>
+    <t>Випуск товарів та послуг</t>
+  </si>
+  <si>
+    <t>Екпорт</t>
+  </si>
+  <si>
+    <t>Імпорт</t>
+  </si>
+  <si>
+    <t>Споживання в Україні</t>
+  </si>
 </sst>
 </file>
 
@@ -1770,7 +1785,7 @@
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="60">
+  <fonts count="61">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2211,6 +2226,14 @@
       <b/>
       <sz val="8"/>
       <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="7.5"/>
+      <color theme="1"/>
       <name val="Verdana"/>
       <family val="2"/>
       <charset val="204"/>
@@ -3084,7 +3107,7 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="373">
+  <cellXfs count="378">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3742,28 +3765,246 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="42" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="43" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="46" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="47" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="48" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="49" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="46" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="47" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="48" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="0" borderId="53" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="0" borderId="52" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="36" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="56" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="52" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="58" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="40" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="5" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyAlignment="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -3774,9 +4015,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="40" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3792,221 +4030,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="30" fillId="0" borderId="53" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="30" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="30" fillId="0" borderId="52" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="36" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="56" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="52" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="58" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="5" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="49" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="46" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="47" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="48" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="46" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="47" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="48" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="42" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="43" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="40" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4031,44 +4054,59 @@
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="48" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="48" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="26" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="26" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="33" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="33" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="48" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="48" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="26" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="26" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -5139,16 +5177,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="261" t="s">
+      <c r="A1" s="265" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="261"/>
-      <c r="C1" s="261"/>
-      <c r="D1" s="261"/>
-      <c r="E1" s="261"/>
-      <c r="F1" s="261"/>
-      <c r="G1" s="261"/>
-      <c r="H1" s="261"/>
+      <c r="B1" s="265"/>
+      <c r="C1" s="265"/>
+      <c r="D1" s="265"/>
+      <c r="E1" s="265"/>
+      <c r="F1" s="265"/>
+      <c r="G1" s="265"/>
+      <c r="H1" s="265"/>
     </row>
     <row r="2" spans="1:20">
       <c r="L2" s="58"/>
@@ -6359,18 +6397,18 @@
       <c r="A38" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="262" t="s">
+      <c r="B38" s="261" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="263"/>
-      <c r="D38" s="263"/>
-      <c r="E38" s="263"/>
-      <c r="F38" s="263"/>
-      <c r="G38" s="263"/>
-      <c r="H38" s="263"/>
-      <c r="I38" s="263"/>
-      <c r="J38" s="263"/>
-      <c r="K38" s="264"/>
+      <c r="C38" s="262"/>
+      <c r="D38" s="262"/>
+      <c r="E38" s="262"/>
+      <c r="F38" s="262"/>
+      <c r="G38" s="262"/>
+      <c r="H38" s="262"/>
+      <c r="I38" s="262"/>
+      <c r="J38" s="262"/>
+      <c r="K38" s="263"/>
     </row>
     <row r="39" spans="1:11" ht="15.75" thickBot="1">
       <c r="A39" s="44" t="s">
@@ -6528,36 +6566,36 @@
       </c>
     </row>
     <row r="45" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A45" s="265" t="s">
+      <c r="A45" s="264" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="265"/>
-      <c r="C45" s="265"/>
-      <c r="D45" s="265"/>
-      <c r="E45" s="265"/>
-      <c r="F45" s="265"/>
-      <c r="G45" s="265"/>
-      <c r="H45" s="265"/>
-      <c r="I45" s="265"/>
-      <c r="J45" s="265"/>
-      <c r="K45" s="265"/>
+      <c r="B45" s="264"/>
+      <c r="C45" s="264"/>
+      <c r="D45" s="264"/>
+      <c r="E45" s="264"/>
+      <c r="F45" s="264"/>
+      <c r="G45" s="264"/>
+      <c r="H45" s="264"/>
+      <c r="I45" s="264"/>
+      <c r="J45" s="264"/>
+      <c r="K45" s="264"/>
     </row>
     <row r="46" spans="1:11" ht="15.75" thickBot="1">
       <c r="A46" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B46" s="262" t="s">
+      <c r="B46" s="261" t="s">
         <v>31</v>
       </c>
-      <c r="C46" s="263"/>
-      <c r="D46" s="263"/>
-      <c r="E46" s="263"/>
-      <c r="F46" s="263"/>
-      <c r="G46" s="263"/>
-      <c r="H46" s="263"/>
-      <c r="I46" s="263"/>
-      <c r="J46" s="263"/>
-      <c r="K46" s="264"/>
+      <c r="C46" s="262"/>
+      <c r="D46" s="262"/>
+      <c r="E46" s="262"/>
+      <c r="F46" s="262"/>
+      <c r="G46" s="262"/>
+      <c r="H46" s="262"/>
+      <c r="I46" s="262"/>
+      <c r="J46" s="262"/>
+      <c r="K46" s="263"/>
     </row>
     <row r="47" spans="1:11" ht="15.75" thickBot="1">
       <c r="A47" s="44" t="s">
@@ -7720,36 +7758,36 @@
       </c>
     </row>
     <row r="89" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A89" s="265" t="s">
+      <c r="A89" s="264" t="s">
         <v>47</v>
       </c>
-      <c r="B89" s="265"/>
-      <c r="C89" s="265"/>
-      <c r="D89" s="265"/>
-      <c r="E89" s="265"/>
-      <c r="F89" s="265"/>
-      <c r="G89" s="265"/>
-      <c r="H89" s="265"/>
-      <c r="I89" s="265"/>
-      <c r="J89" s="265"/>
-      <c r="K89" s="265"/>
+      <c r="B89" s="264"/>
+      <c r="C89" s="264"/>
+      <c r="D89" s="264"/>
+      <c r="E89" s="264"/>
+      <c r="F89" s="264"/>
+      <c r="G89" s="264"/>
+      <c r="H89" s="264"/>
+      <c r="I89" s="264"/>
+      <c r="J89" s="264"/>
+      <c r="K89" s="264"/>
     </row>
     <row r="90" spans="1:11" ht="15.75" thickBot="1">
       <c r="A90" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B90" s="262" t="s">
+      <c r="B90" s="261" t="s">
         <v>31</v>
       </c>
-      <c r="C90" s="263"/>
-      <c r="D90" s="263"/>
-      <c r="E90" s="263"/>
-      <c r="F90" s="263"/>
-      <c r="G90" s="263"/>
-      <c r="H90" s="263"/>
-      <c r="I90" s="263"/>
-      <c r="J90" s="263"/>
-      <c r="K90" s="264"/>
+      <c r="C90" s="262"/>
+      <c r="D90" s="262"/>
+      <c r="E90" s="262"/>
+      <c r="F90" s="262"/>
+      <c r="G90" s="262"/>
+      <c r="H90" s="262"/>
+      <c r="I90" s="262"/>
+      <c r="J90" s="262"/>
+      <c r="K90" s="263"/>
     </row>
     <row r="91" spans="1:11" ht="15.75" thickBot="1">
       <c r="A91" s="44" t="s">
@@ -8054,36 +8092,36 @@
       <c r="J101" s="49"/>
     </row>
     <row r="102" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A102" s="265" t="s">
+      <c r="A102" s="264" t="s">
         <v>54</v>
       </c>
-      <c r="B102" s="265"/>
-      <c r="C102" s="265"/>
-      <c r="D102" s="265"/>
-      <c r="E102" s="265"/>
-      <c r="F102" s="265"/>
-      <c r="G102" s="265"/>
-      <c r="H102" s="265"/>
-      <c r="I102" s="265"/>
-      <c r="J102" s="265"/>
-      <c r="K102" s="265"/>
+      <c r="B102" s="264"/>
+      <c r="C102" s="264"/>
+      <c r="D102" s="264"/>
+      <c r="E102" s="264"/>
+      <c r="F102" s="264"/>
+      <c r="G102" s="264"/>
+      <c r="H102" s="264"/>
+      <c r="I102" s="264"/>
+      <c r="J102" s="264"/>
+      <c r="K102" s="264"/>
     </row>
     <row r="103" spans="1:11" ht="15.75" thickBot="1">
       <c r="A103" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B103" s="262" t="s">
+      <c r="B103" s="261" t="s">
         <v>31</v>
       </c>
-      <c r="C103" s="263"/>
-      <c r="D103" s="263"/>
-      <c r="E103" s="263"/>
-      <c r="F103" s="263"/>
-      <c r="G103" s="263"/>
-      <c r="H103" s="263"/>
-      <c r="I103" s="263"/>
-      <c r="J103" s="263"/>
-      <c r="K103" s="264"/>
+      <c r="C103" s="262"/>
+      <c r="D103" s="262"/>
+      <c r="E103" s="262"/>
+      <c r="F103" s="262"/>
+      <c r="G103" s="262"/>
+      <c r="H103" s="262"/>
+      <c r="I103" s="262"/>
+      <c r="J103" s="262"/>
+      <c r="K103" s="263"/>
     </row>
     <row r="104" spans="1:11" ht="15.75" thickBot="1">
       <c r="A104" s="44" t="s">
@@ -8382,15 +8420,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B105:K105"/>
-    <mergeCell ref="B106:K106"/>
-    <mergeCell ref="B110:K110"/>
-    <mergeCell ref="B90:K90"/>
-    <mergeCell ref="B92:K92"/>
-    <mergeCell ref="B93:K93"/>
-    <mergeCell ref="B97:K97"/>
-    <mergeCell ref="A102:K102"/>
-    <mergeCell ref="B103:K103"/>
+    <mergeCell ref="B48:K48"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B38:K38"/>
+    <mergeCell ref="B40:K40"/>
+    <mergeCell ref="A45:K45"/>
+    <mergeCell ref="B46:K46"/>
     <mergeCell ref="A89:K89"/>
     <mergeCell ref="B49:K49"/>
     <mergeCell ref="B53:K53"/>
@@ -8403,12 +8438,15 @@
     <mergeCell ref="B75:K75"/>
     <mergeCell ref="B79:K79"/>
     <mergeCell ref="B83:K83"/>
-    <mergeCell ref="B48:K48"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B38:K38"/>
-    <mergeCell ref="B40:K40"/>
-    <mergeCell ref="A45:K45"/>
-    <mergeCell ref="B46:K46"/>
+    <mergeCell ref="B105:K105"/>
+    <mergeCell ref="B106:K106"/>
+    <mergeCell ref="B110:K110"/>
+    <mergeCell ref="B90:K90"/>
+    <mergeCell ref="B92:K92"/>
+    <mergeCell ref="B93:K93"/>
+    <mergeCell ref="B97:K97"/>
+    <mergeCell ref="A102:K102"/>
+    <mergeCell ref="B103:K103"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A115" r:id="rId1"/>
@@ -8434,16 +8472,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:11">
-      <c r="A3" s="261" t="s">
+      <c r="A3" s="265" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="261"/>
-      <c r="C3" s="261"/>
-      <c r="D3" s="261"/>
-      <c r="E3" s="261"/>
-      <c r="F3" s="261"/>
-      <c r="G3" s="261"/>
-      <c r="H3" s="261"/>
+      <c r="B3" s="265"/>
+      <c r="C3" s="265"/>
+      <c r="D3" s="265"/>
+      <c r="E3" s="265"/>
+      <c r="F3" s="265"/>
+      <c r="G3" s="265"/>
+      <c r="H3" s="265"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
@@ -10575,93 +10613,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75">
-      <c r="A1" s="320" t="s">
+      <c r="A1" s="268" t="s">
         <v>474</v>
       </c>
-      <c r="B1" s="320"/>
-      <c r="C1" s="320"/>
-      <c r="D1" s="320"/>
-      <c r="E1" s="320"/>
-      <c r="F1" s="320"/>
-      <c r="G1" s="320"/>
-      <c r="H1" s="320"/>
-      <c r="I1" s="320"/>
-      <c r="J1" s="320"/>
-      <c r="K1" s="320"/>
-      <c r="L1" s="320"/>
-      <c r="M1" s="320"/>
+      <c r="B1" s="268"/>
+      <c r="C1" s="268"/>
+      <c r="D1" s="268"/>
+      <c r="E1" s="268"/>
+      <c r="F1" s="268"/>
+      <c r="G1" s="268"/>
+      <c r="H1" s="268"/>
+      <c r="I1" s="268"/>
+      <c r="J1" s="268"/>
+      <c r="K1" s="268"/>
+      <c r="L1" s="268"/>
+      <c r="M1" s="268"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="3" spans="1:13">
-      <c r="A3" s="321" t="s">
+      <c r="A3" s="269" t="s">
         <v>84</v>
       </c>
       <c r="B3" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="324" t="s">
+      <c r="C3" s="272" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="325"/>
-      <c r="E3" s="325"/>
-      <c r="F3" s="326"/>
-      <c r="G3" s="327" t="s">
+      <c r="D3" s="273"/>
+      <c r="E3" s="273"/>
+      <c r="F3" s="274"/>
+      <c r="G3" s="275" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="328"/>
-      <c r="I3" s="328"/>
-      <c r="J3" s="329"/>
-      <c r="K3" s="330" t="s">
+      <c r="H3" s="276"/>
+      <c r="I3" s="276"/>
+      <c r="J3" s="277"/>
+      <c r="K3" s="278" t="s">
         <v>88</v>
       </c>
-      <c r="L3" s="331"/>
-      <c r="M3" s="332"/>
+      <c r="L3" s="279"/>
+      <c r="M3" s="280"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="322"/>
+      <c r="A4" s="270"/>
       <c r="B4" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="339">
+      <c r="C4" s="287">
         <v>42.5</v>
       </c>
-      <c r="D4" s="340"/>
-      <c r="E4" s="340"/>
-      <c r="F4" s="341"/>
-      <c r="G4" s="342">
+      <c r="D4" s="288"/>
+      <c r="E4" s="288"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="290">
         <v>511.8</v>
       </c>
-      <c r="H4" s="343"/>
-      <c r="I4" s="343"/>
-      <c r="J4" s="344"/>
-      <c r="K4" s="333"/>
-      <c r="L4" s="334"/>
-      <c r="M4" s="335"/>
+      <c r="H4" s="291"/>
+      <c r="I4" s="291"/>
+      <c r="J4" s="292"/>
+      <c r="K4" s="281"/>
+      <c r="L4" s="282"/>
+      <c r="M4" s="283"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="322"/>
+      <c r="A5" s="270"/>
       <c r="B5" s="68" t="s">
         <v>475</v>
       </c>
-      <c r="C5" s="345">
+      <c r="C5" s="293">
         <f>33.4954</f>
         <v>33.495399999999997</v>
       </c>
-      <c r="D5" s="346"/>
-      <c r="E5" s="346"/>
-      <c r="F5" s="347"/>
-      <c r="G5" s="348">
+      <c r="D5" s="294"/>
+      <c r="E5" s="294"/>
+      <c r="F5" s="295"/>
+      <c r="G5" s="296">
         <v>1</v>
       </c>
-      <c r="H5" s="349"/>
-      <c r="I5" s="349"/>
-      <c r="J5" s="350"/>
-      <c r="K5" s="336"/>
-      <c r="L5" s="337"/>
-      <c r="M5" s="338"/>
+      <c r="H5" s="297"/>
+      <c r="I5" s="297"/>
+      <c r="J5" s="298"/>
+      <c r="K5" s="284"/>
+      <c r="L5" s="285"/>
+      <c r="M5" s="286"/>
     </row>
     <row r="6" spans="1:13" ht="52.5" thickBot="1">
-      <c r="A6" s="323"/>
+      <c r="A6" s="271"/>
       <c r="B6" s="69" t="s">
         <v>90</v>
       </c>
@@ -11568,20 +11606,20 @@
       <c r="F30" s="52" t="s">
         <v>136</v>
       </c>
-      <c r="I30" s="351" t="s">
+      <c r="I30" s="299" t="s">
         <v>251</v>
       </c>
-      <c r="J30" s="351"/>
-      <c r="K30" s="351"/>
-      <c r="L30" s="351"/>
-      <c r="M30" s="351"/>
-      <c r="N30" s="351"/>
-      <c r="O30" s="351"/>
-      <c r="P30" s="351"/>
-      <c r="Q30" s="351"/>
-      <c r="R30" s="351"/>
-      <c r="S30" s="351"/>
-      <c r="T30" s="351"/>
+      <c r="J30" s="299"/>
+      <c r="K30" s="299"/>
+      <c r="L30" s="299"/>
+      <c r="M30" s="299"/>
+      <c r="N30" s="299"/>
+      <c r="O30" s="299"/>
+      <c r="P30" s="299"/>
+      <c r="Q30" s="299"/>
+      <c r="R30" s="299"/>
+      <c r="S30" s="299"/>
+      <c r="T30" s="299"/>
       <c r="U30" s="111"/>
       <c r="V30" s="111"/>
     </row>
@@ -11616,10 +11654,10 @@
       <c r="R31" s="111"/>
       <c r="S31" s="111"/>
       <c r="T31" s="111"/>
-      <c r="U31" s="318" t="s">
+      <c r="U31" s="266" t="s">
         <v>252</v>
       </c>
-      <c r="V31" s="319"/>
+      <c r="V31" s="267"/>
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="52">
@@ -13182,46 +13220,46 @@
       <c r="F59" t="s">
         <v>196</v>
       </c>
-      <c r="I59" s="296" t="s">
+      <c r="I59" s="308" t="s">
         <v>283</v>
       </c>
-      <c r="J59" s="298">
+      <c r="J59" s="314">
         <v>6332.1</v>
       </c>
-      <c r="K59" s="298">
+      <c r="K59" s="314">
         <v>7771</v>
       </c>
-      <c r="L59" s="298">
+      <c r="L59" s="314">
         <v>10126</v>
       </c>
-      <c r="M59" s="298">
+      <c r="M59" s="314">
         <v>13716.3</v>
       </c>
-      <c r="N59" s="298">
+      <c r="N59" s="314">
         <v>14372.8</v>
       </c>
-      <c r="O59" s="298">
+      <c r="O59" s="314">
         <v>18485.599999999999</v>
       </c>
-      <c r="P59" s="298">
+      <c r="P59" s="314">
         <v>21637.9</v>
       </c>
-      <c r="Q59" s="298">
+      <c r="Q59" s="314">
         <v>25206.400000000001</v>
       </c>
-      <c r="R59" s="316">
+      <c r="R59" s="320">
         <v>26719.4</v>
       </c>
-      <c r="S59" s="298">
+      <c r="S59" s="314">
         <v>26782.1</v>
       </c>
-      <c r="T59" s="290">
+      <c r="T59" s="322">
         <v>31803.1</v>
       </c>
-      <c r="U59" s="309">
+      <c r="U59" s="306">
         <v>37079.9</v>
       </c>
-      <c r="V59" s="312">
+      <c r="V59" s="316">
         <v>47269.7</v>
       </c>
     </row>
@@ -13244,20 +13282,20 @@
       <c r="F60" t="s">
         <v>198</v>
       </c>
-      <c r="I60" s="297"/>
-      <c r="J60" s="299"/>
-      <c r="K60" s="299"/>
-      <c r="L60" s="299"/>
-      <c r="M60" s="299"/>
-      <c r="N60" s="299"/>
-      <c r="O60" s="299"/>
-      <c r="P60" s="299"/>
-      <c r="Q60" s="299"/>
-      <c r="R60" s="317"/>
-      <c r="S60" s="299"/>
-      <c r="T60" s="292"/>
-      <c r="U60" s="310"/>
-      <c r="V60" s="313"/>
+      <c r="I60" s="310"/>
+      <c r="J60" s="315"/>
+      <c r="K60" s="315"/>
+      <c r="L60" s="315"/>
+      <c r="M60" s="315"/>
+      <c r="N60" s="315"/>
+      <c r="O60" s="315"/>
+      <c r="P60" s="315"/>
+      <c r="Q60" s="315"/>
+      <c r="R60" s="321"/>
+      <c r="S60" s="315"/>
+      <c r="T60" s="323"/>
+      <c r="U60" s="307"/>
+      <c r="V60" s="317"/>
     </row>
     <row r="61" spans="1:22">
       <c r="A61" s="52">
@@ -13278,46 +13316,46 @@
       <c r="F61" t="s">
         <v>200</v>
       </c>
-      <c r="I61" s="296" t="s">
+      <c r="I61" s="308" t="s">
         <v>284</v>
       </c>
-      <c r="J61" s="293">
+      <c r="J61" s="311">
         <v>123.9</v>
       </c>
-      <c r="K61" s="293">
+      <c r="K61" s="311">
         <v>111.8</v>
       </c>
-      <c r="L61" s="293">
+      <c r="L61" s="311">
         <v>114.8</v>
       </c>
-      <c r="M61" s="293">
+      <c r="M61" s="311">
         <v>107.6</v>
       </c>
-      <c r="N61" s="293">
+      <c r="N61" s="311">
         <v>90</v>
       </c>
-      <c r="O61" s="293">
+      <c r="O61" s="311">
         <v>117.1</v>
       </c>
-      <c r="P61" s="293">
+      <c r="P61" s="311">
         <v>108</v>
       </c>
-      <c r="Q61" s="293">
+      <c r="Q61" s="311">
         <v>113.9</v>
       </c>
-      <c r="R61" s="300">
+      <c r="R61" s="325">
         <v>106.1</v>
       </c>
-      <c r="S61" s="293">
+      <c r="S61" s="311">
         <v>88.5</v>
       </c>
-      <c r="T61" s="290">
+      <c r="T61" s="322">
         <v>79.599999999999994</v>
       </c>
-      <c r="U61" s="306">
+      <c r="U61" s="303">
         <v>102</v>
       </c>
-      <c r="V61" s="314">
+      <c r="V61" s="318">
         <v>110.9</v>
       </c>
     </row>
@@ -13340,20 +13378,20 @@
       <c r="F62" t="s">
         <v>202</v>
       </c>
-      <c r="I62" s="311"/>
-      <c r="J62" s="294"/>
-      <c r="K62" s="294"/>
-      <c r="L62" s="294"/>
-      <c r="M62" s="294"/>
-      <c r="N62" s="294"/>
-      <c r="O62" s="294"/>
-      <c r="P62" s="294"/>
-      <c r="Q62" s="294"/>
-      <c r="R62" s="301"/>
-      <c r="S62" s="294"/>
-      <c r="T62" s="291"/>
-      <c r="U62" s="307"/>
-      <c r="V62" s="315"/>
+      <c r="I62" s="309"/>
+      <c r="J62" s="312"/>
+      <c r="K62" s="312"/>
+      <c r="L62" s="312"/>
+      <c r="M62" s="312"/>
+      <c r="N62" s="312"/>
+      <c r="O62" s="312"/>
+      <c r="P62" s="312"/>
+      <c r="Q62" s="312"/>
+      <c r="R62" s="326"/>
+      <c r="S62" s="312"/>
+      <c r="T62" s="324"/>
+      <c r="U62" s="304"/>
+      <c r="V62" s="319"/>
     </row>
     <row r="63" spans="1:22">
       <c r="A63" s="52">
@@ -13374,20 +13412,20 @@
       <c r="F63" t="s">
         <v>204</v>
       </c>
-      <c r="I63" s="297"/>
-      <c r="J63" s="295"/>
-      <c r="K63" s="295"/>
-      <c r="L63" s="295"/>
-      <c r="M63" s="295"/>
-      <c r="N63" s="295"/>
-      <c r="O63" s="295"/>
-      <c r="P63" s="295"/>
-      <c r="Q63" s="295"/>
-      <c r="R63" s="302"/>
-      <c r="S63" s="295"/>
-      <c r="T63" s="292"/>
-      <c r="U63" s="308"/>
-      <c r="V63" s="315"/>
+      <c r="I63" s="310"/>
+      <c r="J63" s="313"/>
+      <c r="K63" s="313"/>
+      <c r="L63" s="313"/>
+      <c r="M63" s="313"/>
+      <c r="N63" s="313"/>
+      <c r="O63" s="313"/>
+      <c r="P63" s="313"/>
+      <c r="Q63" s="313"/>
+      <c r="R63" s="327"/>
+      <c r="S63" s="313"/>
+      <c r="T63" s="323"/>
+      <c r="U63" s="305"/>
+      <c r="V63" s="319"/>
     </row>
     <row r="64" spans="1:22" ht="16.5">
       <c r="A64" s="52">
@@ -13408,22 +13446,22 @@
       <c r="F64" t="s">
         <v>154</v>
       </c>
-      <c r="I64" s="303" t="s">
+      <c r="I64" s="300" t="s">
         <v>285</v>
       </c>
-      <c r="J64" s="303"/>
-      <c r="K64" s="303"/>
-      <c r="L64" s="303"/>
-      <c r="M64" s="303"/>
-      <c r="N64" s="303"/>
-      <c r="O64" s="303"/>
-      <c r="P64" s="303"/>
-      <c r="Q64" s="303"/>
-      <c r="R64" s="303"/>
-      <c r="S64" s="303"/>
-      <c r="T64" s="303"/>
-      <c r="U64" s="303"/>
-      <c r="V64" s="304"/>
+      <c r="J64" s="300"/>
+      <c r="K64" s="300"/>
+      <c r="L64" s="300"/>
+      <c r="M64" s="300"/>
+      <c r="N64" s="300"/>
+      <c r="O64" s="300"/>
+      <c r="P64" s="300"/>
+      <c r="Q64" s="300"/>
+      <c r="R64" s="300"/>
+      <c r="S64" s="300"/>
+      <c r="T64" s="300"/>
+      <c r="U64" s="300"/>
+      <c r="V64" s="301"/>
     </row>
     <row r="65" spans="1:22">
       <c r="A65" s="52">
@@ -13444,22 +13482,22 @@
       <c r="F65" t="s">
         <v>154</v>
       </c>
-      <c r="I65" s="305" t="s">
+      <c r="I65" s="302" t="s">
         <v>286</v>
       </c>
-      <c r="J65" s="305"/>
-      <c r="K65" s="305"/>
-      <c r="L65" s="305"/>
-      <c r="M65" s="305"/>
-      <c r="N65" s="305"/>
-      <c r="O65" s="305"/>
-      <c r="P65" s="305"/>
-      <c r="Q65" s="305"/>
-      <c r="R65" s="305"/>
-      <c r="S65" s="305"/>
-      <c r="T65" s="305"/>
-      <c r="U65" s="305"/>
-      <c r="V65" s="304"/>
+      <c r="J65" s="302"/>
+      <c r="K65" s="302"/>
+      <c r="L65" s="302"/>
+      <c r="M65" s="302"/>
+      <c r="N65" s="302"/>
+      <c r="O65" s="302"/>
+      <c r="P65" s="302"/>
+      <c r="Q65" s="302"/>
+      <c r="R65" s="302"/>
+      <c r="S65" s="302"/>
+      <c r="T65" s="302"/>
+      <c r="U65" s="302"/>
+      <c r="V65" s="301"/>
     </row>
     <row r="66" spans="1:22">
       <c r="A66" s="52">
@@ -13541,16 +13579,16 @@
         <v>213</v>
       </c>
       <c r="I69" s="136"/>
-      <c r="J69" s="279" t="s">
+      <c r="J69" s="328" t="s">
         <v>287</v>
       </c>
-      <c r="K69" s="279"/>
-      <c r="L69" s="279"/>
-      <c r="M69" s="279"/>
-      <c r="N69" s="279"/>
-      <c r="O69" s="279"/>
-      <c r="P69" s="279"/>
-      <c r="Q69" s="279"/>
+      <c r="K69" s="328"/>
+      <c r="L69" s="328"/>
+      <c r="M69" s="328"/>
+      <c r="N69" s="328"/>
+      <c r="O69" s="328"/>
+      <c r="P69" s="328"/>
+      <c r="Q69" s="328"/>
       <c r="R69" s="136"/>
     </row>
     <row r="70" spans="1:22">
@@ -13572,18 +13610,18 @@
       <c r="F70" t="s">
         <v>215</v>
       </c>
-      <c r="I70" s="283" t="s">
+      <c r="I70" s="332" t="s">
         <v>288</v>
       </c>
-      <c r="J70" s="283"/>
-      <c r="K70" s="283"/>
-      <c r="L70" s="283"/>
-      <c r="M70" s="283"/>
-      <c r="N70" s="283"/>
-      <c r="O70" s="283"/>
-      <c r="P70" s="283"/>
-      <c r="Q70" s="283"/>
-      <c r="R70" s="283"/>
+      <c r="J70" s="332"/>
+      <c r="K70" s="332"/>
+      <c r="L70" s="332"/>
+      <c r="M70" s="332"/>
+      <c r="N70" s="332"/>
+      <c r="O70" s="332"/>
+      <c r="P70" s="332"/>
+      <c r="Q70" s="332"/>
+      <c r="R70" s="332"/>
     </row>
     <row r="71" spans="1:22">
       <c r="A71" s="52">
@@ -13702,16 +13740,16 @@
       <c r="J73" s="138" t="s">
         <v>294</v>
       </c>
-      <c r="K73" s="280" t="s">
+      <c r="K73" s="329" t="s">
         <v>295</v>
       </c>
-      <c r="L73" s="281"/>
-      <c r="M73" s="281"/>
-      <c r="N73" s="281"/>
-      <c r="O73" s="281"/>
-      <c r="P73" s="281"/>
-      <c r="Q73" s="281"/>
-      <c r="R73" s="282"/>
+      <c r="L73" s="330"/>
+      <c r="M73" s="330"/>
+      <c r="N73" s="330"/>
+      <c r="O73" s="330"/>
+      <c r="P73" s="330"/>
+      <c r="Q73" s="330"/>
+      <c r="R73" s="331"/>
     </row>
     <row r="74" spans="1:22" ht="25.5">
       <c r="A74" s="52">
@@ -14392,64 +14430,64 @@
       </c>
     </row>
     <row r="96" spans="1:18" ht="15.75">
-      <c r="C96" s="269" t="s">
+      <c r="C96" s="343" t="s">
         <v>310</v>
       </c>
-      <c r="D96" s="269"/>
-      <c r="E96" s="269"/>
-      <c r="F96" s="269"/>
-      <c r="G96" s="269"/>
-      <c r="H96" s="269"/>
-      <c r="I96" s="269"/>
-      <c r="J96" s="270"/>
+      <c r="D96" s="343"/>
+      <c r="E96" s="343"/>
+      <c r="F96" s="343"/>
+      <c r="G96" s="343"/>
+      <c r="H96" s="343"/>
+      <c r="I96" s="343"/>
+      <c r="J96" s="344"/>
     </row>
     <row r="97" spans="3:10">
-      <c r="C97" s="285"/>
-      <c r="D97" s="273">
+      <c r="C97" s="335"/>
+      <c r="D97" s="338">
         <v>2017</v>
       </c>
-      <c r="E97" s="288"/>
-      <c r="F97" s="288"/>
-      <c r="G97" s="288"/>
-      <c r="H97" s="288"/>
-      <c r="I97" s="288"/>
-      <c r="J97" s="289"/>
+      <c r="E97" s="339"/>
+      <c r="F97" s="339"/>
+      <c r="G97" s="339"/>
+      <c r="H97" s="339"/>
+      <c r="I97" s="339"/>
+      <c r="J97" s="340"/>
     </row>
     <row r="98" spans="3:10">
-      <c r="C98" s="286"/>
-      <c r="D98" s="271" t="s">
+      <c r="C98" s="336"/>
+      <c r="D98" s="345" t="s">
         <v>311</v>
       </c>
-      <c r="E98" s="273" t="s">
+      <c r="E98" s="338" t="s">
         <v>312</v>
       </c>
-      <c r="F98" s="274"/>
-      <c r="G98" s="271" t="s">
+      <c r="F98" s="347"/>
+      <c r="G98" s="345" t="s">
         <v>313</v>
       </c>
-      <c r="H98" s="276" t="s">
+      <c r="H98" s="349" t="s">
         <v>314</v>
       </c>
-      <c r="I98" s="276" t="s">
+      <c r="I98" s="349" t="s">
         <v>315</v>
       </c>
-      <c r="J98" s="273" t="s">
+      <c r="J98" s="338" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="99" spans="3:10">
-      <c r="C99" s="287"/>
-      <c r="D99" s="272"/>
+      <c r="C99" s="337"/>
+      <c r="D99" s="346"/>
       <c r="E99" s="163" t="s">
         <v>317</v>
       </c>
       <c r="F99" s="162" t="s">
         <v>318</v>
       </c>
-      <c r="G99" s="275"/>
-      <c r="H99" s="277"/>
-      <c r="I99" s="277"/>
-      <c r="J99" s="278"/>
+      <c r="G99" s="348"/>
+      <c r="H99" s="350"/>
+      <c r="I99" s="350"/>
+      <c r="J99" s="351"/>
     </row>
     <row r="100" spans="3:10" ht="51">
       <c r="C100" s="165" t="s">
@@ -14478,16 +14516,16 @@
       </c>
     </row>
     <row r="101" spans="3:10">
-      <c r="C101" s="284" t="s">
+      <c r="C101" s="333" t="s">
         <v>295</v>
       </c>
-      <c r="D101" s="268"/>
-      <c r="E101" s="268"/>
-      <c r="F101" s="268"/>
-      <c r="G101" s="268"/>
-      <c r="H101" s="268"/>
-      <c r="I101" s="268"/>
-      <c r="J101" s="268"/>
+      <c r="D101" s="334"/>
+      <c r="E101" s="334"/>
+      <c r="F101" s="334"/>
+      <c r="G101" s="334"/>
+      <c r="H101" s="334"/>
+      <c r="I101" s="334"/>
+      <c r="J101" s="334"/>
     </row>
     <row r="102" spans="3:10" ht="38.25">
       <c r="C102" s="166" t="s">
@@ -14519,12 +14557,12 @@
       <c r="C103" s="167" t="s">
         <v>321</v>
       </c>
-      <c r="D103" s="284"/>
-      <c r="E103" s="284"/>
-      <c r="F103" s="284"/>
-      <c r="G103" s="284"/>
-      <c r="H103" s="284"/>
-      <c r="I103" s="284"/>
+      <c r="D103" s="333"/>
+      <c r="E103" s="333"/>
+      <c r="F103" s="333"/>
+      <c r="G103" s="333"/>
+      <c r="H103" s="333"/>
+      <c r="I103" s="333"/>
       <c r="J103" s="178"/>
     </row>
     <row r="104" spans="3:10" ht="89.25">
@@ -15266,30 +15304,48 @@
       <c r="J133" s="153"/>
     </row>
     <row r="134" spans="3:10">
-      <c r="C134" s="266" t="s">
+      <c r="C134" s="341" t="s">
         <v>352</v>
       </c>
-      <c r="D134" s="267"/>
-      <c r="E134" s="267"/>
-      <c r="F134" s="267"/>
-      <c r="G134" s="267"/>
-      <c r="H134" s="267"/>
-      <c r="I134" s="267"/>
-      <c r="J134" s="268"/>
+      <c r="D134" s="342"/>
+      <c r="E134" s="342"/>
+      <c r="F134" s="342"/>
+      <c r="G134" s="342"/>
+      <c r="H134" s="342"/>
+      <c r="I134" s="342"/>
+      <c r="J134" s="334"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="U31:V31"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="K3:M5"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="I30:T30"/>
+    <mergeCell ref="C134:J134"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="I98:I99"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="J98:J99"/>
+    <mergeCell ref="J69:Q69"/>
+    <mergeCell ref="K73:R73"/>
+    <mergeCell ref="I70:R70"/>
+    <mergeCell ref="C101:J101"/>
+    <mergeCell ref="D103:I103"/>
+    <mergeCell ref="C97:C99"/>
+    <mergeCell ref="D97:J97"/>
+    <mergeCell ref="T61:T63"/>
+    <mergeCell ref="N61:N63"/>
+    <mergeCell ref="O61:O63"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="Q61:Q63"/>
+    <mergeCell ref="R61:R63"/>
+    <mergeCell ref="P61:P63"/>
+    <mergeCell ref="N59:N60"/>
+    <mergeCell ref="M59:M60"/>
+    <mergeCell ref="S61:S63"/>
+    <mergeCell ref="O59:O60"/>
+    <mergeCell ref="P59:P60"/>
     <mergeCell ref="I64:V64"/>
     <mergeCell ref="I65:V65"/>
     <mergeCell ref="U61:U63"/>
@@ -15306,35 +15362,17 @@
     <mergeCell ref="R59:R60"/>
     <mergeCell ref="S59:S60"/>
     <mergeCell ref="T59:T60"/>
-    <mergeCell ref="T61:T63"/>
-    <mergeCell ref="N61:N63"/>
-    <mergeCell ref="O61:O63"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="Q61:Q63"/>
-    <mergeCell ref="R61:R63"/>
-    <mergeCell ref="P61:P63"/>
-    <mergeCell ref="N59:N60"/>
-    <mergeCell ref="M59:M60"/>
-    <mergeCell ref="S61:S63"/>
-    <mergeCell ref="O59:O60"/>
-    <mergeCell ref="P59:P60"/>
-    <mergeCell ref="J69:Q69"/>
-    <mergeCell ref="K73:R73"/>
-    <mergeCell ref="I70:R70"/>
-    <mergeCell ref="C101:J101"/>
-    <mergeCell ref="D103:I103"/>
-    <mergeCell ref="C97:C99"/>
-    <mergeCell ref="D97:J97"/>
-    <mergeCell ref="C134:J134"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="I98:I99"/>
-    <mergeCell ref="H98:H99"/>
-    <mergeCell ref="J98:J99"/>
+    <mergeCell ref="U31:V31"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="K3:M5"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="I30:T30"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -15347,8 +15385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH152"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView topLeftCell="N7" workbookViewId="0">
+      <selection activeCell="AK9" sqref="AK9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17781,9 +17819,409 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="45.7109375" style="153" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="377" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="153" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="153" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="153" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="153" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="153"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="26.45" customHeight="1">
+      <c r="B1" s="373" t="s">
+        <v>500</v>
+      </c>
+      <c r="C1" s="374" t="s">
+        <v>501</v>
+      </c>
+      <c r="D1" s="374" t="s">
+        <v>502</v>
+      </c>
+      <c r="E1" s="374" t="s">
+        <v>503</v>
+      </c>
+      <c r="F1" s="374" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="19.5">
+      <c r="A2" s="375" t="s">
+        <v>385</v>
+      </c>
+      <c r="B2" s="374" t="s">
+        <v>386</v>
+      </c>
+      <c r="C2" s="376">
+        <v>27347.555702608606</v>
+      </c>
+      <c r="D2" s="376">
+        <v>-10324.464884899999</v>
+      </c>
+      <c r="E2" s="376">
+        <v>2099.5766678800001</v>
+      </c>
+      <c r="F2" s="376">
+        <v>19122.667485588609</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="375" t="s">
+        <v>390</v>
+      </c>
+      <c r="B3" s="374" t="s">
+        <v>391</v>
+      </c>
+      <c r="C3" s="376">
+        <v>12939.887053232369</v>
+      </c>
+      <c r="D3" s="376">
+        <v>-3947.7218735599999</v>
+      </c>
+      <c r="E3" s="376">
+        <v>12504.73243502</v>
+      </c>
+      <c r="F3" s="376">
+        <v>29392.34136181237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="375" t="s">
+        <v>363</v>
+      </c>
+      <c r="B4" s="374" t="s">
+        <v>382</v>
+      </c>
+      <c r="C4" s="376">
+        <v>67869.464518021108</v>
+      </c>
+      <c r="D4" s="376">
+        <v>-30501.237616150007</v>
+      </c>
+      <c r="E4" s="376">
+        <v>34836.373559850006</v>
+      </c>
+      <c r="F4" s="376">
+        <v>72204.6004617211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="19.5">
+      <c r="A5" s="375" t="s">
+        <v>392</v>
+      </c>
+      <c r="B5" s="374" t="s">
+        <v>393</v>
+      </c>
+      <c r="C5" s="376">
+        <v>10677.492611837604</v>
+      </c>
+      <c r="D5" s="376"/>
+      <c r="E5" s="376"/>
+      <c r="F5" s="376"/>
+    </row>
+    <row r="6" spans="1:6" ht="19.5">
+      <c r="A6" s="375" t="s">
+        <v>411</v>
+      </c>
+      <c r="B6" s="374" t="s">
+        <v>412</v>
+      </c>
+      <c r="C6" s="376">
+        <v>1395.0655346924043</v>
+      </c>
+      <c r="D6" s="376"/>
+      <c r="E6" s="376"/>
+      <c r="F6" s="376"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="375" t="s">
+        <v>366</v>
+      </c>
+      <c r="B7" s="374" t="s">
+        <v>389</v>
+      </c>
+      <c r="C7" s="376">
+        <v>12275.854808509359</v>
+      </c>
+      <c r="D7" s="376">
+        <v>-102.25636999999999</v>
+      </c>
+      <c r="E7" s="376">
+        <v>106.65017999999999</v>
+      </c>
+      <c r="F7" s="376">
+        <v>12280.24861850936</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="19.5">
+      <c r="A8" s="375" t="s">
+        <v>383</v>
+      </c>
+      <c r="B8" s="374" t="s">
+        <v>384</v>
+      </c>
+      <c r="C8" s="376">
+        <v>31295.353541430108</v>
+      </c>
+      <c r="D8" s="376"/>
+      <c r="E8" s="376"/>
+      <c r="F8" s="376"/>
+    </row>
+    <row r="9" spans="1:6" ht="19.5">
+      <c r="A9" s="375" t="s">
+        <v>387</v>
+      </c>
+      <c r="B9" s="374" t="s">
+        <v>388</v>
+      </c>
+      <c r="C9" s="376">
+        <v>15809.689960370875</v>
+      </c>
+      <c r="D9" s="376">
+        <v>-5861.4056300000002</v>
+      </c>
+      <c r="E9" s="376">
+        <v>1213.0736299999999</v>
+      </c>
+      <c r="F9" s="376">
+        <v>11161.357960370875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="375" t="s">
+        <v>409</v>
+      </c>
+      <c r="B10" s="374" t="s">
+        <v>410</v>
+      </c>
+      <c r="C10" s="376">
+        <v>1418.865569283292</v>
+      </c>
+      <c r="D10" s="376"/>
+      <c r="E10" s="376"/>
+      <c r="F10" s="376"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="375" t="s">
+        <v>399</v>
+      </c>
+      <c r="B11" s="374" t="s">
+        <v>400</v>
+      </c>
+      <c r="C11" s="376">
+        <v>8484.505538301888</v>
+      </c>
+      <c r="D11" s="376">
+        <v>-1760.79458</v>
+      </c>
+      <c r="E11" s="376">
+        <v>423.96979999999996</v>
+      </c>
+      <c r="F11" s="376">
+        <v>7147.6807583018881</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="375" t="s">
+        <v>397</v>
+      </c>
+      <c r="B12" s="374" t="s">
+        <v>398</v>
+      </c>
+      <c r="C12" s="376">
+        <v>4554.7927178661939</v>
+      </c>
+      <c r="D12" s="376">
+        <v>-114.01109</v>
+      </c>
+      <c r="E12" s="376">
+        <v>552.91029000000003</v>
+      </c>
+      <c r="F12" s="376">
+        <v>4993.6919178661938</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="375" t="s">
+        <v>394</v>
+      </c>
+      <c r="B13" s="374" t="s">
+        <v>395</v>
+      </c>
+      <c r="C13" s="376">
+        <v>8953.8136453531661</v>
+      </c>
+      <c r="D13" s="376"/>
+      <c r="E13" s="376"/>
+      <c r="F13" s="376"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="375" t="s">
+        <v>403</v>
+      </c>
+      <c r="B14" s="374" t="s">
+        <v>404</v>
+      </c>
+      <c r="C14" s="376">
+        <v>6453.0804689321194</v>
+      </c>
+      <c r="D14" s="376"/>
+      <c r="E14" s="376"/>
+      <c r="F14" s="376"/>
+    </row>
+    <row r="15" spans="1:6" ht="19.5">
+      <c r="A15" s="375" t="s">
+        <v>407</v>
+      </c>
+      <c r="B15" s="374" t="s">
+        <v>408</v>
+      </c>
+      <c r="C15" s="376">
+        <v>2662.7463660768672</v>
+      </c>
+      <c r="D15" s="376">
+        <v>-950.91711000000009</v>
+      </c>
+      <c r="E15" s="376">
+        <v>1234.4308000000001</v>
+      </c>
+      <c r="F15" s="376">
+        <v>2946.2600560768669</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="19.5">
+      <c r="A16" s="375" t="s">
+        <v>401</v>
+      </c>
+      <c r="B16" s="374" t="s">
+        <v>402</v>
+      </c>
+      <c r="C16" s="376">
+        <v>8909.7854612995652</v>
+      </c>
+      <c r="D16" s="376">
+        <v>-3.8128699999999998</v>
+      </c>
+      <c r="E16" s="376">
+        <v>1055.27134</v>
+      </c>
+      <c r="F16" s="376">
+        <v>9961.2439312995648</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="375" t="s">
+        <v>368</v>
+      </c>
+      <c r="B17" s="374" t="s">
+        <v>396</v>
+      </c>
+      <c r="C17" s="376">
+        <v>6768.1959348187365</v>
+      </c>
+      <c r="D17" s="376"/>
+      <c r="E17" s="376"/>
+      <c r="F17" s="376"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="375" t="s">
+        <v>405</v>
+      </c>
+      <c r="B18" s="374" t="s">
+        <v>406</v>
+      </c>
+      <c r="C18" s="376">
+        <v>4961.9124248964154</v>
+      </c>
+      <c r="D18" s="376"/>
+      <c r="E18" s="376"/>
+      <c r="F18" s="376"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="375" t="s">
+        <v>415</v>
+      </c>
+      <c r="B19" s="374" t="s">
+        <v>416</v>
+      </c>
+      <c r="C19" s="376">
+        <v>1062.6922238180821</v>
+      </c>
+      <c r="D19" s="376">
+        <v>-242.74900000000002</v>
+      </c>
+      <c r="E19" s="376">
+        <v>795.17393000000004</v>
+      </c>
+      <c r="F19" s="376">
+        <v>1615.117153818082</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="375" t="s">
+        <v>413</v>
+      </c>
+      <c r="B20" s="374" t="s">
+        <v>414</v>
+      </c>
+      <c r="C20" s="376">
+        <v>1354.6092357669777</v>
+      </c>
+      <c r="D20" s="376">
+        <v>-14.73752</v>
+      </c>
+      <c r="E20" s="376">
+        <v>20.57396</v>
+      </c>
+      <c r="F20" s="376">
+        <f>SUM(C20:E20)</f>
+        <v>1360.4456757669777</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="375"/>
+      <c r="B21" s="374"/>
+      <c r="C21" s="376">
+        <f>SUM(C2:C20)</f>
+        <v>235195.3633171157</v>
+      </c>
+      <c r="D21" s="376">
+        <f t="shared" ref="D21:F21" si="0">SUM(D2:D20)</f>
+        <v>-53824.108544610019</v>
+      </c>
+      <c r="E21" s="376">
+        <f t="shared" si="0"/>
+        <v>54842.73659275</v>
+      </c>
+      <c r="F21" s="376">
+        <f t="shared" si="0"/>
+        <v>172185.65538113189</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>499</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C4" workbookViewId="0">
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
@@ -17804,99 +18242,99 @@
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="B2" s="362" t="s">
+      <c r="B2" s="364" t="s">
         <v>353</v>
       </c>
-      <c r="C2" s="362"/>
-      <c r="D2" s="362"/>
-      <c r="E2" s="362"/>
-      <c r="F2" s="362"/>
-      <c r="G2" s="362"/>
-      <c r="K2" s="362" t="s">
+      <c r="C2" s="364"/>
+      <c r="D2" s="364"/>
+      <c r="E2" s="364"/>
+      <c r="F2" s="364"/>
+      <c r="G2" s="364"/>
+      <c r="K2" s="364" t="s">
         <v>481</v>
       </c>
-      <c r="L2" s="362"/>
-      <c r="M2" s="362"/>
-      <c r="N2" s="362"/>
-      <c r="O2" s="362"/>
-      <c r="P2" s="362"/>
+      <c r="L2" s="364"/>
+      <c r="M2" s="364"/>
+      <c r="N2" s="364"/>
+      <c r="O2" s="364"/>
+      <c r="P2" s="364"/>
       <c r="Q2" s="50" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="B3" s="363" t="s">
+      <c r="B3" s="365" t="s">
         <v>354</v>
       </c>
-      <c r="C3" s="363"/>
-      <c r="D3" s="363"/>
-      <c r="E3" s="363"/>
-      <c r="K3" s="363" t="s">
+      <c r="C3" s="365"/>
+      <c r="D3" s="365"/>
+      <c r="E3" s="365"/>
+      <c r="K3" s="365" t="s">
         <v>354</v>
       </c>
-      <c r="L3" s="363"/>
-      <c r="M3" s="363"/>
-      <c r="N3" s="363"/>
+      <c r="L3" s="365"/>
+      <c r="M3" s="365"/>
+      <c r="N3" s="365"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="364" t="s">
+      <c r="A4" s="366" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="364" t="s">
+      <c r="B4" s="366" t="s">
         <v>355</v>
       </c>
-      <c r="C4" s="366" t="s">
+      <c r="C4" s="368" t="s">
         <v>356</v>
       </c>
-      <c r="D4" s="366" t="s">
+      <c r="D4" s="368" t="s">
         <v>357</v>
       </c>
-      <c r="E4" s="366" t="s">
+      <c r="E4" s="368" t="s">
         <v>358</v>
       </c>
-      <c r="F4" s="366" t="s">
+      <c r="F4" s="368" t="s">
         <v>359</v>
       </c>
-      <c r="G4" s="366" t="s">
+      <c r="G4" s="368" t="s">
         <v>360</v>
       </c>
-      <c r="J4" s="364" t="s">
+      <c r="J4" s="366" t="s">
         <v>84</v>
       </c>
-      <c r="K4" s="364" t="s">
+      <c r="K4" s="366" t="s">
         <v>355</v>
       </c>
-      <c r="L4" s="366" t="s">
+      <c r="L4" s="368" t="s">
         <v>356</v>
       </c>
-      <c r="M4" s="366" t="s">
+      <c r="M4" s="368" t="s">
         <v>357</v>
       </c>
-      <c r="N4" s="366" t="s">
+      <c r="N4" s="368" t="s">
         <v>358</v>
       </c>
-      <c r="O4" s="366" t="s">
+      <c r="O4" s="368" t="s">
         <v>359</v>
       </c>
-      <c r="P4" s="366" t="s">
+      <c r="P4" s="368" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="24.75" customHeight="1">
-      <c r="A5" s="365"/>
-      <c r="B5" s="365"/>
-      <c r="C5" s="367"/>
-      <c r="D5" s="367"/>
-      <c r="E5" s="367"/>
-      <c r="F5" s="368"/>
-      <c r="G5" s="368"/>
-      <c r="J5" s="365"/>
-      <c r="K5" s="365"/>
-      <c r="L5" s="367"/>
-      <c r="M5" s="367"/>
-      <c r="N5" s="367"/>
-      <c r="O5" s="368"/>
-      <c r="P5" s="368"/>
+      <c r="A5" s="367"/>
+      <c r="B5" s="367"/>
+      <c r="C5" s="369"/>
+      <c r="D5" s="369"/>
+      <c r="E5" s="369"/>
+      <c r="F5" s="370"/>
+      <c r="G5" s="370"/>
+      <c r="J5" s="367"/>
+      <c r="K5" s="367"/>
+      <c r="L5" s="369"/>
+      <c r="M5" s="369"/>
+      <c r="N5" s="369"/>
+      <c r="O5" s="370"/>
+      <c r="P5" s="370"/>
     </row>
     <row r="6" spans="1:17" ht="114.75">
       <c r="A6" s="182">
@@ -17960,10 +18398,10 @@
       <c r="E7" s="183">
         <v>83203</v>
       </c>
-      <c r="F7" s="369">
+      <c r="F7" s="360">
         <v>3303</v>
       </c>
-      <c r="G7" s="371">
+      <c r="G7" s="362">
         <f>(E7+E8)/F7*1000</f>
         <v>81180.744777475033</v>
       </c>
@@ -17982,10 +18420,10 @@
       <c r="N7" s="253">
         <v>177170</v>
       </c>
-      <c r="O7" s="360">
+      <c r="O7" s="371">
         <v>2440.6</v>
       </c>
-      <c r="P7" s="360">
+      <c r="P7" s="371">
         <f>(N7+N8)/O7*1000</f>
         <v>220043.02220765388</v>
       </c>
@@ -18006,8 +18444,8 @@
       <c r="E8" s="183">
         <v>184937</v>
       </c>
-      <c r="F8" s="370"/>
-      <c r="G8" s="372"/>
+      <c r="F8" s="361"/>
+      <c r="G8" s="363"/>
       <c r="J8" s="184">
         <v>3</v>
       </c>
@@ -18023,8 +18461,8 @@
       <c r="N8" s="253">
         <v>359867</v>
       </c>
-      <c r="O8" s="361"/>
-      <c r="P8" s="361"/>
+      <c r="O8" s="372"/>
+      <c r="P8" s="372"/>
     </row>
     <row r="9" spans="1:17" ht="102">
       <c r="A9" s="184">
@@ -18594,6 +19032,17 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="B2:G2"/>
@@ -18605,43 +19054,12 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="K2:P2"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="Q2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>499</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/Таблицы2017.xlsx
+++ b/Таблицы2017.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="13500" tabRatio="541" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="13500" tabRatio="541" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Slide5" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="504">
   <si>
     <t xml:space="preserve">Демографические параметры населения Украины. Без изменений политики </t>
   </si>
@@ -1677,9 +1677,6 @@
   </si>
   <si>
     <t>http://www.ukrstat.gov.ua/operativ/operativ2007/ds/nas_rik/nas_u/nas_rik_u.html</t>
-  </si>
-  <si>
-    <t>циклическая ссылка ????????</t>
   </si>
   <si>
     <t>Структура расходов украинских домохозяйств и домохозяйств 27 стран ЕС за 2017 г.</t>
@@ -3756,6 +3753,21 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4092,21 +4104,6 @@
     </xf>
     <xf numFmtId="3" fontId="33" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -5165,7 +5162,7 @@
   <dimension ref="A1:T115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5177,16 +5174,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="265" t="s">
+      <c r="A1" s="270" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="265"/>
-      <c r="C1" s="265"/>
-      <c r="D1" s="265"/>
-      <c r="E1" s="265"/>
-      <c r="F1" s="265"/>
-      <c r="G1" s="265"/>
-      <c r="H1" s="265"/>
+      <c r="B1" s="270"/>
+      <c r="C1" s="270"/>
+      <c r="D1" s="270"/>
+      <c r="E1" s="270"/>
+      <c r="F1" s="270"/>
+      <c r="G1" s="270"/>
+      <c r="H1" s="270"/>
     </row>
     <row r="2" spans="1:20">
       <c r="L2" s="58"/>
@@ -5857,7 +5854,7 @@
         <v>6.9101597975593796</v>
       </c>
       <c r="K19" s="229" t="s">
-        <v>473</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -6397,18 +6394,18 @@
       <c r="A38" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="261" t="s">
+      <c r="B38" s="266" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="262"/>
-      <c r="D38" s="262"/>
-      <c r="E38" s="262"/>
-      <c r="F38" s="262"/>
-      <c r="G38" s="262"/>
-      <c r="H38" s="262"/>
-      <c r="I38" s="262"/>
-      <c r="J38" s="262"/>
-      <c r="K38" s="263"/>
+      <c r="C38" s="267"/>
+      <c r="D38" s="267"/>
+      <c r="E38" s="267"/>
+      <c r="F38" s="267"/>
+      <c r="G38" s="267"/>
+      <c r="H38" s="267"/>
+      <c r="I38" s="267"/>
+      <c r="J38" s="267"/>
+      <c r="K38" s="268"/>
     </row>
     <row r="39" spans="1:11" ht="15.75" thickBot="1">
       <c r="A39" s="44" t="s">
@@ -6449,16 +6446,16 @@
       <c r="A40" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="258"/>
-      <c r="C40" s="259"/>
-      <c r="D40" s="259"/>
-      <c r="E40" s="259"/>
-      <c r="F40" s="259"/>
-      <c r="G40" s="259"/>
-      <c r="H40" s="259"/>
-      <c r="I40" s="259"/>
-      <c r="J40" s="259"/>
-      <c r="K40" s="260"/>
+      <c r="B40" s="263"/>
+      <c r="C40" s="264"/>
+      <c r="D40" s="264"/>
+      <c r="E40" s="264"/>
+      <c r="F40" s="264"/>
+      <c r="G40" s="264"/>
+      <c r="H40" s="264"/>
+      <c r="I40" s="264"/>
+      <c r="J40" s="264"/>
+      <c r="K40" s="265"/>
     </row>
     <row r="41" spans="1:11" ht="15.75" thickBot="1">
       <c r="A41" s="46" t="s">
@@ -6566,36 +6563,36 @@
       </c>
     </row>
     <row r="45" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A45" s="264" t="s">
+      <c r="A45" s="269" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="264"/>
-      <c r="C45" s="264"/>
-      <c r="D45" s="264"/>
-      <c r="E45" s="264"/>
-      <c r="F45" s="264"/>
-      <c r="G45" s="264"/>
-      <c r="H45" s="264"/>
-      <c r="I45" s="264"/>
-      <c r="J45" s="264"/>
-      <c r="K45" s="264"/>
+      <c r="B45" s="269"/>
+      <c r="C45" s="269"/>
+      <c r="D45" s="269"/>
+      <c r="E45" s="269"/>
+      <c r="F45" s="269"/>
+      <c r="G45" s="269"/>
+      <c r="H45" s="269"/>
+      <c r="I45" s="269"/>
+      <c r="J45" s="269"/>
+      <c r="K45" s="269"/>
     </row>
     <row r="46" spans="1:11" ht="15.75" thickBot="1">
       <c r="A46" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B46" s="261" t="s">
+      <c r="B46" s="266" t="s">
         <v>31</v>
       </c>
-      <c r="C46" s="262"/>
-      <c r="D46" s="262"/>
-      <c r="E46" s="262"/>
-      <c r="F46" s="262"/>
-      <c r="G46" s="262"/>
-      <c r="H46" s="262"/>
-      <c r="I46" s="262"/>
-      <c r="J46" s="262"/>
-      <c r="K46" s="263"/>
+      <c r="C46" s="267"/>
+      <c r="D46" s="267"/>
+      <c r="E46" s="267"/>
+      <c r="F46" s="267"/>
+      <c r="G46" s="267"/>
+      <c r="H46" s="267"/>
+      <c r="I46" s="267"/>
+      <c r="J46" s="267"/>
+      <c r="K46" s="268"/>
     </row>
     <row r="47" spans="1:11" ht="15.75" thickBot="1">
       <c r="A47" s="44" t="s">
@@ -6636,31 +6633,31 @@
       <c r="A48" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="258"/>
-      <c r="C48" s="259"/>
-      <c r="D48" s="259"/>
-      <c r="E48" s="259"/>
-      <c r="F48" s="259"/>
-      <c r="G48" s="259"/>
-      <c r="H48" s="259"/>
-      <c r="I48" s="259"/>
-      <c r="J48" s="259"/>
-      <c r="K48" s="260"/>
+      <c r="B48" s="263"/>
+      <c r="C48" s="264"/>
+      <c r="D48" s="264"/>
+      <c r="E48" s="264"/>
+      <c r="F48" s="264"/>
+      <c r="G48" s="264"/>
+      <c r="H48" s="264"/>
+      <c r="I48" s="264"/>
+      <c r="J48" s="264"/>
+      <c r="K48" s="265"/>
     </row>
     <row r="49" spans="1:11" ht="15.75" thickBot="1">
       <c r="A49" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B49" s="258"/>
-      <c r="C49" s="259"/>
-      <c r="D49" s="259"/>
-      <c r="E49" s="259"/>
-      <c r="F49" s="259"/>
-      <c r="G49" s="259"/>
-      <c r="H49" s="259"/>
-      <c r="I49" s="259"/>
-      <c r="J49" s="259"/>
-      <c r="K49" s="260"/>
+      <c r="B49" s="263"/>
+      <c r="C49" s="264"/>
+      <c r="D49" s="264"/>
+      <c r="E49" s="264"/>
+      <c r="F49" s="264"/>
+      <c r="G49" s="264"/>
+      <c r="H49" s="264"/>
+      <c r="I49" s="264"/>
+      <c r="J49" s="264"/>
+      <c r="K49" s="265"/>
     </row>
     <row r="50" spans="1:11" ht="15.75" thickBot="1">
       <c r="A50" s="46" t="s">
@@ -6771,16 +6768,16 @@
       <c r="A53" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B53" s="258"/>
-      <c r="C53" s="259"/>
-      <c r="D53" s="259"/>
-      <c r="E53" s="259"/>
-      <c r="F53" s="259"/>
-      <c r="G53" s="259"/>
-      <c r="H53" s="259"/>
-      <c r="I53" s="259"/>
-      <c r="J53" s="259"/>
-      <c r="K53" s="260"/>
+      <c r="B53" s="263"/>
+      <c r="C53" s="264"/>
+      <c r="D53" s="264"/>
+      <c r="E53" s="264"/>
+      <c r="F53" s="264"/>
+      <c r="G53" s="264"/>
+      <c r="H53" s="264"/>
+      <c r="I53" s="264"/>
+      <c r="J53" s="264"/>
+      <c r="K53" s="265"/>
     </row>
     <row r="54" spans="1:11" ht="15.75" thickBot="1">
       <c r="A54" s="46" t="s">
@@ -6891,16 +6888,16 @@
       <c r="A57" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B57" s="258"/>
-      <c r="C57" s="259"/>
-      <c r="D57" s="259"/>
-      <c r="E57" s="259"/>
-      <c r="F57" s="259"/>
-      <c r="G57" s="259"/>
-      <c r="H57" s="259"/>
-      <c r="I57" s="259"/>
-      <c r="J57" s="259"/>
-      <c r="K57" s="260"/>
+      <c r="B57" s="263"/>
+      <c r="C57" s="264"/>
+      <c r="D57" s="264"/>
+      <c r="E57" s="264"/>
+      <c r="F57" s="264"/>
+      <c r="G57" s="264"/>
+      <c r="H57" s="264"/>
+      <c r="I57" s="264"/>
+      <c r="J57" s="264"/>
+      <c r="K57" s="265"/>
     </row>
     <row r="58" spans="1:11" ht="15.75" thickBot="1">
       <c r="A58" s="46" t="s">
@@ -7011,31 +7008,31 @@
       <c r="A61" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B61" s="258"/>
-      <c r="C61" s="259"/>
-      <c r="D61" s="259"/>
-      <c r="E61" s="259"/>
-      <c r="F61" s="259"/>
-      <c r="G61" s="259"/>
-      <c r="H61" s="259"/>
-      <c r="I61" s="259"/>
-      <c r="J61" s="259"/>
-      <c r="K61" s="260"/>
+      <c r="B61" s="263"/>
+      <c r="C61" s="264"/>
+      <c r="D61" s="264"/>
+      <c r="E61" s="264"/>
+      <c r="F61" s="264"/>
+      <c r="G61" s="264"/>
+      <c r="H61" s="264"/>
+      <c r="I61" s="264"/>
+      <c r="J61" s="264"/>
+      <c r="K61" s="265"/>
     </row>
     <row r="62" spans="1:11" ht="15.75" thickBot="1">
       <c r="A62" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B62" s="258"/>
-      <c r="C62" s="259"/>
-      <c r="D62" s="259"/>
-      <c r="E62" s="259"/>
-      <c r="F62" s="259"/>
-      <c r="G62" s="259"/>
-      <c r="H62" s="259"/>
-      <c r="I62" s="259"/>
-      <c r="J62" s="259"/>
-      <c r="K62" s="260"/>
+      <c r="B62" s="263"/>
+      <c r="C62" s="264"/>
+      <c r="D62" s="264"/>
+      <c r="E62" s="264"/>
+      <c r="F62" s="264"/>
+      <c r="G62" s="264"/>
+      <c r="H62" s="264"/>
+      <c r="I62" s="264"/>
+      <c r="J62" s="264"/>
+      <c r="K62" s="265"/>
     </row>
     <row r="63" spans="1:11" ht="15.75" thickBot="1">
       <c r="A63" s="46" t="s">
@@ -7146,16 +7143,16 @@
       <c r="A66" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B66" s="258"/>
-      <c r="C66" s="259"/>
-      <c r="D66" s="259"/>
-      <c r="E66" s="259"/>
-      <c r="F66" s="259"/>
-      <c r="G66" s="259"/>
-      <c r="H66" s="259"/>
-      <c r="I66" s="259"/>
-      <c r="J66" s="259"/>
-      <c r="K66" s="260"/>
+      <c r="B66" s="263"/>
+      <c r="C66" s="264"/>
+      <c r="D66" s="264"/>
+      <c r="E66" s="264"/>
+      <c r="F66" s="264"/>
+      <c r="G66" s="264"/>
+      <c r="H66" s="264"/>
+      <c r="I66" s="264"/>
+      <c r="J66" s="264"/>
+      <c r="K66" s="265"/>
     </row>
     <row r="67" spans="1:11" ht="15.75" thickBot="1">
       <c r="A67" s="46" t="s">
@@ -7266,16 +7263,16 @@
       <c r="A70" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B70" s="258"/>
-      <c r="C70" s="259"/>
-      <c r="D70" s="259"/>
-      <c r="E70" s="259"/>
-      <c r="F70" s="259"/>
-      <c r="G70" s="259"/>
-      <c r="H70" s="259"/>
-      <c r="I70" s="259"/>
-      <c r="J70" s="259"/>
-      <c r="K70" s="260"/>
+      <c r="B70" s="263"/>
+      <c r="C70" s="264"/>
+      <c r="D70" s="264"/>
+      <c r="E70" s="264"/>
+      <c r="F70" s="264"/>
+      <c r="G70" s="264"/>
+      <c r="H70" s="264"/>
+      <c r="I70" s="264"/>
+      <c r="J70" s="264"/>
+      <c r="K70" s="265"/>
     </row>
     <row r="71" spans="1:11" ht="15.75" thickBot="1">
       <c r="A71" s="46" t="s">
@@ -7386,31 +7383,31 @@
       <c r="A74" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="B74" s="258"/>
-      <c r="C74" s="259"/>
-      <c r="D74" s="259"/>
-      <c r="E74" s="259"/>
-      <c r="F74" s="259"/>
-      <c r="G74" s="259"/>
-      <c r="H74" s="259"/>
-      <c r="I74" s="259"/>
-      <c r="J74" s="259"/>
-      <c r="K74" s="260"/>
+      <c r="B74" s="263"/>
+      <c r="C74" s="264"/>
+      <c r="D74" s="264"/>
+      <c r="E74" s="264"/>
+      <c r="F74" s="264"/>
+      <c r="G74" s="264"/>
+      <c r="H74" s="264"/>
+      <c r="I74" s="264"/>
+      <c r="J74" s="264"/>
+      <c r="K74" s="265"/>
     </row>
     <row r="75" spans="1:11" ht="15.75" thickBot="1">
       <c r="A75" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B75" s="258"/>
-      <c r="C75" s="259"/>
-      <c r="D75" s="259"/>
-      <c r="E75" s="259"/>
-      <c r="F75" s="259"/>
-      <c r="G75" s="259"/>
-      <c r="H75" s="259"/>
-      <c r="I75" s="259"/>
-      <c r="J75" s="259"/>
-      <c r="K75" s="260"/>
+      <c r="B75" s="263"/>
+      <c r="C75" s="264"/>
+      <c r="D75" s="264"/>
+      <c r="E75" s="264"/>
+      <c r="F75" s="264"/>
+      <c r="G75" s="264"/>
+      <c r="H75" s="264"/>
+      <c r="I75" s="264"/>
+      <c r="J75" s="264"/>
+      <c r="K75" s="265"/>
     </row>
     <row r="76" spans="1:11" ht="15.75" thickBot="1">
       <c r="A76" s="46" t="s">
@@ -7521,16 +7518,16 @@
       <c r="A79" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B79" s="258"/>
-      <c r="C79" s="259"/>
-      <c r="D79" s="259"/>
-      <c r="E79" s="259"/>
-      <c r="F79" s="259"/>
-      <c r="G79" s="259"/>
-      <c r="H79" s="259"/>
-      <c r="I79" s="259"/>
-      <c r="J79" s="259"/>
-      <c r="K79" s="260"/>
+      <c r="B79" s="263"/>
+      <c r="C79" s="264"/>
+      <c r="D79" s="264"/>
+      <c r="E79" s="264"/>
+      <c r="F79" s="264"/>
+      <c r="G79" s="264"/>
+      <c r="H79" s="264"/>
+      <c r="I79" s="264"/>
+      <c r="J79" s="264"/>
+      <c r="K79" s="265"/>
     </row>
     <row r="80" spans="1:11" ht="15.75" thickBot="1">
       <c r="A80" s="46" t="s">
@@ -7641,16 +7638,16 @@
       <c r="A83" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B83" s="258"/>
-      <c r="C83" s="259"/>
-      <c r="D83" s="259"/>
-      <c r="E83" s="259"/>
-      <c r="F83" s="259"/>
-      <c r="G83" s="259"/>
-      <c r="H83" s="259"/>
-      <c r="I83" s="259"/>
-      <c r="J83" s="259"/>
-      <c r="K83" s="260"/>
+      <c r="B83" s="263"/>
+      <c r="C83" s="264"/>
+      <c r="D83" s="264"/>
+      <c r="E83" s="264"/>
+      <c r="F83" s="264"/>
+      <c r="G83" s="264"/>
+      <c r="H83" s="264"/>
+      <c r="I83" s="264"/>
+      <c r="J83" s="264"/>
+      <c r="K83" s="265"/>
     </row>
     <row r="84" spans="1:11" ht="15.75" thickBot="1">
       <c r="A84" s="46" t="s">
@@ -7758,36 +7755,36 @@
       </c>
     </row>
     <row r="89" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A89" s="264" t="s">
+      <c r="A89" s="269" t="s">
         <v>47</v>
       </c>
-      <c r="B89" s="264"/>
-      <c r="C89" s="264"/>
-      <c r="D89" s="264"/>
-      <c r="E89" s="264"/>
-      <c r="F89" s="264"/>
-      <c r="G89" s="264"/>
-      <c r="H89" s="264"/>
-      <c r="I89" s="264"/>
-      <c r="J89" s="264"/>
-      <c r="K89" s="264"/>
+      <c r="B89" s="269"/>
+      <c r="C89" s="269"/>
+      <c r="D89" s="269"/>
+      <c r="E89" s="269"/>
+      <c r="F89" s="269"/>
+      <c r="G89" s="269"/>
+      <c r="H89" s="269"/>
+      <c r="I89" s="269"/>
+      <c r="J89" s="269"/>
+      <c r="K89" s="269"/>
     </row>
     <row r="90" spans="1:11" ht="15.75" thickBot="1">
       <c r="A90" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B90" s="261" t="s">
+      <c r="B90" s="266" t="s">
         <v>31</v>
       </c>
-      <c r="C90" s="262"/>
-      <c r="D90" s="262"/>
-      <c r="E90" s="262"/>
-      <c r="F90" s="262"/>
-      <c r="G90" s="262"/>
-      <c r="H90" s="262"/>
-      <c r="I90" s="262"/>
-      <c r="J90" s="262"/>
-      <c r="K90" s="263"/>
+      <c r="C90" s="267"/>
+      <c r="D90" s="267"/>
+      <c r="E90" s="267"/>
+      <c r="F90" s="267"/>
+      <c r="G90" s="267"/>
+      <c r="H90" s="267"/>
+      <c r="I90" s="267"/>
+      <c r="J90" s="267"/>
+      <c r="K90" s="268"/>
     </row>
     <row r="91" spans="1:11" ht="15.75" thickBot="1">
       <c r="A91" s="44" t="s">
@@ -7828,31 +7825,31 @@
       <c r="A92" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="B92" s="258"/>
-      <c r="C92" s="259"/>
-      <c r="D92" s="259"/>
-      <c r="E92" s="259"/>
-      <c r="F92" s="259"/>
-      <c r="G92" s="259"/>
-      <c r="H92" s="259"/>
-      <c r="I92" s="259"/>
-      <c r="J92" s="259"/>
-      <c r="K92" s="260"/>
+      <c r="B92" s="263"/>
+      <c r="C92" s="264"/>
+      <c r="D92" s="264"/>
+      <c r="E92" s="264"/>
+      <c r="F92" s="264"/>
+      <c r="G92" s="264"/>
+      <c r="H92" s="264"/>
+      <c r="I92" s="264"/>
+      <c r="J92" s="264"/>
+      <c r="K92" s="265"/>
     </row>
     <row r="93" spans="1:11" ht="15.75" thickBot="1">
       <c r="A93" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="B93" s="258"/>
-      <c r="C93" s="259"/>
-      <c r="D93" s="259"/>
-      <c r="E93" s="259"/>
-      <c r="F93" s="259"/>
-      <c r="G93" s="259"/>
-      <c r="H93" s="259"/>
-      <c r="I93" s="259"/>
-      <c r="J93" s="259"/>
-      <c r="K93" s="260"/>
+      <c r="B93" s="263"/>
+      <c r="C93" s="264"/>
+      <c r="D93" s="264"/>
+      <c r="E93" s="264"/>
+      <c r="F93" s="264"/>
+      <c r="G93" s="264"/>
+      <c r="H93" s="264"/>
+      <c r="I93" s="264"/>
+      <c r="J93" s="264"/>
+      <c r="K93" s="265"/>
     </row>
     <row r="94" spans="1:11" ht="15.75" thickBot="1">
       <c r="A94" s="46" t="s">
@@ -7963,16 +7960,16 @@
       <c r="A97" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="B97" s="258"/>
-      <c r="C97" s="259"/>
-      <c r="D97" s="259"/>
-      <c r="E97" s="259"/>
-      <c r="F97" s="259"/>
-      <c r="G97" s="259"/>
-      <c r="H97" s="259"/>
-      <c r="I97" s="259"/>
-      <c r="J97" s="259"/>
-      <c r="K97" s="260"/>
+      <c r="B97" s="263"/>
+      <c r="C97" s="264"/>
+      <c r="D97" s="264"/>
+      <c r="E97" s="264"/>
+      <c r="F97" s="264"/>
+      <c r="G97" s="264"/>
+      <c r="H97" s="264"/>
+      <c r="I97" s="264"/>
+      <c r="J97" s="264"/>
+      <c r="K97" s="265"/>
     </row>
     <row r="98" spans="1:11" ht="15.75" thickBot="1">
       <c r="A98" s="46" t="s">
@@ -8092,36 +8089,36 @@
       <c r="J101" s="49"/>
     </row>
     <row r="102" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A102" s="264" t="s">
+      <c r="A102" s="269" t="s">
         <v>54</v>
       </c>
-      <c r="B102" s="264"/>
-      <c r="C102" s="264"/>
-      <c r="D102" s="264"/>
-      <c r="E102" s="264"/>
-      <c r="F102" s="264"/>
-      <c r="G102" s="264"/>
-      <c r="H102" s="264"/>
-      <c r="I102" s="264"/>
-      <c r="J102" s="264"/>
-      <c r="K102" s="264"/>
+      <c r="B102" s="269"/>
+      <c r="C102" s="269"/>
+      <c r="D102" s="269"/>
+      <c r="E102" s="269"/>
+      <c r="F102" s="269"/>
+      <c r="G102" s="269"/>
+      <c r="H102" s="269"/>
+      <c r="I102" s="269"/>
+      <c r="J102" s="269"/>
+      <c r="K102" s="269"/>
     </row>
     <row r="103" spans="1:11" ht="15.75" thickBot="1">
       <c r="A103" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B103" s="261" t="s">
+      <c r="B103" s="266" t="s">
         <v>31</v>
       </c>
-      <c r="C103" s="262"/>
-      <c r="D103" s="262"/>
-      <c r="E103" s="262"/>
-      <c r="F103" s="262"/>
-      <c r="G103" s="262"/>
-      <c r="H103" s="262"/>
-      <c r="I103" s="262"/>
-      <c r="J103" s="262"/>
-      <c r="K103" s="263"/>
+      <c r="C103" s="267"/>
+      <c r="D103" s="267"/>
+      <c r="E103" s="267"/>
+      <c r="F103" s="267"/>
+      <c r="G103" s="267"/>
+      <c r="H103" s="267"/>
+      <c r="I103" s="267"/>
+      <c r="J103" s="267"/>
+      <c r="K103" s="268"/>
     </row>
     <row r="104" spans="1:11" ht="15.75" thickBot="1">
       <c r="A104" s="44" t="s">
@@ -8162,31 +8159,31 @@
       <c r="A105" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="B105" s="258"/>
-      <c r="C105" s="259"/>
-      <c r="D105" s="259"/>
-      <c r="E105" s="259"/>
-      <c r="F105" s="259"/>
-      <c r="G105" s="259"/>
-      <c r="H105" s="259"/>
-      <c r="I105" s="259"/>
-      <c r="J105" s="259"/>
-      <c r="K105" s="260"/>
+      <c r="B105" s="263"/>
+      <c r="C105" s="264"/>
+      <c r="D105" s="264"/>
+      <c r="E105" s="264"/>
+      <c r="F105" s="264"/>
+      <c r="G105" s="264"/>
+      <c r="H105" s="264"/>
+      <c r="I105" s="264"/>
+      <c r="J105" s="264"/>
+      <c r="K105" s="265"/>
     </row>
     <row r="106" spans="1:11" ht="15.75" thickBot="1">
       <c r="A106" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="B106" s="258"/>
-      <c r="C106" s="259"/>
-      <c r="D106" s="259"/>
-      <c r="E106" s="259"/>
-      <c r="F106" s="259"/>
-      <c r="G106" s="259"/>
-      <c r="H106" s="259"/>
-      <c r="I106" s="259"/>
-      <c r="J106" s="259"/>
-      <c r="K106" s="260"/>
+      <c r="B106" s="263"/>
+      <c r="C106" s="264"/>
+      <c r="D106" s="264"/>
+      <c r="E106" s="264"/>
+      <c r="F106" s="264"/>
+      <c r="G106" s="264"/>
+      <c r="H106" s="264"/>
+      <c r="I106" s="264"/>
+      <c r="J106" s="264"/>
+      <c r="K106" s="265"/>
     </row>
     <row r="107" spans="1:11" ht="15.75" thickBot="1">
       <c r="A107" s="46" t="s">
@@ -8297,16 +8294,16 @@
       <c r="A110" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="B110" s="258"/>
-      <c r="C110" s="259"/>
-      <c r="D110" s="259"/>
-      <c r="E110" s="259"/>
-      <c r="F110" s="259"/>
-      <c r="G110" s="259"/>
-      <c r="H110" s="259"/>
-      <c r="I110" s="259"/>
-      <c r="J110" s="259"/>
-      <c r="K110" s="260"/>
+      <c r="B110" s="263"/>
+      <c r="C110" s="264"/>
+      <c r="D110" s="264"/>
+      <c r="E110" s="264"/>
+      <c r="F110" s="264"/>
+      <c r="G110" s="264"/>
+      <c r="H110" s="264"/>
+      <c r="I110" s="264"/>
+      <c r="J110" s="264"/>
+      <c r="K110" s="265"/>
     </row>
     <row r="111" spans="1:11" ht="15.75" thickBot="1">
       <c r="A111" s="46" t="s">
@@ -8462,7 +8459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:K36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
@@ -8472,16 +8469,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:11">
-      <c r="A3" s="265" t="s">
+      <c r="A3" s="270" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="265"/>
-      <c r="C3" s="265"/>
-      <c r="D3" s="265"/>
-      <c r="E3" s="265"/>
-      <c r="F3" s="265"/>
-      <c r="G3" s="265"/>
-      <c r="H3" s="265"/>
+      <c r="B3" s="270"/>
+      <c r="C3" s="270"/>
+      <c r="D3" s="270"/>
+      <c r="E3" s="270"/>
+      <c r="F3" s="270"/>
+      <c r="G3" s="270"/>
+      <c r="H3" s="270"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
@@ -10613,93 +10610,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75">
-      <c r="A1" s="268" t="s">
-        <v>474</v>
-      </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="268"/>
-      <c r="D1" s="268"/>
-      <c r="E1" s="268"/>
-      <c r="F1" s="268"/>
-      <c r="G1" s="268"/>
-      <c r="H1" s="268"/>
-      <c r="I1" s="268"/>
-      <c r="J1" s="268"/>
-      <c r="K1" s="268"/>
-      <c r="L1" s="268"/>
-      <c r="M1" s="268"/>
+      <c r="A1" s="273" t="s">
+        <v>473</v>
+      </c>
+      <c r="B1" s="273"/>
+      <c r="C1" s="273"/>
+      <c r="D1" s="273"/>
+      <c r="E1" s="273"/>
+      <c r="F1" s="273"/>
+      <c r="G1" s="273"/>
+      <c r="H1" s="273"/>
+      <c r="I1" s="273"/>
+      <c r="J1" s="273"/>
+      <c r="K1" s="273"/>
+      <c r="L1" s="273"/>
+      <c r="M1" s="273"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="3" spans="1:13">
-      <c r="A3" s="269" t="s">
+      <c r="A3" s="274" t="s">
         <v>84</v>
       </c>
       <c r="B3" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="272" t="s">
+      <c r="C3" s="277" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="273"/>
-      <c r="E3" s="273"/>
-      <c r="F3" s="274"/>
-      <c r="G3" s="275" t="s">
+      <c r="D3" s="278"/>
+      <c r="E3" s="278"/>
+      <c r="F3" s="279"/>
+      <c r="G3" s="280" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="276"/>
-      <c r="I3" s="276"/>
-      <c r="J3" s="277"/>
-      <c r="K3" s="278" t="s">
+      <c r="H3" s="281"/>
+      <c r="I3" s="281"/>
+      <c r="J3" s="282"/>
+      <c r="K3" s="283" t="s">
         <v>88</v>
       </c>
-      <c r="L3" s="279"/>
-      <c r="M3" s="280"/>
+      <c r="L3" s="284"/>
+      <c r="M3" s="285"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="270"/>
+      <c r="A4" s="275"/>
       <c r="B4" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="287">
+      <c r="C4" s="292">
         <v>42.5</v>
       </c>
-      <c r="D4" s="288"/>
-      <c r="E4" s="288"/>
-      <c r="F4" s="289"/>
-      <c r="G4" s="290">
+      <c r="D4" s="293"/>
+      <c r="E4" s="293"/>
+      <c r="F4" s="294"/>
+      <c r="G4" s="295">
         <v>511.8</v>
       </c>
-      <c r="H4" s="291"/>
-      <c r="I4" s="291"/>
-      <c r="J4" s="292"/>
-      <c r="K4" s="281"/>
-      <c r="L4" s="282"/>
-      <c r="M4" s="283"/>
+      <c r="H4" s="296"/>
+      <c r="I4" s="296"/>
+      <c r="J4" s="297"/>
+      <c r="K4" s="286"/>
+      <c r="L4" s="287"/>
+      <c r="M4" s="288"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="270"/>
+      <c r="A5" s="275"/>
       <c r="B5" s="68" t="s">
-        <v>475</v>
-      </c>
-      <c r="C5" s="293">
+        <v>474</v>
+      </c>
+      <c r="C5" s="298">
         <f>33.4954</f>
         <v>33.495399999999997</v>
       </c>
-      <c r="D5" s="294"/>
-      <c r="E5" s="294"/>
-      <c r="F5" s="295"/>
-      <c r="G5" s="296">
+      <c r="D5" s="299"/>
+      <c r="E5" s="299"/>
+      <c r="F5" s="300"/>
+      <c r="G5" s="301">
         <v>1</v>
       </c>
-      <c r="H5" s="297"/>
-      <c r="I5" s="297"/>
-      <c r="J5" s="298"/>
-      <c r="K5" s="284"/>
-      <c r="L5" s="285"/>
-      <c r="M5" s="286"/>
+      <c r="H5" s="302"/>
+      <c r="I5" s="302"/>
+      <c r="J5" s="303"/>
+      <c r="K5" s="289"/>
+      <c r="L5" s="290"/>
+      <c r="M5" s="291"/>
     </row>
     <row r="6" spans="1:13" ht="52.5" thickBot="1">
-      <c r="A6" s="271"/>
+      <c r="A6" s="276"/>
       <c r="B6" s="69" t="s">
         <v>90</v>
       </c>
@@ -11606,20 +11603,20 @@
       <c r="F30" s="52" t="s">
         <v>136</v>
       </c>
-      <c r="I30" s="299" t="s">
+      <c r="I30" s="304" t="s">
         <v>251</v>
       </c>
-      <c r="J30" s="299"/>
-      <c r="K30" s="299"/>
-      <c r="L30" s="299"/>
-      <c r="M30" s="299"/>
-      <c r="N30" s="299"/>
-      <c r="O30" s="299"/>
-      <c r="P30" s="299"/>
-      <c r="Q30" s="299"/>
-      <c r="R30" s="299"/>
-      <c r="S30" s="299"/>
-      <c r="T30" s="299"/>
+      <c r="J30" s="304"/>
+      <c r="K30" s="304"/>
+      <c r="L30" s="304"/>
+      <c r="M30" s="304"/>
+      <c r="N30" s="304"/>
+      <c r="O30" s="304"/>
+      <c r="P30" s="304"/>
+      <c r="Q30" s="304"/>
+      <c r="R30" s="304"/>
+      <c r="S30" s="304"/>
+      <c r="T30" s="304"/>
       <c r="U30" s="111"/>
       <c r="V30" s="111"/>
     </row>
@@ -11654,10 +11651,10 @@
       <c r="R31" s="111"/>
       <c r="S31" s="111"/>
       <c r="T31" s="111"/>
-      <c r="U31" s="266" t="s">
+      <c r="U31" s="271" t="s">
         <v>252</v>
       </c>
-      <c r="V31" s="267"/>
+      <c r="V31" s="272"/>
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="52">
@@ -13220,46 +13217,46 @@
       <c r="F59" t="s">
         <v>196</v>
       </c>
-      <c r="I59" s="308" t="s">
+      <c r="I59" s="313" t="s">
         <v>283</v>
       </c>
-      <c r="J59" s="314">
+      <c r="J59" s="319">
         <v>6332.1</v>
       </c>
-      <c r="K59" s="314">
+      <c r="K59" s="319">
         <v>7771</v>
       </c>
-      <c r="L59" s="314">
+      <c r="L59" s="319">
         <v>10126</v>
       </c>
-      <c r="M59" s="314">
+      <c r="M59" s="319">
         <v>13716.3</v>
       </c>
-      <c r="N59" s="314">
+      <c r="N59" s="319">
         <v>14372.8</v>
       </c>
-      <c r="O59" s="314">
+      <c r="O59" s="319">
         <v>18485.599999999999</v>
       </c>
-      <c r="P59" s="314">
+      <c r="P59" s="319">
         <v>21637.9</v>
       </c>
-      <c r="Q59" s="314">
+      <c r="Q59" s="319">
         <v>25206.400000000001</v>
       </c>
-      <c r="R59" s="320">
+      <c r="R59" s="325">
         <v>26719.4</v>
       </c>
-      <c r="S59" s="314">
+      <c r="S59" s="319">
         <v>26782.1</v>
       </c>
-      <c r="T59" s="322">
+      <c r="T59" s="327">
         <v>31803.1</v>
       </c>
-      <c r="U59" s="306">
+      <c r="U59" s="311">
         <v>37079.9</v>
       </c>
-      <c r="V59" s="316">
+      <c r="V59" s="321">
         <v>47269.7</v>
       </c>
     </row>
@@ -13282,20 +13279,20 @@
       <c r="F60" t="s">
         <v>198</v>
       </c>
-      <c r="I60" s="310"/>
-      <c r="J60" s="315"/>
-      <c r="K60" s="315"/>
-      <c r="L60" s="315"/>
-      <c r="M60" s="315"/>
-      <c r="N60" s="315"/>
-      <c r="O60" s="315"/>
-      <c r="P60" s="315"/>
-      <c r="Q60" s="315"/>
-      <c r="R60" s="321"/>
-      <c r="S60" s="315"/>
-      <c r="T60" s="323"/>
-      <c r="U60" s="307"/>
-      <c r="V60" s="317"/>
+      <c r="I60" s="315"/>
+      <c r="J60" s="320"/>
+      <c r="K60" s="320"/>
+      <c r="L60" s="320"/>
+      <c r="M60" s="320"/>
+      <c r="N60" s="320"/>
+      <c r="O60" s="320"/>
+      <c r="P60" s="320"/>
+      <c r="Q60" s="320"/>
+      <c r="R60" s="326"/>
+      <c r="S60" s="320"/>
+      <c r="T60" s="328"/>
+      <c r="U60" s="312"/>
+      <c r="V60" s="322"/>
     </row>
     <row r="61" spans="1:22">
       <c r="A61" s="52">
@@ -13316,46 +13313,46 @@
       <c r="F61" t="s">
         <v>200</v>
       </c>
-      <c r="I61" s="308" t="s">
+      <c r="I61" s="313" t="s">
         <v>284</v>
       </c>
-      <c r="J61" s="311">
+      <c r="J61" s="316">
         <v>123.9</v>
       </c>
-      <c r="K61" s="311">
+      <c r="K61" s="316">
         <v>111.8</v>
       </c>
-      <c r="L61" s="311">
+      <c r="L61" s="316">
         <v>114.8</v>
       </c>
-      <c r="M61" s="311">
+      <c r="M61" s="316">
         <v>107.6</v>
       </c>
-      <c r="N61" s="311">
+      <c r="N61" s="316">
         <v>90</v>
       </c>
-      <c r="O61" s="311">
+      <c r="O61" s="316">
         <v>117.1</v>
       </c>
-      <c r="P61" s="311">
+      <c r="P61" s="316">
         <v>108</v>
       </c>
-      <c r="Q61" s="311">
+      <c r="Q61" s="316">
         <v>113.9</v>
       </c>
-      <c r="R61" s="325">
+      <c r="R61" s="330">
         <v>106.1</v>
       </c>
-      <c r="S61" s="311">
+      <c r="S61" s="316">
         <v>88.5</v>
       </c>
-      <c r="T61" s="322">
+      <c r="T61" s="327">
         <v>79.599999999999994</v>
       </c>
-      <c r="U61" s="303">
+      <c r="U61" s="308">
         <v>102</v>
       </c>
-      <c r="V61" s="318">
+      <c r="V61" s="323">
         <v>110.9</v>
       </c>
     </row>
@@ -13378,20 +13375,20 @@
       <c r="F62" t="s">
         <v>202</v>
       </c>
-      <c r="I62" s="309"/>
-      <c r="J62" s="312"/>
-      <c r="K62" s="312"/>
-      <c r="L62" s="312"/>
-      <c r="M62" s="312"/>
-      <c r="N62" s="312"/>
-      <c r="O62" s="312"/>
-      <c r="P62" s="312"/>
-      <c r="Q62" s="312"/>
-      <c r="R62" s="326"/>
-      <c r="S62" s="312"/>
-      <c r="T62" s="324"/>
-      <c r="U62" s="304"/>
-      <c r="V62" s="319"/>
+      <c r="I62" s="314"/>
+      <c r="J62" s="317"/>
+      <c r="K62" s="317"/>
+      <c r="L62" s="317"/>
+      <c r="M62" s="317"/>
+      <c r="N62" s="317"/>
+      <c r="O62" s="317"/>
+      <c r="P62" s="317"/>
+      <c r="Q62" s="317"/>
+      <c r="R62" s="331"/>
+      <c r="S62" s="317"/>
+      <c r="T62" s="329"/>
+      <c r="U62" s="309"/>
+      <c r="V62" s="324"/>
     </row>
     <row r="63" spans="1:22">
       <c r="A63" s="52">
@@ -13412,20 +13409,20 @@
       <c r="F63" t="s">
         <v>204</v>
       </c>
-      <c r="I63" s="310"/>
-      <c r="J63" s="313"/>
-      <c r="K63" s="313"/>
-      <c r="L63" s="313"/>
-      <c r="M63" s="313"/>
-      <c r="N63" s="313"/>
-      <c r="O63" s="313"/>
-      <c r="P63" s="313"/>
-      <c r="Q63" s="313"/>
-      <c r="R63" s="327"/>
-      <c r="S63" s="313"/>
-      <c r="T63" s="323"/>
-      <c r="U63" s="305"/>
-      <c r="V63" s="319"/>
+      <c r="I63" s="315"/>
+      <c r="J63" s="318"/>
+      <c r="K63" s="318"/>
+      <c r="L63" s="318"/>
+      <c r="M63" s="318"/>
+      <c r="N63" s="318"/>
+      <c r="O63" s="318"/>
+      <c r="P63" s="318"/>
+      <c r="Q63" s="318"/>
+      <c r="R63" s="332"/>
+      <c r="S63" s="318"/>
+      <c r="T63" s="328"/>
+      <c r="U63" s="310"/>
+      <c r="V63" s="324"/>
     </row>
     <row r="64" spans="1:22" ht="16.5">
       <c r="A64" s="52">
@@ -13446,22 +13443,22 @@
       <c r="F64" t="s">
         <v>154</v>
       </c>
-      <c r="I64" s="300" t="s">
+      <c r="I64" s="305" t="s">
         <v>285</v>
       </c>
-      <c r="J64" s="300"/>
-      <c r="K64" s="300"/>
-      <c r="L64" s="300"/>
-      <c r="M64" s="300"/>
-      <c r="N64" s="300"/>
-      <c r="O64" s="300"/>
-      <c r="P64" s="300"/>
-      <c r="Q64" s="300"/>
-      <c r="R64" s="300"/>
-      <c r="S64" s="300"/>
-      <c r="T64" s="300"/>
-      <c r="U64" s="300"/>
-      <c r="V64" s="301"/>
+      <c r="J64" s="305"/>
+      <c r="K64" s="305"/>
+      <c r="L64" s="305"/>
+      <c r="M64" s="305"/>
+      <c r="N64" s="305"/>
+      <c r="O64" s="305"/>
+      <c r="P64" s="305"/>
+      <c r="Q64" s="305"/>
+      <c r="R64" s="305"/>
+      <c r="S64" s="305"/>
+      <c r="T64" s="305"/>
+      <c r="U64" s="305"/>
+      <c r="V64" s="306"/>
     </row>
     <row r="65" spans="1:22">
       <c r="A65" s="52">
@@ -13482,22 +13479,22 @@
       <c r="F65" t="s">
         <v>154</v>
       </c>
-      <c r="I65" s="302" t="s">
+      <c r="I65" s="307" t="s">
         <v>286</v>
       </c>
-      <c r="J65" s="302"/>
-      <c r="K65" s="302"/>
-      <c r="L65" s="302"/>
-      <c r="M65" s="302"/>
-      <c r="N65" s="302"/>
-      <c r="O65" s="302"/>
-      <c r="P65" s="302"/>
-      <c r="Q65" s="302"/>
-      <c r="R65" s="302"/>
-      <c r="S65" s="302"/>
-      <c r="T65" s="302"/>
-      <c r="U65" s="302"/>
-      <c r="V65" s="301"/>
+      <c r="J65" s="307"/>
+      <c r="K65" s="307"/>
+      <c r="L65" s="307"/>
+      <c r="M65" s="307"/>
+      <c r="N65" s="307"/>
+      <c r="O65" s="307"/>
+      <c r="P65" s="307"/>
+      <c r="Q65" s="307"/>
+      <c r="R65" s="307"/>
+      <c r="S65" s="307"/>
+      <c r="T65" s="307"/>
+      <c r="U65" s="307"/>
+      <c r="V65" s="306"/>
     </row>
     <row r="66" spans="1:22">
       <c r="A66" s="52">
@@ -13579,16 +13576,16 @@
         <v>213</v>
       </c>
       <c r="I69" s="136"/>
-      <c r="J69" s="328" t="s">
+      <c r="J69" s="333" t="s">
         <v>287</v>
       </c>
-      <c r="K69" s="328"/>
-      <c r="L69" s="328"/>
-      <c r="M69" s="328"/>
-      <c r="N69" s="328"/>
-      <c r="O69" s="328"/>
-      <c r="P69" s="328"/>
-      <c r="Q69" s="328"/>
+      <c r="K69" s="333"/>
+      <c r="L69" s="333"/>
+      <c r="M69" s="333"/>
+      <c r="N69" s="333"/>
+      <c r="O69" s="333"/>
+      <c r="P69" s="333"/>
+      <c r="Q69" s="333"/>
       <c r="R69" s="136"/>
     </row>
     <row r="70" spans="1:22">
@@ -13610,18 +13607,18 @@
       <c r="F70" t="s">
         <v>215</v>
       </c>
-      <c r="I70" s="332" t="s">
+      <c r="I70" s="337" t="s">
         <v>288</v>
       </c>
-      <c r="J70" s="332"/>
-      <c r="K70" s="332"/>
-      <c r="L70" s="332"/>
-      <c r="M70" s="332"/>
-      <c r="N70" s="332"/>
-      <c r="O70" s="332"/>
-      <c r="P70" s="332"/>
-      <c r="Q70" s="332"/>
-      <c r="R70" s="332"/>
+      <c r="J70" s="337"/>
+      <c r="K70" s="337"/>
+      <c r="L70" s="337"/>
+      <c r="M70" s="337"/>
+      <c r="N70" s="337"/>
+      <c r="O70" s="337"/>
+      <c r="P70" s="337"/>
+      <c r="Q70" s="337"/>
+      <c r="R70" s="337"/>
     </row>
     <row r="71" spans="1:22">
       <c r="A71" s="52">
@@ -13740,16 +13737,16 @@
       <c r="J73" s="138" t="s">
         <v>294</v>
       </c>
-      <c r="K73" s="329" t="s">
+      <c r="K73" s="334" t="s">
         <v>295</v>
       </c>
-      <c r="L73" s="330"/>
-      <c r="M73" s="330"/>
-      <c r="N73" s="330"/>
-      <c r="O73" s="330"/>
-      <c r="P73" s="330"/>
-      <c r="Q73" s="330"/>
-      <c r="R73" s="331"/>
+      <c r="L73" s="335"/>
+      <c r="M73" s="335"/>
+      <c r="N73" s="335"/>
+      <c r="O73" s="335"/>
+      <c r="P73" s="335"/>
+      <c r="Q73" s="335"/>
+      <c r="R73" s="336"/>
     </row>
     <row r="74" spans="1:22" ht="25.5">
       <c r="A74" s="52">
@@ -14430,64 +14427,64 @@
       </c>
     </row>
     <row r="96" spans="1:18" ht="15.75">
-      <c r="C96" s="343" t="s">
+      <c r="C96" s="348" t="s">
         <v>310</v>
       </c>
-      <c r="D96" s="343"/>
-      <c r="E96" s="343"/>
-      <c r="F96" s="343"/>
-      <c r="G96" s="343"/>
-      <c r="H96" s="343"/>
-      <c r="I96" s="343"/>
-      <c r="J96" s="344"/>
+      <c r="D96" s="348"/>
+      <c r="E96" s="348"/>
+      <c r="F96" s="348"/>
+      <c r="G96" s="348"/>
+      <c r="H96" s="348"/>
+      <c r="I96" s="348"/>
+      <c r="J96" s="349"/>
     </row>
     <row r="97" spans="3:10">
-      <c r="C97" s="335"/>
-      <c r="D97" s="338">
+      <c r="C97" s="340"/>
+      <c r="D97" s="343">
         <v>2017</v>
       </c>
-      <c r="E97" s="339"/>
-      <c r="F97" s="339"/>
-      <c r="G97" s="339"/>
-      <c r="H97" s="339"/>
-      <c r="I97" s="339"/>
-      <c r="J97" s="340"/>
+      <c r="E97" s="344"/>
+      <c r="F97" s="344"/>
+      <c r="G97" s="344"/>
+      <c r="H97" s="344"/>
+      <c r="I97" s="344"/>
+      <c r="J97" s="345"/>
     </row>
     <row r="98" spans="3:10">
-      <c r="C98" s="336"/>
-      <c r="D98" s="345" t="s">
+      <c r="C98" s="341"/>
+      <c r="D98" s="350" t="s">
         <v>311</v>
       </c>
-      <c r="E98" s="338" t="s">
+      <c r="E98" s="343" t="s">
         <v>312</v>
       </c>
-      <c r="F98" s="347"/>
-      <c r="G98" s="345" t="s">
+      <c r="F98" s="352"/>
+      <c r="G98" s="350" t="s">
         <v>313</v>
       </c>
-      <c r="H98" s="349" t="s">
+      <c r="H98" s="354" t="s">
         <v>314</v>
       </c>
-      <c r="I98" s="349" t="s">
+      <c r="I98" s="354" t="s">
         <v>315</v>
       </c>
-      <c r="J98" s="338" t="s">
+      <c r="J98" s="343" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="99" spans="3:10">
-      <c r="C99" s="337"/>
-      <c r="D99" s="346"/>
+      <c r="C99" s="342"/>
+      <c r="D99" s="351"/>
       <c r="E99" s="163" t="s">
         <v>317</v>
       </c>
       <c r="F99" s="162" t="s">
         <v>318</v>
       </c>
-      <c r="G99" s="348"/>
-      <c r="H99" s="350"/>
-      <c r="I99" s="350"/>
-      <c r="J99" s="351"/>
+      <c r="G99" s="353"/>
+      <c r="H99" s="355"/>
+      <c r="I99" s="355"/>
+      <c r="J99" s="356"/>
     </row>
     <row r="100" spans="3:10" ht="51">
       <c r="C100" s="165" t="s">
@@ -14516,16 +14513,16 @@
       </c>
     </row>
     <row r="101" spans="3:10">
-      <c r="C101" s="333" t="s">
+      <c r="C101" s="338" t="s">
         <v>295</v>
       </c>
-      <c r="D101" s="334"/>
-      <c r="E101" s="334"/>
-      <c r="F101" s="334"/>
-      <c r="G101" s="334"/>
-      <c r="H101" s="334"/>
-      <c r="I101" s="334"/>
-      <c r="J101" s="334"/>
+      <c r="D101" s="339"/>
+      <c r="E101" s="339"/>
+      <c r="F101" s="339"/>
+      <c r="G101" s="339"/>
+      <c r="H101" s="339"/>
+      <c r="I101" s="339"/>
+      <c r="J101" s="339"/>
     </row>
     <row r="102" spans="3:10" ht="38.25">
       <c r="C102" s="166" t="s">
@@ -14557,12 +14554,12 @@
       <c r="C103" s="167" t="s">
         <v>321</v>
       </c>
-      <c r="D103" s="333"/>
-      <c r="E103" s="333"/>
-      <c r="F103" s="333"/>
-      <c r="G103" s="333"/>
-      <c r="H103" s="333"/>
-      <c r="I103" s="333"/>
+      <c r="D103" s="338"/>
+      <c r="E103" s="338"/>
+      <c r="F103" s="338"/>
+      <c r="G103" s="338"/>
+      <c r="H103" s="338"/>
+      <c r="I103" s="338"/>
       <c r="J103" s="178"/>
     </row>
     <row r="104" spans="3:10" ht="89.25">
@@ -15304,16 +15301,16 @@
       <c r="J133" s="153"/>
     </row>
     <row r="134" spans="3:10">
-      <c r="C134" s="341" t="s">
+      <c r="C134" s="346" t="s">
         <v>352</v>
       </c>
-      <c r="D134" s="342"/>
-      <c r="E134" s="342"/>
-      <c r="F134" s="342"/>
-      <c r="G134" s="342"/>
-      <c r="H134" s="342"/>
-      <c r="I134" s="342"/>
-      <c r="J134" s="334"/>
+      <c r="D134" s="347"/>
+      <c r="E134" s="347"/>
+      <c r="F134" s="347"/>
+      <c r="G134" s="347"/>
+      <c r="H134" s="347"/>
+      <c r="I134" s="347"/>
+      <c r="J134" s="339"/>
     </row>
   </sheetData>
   <mergeCells count="56">
@@ -15445,15 +15442,15 @@
     <row r="4" spans="1:34">
       <c r="A4" s="194"/>
       <c r="B4" s="198"/>
-      <c r="C4" s="356" t="s">
+      <c r="C4" s="361" t="s">
         <v>381</v>
       </c>
-      <c r="D4" s="357"/>
-      <c r="E4" s="357"/>
-      <c r="F4" s="357"/>
-      <c r="G4" s="358"/>
+      <c r="D4" s="362"/>
+      <c r="E4" s="362"/>
+      <c r="F4" s="362"/>
+      <c r="G4" s="363"/>
       <c r="Z4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="5" spans="1:34" ht="42">
@@ -15478,20 +15475,20 @@
       <c r="G5" s="202">
         <v>121972.22569748529</v>
       </c>
-      <c r="M5" s="359" t="s">
+      <c r="M5" s="364" t="s">
         <v>425</v>
       </c>
-      <c r="N5" s="359"/>
-      <c r="O5" s="359"/>
-      <c r="P5" s="359"/>
-      <c r="Q5" s="359"/>
-      <c r="R5" s="359"/>
-      <c r="S5" s="359"/>
-      <c r="T5" s="359"/>
-      <c r="U5" s="359"/>
-      <c r="V5" s="359"/>
+      <c r="N5" s="364"/>
+      <c r="O5" s="364"/>
+      <c r="P5" s="364"/>
+      <c r="Q5" s="364"/>
+      <c r="R5" s="364"/>
+      <c r="S5" s="364"/>
+      <c r="T5" s="364"/>
+      <c r="U5" s="364"/>
+      <c r="V5" s="364"/>
       <c r="Z5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="6" spans="1:34" ht="115.5">
@@ -15653,28 +15650,28 @@
       </c>
       <c r="M8" s="208"/>
       <c r="N8" s="208"/>
-      <c r="O8" s="352" t="s">
+      <c r="O8" s="357" t="s">
         <v>426</v>
       </c>
-      <c r="P8" s="353"/>
-      <c r="Q8" s="353"/>
-      <c r="R8" s="353"/>
-      <c r="S8" s="353"/>
-      <c r="T8" s="353"/>
-      <c r="U8" s="353"/>
-      <c r="V8" s="354"/>
+      <c r="P8" s="358"/>
+      <c r="Q8" s="358"/>
+      <c r="R8" s="358"/>
+      <c r="S8" s="358"/>
+      <c r="T8" s="358"/>
+      <c r="U8" s="358"/>
+      <c r="V8" s="359"/>
       <c r="Y8" s="208"/>
       <c r="Z8" s="208"/>
-      <c r="AA8" s="352" t="s">
-        <v>478</v>
-      </c>
-      <c r="AB8" s="353"/>
-      <c r="AC8" s="353"/>
-      <c r="AD8" s="353"/>
-      <c r="AE8" s="353"/>
-      <c r="AF8" s="353"/>
-      <c r="AG8" s="353"/>
-      <c r="AH8" s="354"/>
+      <c r="AA8" s="357" t="s">
+        <v>477</v>
+      </c>
+      <c r="AB8" s="358"/>
+      <c r="AC8" s="358"/>
+      <c r="AD8" s="358"/>
+      <c r="AE8" s="358"/>
+      <c r="AF8" s="358"/>
+      <c r="AG8" s="358"/>
+      <c r="AH8" s="359"/>
     </row>
     <row r="9" spans="1:34" ht="52.5">
       <c r="A9" s="200" t="s">
@@ -17621,7 +17618,7 @@
         <v>81242.017190041282</v>
       </c>
       <c r="H31" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M31" s="212" t="s">
         <v>444</v>
@@ -17696,30 +17693,30 @@
         <f>G31/G27</f>
         <v>0.19398046219491502</v>
       </c>
-      <c r="M32" s="355" t="s">
+      <c r="M32" s="360" t="s">
         <v>445</v>
       </c>
-      <c r="N32" s="355"/>
-      <c r="O32" s="355"/>
-      <c r="P32" s="355"/>
-      <c r="Q32" s="355"/>
-      <c r="R32" s="355"/>
-      <c r="S32" s="355"/>
-      <c r="T32" s="355"/>
-      <c r="U32" s="355"/>
-      <c r="V32" s="355"/>
-      <c r="Y32" s="355" t="s">
+      <c r="N32" s="360"/>
+      <c r="O32" s="360"/>
+      <c r="P32" s="360"/>
+      <c r="Q32" s="360"/>
+      <c r="R32" s="360"/>
+      <c r="S32" s="360"/>
+      <c r="T32" s="360"/>
+      <c r="U32" s="360"/>
+      <c r="V32" s="360"/>
+      <c r="Y32" s="360" t="s">
         <v>445</v>
       </c>
-      <c r="Z32" s="355"/>
-      <c r="AA32" s="355"/>
-      <c r="AB32" s="355"/>
-      <c r="AC32" s="355"/>
-      <c r="AD32" s="355"/>
-      <c r="AE32" s="355"/>
-      <c r="AF32" s="355"/>
-      <c r="AG32" s="355"/>
-      <c r="AH32" s="355"/>
+      <c r="Z32" s="360"/>
+      <c r="AA32" s="360"/>
+      <c r="AB32" s="360"/>
+      <c r="AC32" s="360"/>
+      <c r="AD32" s="360"/>
+      <c r="AE32" s="360"/>
+      <c r="AF32" s="360"/>
+      <c r="AG32" s="360"/>
+      <c r="AH32" s="360"/>
     </row>
     <row r="33" spans="1:34">
       <c r="A33" s="229" t="s">
@@ -17734,7 +17731,7 @@
         <v>4855.1510196421859</v>
       </c>
       <c r="H33" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="34" spans="1:34" ht="52.5">
@@ -17746,7 +17743,7 @@
         <v>1.1592578217417174E-2</v>
       </c>
       <c r="Y34" s="208" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="Z34" s="13"/>
       <c r="AA34" s="13">
@@ -17788,7 +17785,7 @@
         <v>86097.168209683485</v>
       </c>
       <c r="H35" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="36" spans="1:34">
@@ -17821,14 +17818,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="45.7109375" style="153" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="377" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="262" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" style="153" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" style="153" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" style="153" customWidth="1"/>
@@ -17837,378 +17834,378 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.45" customHeight="1">
-      <c r="B1" s="373" t="s">
+      <c r="B1" s="258" t="s">
+        <v>499</v>
+      </c>
+      <c r="C1" s="259" t="s">
         <v>500</v>
       </c>
-      <c r="C1" s="374" t="s">
+      <c r="D1" s="259" t="s">
         <v>501</v>
       </c>
-      <c r="D1" s="374" t="s">
+      <c r="E1" s="259" t="s">
         <v>502</v>
       </c>
-      <c r="E1" s="374" t="s">
+      <c r="F1" s="259" t="s">
         <v>503</v>
       </c>
-      <c r="F1" s="374" t="s">
-        <v>504</v>
-      </c>
     </row>
     <row r="2" spans="1:6" ht="19.5">
-      <c r="A2" s="375" t="s">
+      <c r="A2" s="260" t="s">
         <v>385</v>
       </c>
-      <c r="B2" s="374" t="s">
+      <c r="B2" s="259" t="s">
         <v>386</v>
       </c>
-      <c r="C2" s="376">
+      <c r="C2" s="261">
         <v>27347.555702608606</v>
       </c>
-      <c r="D2" s="376">
+      <c r="D2" s="261">
         <v>-10324.464884899999</v>
       </c>
-      <c r="E2" s="376">
+      <c r="E2" s="261">
         <v>2099.5766678800001</v>
       </c>
-      <c r="F2" s="376">
+      <c r="F2" s="261">
         <v>19122.667485588609</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="375" t="s">
+      <c r="A3" s="260" t="s">
         <v>390</v>
       </c>
-      <c r="B3" s="374" t="s">
+      <c r="B3" s="259" t="s">
         <v>391</v>
       </c>
-      <c r="C3" s="376">
+      <c r="C3" s="261">
         <v>12939.887053232369</v>
       </c>
-      <c r="D3" s="376">
+      <c r="D3" s="261">
         <v>-3947.7218735599999</v>
       </c>
-      <c r="E3" s="376">
+      <c r="E3" s="261">
         <v>12504.73243502</v>
       </c>
-      <c r="F3" s="376">
+      <c r="F3" s="261">
         <v>29392.34136181237</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="375" t="s">
+      <c r="A4" s="260" t="s">
         <v>363</v>
       </c>
-      <c r="B4" s="374" t="s">
+      <c r="B4" s="259" t="s">
         <v>382</v>
       </c>
-      <c r="C4" s="376">
+      <c r="C4" s="261">
         <v>67869.464518021108</v>
       </c>
-      <c r="D4" s="376">
+      <c r="D4" s="261">
         <v>-30501.237616150007</v>
       </c>
-      <c r="E4" s="376">
+      <c r="E4" s="261">
         <v>34836.373559850006</v>
       </c>
-      <c r="F4" s="376">
+      <c r="F4" s="261">
         <v>72204.6004617211</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="19.5">
-      <c r="A5" s="375" t="s">
+      <c r="A5" s="260" t="s">
         <v>392</v>
       </c>
-      <c r="B5" s="374" t="s">
+      <c r="B5" s="259" t="s">
         <v>393</v>
       </c>
-      <c r="C5" s="376">
+      <c r="C5" s="261">
         <v>10677.492611837604</v>
       </c>
-      <c r="D5" s="376"/>
-      <c r="E5" s="376"/>
-      <c r="F5" s="376"/>
+      <c r="D5" s="261"/>
+      <c r="E5" s="261"/>
+      <c r="F5" s="261"/>
     </row>
     <row r="6" spans="1:6" ht="19.5">
-      <c r="A6" s="375" t="s">
+      <c r="A6" s="260" t="s">
         <v>411</v>
       </c>
-      <c r="B6" s="374" t="s">
+      <c r="B6" s="259" t="s">
         <v>412</v>
       </c>
-      <c r="C6" s="376">
+      <c r="C6" s="261">
         <v>1395.0655346924043</v>
       </c>
-      <c r="D6" s="376"/>
-      <c r="E6" s="376"/>
-      <c r="F6" s="376"/>
+      <c r="D6" s="261"/>
+      <c r="E6" s="261"/>
+      <c r="F6" s="261"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="375" t="s">
+      <c r="A7" s="260" t="s">
         <v>366</v>
       </c>
-      <c r="B7" s="374" t="s">
+      <c r="B7" s="259" t="s">
         <v>389</v>
       </c>
-      <c r="C7" s="376">
+      <c r="C7" s="261">
         <v>12275.854808509359</v>
       </c>
-      <c r="D7" s="376">
+      <c r="D7" s="261">
         <v>-102.25636999999999</v>
       </c>
-      <c r="E7" s="376">
+      <c r="E7" s="261">
         <v>106.65017999999999</v>
       </c>
-      <c r="F7" s="376">
+      <c r="F7" s="261">
         <v>12280.24861850936</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="19.5">
-      <c r="A8" s="375" t="s">
+      <c r="A8" s="260" t="s">
         <v>383</v>
       </c>
-      <c r="B8" s="374" t="s">
+      <c r="B8" s="259" t="s">
         <v>384</v>
       </c>
-      <c r="C8" s="376">
+      <c r="C8" s="261">
         <v>31295.353541430108</v>
       </c>
-      <c r="D8" s="376"/>
-      <c r="E8" s="376"/>
-      <c r="F8" s="376"/>
+      <c r="D8" s="261"/>
+      <c r="E8" s="261"/>
+      <c r="F8" s="261"/>
     </row>
     <row r="9" spans="1:6" ht="19.5">
-      <c r="A9" s="375" t="s">
+      <c r="A9" s="260" t="s">
         <v>387</v>
       </c>
-      <c r="B9" s="374" t="s">
+      <c r="B9" s="259" t="s">
         <v>388</v>
       </c>
-      <c r="C9" s="376">
+      <c r="C9" s="261">
         <v>15809.689960370875</v>
       </c>
-      <c r="D9" s="376">
+      <c r="D9" s="261">
         <v>-5861.4056300000002</v>
       </c>
-      <c r="E9" s="376">
+      <c r="E9" s="261">
         <v>1213.0736299999999</v>
       </c>
-      <c r="F9" s="376">
+      <c r="F9" s="261">
         <v>11161.357960370875</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="375" t="s">
+      <c r="A10" s="260" t="s">
         <v>409</v>
       </c>
-      <c r="B10" s="374" t="s">
+      <c r="B10" s="259" t="s">
         <v>410</v>
       </c>
-      <c r="C10" s="376">
+      <c r="C10" s="261">
         <v>1418.865569283292</v>
       </c>
-      <c r="D10" s="376"/>
-      <c r="E10" s="376"/>
-      <c r="F10" s="376"/>
+      <c r="D10" s="261"/>
+      <c r="E10" s="261"/>
+      <c r="F10" s="261"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="375" t="s">
+      <c r="A11" s="260" t="s">
         <v>399</v>
       </c>
-      <c r="B11" s="374" t="s">
+      <c r="B11" s="259" t="s">
         <v>400</v>
       </c>
-      <c r="C11" s="376">
+      <c r="C11" s="261">
         <v>8484.505538301888</v>
       </c>
-      <c r="D11" s="376">
+      <c r="D11" s="261">
         <v>-1760.79458</v>
       </c>
-      <c r="E11" s="376">
+      <c r="E11" s="261">
         <v>423.96979999999996</v>
       </c>
-      <c r="F11" s="376">
+      <c r="F11" s="261">
         <v>7147.6807583018881</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="375" t="s">
+      <c r="A12" s="260" t="s">
         <v>397</v>
       </c>
-      <c r="B12" s="374" t="s">
+      <c r="B12" s="259" t="s">
         <v>398</v>
       </c>
-      <c r="C12" s="376">
+      <c r="C12" s="261">
         <v>4554.7927178661939</v>
       </c>
-      <c r="D12" s="376">
+      <c r="D12" s="261">
         <v>-114.01109</v>
       </c>
-      <c r="E12" s="376">
+      <c r="E12" s="261">
         <v>552.91029000000003</v>
       </c>
-      <c r="F12" s="376">
+      <c r="F12" s="261">
         <v>4993.6919178661938</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="375" t="s">
+      <c r="A13" s="260" t="s">
         <v>394</v>
       </c>
-      <c r="B13" s="374" t="s">
+      <c r="B13" s="259" t="s">
         <v>395</v>
       </c>
-      <c r="C13" s="376">
+      <c r="C13" s="261">
         <v>8953.8136453531661</v>
       </c>
-      <c r="D13" s="376"/>
-      <c r="E13" s="376"/>
-      <c r="F13" s="376"/>
+      <c r="D13" s="261"/>
+      <c r="E13" s="261"/>
+      <c r="F13" s="261"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="375" t="s">
+      <c r="A14" s="260" t="s">
         <v>403</v>
       </c>
-      <c r="B14" s="374" t="s">
+      <c r="B14" s="259" t="s">
         <v>404</v>
       </c>
-      <c r="C14" s="376">
+      <c r="C14" s="261">
         <v>6453.0804689321194</v>
       </c>
-      <c r="D14" s="376"/>
-      <c r="E14" s="376"/>
-      <c r="F14" s="376"/>
+      <c r="D14" s="261"/>
+      <c r="E14" s="261"/>
+      <c r="F14" s="261"/>
     </row>
     <row r="15" spans="1:6" ht="19.5">
-      <c r="A15" s="375" t="s">
+      <c r="A15" s="260" t="s">
         <v>407</v>
       </c>
-      <c r="B15" s="374" t="s">
+      <c r="B15" s="259" t="s">
         <v>408</v>
       </c>
-      <c r="C15" s="376">
+      <c r="C15" s="261">
         <v>2662.7463660768672</v>
       </c>
-      <c r="D15" s="376">
+      <c r="D15" s="261">
         <v>-950.91711000000009</v>
       </c>
-      <c r="E15" s="376">
+      <c r="E15" s="261">
         <v>1234.4308000000001</v>
       </c>
-      <c r="F15" s="376">
+      <c r="F15" s="261">
         <v>2946.2600560768669</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="19.5">
-      <c r="A16" s="375" t="s">
+      <c r="A16" s="260" t="s">
         <v>401</v>
       </c>
-      <c r="B16" s="374" t="s">
+      <c r="B16" s="259" t="s">
         <v>402</v>
       </c>
-      <c r="C16" s="376">
+      <c r="C16" s="261">
         <v>8909.7854612995652</v>
       </c>
-      <c r="D16" s="376">
+      <c r="D16" s="261">
         <v>-3.8128699999999998</v>
       </c>
-      <c r="E16" s="376">
+      <c r="E16" s="261">
         <v>1055.27134</v>
       </c>
-      <c r="F16" s="376">
+      <c r="F16" s="261">
         <v>9961.2439312995648</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="375" t="s">
+      <c r="A17" s="260" t="s">
         <v>368</v>
       </c>
-      <c r="B17" s="374" t="s">
+      <c r="B17" s="259" t="s">
         <v>396</v>
       </c>
-      <c r="C17" s="376">
+      <c r="C17" s="261">
         <v>6768.1959348187365</v>
       </c>
-      <c r="D17" s="376"/>
-      <c r="E17" s="376"/>
-      <c r="F17" s="376"/>
+      <c r="D17" s="261"/>
+      <c r="E17" s="261"/>
+      <c r="F17" s="261"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="375" t="s">
+      <c r="A18" s="260" t="s">
         <v>405</v>
       </c>
-      <c r="B18" s="374" t="s">
+      <c r="B18" s="259" t="s">
         <v>406</v>
       </c>
-      <c r="C18" s="376">
+      <c r="C18" s="261">
         <v>4961.9124248964154</v>
       </c>
-      <c r="D18" s="376"/>
-      <c r="E18" s="376"/>
-      <c r="F18" s="376"/>
+      <c r="D18" s="261"/>
+      <c r="E18" s="261"/>
+      <c r="F18" s="261"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="375" t="s">
+      <c r="A19" s="260" t="s">
         <v>415</v>
       </c>
-      <c r="B19" s="374" t="s">
+      <c r="B19" s="259" t="s">
         <v>416</v>
       </c>
-      <c r="C19" s="376">
+      <c r="C19" s="261">
         <v>1062.6922238180821</v>
       </c>
-      <c r="D19" s="376">
+      <c r="D19" s="261">
         <v>-242.74900000000002</v>
       </c>
-      <c r="E19" s="376">
+      <c r="E19" s="261">
         <v>795.17393000000004</v>
       </c>
-      <c r="F19" s="376">
+      <c r="F19" s="261">
         <v>1615.117153818082</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="375" t="s">
+      <c r="A20" s="260" t="s">
         <v>413</v>
       </c>
-      <c r="B20" s="374" t="s">
+      <c r="B20" s="259" t="s">
         <v>414</v>
       </c>
-      <c r="C20" s="376">
+      <c r="C20" s="261">
         <v>1354.6092357669777</v>
       </c>
-      <c r="D20" s="376">
+      <c r="D20" s="261">
         <v>-14.73752</v>
       </c>
-      <c r="E20" s="376">
+      <c r="E20" s="261">
         <v>20.57396</v>
       </c>
-      <c r="F20" s="376">
+      <c r="F20" s="261">
         <f>SUM(C20:E20)</f>
         <v>1360.4456757669777</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="375"/>
-      <c r="B21" s="374"/>
-      <c r="C21" s="376">
+      <c r="A21" s="260"/>
+      <c r="B21" s="259"/>
+      <c r="C21" s="261">
         <f>SUM(C2:C20)</f>
         <v>235195.3633171157</v>
       </c>
-      <c r="D21" s="376">
+      <c r="D21" s="261">
         <f t="shared" ref="D21:F21" si="0">SUM(D2:D20)</f>
         <v>-53824.108544610019</v>
       </c>
-      <c r="E21" s="376">
+      <c r="E21" s="261">
         <f t="shared" si="0"/>
         <v>54842.73659275</v>
       </c>
-      <c r="F21" s="376">
+      <c r="F21" s="261">
         <f t="shared" si="0"/>
         <v>172185.65538113189</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -18221,7 +18218,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
@@ -18238,103 +18235,103 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="Q1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="B2" s="369" t="s">
+        <v>353</v>
+      </c>
+      <c r="C2" s="369"/>
+      <c r="D2" s="369"/>
+      <c r="E2" s="369"/>
+      <c r="F2" s="369"/>
+      <c r="G2" s="369"/>
+      <c r="K2" s="369" t="s">
+        <v>480</v>
+      </c>
+      <c r="L2" s="369"/>
+      <c r="M2" s="369"/>
+      <c r="N2" s="369"/>
+      <c r="O2" s="369"/>
+      <c r="P2" s="369"/>
+      <c r="Q2" s="50" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
-      <c r="B2" s="364" t="s">
-        <v>353</v>
-      </c>
-      <c r="C2" s="364"/>
-      <c r="D2" s="364"/>
-      <c r="E2" s="364"/>
-      <c r="F2" s="364"/>
-      <c r="G2" s="364"/>
-      <c r="K2" s="364" t="s">
-        <v>481</v>
-      </c>
-      <c r="L2" s="364"/>
-      <c r="M2" s="364"/>
-      <c r="N2" s="364"/>
-      <c r="O2" s="364"/>
-      <c r="P2" s="364"/>
-      <c r="Q2" s="50" t="s">
-        <v>498</v>
-      </c>
-    </row>
     <row r="3" spans="1:17">
-      <c r="B3" s="365" t="s">
+      <c r="B3" s="370" t="s">
         <v>354</v>
       </c>
-      <c r="C3" s="365"/>
-      <c r="D3" s="365"/>
-      <c r="E3" s="365"/>
-      <c r="K3" s="365" t="s">
+      <c r="C3" s="370"/>
+      <c r="D3" s="370"/>
+      <c r="E3" s="370"/>
+      <c r="K3" s="370" t="s">
         <v>354</v>
       </c>
-      <c r="L3" s="365"/>
-      <c r="M3" s="365"/>
-      <c r="N3" s="365"/>
+      <c r="L3" s="370"/>
+      <c r="M3" s="370"/>
+      <c r="N3" s="370"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="366" t="s">
+      <c r="A4" s="371" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="366" t="s">
+      <c r="B4" s="371" t="s">
         <v>355</v>
       </c>
-      <c r="C4" s="368" t="s">
+      <c r="C4" s="373" t="s">
         <v>356</v>
       </c>
-      <c r="D4" s="368" t="s">
+      <c r="D4" s="373" t="s">
         <v>357</v>
       </c>
-      <c r="E4" s="368" t="s">
+      <c r="E4" s="373" t="s">
         <v>358</v>
       </c>
-      <c r="F4" s="368" t="s">
+      <c r="F4" s="373" t="s">
         <v>359</v>
       </c>
-      <c r="G4" s="368" t="s">
+      <c r="G4" s="373" t="s">
         <v>360</v>
       </c>
-      <c r="J4" s="366" t="s">
+      <c r="J4" s="371" t="s">
         <v>84</v>
       </c>
-      <c r="K4" s="366" t="s">
+      <c r="K4" s="371" t="s">
         <v>355</v>
       </c>
-      <c r="L4" s="368" t="s">
+      <c r="L4" s="373" t="s">
         <v>356</v>
       </c>
-      <c r="M4" s="368" t="s">
+      <c r="M4" s="373" t="s">
         <v>357</v>
       </c>
-      <c r="N4" s="368" t="s">
+      <c r="N4" s="373" t="s">
         <v>358</v>
       </c>
-      <c r="O4" s="368" t="s">
+      <c r="O4" s="373" t="s">
         <v>359</v>
       </c>
-      <c r="P4" s="368" t="s">
+      <c r="P4" s="373" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="24.75" customHeight="1">
-      <c r="A5" s="367"/>
-      <c r="B5" s="367"/>
-      <c r="C5" s="369"/>
-      <c r="D5" s="369"/>
-      <c r="E5" s="369"/>
-      <c r="F5" s="370"/>
-      <c r="G5" s="370"/>
-      <c r="J5" s="367"/>
-      <c r="K5" s="367"/>
-      <c r="L5" s="369"/>
-      <c r="M5" s="369"/>
-      <c r="N5" s="369"/>
-      <c r="O5" s="370"/>
-      <c r="P5" s="370"/>
+      <c r="A5" s="372"/>
+      <c r="B5" s="372"/>
+      <c r="C5" s="374"/>
+      <c r="D5" s="374"/>
+      <c r="E5" s="374"/>
+      <c r="F5" s="375"/>
+      <c r="G5" s="375"/>
+      <c r="J5" s="372"/>
+      <c r="K5" s="372"/>
+      <c r="L5" s="374"/>
+      <c r="M5" s="374"/>
+      <c r="N5" s="374"/>
+      <c r="O5" s="375"/>
+      <c r="P5" s="375"/>
     </row>
     <row r="6" spans="1:17" ht="114.75">
       <c r="A6" s="182">
@@ -18366,7 +18363,7 @@
         <v>361</v>
       </c>
       <c r="L6" s="253" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="M6" s="253">
         <v>423403</v>
@@ -18398,10 +18395,10 @@
       <c r="E7" s="183">
         <v>83203</v>
       </c>
-      <c r="F7" s="360">
+      <c r="F7" s="365">
         <v>3303</v>
       </c>
-      <c r="G7" s="362">
+      <c r="G7" s="367">
         <f>(E7+E8)/F7*1000</f>
         <v>81180.744777475033</v>
       </c>
@@ -18412,7 +18409,7 @@
         <v>362</v>
       </c>
       <c r="L7" s="253" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="M7" s="253">
         <v>166987</v>
@@ -18420,10 +18417,10 @@
       <c r="N7" s="253">
         <v>177170</v>
       </c>
-      <c r="O7" s="371">
+      <c r="O7" s="376">
         <v>2440.6</v>
       </c>
-      <c r="P7" s="371">
+      <c r="P7" s="376">
         <f>(N7+N8)/O7*1000</f>
         <v>220043.02220765388</v>
       </c>
@@ -18444,8 +18441,8 @@
       <c r="E8" s="183">
         <v>184937</v>
       </c>
-      <c r="F8" s="361"/>
-      <c r="G8" s="363"/>
+      <c r="F8" s="366"/>
+      <c r="G8" s="368"/>
       <c r="J8" s="184">
         <v>3</v>
       </c>
@@ -18453,7 +18450,7 @@
         <v>363</v>
       </c>
       <c r="L8" s="253" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="M8" s="253">
         <v>1445230</v>
@@ -18461,8 +18458,8 @@
       <c r="N8" s="253">
         <v>359867</v>
       </c>
-      <c r="O8" s="372"/>
-      <c r="P8" s="372"/>
+      <c r="O8" s="377"/>
+      <c r="P8" s="377"/>
     </row>
     <row r="9" spans="1:17" ht="102">
       <c r="A9" s="184">
@@ -18493,7 +18490,7 @@
         <v>364</v>
       </c>
       <c r="L9" s="253" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="M9" s="253">
         <v>198015</v>
@@ -18538,7 +18535,7 @@
         <v>365</v>
       </c>
       <c r="L10" s="253" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="M10" s="253">
         <v>422356</v>
@@ -18584,7 +18581,7 @@
         <v>366</v>
       </c>
       <c r="L11" s="253" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="M11" s="253">
         <v>262065</v>
@@ -18630,7 +18627,7 @@
         <v>367</v>
       </c>
       <c r="L12" s="253" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="M12" s="253">
         <v>229275</v>
@@ -18677,7 +18674,7 @@
         <v>368</v>
       </c>
       <c r="L13" s="253" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="M13" s="253">
         <v>46798</v>
@@ -18723,7 +18720,7 @@
         <v>369</v>
       </c>
       <c r="L14" s="253" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="M14" s="253">
         <v>55830</v>
@@ -18770,7 +18767,7 @@
         <v>370</v>
       </c>
       <c r="L15" s="253" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="M15" s="253">
         <v>13538</v>
@@ -18858,7 +18855,7 @@
         <v>373</v>
       </c>
       <c r="L17" s="253" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="M17" s="253">
         <v>73172</v>
@@ -18905,7 +18902,7 @@
         <v>374</v>
       </c>
       <c r="L18" s="186" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="M18" s="186">
         <v>3735836</v>
@@ -18947,7 +18944,7 @@
         <v>375</v>
       </c>
       <c r="L19" s="183" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="M19" s="187" t="s">
         <v>372</v>
@@ -18983,7 +18980,7 @@
         <v>376</v>
       </c>
       <c r="L20" s="183" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="M20" s="187" t="s">
         <v>372</v>
@@ -19019,7 +19016,7 @@
         <v>377</v>
       </c>
       <c r="L21" s="186" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="M21" s="186">
         <v>3735836</v>
@@ -20281,7 +20278,7 @@
   </sheetPr>
   <dimension ref="A5:V41"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="U44" sqref="U44"/>
     </sheetView>
   </sheetViews>

--- a/Таблицы2017.xlsx
+++ b/Таблицы2017.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="13500" tabRatio="541" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="13500" tabRatio="541" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Slide5" sheetId="1" r:id="rId1"/>
@@ -26,8 +26,11 @@
     <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">Slide14!$C$97:$J$134</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Slide5!$A$1:$L$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">Slide14!$A$1:$M$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">Slide21!$Y$6:$AH$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">Slide23!$J$1:$P$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Slide5!$A$1:$L$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Slide7!$A$2:$J$36</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="501">
   <si>
     <t xml:space="preserve">Демографические параметры населения Украины. Без изменений политики </t>
   </si>
@@ -215,15 +218,6 @@
     <t xml:space="preserve">Демографические параметры населения Украины. Проектная </t>
   </si>
   <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Экономическая модель жизни бездетной  женщины и мужщины, дол. США</t>
   </si>
   <si>
@@ -300,9 +294,6 @@
   </si>
   <si>
     <t>Украина*</t>
-  </si>
-  <si>
-    <t>ЕС(27)**</t>
   </si>
   <si>
     <t>Разница</t>
@@ -1679,9 +1670,6 @@
     <t>http://www.ukrstat.gov.ua/operativ/operativ2007/ds/nas_rik/nas_u/nas_rik_u.html</t>
   </si>
   <si>
-    <t>Структура расходов украинских домохозяйств и домохозяйств 27 стран ЕС за 2017 г.</t>
-  </si>
-  <si>
     <t>Курс грн/евро</t>
   </si>
   <si>
@@ -1770,6 +1758,12 @@
   </si>
   <si>
     <t>Споживання в Україні</t>
+  </si>
+  <si>
+    <t>Структура расходов украинских домохозяйств и домохозяйств 28 стран ЕС за 2017 г.</t>
+  </si>
+  <si>
+    <t>ЕС(28)**</t>
   </si>
 </sst>
 </file>
@@ -3777,6 +3771,9 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3789,110 +3786,110 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="55" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="40" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="30" fillId="0" borderId="53" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="0" borderId="52" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="166" fontId="36" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="56" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="52" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="58" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="5" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="49" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="46" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="47" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="48" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="46" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="47" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="48" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -3916,30 +3913,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="46" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="47" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="48" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -3958,89 +3934,107 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="49" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="46" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="47" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="48" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="30" fillId="0" borderId="53" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="30" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="30" fillId="0" borderId="52" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="36" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="56" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="52" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="58" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="40" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="5" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="55" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="40" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4066,6 +4060,33 @@
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="33" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="33" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="48" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -4076,33 +4097,6 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="26" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="33" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="33" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5162,7 +5156,7 @@
   <dimension ref="A1:T115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection sqref="A1:L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5174,16 +5168,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="270" t="s">
+      <c r="A1" s="266" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="270"/>
-      <c r="C1" s="270"/>
-      <c r="D1" s="270"/>
-      <c r="E1" s="270"/>
-      <c r="F1" s="270"/>
-      <c r="G1" s="270"/>
-      <c r="H1" s="270"/>
+      <c r="B1" s="266"/>
+      <c r="C1" s="266"/>
+      <c r="D1" s="266"/>
+      <c r="E1" s="266"/>
+      <c r="F1" s="266"/>
+      <c r="G1" s="266"/>
+      <c r="H1" s="266"/>
     </row>
     <row r="2" spans="1:20">
       <c r="L2" s="58"/>
@@ -5945,10 +5939,10 @@
         <v>6.0942562915725027</v>
       </c>
       <c r="K22" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="L22" s="50" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -6257,7 +6251,7 @@
         <v>27</v>
       </c>
       <c r="L31" s="50" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -6394,18 +6388,18 @@
       <c r="A38" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="266" t="s">
+      <c r="B38" s="267" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="267"/>
-      <c r="D38" s="267"/>
-      <c r="E38" s="267"/>
-      <c r="F38" s="267"/>
-      <c r="G38" s="267"/>
-      <c r="H38" s="267"/>
-      <c r="I38" s="267"/>
-      <c r="J38" s="267"/>
-      <c r="K38" s="268"/>
+      <c r="C38" s="268"/>
+      <c r="D38" s="268"/>
+      <c r="E38" s="268"/>
+      <c r="F38" s="268"/>
+      <c r="G38" s="268"/>
+      <c r="H38" s="268"/>
+      <c r="I38" s="268"/>
+      <c r="J38" s="268"/>
+      <c r="K38" s="269"/>
     </row>
     <row r="39" spans="1:11" ht="15.75" thickBot="1">
       <c r="A39" s="44" t="s">
@@ -6563,36 +6557,36 @@
       </c>
     </row>
     <row r="45" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A45" s="269" t="s">
+      <c r="A45" s="270" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="269"/>
-      <c r="C45" s="269"/>
-      <c r="D45" s="269"/>
-      <c r="E45" s="269"/>
-      <c r="F45" s="269"/>
-      <c r="G45" s="269"/>
-      <c r="H45" s="269"/>
-      <c r="I45" s="269"/>
-      <c r="J45" s="269"/>
-      <c r="K45" s="269"/>
+      <c r="B45" s="270"/>
+      <c r="C45" s="270"/>
+      <c r="D45" s="270"/>
+      <c r="E45" s="270"/>
+      <c r="F45" s="270"/>
+      <c r="G45" s="270"/>
+      <c r="H45" s="270"/>
+      <c r="I45" s="270"/>
+      <c r="J45" s="270"/>
+      <c r="K45" s="270"/>
     </row>
     <row r="46" spans="1:11" ht="15.75" thickBot="1">
       <c r="A46" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B46" s="266" t="s">
+      <c r="B46" s="267" t="s">
         <v>31</v>
       </c>
-      <c r="C46" s="267"/>
-      <c r="D46" s="267"/>
-      <c r="E46" s="267"/>
-      <c r="F46" s="267"/>
-      <c r="G46" s="267"/>
-      <c r="H46" s="267"/>
-      <c r="I46" s="267"/>
-      <c r="J46" s="267"/>
-      <c r="K46" s="268"/>
+      <c r="C46" s="268"/>
+      <c r="D46" s="268"/>
+      <c r="E46" s="268"/>
+      <c r="F46" s="268"/>
+      <c r="G46" s="268"/>
+      <c r="H46" s="268"/>
+      <c r="I46" s="268"/>
+      <c r="J46" s="268"/>
+      <c r="K46" s="269"/>
     </row>
     <row r="47" spans="1:11" ht="15.75" thickBot="1">
       <c r="A47" s="44" t="s">
@@ -7755,36 +7749,36 @@
       </c>
     </row>
     <row r="89" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A89" s="269" t="s">
+      <c r="A89" s="270" t="s">
         <v>47</v>
       </c>
-      <c r="B89" s="269"/>
-      <c r="C89" s="269"/>
-      <c r="D89" s="269"/>
-      <c r="E89" s="269"/>
-      <c r="F89" s="269"/>
-      <c r="G89" s="269"/>
-      <c r="H89" s="269"/>
-      <c r="I89" s="269"/>
-      <c r="J89" s="269"/>
-      <c r="K89" s="269"/>
+      <c r="B89" s="270"/>
+      <c r="C89" s="270"/>
+      <c r="D89" s="270"/>
+      <c r="E89" s="270"/>
+      <c r="F89" s="270"/>
+      <c r="G89" s="270"/>
+      <c r="H89" s="270"/>
+      <c r="I89" s="270"/>
+      <c r="J89" s="270"/>
+      <c r="K89" s="270"/>
     </row>
     <row r="90" spans="1:11" ht="15.75" thickBot="1">
       <c r="A90" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B90" s="266" t="s">
+      <c r="B90" s="267" t="s">
         <v>31</v>
       </c>
-      <c r="C90" s="267"/>
-      <c r="D90" s="267"/>
-      <c r="E90" s="267"/>
-      <c r="F90" s="267"/>
-      <c r="G90" s="267"/>
-      <c r="H90" s="267"/>
-      <c r="I90" s="267"/>
-      <c r="J90" s="267"/>
-      <c r="K90" s="268"/>
+      <c r="C90" s="268"/>
+      <c r="D90" s="268"/>
+      <c r="E90" s="268"/>
+      <c r="F90" s="268"/>
+      <c r="G90" s="268"/>
+      <c r="H90" s="268"/>
+      <c r="I90" s="268"/>
+      <c r="J90" s="268"/>
+      <c r="K90" s="269"/>
     </row>
     <row r="91" spans="1:11" ht="15.75" thickBot="1">
       <c r="A91" s="44" t="s">
@@ -8089,36 +8083,36 @@
       <c r="J101" s="49"/>
     </row>
     <row r="102" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A102" s="269" t="s">
+      <c r="A102" s="270" t="s">
         <v>54</v>
       </c>
-      <c r="B102" s="269"/>
-      <c r="C102" s="269"/>
-      <c r="D102" s="269"/>
-      <c r="E102" s="269"/>
-      <c r="F102" s="269"/>
-      <c r="G102" s="269"/>
-      <c r="H102" s="269"/>
-      <c r="I102" s="269"/>
-      <c r="J102" s="269"/>
-      <c r="K102" s="269"/>
+      <c r="B102" s="270"/>
+      <c r="C102" s="270"/>
+      <c r="D102" s="270"/>
+      <c r="E102" s="270"/>
+      <c r="F102" s="270"/>
+      <c r="G102" s="270"/>
+      <c r="H102" s="270"/>
+      <c r="I102" s="270"/>
+      <c r="J102" s="270"/>
+      <c r="K102" s="270"/>
     </row>
     <row r="103" spans="1:11" ht="15.75" thickBot="1">
       <c r="A103" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B103" s="266" t="s">
+      <c r="B103" s="267" t="s">
         <v>31</v>
       </c>
-      <c r="C103" s="267"/>
-      <c r="D103" s="267"/>
-      <c r="E103" s="267"/>
-      <c r="F103" s="267"/>
-      <c r="G103" s="267"/>
-      <c r="H103" s="267"/>
-      <c r="I103" s="267"/>
-      <c r="J103" s="267"/>
-      <c r="K103" s="268"/>
+      <c r="C103" s="268"/>
+      <c r="D103" s="268"/>
+      <c r="E103" s="268"/>
+      <c r="F103" s="268"/>
+      <c r="G103" s="268"/>
+      <c r="H103" s="268"/>
+      <c r="I103" s="268"/>
+      <c r="J103" s="268"/>
+      <c r="K103" s="269"/>
     </row>
     <row r="104" spans="1:11" ht="15.75" thickBot="1">
       <c r="A104" s="44" t="s">
@@ -8417,12 +8411,15 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B48:K48"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B38:K38"/>
-    <mergeCell ref="B40:K40"/>
-    <mergeCell ref="A45:K45"/>
-    <mergeCell ref="B46:K46"/>
+    <mergeCell ref="B105:K105"/>
+    <mergeCell ref="B106:K106"/>
+    <mergeCell ref="B110:K110"/>
+    <mergeCell ref="B90:K90"/>
+    <mergeCell ref="B92:K92"/>
+    <mergeCell ref="B93:K93"/>
+    <mergeCell ref="B97:K97"/>
+    <mergeCell ref="A102:K102"/>
+    <mergeCell ref="B103:K103"/>
     <mergeCell ref="A89:K89"/>
     <mergeCell ref="B49:K49"/>
     <mergeCell ref="B53:K53"/>
@@ -8435,15 +8432,12 @@
     <mergeCell ref="B75:K75"/>
     <mergeCell ref="B79:K79"/>
     <mergeCell ref="B83:K83"/>
-    <mergeCell ref="B105:K105"/>
-    <mergeCell ref="B106:K106"/>
-    <mergeCell ref="B110:K110"/>
-    <mergeCell ref="B90:K90"/>
-    <mergeCell ref="B92:K92"/>
-    <mergeCell ref="B93:K93"/>
-    <mergeCell ref="B97:K97"/>
-    <mergeCell ref="A102:K102"/>
-    <mergeCell ref="B103:K103"/>
+    <mergeCell ref="B48:K48"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B38:K38"/>
+    <mergeCell ref="B40:K40"/>
+    <mergeCell ref="A45:K45"/>
+    <mergeCell ref="B46:K46"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A115" r:id="rId1"/>
@@ -8457,10 +8451,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:K36"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A3:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8468,19 +8465,19 @@
     <col min="1" max="1" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:11">
-      <c r="A3" s="270" t="s">
+    <row r="3" spans="1:10">
+      <c r="A3" s="266" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="270"/>
-      <c r="C3" s="270"/>
-      <c r="D3" s="270"/>
-      <c r="E3" s="270"/>
-      <c r="F3" s="270"/>
-      <c r="G3" s="270"/>
-      <c r="H3" s="270"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="B3" s="266"/>
+      <c r="C3" s="266"/>
+      <c r="D3" s="266"/>
+      <c r="E3" s="266"/>
+      <c r="F3" s="266"/>
+      <c r="G3" s="266"/>
+      <c r="H3" s="266"/>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -8512,7 +8509,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:10">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -8543,11 +8540,8 @@
       <c r="J6" s="53">
         <v>10260.480849</v>
       </c>
-      <c r="K6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -8586,11 +8580,8 @@
         <f t="shared" si="0"/>
         <v>0.88997486285728822</v>
       </c>
-      <c r="K7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -8628,11 +8619,8 @@
         <f t="shared" si="1"/>
         <v>580411.67576742568</v>
       </c>
-      <c r="K8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -8672,11 +8660,8 @@
         <f t="shared" si="2"/>
         <v>56.567687646334178</v>
       </c>
-      <c r="K9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -8708,7 +8693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:10">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -8739,11 +8724,8 @@
       <c r="J11" s="7">
         <v>52.832540999999999</v>
       </c>
-      <c r="K11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="8" t="s">
         <v>8</v>
       </c>
@@ -8782,11 +8764,8 @@
         <f t="shared" si="3"/>
         <v>0.51491291468225031</v>
       </c>
-      <c r="K12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -8824,11 +8803,8 @@
         <f t="shared" si="4"/>
         <v>956.35669659204598</v>
       </c>
-      <c r="K13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -8868,11 +8844,8 @@
         <f t="shared" si="5"/>
         <v>18.101660046826936</v>
       </c>
-      <c r="K14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -8905,7 +8878,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:10">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
@@ -9588,6 +9561,7 @@
     <mergeCell ref="A3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="91" orientation="landscape" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9606,27 +9580,27 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="111.75">
       <c r="A2" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="E2" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="F2" s="65" t="s">
         <v>64</v>
-      </c>
-      <c r="D2" s="65" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="65" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" s="65" t="s">
-        <v>67</v>
       </c>
       <c r="G2" s="65"/>
       <c r="H2" s="65"/>
@@ -9635,24 +9609,24 @@
       <c r="K2" s="65"/>
       <c r="L2" s="65"/>
       <c r="M2" s="65" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N2" s="66"/>
       <c r="O2" s="66"/>
       <c r="P2" s="66" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Q2" s="66"/>
       <c r="R2" s="66"/>
       <c r="S2" s="66"/>
       <c r="T2" s="66"/>
       <c r="U2" s="66" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B3" s="64">
         <v>0</v>
@@ -9712,12 +9686,12 @@
         <v>85</v>
       </c>
       <c r="U3" s="64" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B5" s="51">
         <v>5</v>
@@ -9782,7 +9756,7 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B6" s="51">
         <v>-200</v>
@@ -9847,7 +9821,7 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B7" s="51">
         <f>B6*12</f>
@@ -9932,7 +9906,7 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B8" s="51">
         <f>B7*B5</f>
@@ -10017,7 +9991,7 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -10082,7 +10056,7 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B11" s="51">
         <v>0</v>
@@ -10162,7 +10136,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B12">
         <f t="shared" ref="B12:U12" si="3">B11*B5</f>
@@ -10247,7 +10221,7 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B14" s="51">
         <f t="shared" ref="B14:U16" si="4">B6+B10</f>
@@ -10332,7 +10306,7 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B15" s="51">
         <f t="shared" si="4"/>
@@ -10417,7 +10391,7 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B16" s="51">
         <f t="shared" si="4"/>
@@ -10502,7 +10476,7 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B17" s="51">
         <f>B16</f>
@@ -10598,7 +10572,7 @@
   <dimension ref="A1:V134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F149" sqref="F149"/>
+      <selection sqref="A1:M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10610,141 +10584,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75">
-      <c r="A1" s="273" t="s">
-        <v>473</v>
-      </c>
-      <c r="B1" s="273"/>
-      <c r="C1" s="273"/>
-      <c r="D1" s="273"/>
-      <c r="E1" s="273"/>
-      <c r="F1" s="273"/>
-      <c r="G1" s="273"/>
-      <c r="H1" s="273"/>
-      <c r="I1" s="273"/>
-      <c r="J1" s="273"/>
-      <c r="K1" s="273"/>
-      <c r="L1" s="273"/>
-      <c r="M1" s="273"/>
+      <c r="A1" s="325" t="s">
+        <v>499</v>
+      </c>
+      <c r="B1" s="325"/>
+      <c r="C1" s="325"/>
+      <c r="D1" s="325"/>
+      <c r="E1" s="325"/>
+      <c r="F1" s="325"/>
+      <c r="G1" s="325"/>
+      <c r="H1" s="325"/>
+      <c r="I1" s="325"/>
+      <c r="J1" s="325"/>
+      <c r="K1" s="325"/>
+      <c r="L1" s="325"/>
+      <c r="M1" s="325"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="3" spans="1:13">
-      <c r="A3" s="274" t="s">
+      <c r="A3" s="326" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="329" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="330"/>
+      <c r="E3" s="330"/>
+      <c r="F3" s="331"/>
+      <c r="G3" s="332" t="s">
+        <v>500</v>
+      </c>
+      <c r="H3" s="333"/>
+      <c r="I3" s="333"/>
+      <c r="J3" s="334"/>
+      <c r="K3" s="335" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="L3" s="336"/>
+      <c r="M3" s="337"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="327"/>
+      <c r="B4" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="277" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="278"/>
-      <c r="E3" s="278"/>
-      <c r="F3" s="279"/>
-      <c r="G3" s="280" t="s">
-        <v>87</v>
-      </c>
-      <c r="H3" s="281"/>
-      <c r="I3" s="281"/>
-      <c r="J3" s="282"/>
-      <c r="K3" s="283" t="s">
-        <v>88</v>
-      </c>
-      <c r="L3" s="284"/>
-      <c r="M3" s="285"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="275"/>
-      <c r="B4" s="68" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="292">
+      <c r="C4" s="344">
         <v>42.5</v>
       </c>
-      <c r="D4" s="293"/>
-      <c r="E4" s="293"/>
-      <c r="F4" s="294"/>
-      <c r="G4" s="295">
+      <c r="D4" s="345"/>
+      <c r="E4" s="345"/>
+      <c r="F4" s="346"/>
+      <c r="G4" s="347">
         <v>511.8</v>
       </c>
-      <c r="H4" s="296"/>
-      <c r="I4" s="296"/>
-      <c r="J4" s="297"/>
-      <c r="K4" s="286"/>
-      <c r="L4" s="287"/>
-      <c r="M4" s="288"/>
+      <c r="H4" s="348"/>
+      <c r="I4" s="348"/>
+      <c r="J4" s="349"/>
+      <c r="K4" s="338"/>
+      <c r="L4" s="339"/>
+      <c r="M4" s="340"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="275"/>
+      <c r="A5" s="327"/>
       <c r="B5" s="68" t="s">
-        <v>474</v>
-      </c>
-      <c r="C5" s="298">
+        <v>469</v>
+      </c>
+      <c r="C5" s="350">
         <f>33.4954</f>
         <v>33.495399999999997</v>
       </c>
-      <c r="D5" s="299"/>
-      <c r="E5" s="299"/>
-      <c r="F5" s="300"/>
-      <c r="G5" s="301">
+      <c r="D5" s="351"/>
+      <c r="E5" s="351"/>
+      <c r="F5" s="352"/>
+      <c r="G5" s="353">
         <v>1</v>
       </c>
-      <c r="H5" s="302"/>
-      <c r="I5" s="302"/>
-      <c r="J5" s="303"/>
-      <c r="K5" s="289"/>
-      <c r="L5" s="290"/>
-      <c r="M5" s="291"/>
+      <c r="H5" s="354"/>
+      <c r="I5" s="354"/>
+      <c r="J5" s="355"/>
+      <c r="K5" s="341"/>
+      <c r="L5" s="342"/>
+      <c r="M5" s="343"/>
     </row>
     <row r="6" spans="1:13" ht="52.5" thickBot="1">
-      <c r="A6" s="276"/>
+      <c r="A6" s="328"/>
       <c r="B6" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="238" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="239" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="240" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="241" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="238" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" s="239" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="240" t="s">
-        <v>93</v>
-      </c>
-      <c r="F6" s="241" t="s">
-        <v>94</v>
-      </c>
       <c r="G6" s="70" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H6" s="71" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I6" s="72" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="J6" s="73" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K6" s="74" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L6" s="75" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M6" s="76" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="77"/>
       <c r="B7" s="68" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C7" s="227">
         <f>2983/C5</f>
         <v>89.057004842455981</v>
       </c>
       <c r="D7" s="227" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E7" s="93">
         <f>C7/$C$4*1000</f>
@@ -10767,14 +10741,14 @@
         <v>1</v>
       </c>
       <c r="B8" s="68" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C8" s="227">
         <f>2652.082/C5</f>
         <v>79.177498999862678</v>
       </c>
       <c r="D8" s="227" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E8" s="93">
         <f t="shared" ref="E8:E25" si="0">C8/$C$4*1000</f>
@@ -10794,17 +10768,17 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="84" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B9" s="85" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C9" s="243">
         <f>1209.097/C5</f>
         <v>36.097404419711367</v>
       </c>
       <c r="D9" s="243" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E9" s="93">
         <f t="shared" si="0"/>
@@ -10824,17 +10798,17 @@
     </row>
     <row r="10" spans="1:13" ht="30">
       <c r="A10" s="84" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B10" s="92" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C10" s="243">
         <f>(477.854+78.673)/C5</f>
         <v>16.615027735151696</v>
       </c>
       <c r="D10" s="243" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E10" s="93">
         <f t="shared" si="0"/>
@@ -10854,17 +10828,17 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="84" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B11" s="85" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C11" s="243">
         <f>886.458/C5</f>
         <v>26.465066844999615</v>
       </c>
       <c r="D11" s="243" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E11" s="93">
         <f t="shared" si="0"/>
@@ -10884,10 +10858,10 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="77" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B12" s="68" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C12" s="93">
         <f>2652.082/C5</f>
@@ -10934,10 +10908,10 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="98" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B13" s="92" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C13" s="100">
         <f>$C$12*D13/100</f>
@@ -10984,10 +10958,10 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="98" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B14" s="92" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C14" s="100">
         <f t="shared" ref="C14:C25" si="4">$C$12*D14/100</f>
@@ -11034,10 +11008,10 @@
     </row>
     <row r="15" spans="1:13" ht="30">
       <c r="A15" s="98" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B15" s="92" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C15" s="100">
         <f t="shared" si="4"/>
@@ -11084,10 +11058,10 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="98" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B16" s="92" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C16" s="100">
         <f t="shared" si="4"/>
@@ -11134,10 +11108,10 @@
     </row>
     <row r="17" spans="1:22">
       <c r="A17" s="98" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B17" s="92" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C17" s="100">
         <f t="shared" si="4"/>
@@ -11184,10 +11158,10 @@
     </row>
     <row r="18" spans="1:22">
       <c r="A18" s="98" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B18" s="92" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C18" s="100">
         <f t="shared" si="4"/>
@@ -11234,10 +11208,10 @@
     </row>
     <row r="19" spans="1:22" ht="30">
       <c r="A19" s="98" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B19" s="92" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C19" s="100">
         <f t="shared" si="4"/>
@@ -11284,10 +11258,10 @@
     </row>
     <row r="20" spans="1:22">
       <c r="A20" s="98" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B20" s="92" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C20" s="100">
         <f t="shared" si="4"/>
@@ -11334,10 +11308,10 @@
     </row>
     <row r="21" spans="1:22">
       <c r="A21" s="98" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B21" s="92" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C21" s="100">
         <f t="shared" si="4"/>
@@ -11384,10 +11358,10 @@
     </row>
     <row r="22" spans="1:22">
       <c r="A22" s="98" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B22" s="92" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C22" s="100">
         <f t="shared" si="4"/>
@@ -11434,10 +11408,10 @@
     </row>
     <row r="23" spans="1:22">
       <c r="A23" s="98" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B23" s="92" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C23" s="100">
         <f t="shared" si="4"/>
@@ -11484,10 +11458,10 @@
     </row>
     <row r="24" spans="1:22" ht="15.75" thickBot="1">
       <c r="A24" s="104" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B24" s="105" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C24" s="100">
         <f t="shared" si="4"/>
@@ -11534,7 +11508,7 @@
     </row>
     <row r="25" spans="1:22" ht="60">
       <c r="B25" s="230" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C25" s="100">
         <f t="shared" si="4"/>
@@ -11579,44 +11553,44 @@
     </row>
     <row r="26" spans="1:22">
       <c r="A26" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:22">
       <c r="A27" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:22">
       <c r="B30" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="D30" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="E30" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="F30" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="C30" s="52" t="s">
-        <v>133</v>
-      </c>
-      <c r="D30" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="E30" s="52" t="s">
-        <v>135</v>
-      </c>
-      <c r="F30" s="52" t="s">
-        <v>136</v>
-      </c>
-      <c r="I30" s="304" t="s">
-        <v>251</v>
-      </c>
-      <c r="J30" s="304"/>
-      <c r="K30" s="304"/>
-      <c r="L30" s="304"/>
-      <c r="M30" s="304"/>
-      <c r="N30" s="304"/>
-      <c r="O30" s="304"/>
-      <c r="P30" s="304"/>
-      <c r="Q30" s="304"/>
-      <c r="R30" s="304"/>
-      <c r="S30" s="304"/>
-      <c r="T30" s="304"/>
+      <c r="I30" s="356" t="s">
+        <v>247</v>
+      </c>
+      <c r="J30" s="356"/>
+      <c r="K30" s="356"/>
+      <c r="L30" s="356"/>
+      <c r="M30" s="356"/>
+      <c r="N30" s="356"/>
+      <c r="O30" s="356"/>
+      <c r="P30" s="356"/>
+      <c r="Q30" s="356"/>
+      <c r="R30" s="356"/>
+      <c r="S30" s="356"/>
+      <c r="T30" s="356"/>
       <c r="U30" s="111"/>
       <c r="V30" s="111"/>
     </row>
@@ -11628,16 +11602,16 @@
         <v>2017</v>
       </c>
       <c r="C31" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D31" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E31" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F31" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I31" s="112"/>
       <c r="J31" s="111"/>
@@ -11651,10 +11625,10 @@
       <c r="R31" s="111"/>
       <c r="S31" s="111"/>
       <c r="T31" s="111"/>
-      <c r="U31" s="271" t="s">
-        <v>252</v>
-      </c>
-      <c r="V31" s="272"/>
+      <c r="U31" s="323" t="s">
+        <v>248</v>
+      </c>
+      <c r="V31" s="324"/>
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="52">
@@ -11664,16 +11638,16 @@
         <v>2017</v>
       </c>
       <c r="C32" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" t="s">
+        <v>134</v>
+      </c>
+      <c r="E32" t="s">
         <v>137</v>
       </c>
-      <c r="D32" t="s">
+      <c r="F32" t="s">
         <v>138</v>
-      </c>
-      <c r="E32" t="s">
-        <v>141</v>
-      </c>
-      <c r="F32" t="s">
-        <v>142</v>
       </c>
       <c r="I32" s="113"/>
       <c r="J32" s="114">
@@ -11698,22 +11672,22 @@
         <v>2011</v>
       </c>
       <c r="Q32" s="114" t="s">
+        <v>249</v>
+      </c>
+      <c r="R32" s="114" t="s">
+        <v>250</v>
+      </c>
+      <c r="S32" s="114" t="s">
+        <v>251</v>
+      </c>
+      <c r="T32" s="114" t="s">
+        <v>252</v>
+      </c>
+      <c r="U32" s="125" t="s">
         <v>253</v>
       </c>
-      <c r="R32" s="114" t="s">
+      <c r="V32" s="135" t="s">
         <v>254</v>
-      </c>
-      <c r="S32" s="114" t="s">
-        <v>255</v>
-      </c>
-      <c r="T32" s="114" t="s">
-        <v>256</v>
-      </c>
-      <c r="U32" s="125" t="s">
-        <v>257</v>
-      </c>
-      <c r="V32" s="135" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="19.5">
@@ -11724,19 +11698,19 @@
         <v>2017</v>
       </c>
       <c r="C33" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D33" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E33" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F33" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I33" s="115" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="J33" s="116">
         <v>381404</v>
@@ -11786,19 +11760,19 @@
         <v>2017</v>
       </c>
       <c r="C34" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D34" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E34" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F34" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I34" s="118" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="J34" s="119"/>
       <c r="K34" s="119"/>
@@ -11822,19 +11796,19 @@
         <v>2017</v>
       </c>
       <c r="C35" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D35" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E35" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F35" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="I35" s="121" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="J35" s="119">
         <v>160621</v>
@@ -11884,19 +11858,19 @@
         <v>2017</v>
       </c>
       <c r="C36" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D36" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E36" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F36" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="I36" s="121" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="J36" s="119">
         <v>58404</v>
@@ -11946,19 +11920,19 @@
         <v>2017</v>
       </c>
       <c r="C37" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D37" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E37" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F37" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I37" s="121" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="J37" s="119">
         <v>11072</v>
@@ -12008,19 +11982,19 @@
         <v>2017</v>
       </c>
       <c r="C38" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D38" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E38" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F38" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I38" s="121" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="J38" s="119">
         <v>151307</v>
@@ -12070,19 +12044,19 @@
         <v>2017</v>
       </c>
       <c r="C39" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D39" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E39" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F39" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="I39" s="118" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="J39" s="119"/>
       <c r="K39" s="119"/>
@@ -12106,19 +12080,19 @@
         <v>2017</v>
       </c>
       <c r="C40" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D40" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E40" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F40" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I40" s="122" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="J40" s="119">
         <v>84617</v>
@@ -12168,19 +12142,19 @@
         <v>2017</v>
       </c>
       <c r="C41" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D41" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E41" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F41" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I41" s="122" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J41" s="119">
         <v>12545</v>
@@ -12230,19 +12204,19 @@
         <v>2017</v>
       </c>
       <c r="C42" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D42" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E42" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F42" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I42" s="122" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="J42" s="119">
         <v>54145</v>
@@ -12292,19 +12266,19 @@
         <v>2017</v>
       </c>
       <c r="C43" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D43" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E43" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F43" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I43" s="115" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="J43" s="116">
         <v>381404</v>
@@ -12354,19 +12328,19 @@
         <v>2017</v>
       </c>
       <c r="C44" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D44" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E44" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F44" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="I44" s="118" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="J44" s="119"/>
       <c r="K44" s="119"/>
@@ -12390,19 +12364,19 @@
         <v>2017</v>
       </c>
       <c r="C45" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D45" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E45" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F45" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="I45" s="121" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="J45" s="119">
         <v>306769</v>
@@ -12452,19 +12426,19 @@
         <v>2017</v>
       </c>
       <c r="C46" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D46" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E46" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F46" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="I46" s="121" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="J46" s="119">
         <v>3523</v>
@@ -12514,19 +12488,19 @@
         <v>2017</v>
       </c>
       <c r="C47" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D47" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E47" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F47" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I47" s="121" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J47" s="119">
         <v>25461</v>
@@ -12576,19 +12550,19 @@
         <v>2017</v>
       </c>
       <c r="C48" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D48" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E48" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F48" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="I48" s="118" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="J48" s="119"/>
       <c r="K48" s="119"/>
@@ -12612,22 +12586,22 @@
         <v>2017</v>
       </c>
       <c r="C49" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D49" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E49" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F49" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I49" s="122" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="J49" s="119" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K49" s="119">
         <v>23396</v>
@@ -12674,19 +12648,19 @@
         <v>2017</v>
       </c>
       <c r="C50" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D50" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E50" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F50" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I50" s="122" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="J50" s="119">
         <v>5064</v>
@@ -12736,19 +12710,19 @@
         <v>2017</v>
       </c>
       <c r="C51" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D51" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E51" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F51" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="I51" s="122" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J51" s="119">
         <v>2623</v>
@@ -12798,19 +12772,19 @@
         <v>2017</v>
       </c>
       <c r="C52" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D52" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E52" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F52" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="I52" s="121" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="J52" s="119">
         <v>4444</v>
@@ -12860,19 +12834,19 @@
         <v>2017</v>
       </c>
       <c r="C53" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D53" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E53" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F53" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I53" s="121" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="J53" s="119">
         <v>41207</v>
@@ -12922,19 +12896,19 @@
         <v>2017</v>
       </c>
       <c r="C54" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D54" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E54" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F54" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I54" s="118" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="J54" s="119"/>
       <c r="K54" s="119"/>
@@ -12958,22 +12932,22 @@
         <v>2017</v>
       </c>
       <c r="C55" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D55" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E55" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F55" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I55" s="122" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="J55" s="119" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="K55" s="119">
         <v>54880</v>
@@ -13020,19 +12994,19 @@
         <v>2017</v>
       </c>
       <c r="C56" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D56" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E56" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F56" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I56" s="122" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="J56" s="119">
         <v>7200</v>
@@ -13082,22 +13056,22 @@
         <v>2017</v>
       </c>
       <c r="C57" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D57" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E57" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F57" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="I57" s="122" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J57" s="119" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K57" s="119">
         <v>45766</v>
@@ -13144,19 +13118,19 @@
         <v>2017</v>
       </c>
       <c r="C58" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D58" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E58" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F58" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="I58" s="124" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="J58" s="116">
         <v>298275</v>
@@ -13206,57 +13180,57 @@
         <v>2017</v>
       </c>
       <c r="C59" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D59" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E59" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F59" t="s">
-        <v>196</v>
-      </c>
-      <c r="I59" s="313" t="s">
-        <v>283</v>
-      </c>
-      <c r="J59" s="319">
+        <v>192</v>
+      </c>
+      <c r="I59" s="301" t="s">
+        <v>279</v>
+      </c>
+      <c r="J59" s="303">
         <v>6332.1</v>
       </c>
-      <c r="K59" s="319">
+      <c r="K59" s="303">
         <v>7771</v>
       </c>
-      <c r="L59" s="319">
+      <c r="L59" s="303">
         <v>10126</v>
       </c>
-      <c r="M59" s="319">
+      <c r="M59" s="303">
         <v>13716.3</v>
       </c>
-      <c r="N59" s="319">
+      <c r="N59" s="303">
         <v>14372.8</v>
       </c>
-      <c r="O59" s="319">
+      <c r="O59" s="303">
         <v>18485.599999999999</v>
       </c>
-      <c r="P59" s="319">
+      <c r="P59" s="303">
         <v>21637.9</v>
       </c>
-      <c r="Q59" s="319">
+      <c r="Q59" s="303">
         <v>25206.400000000001</v>
       </c>
-      <c r="R59" s="325">
+      <c r="R59" s="321">
         <v>26719.4</v>
       </c>
-      <c r="S59" s="319">
+      <c r="S59" s="303">
         <v>26782.1</v>
       </c>
-      <c r="T59" s="327">
+      <c r="T59" s="295">
         <v>31803.1</v>
       </c>
-      <c r="U59" s="311">
+      <c r="U59" s="314">
         <v>37079.9</v>
       </c>
-      <c r="V59" s="321">
+      <c r="V59" s="317">
         <v>47269.7</v>
       </c>
     </row>
@@ -13268,31 +13242,31 @@
         <v>2017</v>
       </c>
       <c r="C60" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D60" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E60" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F60" t="s">
-        <v>198</v>
-      </c>
-      <c r="I60" s="315"/>
-      <c r="J60" s="320"/>
-      <c r="K60" s="320"/>
-      <c r="L60" s="320"/>
-      <c r="M60" s="320"/>
-      <c r="N60" s="320"/>
-      <c r="O60" s="320"/>
-      <c r="P60" s="320"/>
-      <c r="Q60" s="320"/>
-      <c r="R60" s="326"/>
-      <c r="S60" s="320"/>
-      <c r="T60" s="328"/>
-      <c r="U60" s="312"/>
-      <c r="V60" s="322"/>
+        <v>194</v>
+      </c>
+      <c r="I60" s="302"/>
+      <c r="J60" s="304"/>
+      <c r="K60" s="304"/>
+      <c r="L60" s="304"/>
+      <c r="M60" s="304"/>
+      <c r="N60" s="304"/>
+      <c r="O60" s="304"/>
+      <c r="P60" s="304"/>
+      <c r="Q60" s="304"/>
+      <c r="R60" s="322"/>
+      <c r="S60" s="304"/>
+      <c r="T60" s="297"/>
+      <c r="U60" s="315"/>
+      <c r="V60" s="318"/>
     </row>
     <row r="61" spans="1:22">
       <c r="A61" s="52">
@@ -13302,57 +13276,57 @@
         <v>2017</v>
       </c>
       <c r="C61" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D61" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E61" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F61" t="s">
-        <v>200</v>
-      </c>
-      <c r="I61" s="313" t="s">
-        <v>284</v>
-      </c>
-      <c r="J61" s="316">
+        <v>196</v>
+      </c>
+      <c r="I61" s="301" t="s">
+        <v>280</v>
+      </c>
+      <c r="J61" s="298">
         <v>123.9</v>
       </c>
-      <c r="K61" s="316">
+      <c r="K61" s="298">
         <v>111.8</v>
       </c>
-      <c r="L61" s="316">
+      <c r="L61" s="298">
         <v>114.8</v>
       </c>
-      <c r="M61" s="316">
+      <c r="M61" s="298">
         <v>107.6</v>
       </c>
-      <c r="N61" s="316">
+      <c r="N61" s="298">
         <v>90</v>
       </c>
-      <c r="O61" s="316">
+      <c r="O61" s="298">
         <v>117.1</v>
       </c>
-      <c r="P61" s="316">
+      <c r="P61" s="298">
         <v>108</v>
       </c>
-      <c r="Q61" s="316">
+      <c r="Q61" s="298">
         <v>113.9</v>
       </c>
-      <c r="R61" s="330">
+      <c r="R61" s="305">
         <v>106.1</v>
       </c>
-      <c r="S61" s="316">
+      <c r="S61" s="298">
         <v>88.5</v>
       </c>
-      <c r="T61" s="327">
+      <c r="T61" s="295">
         <v>79.599999999999994</v>
       </c>
-      <c r="U61" s="308">
+      <c r="U61" s="311">
         <v>102</v>
       </c>
-      <c r="V61" s="323">
+      <c r="V61" s="319">
         <v>110.9</v>
       </c>
     </row>
@@ -13364,31 +13338,31 @@
         <v>2017</v>
       </c>
       <c r="C62" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D62" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E62" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F62" t="s">
-        <v>202</v>
-      </c>
-      <c r="I62" s="314"/>
-      <c r="J62" s="317"/>
-      <c r="K62" s="317"/>
-      <c r="L62" s="317"/>
-      <c r="M62" s="317"/>
-      <c r="N62" s="317"/>
-      <c r="O62" s="317"/>
-      <c r="P62" s="317"/>
-      <c r="Q62" s="317"/>
-      <c r="R62" s="331"/>
-      <c r="S62" s="317"/>
-      <c r="T62" s="329"/>
-      <c r="U62" s="309"/>
-      <c r="V62" s="324"/>
+        <v>198</v>
+      </c>
+      <c r="I62" s="316"/>
+      <c r="J62" s="299"/>
+      <c r="K62" s="299"/>
+      <c r="L62" s="299"/>
+      <c r="M62" s="299"/>
+      <c r="N62" s="299"/>
+      <c r="O62" s="299"/>
+      <c r="P62" s="299"/>
+      <c r="Q62" s="299"/>
+      <c r="R62" s="306"/>
+      <c r="S62" s="299"/>
+      <c r="T62" s="296"/>
+      <c r="U62" s="312"/>
+      <c r="V62" s="320"/>
     </row>
     <row r="63" spans="1:22">
       <c r="A63" s="52">
@@ -13398,31 +13372,31 @@
         <v>2017</v>
       </c>
       <c r="C63" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D63" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E63" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F63" t="s">
-        <v>204</v>
-      </c>
-      <c r="I63" s="315"/>
-      <c r="J63" s="318"/>
-      <c r="K63" s="318"/>
-      <c r="L63" s="318"/>
-      <c r="M63" s="318"/>
-      <c r="N63" s="318"/>
-      <c r="O63" s="318"/>
-      <c r="P63" s="318"/>
-      <c r="Q63" s="318"/>
-      <c r="R63" s="332"/>
-      <c r="S63" s="318"/>
-      <c r="T63" s="328"/>
-      <c r="U63" s="310"/>
-      <c r="V63" s="324"/>
+        <v>200</v>
+      </c>
+      <c r="I63" s="302"/>
+      <c r="J63" s="300"/>
+      <c r="K63" s="300"/>
+      <c r="L63" s="300"/>
+      <c r="M63" s="300"/>
+      <c r="N63" s="300"/>
+      <c r="O63" s="300"/>
+      <c r="P63" s="300"/>
+      <c r="Q63" s="300"/>
+      <c r="R63" s="307"/>
+      <c r="S63" s="300"/>
+      <c r="T63" s="297"/>
+      <c r="U63" s="313"/>
+      <c r="V63" s="320"/>
     </row>
     <row r="64" spans="1:22" ht="16.5">
       <c r="A64" s="52">
@@ -13432,33 +13406,33 @@
         <v>2017</v>
       </c>
       <c r="C64" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D64" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E64" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F64" t="s">
-        <v>154</v>
-      </c>
-      <c r="I64" s="305" t="s">
-        <v>285</v>
-      </c>
-      <c r="J64" s="305"/>
-      <c r="K64" s="305"/>
-      <c r="L64" s="305"/>
-      <c r="M64" s="305"/>
-      <c r="N64" s="305"/>
-      <c r="O64" s="305"/>
-      <c r="P64" s="305"/>
-      <c r="Q64" s="305"/>
-      <c r="R64" s="305"/>
-      <c r="S64" s="305"/>
-      <c r="T64" s="305"/>
-      <c r="U64" s="305"/>
-      <c r="V64" s="306"/>
+        <v>150</v>
+      </c>
+      <c r="I64" s="308" t="s">
+        <v>281</v>
+      </c>
+      <c r="J64" s="308"/>
+      <c r="K64" s="308"/>
+      <c r="L64" s="308"/>
+      <c r="M64" s="308"/>
+      <c r="N64" s="308"/>
+      <c r="O64" s="308"/>
+      <c r="P64" s="308"/>
+      <c r="Q64" s="308"/>
+      <c r="R64" s="308"/>
+      <c r="S64" s="308"/>
+      <c r="T64" s="308"/>
+      <c r="U64" s="308"/>
+      <c r="V64" s="309"/>
     </row>
     <row r="65" spans="1:22">
       <c r="A65" s="52">
@@ -13468,33 +13442,33 @@
         <v>2017</v>
       </c>
       <c r="C65" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D65" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E65" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F65" t="s">
-        <v>154</v>
-      </c>
-      <c r="I65" s="307" t="s">
-        <v>286</v>
-      </c>
-      <c r="J65" s="307"/>
-      <c r="K65" s="307"/>
-      <c r="L65" s="307"/>
-      <c r="M65" s="307"/>
-      <c r="N65" s="307"/>
-      <c r="O65" s="307"/>
-      <c r="P65" s="307"/>
-      <c r="Q65" s="307"/>
-      <c r="R65" s="307"/>
-      <c r="S65" s="307"/>
-      <c r="T65" s="307"/>
-      <c r="U65" s="307"/>
-      <c r="V65" s="306"/>
+        <v>150</v>
+      </c>
+      <c r="I65" s="310" t="s">
+        <v>282</v>
+      </c>
+      <c r="J65" s="310"/>
+      <c r="K65" s="310"/>
+      <c r="L65" s="310"/>
+      <c r="M65" s="310"/>
+      <c r="N65" s="310"/>
+      <c r="O65" s="310"/>
+      <c r="P65" s="310"/>
+      <c r="Q65" s="310"/>
+      <c r="R65" s="310"/>
+      <c r="S65" s="310"/>
+      <c r="T65" s="310"/>
+      <c r="U65" s="310"/>
+      <c r="V65" s="309"/>
     </row>
     <row r="66" spans="1:22">
       <c r="A66" s="52">
@@ -13504,16 +13478,16 @@
         <v>2017</v>
       </c>
       <c r="C66" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D66" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E66" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F66" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="67" spans="1:22">
@@ -13524,16 +13498,16 @@
         <v>2017</v>
       </c>
       <c r="C67" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D67" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E67" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F67" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="68" spans="1:22">
@@ -13544,16 +13518,16 @@
         <v>2017</v>
       </c>
       <c r="C68" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D68" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E68" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F68" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="69" spans="1:22">
@@ -13564,28 +13538,28 @@
         <v>2017</v>
       </c>
       <c r="C69" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D69" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E69" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F69" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I69" s="136"/>
-      <c r="J69" s="333" t="s">
-        <v>287</v>
-      </c>
-      <c r="K69" s="333"/>
-      <c r="L69" s="333"/>
-      <c r="M69" s="333"/>
-      <c r="N69" s="333"/>
-      <c r="O69" s="333"/>
-      <c r="P69" s="333"/>
-      <c r="Q69" s="333"/>
+      <c r="J69" s="284" t="s">
+        <v>283</v>
+      </c>
+      <c r="K69" s="284"/>
+      <c r="L69" s="284"/>
+      <c r="M69" s="284"/>
+      <c r="N69" s="284"/>
+      <c r="O69" s="284"/>
+      <c r="P69" s="284"/>
+      <c r="Q69" s="284"/>
       <c r="R69" s="136"/>
     </row>
     <row r="70" spans="1:22">
@@ -13596,29 +13570,29 @@
         <v>2017</v>
       </c>
       <c r="C70" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D70" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E70" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F70" t="s">
-        <v>215</v>
-      </c>
-      <c r="I70" s="337" t="s">
-        <v>288</v>
-      </c>
-      <c r="J70" s="337"/>
-      <c r="K70" s="337"/>
-      <c r="L70" s="337"/>
-      <c r="M70" s="337"/>
-      <c r="N70" s="337"/>
-      <c r="O70" s="337"/>
-      <c r="P70" s="337"/>
-      <c r="Q70" s="337"/>
-      <c r="R70" s="337"/>
+        <v>211</v>
+      </c>
+      <c r="I70" s="288" t="s">
+        <v>284</v>
+      </c>
+      <c r="J70" s="288"/>
+      <c r="K70" s="288"/>
+      <c r="L70" s="288"/>
+      <c r="M70" s="288"/>
+      <c r="N70" s="288"/>
+      <c r="O70" s="288"/>
+      <c r="P70" s="288"/>
+      <c r="Q70" s="288"/>
+      <c r="R70" s="288"/>
     </row>
     <row r="71" spans="1:22">
       <c r="A71" s="52">
@@ -13628,16 +13602,16 @@
         <v>2017</v>
       </c>
       <c r="C71" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D71" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E71" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F71" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="I71" s="136"/>
       <c r="J71" s="137"/>
@@ -13654,16 +13628,16 @@
         <v>2013</v>
       </c>
       <c r="O71" s="147" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="P71" s="148" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="Q71" s="148" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="R71" s="144" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="72" spans="1:22" ht="216.75">
@@ -13674,20 +13648,20 @@
         <v>2017</v>
       </c>
       <c r="C72" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D72" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E72" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F72" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="I72" s="136"/>
       <c r="J72" s="145" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K72" s="149">
         <v>3481</v>
@@ -13722,31 +13696,31 @@
         <v>2017</v>
       </c>
       <c r="C73" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D73" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E73" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F73" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="I73" s="136"/>
       <c r="J73" s="138" t="s">
-        <v>294</v>
-      </c>
-      <c r="K73" s="334" t="s">
-        <v>295</v>
-      </c>
-      <c r="L73" s="335"/>
-      <c r="M73" s="335"/>
-      <c r="N73" s="335"/>
-      <c r="O73" s="335"/>
-      <c r="P73" s="335"/>
-      <c r="Q73" s="335"/>
-      <c r="R73" s="336"/>
+        <v>290</v>
+      </c>
+      <c r="K73" s="285" t="s">
+        <v>291</v>
+      </c>
+      <c r="L73" s="286"/>
+      <c r="M73" s="286"/>
+      <c r="N73" s="286"/>
+      <c r="O73" s="286"/>
+      <c r="P73" s="286"/>
+      <c r="Q73" s="286"/>
+      <c r="R73" s="287"/>
     </row>
     <row r="74" spans="1:22" ht="25.5">
       <c r="A74" s="52">
@@ -13756,20 +13730,20 @@
         <v>2017</v>
       </c>
       <c r="C74" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D74" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E74" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F74" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I74" s="136"/>
       <c r="J74" s="139" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="K74" s="141">
         <v>89.1</v>
@@ -13804,20 +13778,20 @@
         <v>2017</v>
       </c>
       <c r="C75" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D75" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E75" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F75" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I75" s="136"/>
       <c r="J75" s="139" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="K75" s="141">
         <v>47.6</v>
@@ -13852,20 +13826,20 @@
         <v>2017</v>
       </c>
       <c r="C76" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D76" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E76" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F76" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I76" s="136"/>
       <c r="J76" s="139" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="K76" s="141">
         <v>6.1</v>
@@ -13900,20 +13874,20 @@
         <v>2017</v>
       </c>
       <c r="C77" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D77" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E77" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F77" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I77" s="136"/>
       <c r="J77" s="139" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="K77" s="141">
         <v>3.4</v>
@@ -13948,23 +13922,23 @@
         <v>2017</v>
       </c>
       <c r="C78" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D78" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E78" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I78" s="136"/>
       <c r="J78" s="139" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="K78" s="141" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="L78" s="141">
         <v>25.5</v>
@@ -13996,23 +13970,23 @@
         <v>2017</v>
       </c>
       <c r="C79" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D79" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E79" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F79" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I79" s="136"/>
       <c r="J79" s="139" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K79" s="141" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="L79" s="141">
         <v>6.8</v>
@@ -14044,20 +14018,20 @@
         <v>2017</v>
       </c>
       <c r="C80" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D80" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E80" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F80" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="I80" s="136"/>
       <c r="J80" s="139" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K80" s="141">
         <v>5</v>
@@ -14092,20 +14066,20 @@
         <v>2017</v>
       </c>
       <c r="C81" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D81" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E81" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F81" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="I81" s="136"/>
       <c r="J81" s="139" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K81" s="141">
         <v>0.6</v>
@@ -14140,20 +14114,20 @@
         <v>2017</v>
       </c>
       <c r="C82" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D82" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E82" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F82" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="I82" s="136"/>
       <c r="J82" s="139" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="K82" s="141">
         <v>0.5</v>
@@ -14188,20 +14162,20 @@
         <v>2017</v>
       </c>
       <c r="C83" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D83" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E83" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F83" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="I83" s="136"/>
       <c r="J83" s="139" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K83" s="141">
         <v>4.8</v>
@@ -14236,19 +14210,19 @@
         <v>2017</v>
       </c>
       <c r="C84" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D84" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E84" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F84" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="J84" s="140" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K84" s="141">
         <v>3369.8</v>
@@ -14283,19 +14257,19 @@
         <v>2017</v>
       </c>
       <c r="C85" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D85" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E85" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F85" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="J85" s="151" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K85" s="152"/>
       <c r="L85" s="152"/>
@@ -14314,16 +14288,16 @@
         <v>2017</v>
       </c>
       <c r="C86" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D86" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E86" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F86" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -14334,16 +14308,16 @@
         <v>2017</v>
       </c>
       <c r="C87" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D87" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E87" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F87" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -14354,16 +14328,16 @@
         <v>2017</v>
       </c>
       <c r="C88" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D88" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E88" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F88" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -14374,16 +14348,16 @@
         <v>2017</v>
       </c>
       <c r="C89" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D89" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E89" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F89" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -14394,16 +14368,16 @@
         <v>2017</v>
       </c>
       <c r="C90" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D90" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E90" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F90" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -14414,81 +14388,81 @@
         <v>2017</v>
       </c>
       <c r="C91" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D91" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E91" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F91" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="96" spans="1:18" ht="15.75">
-      <c r="C96" s="348" t="s">
+      <c r="C96" s="274" t="s">
+        <v>306</v>
+      </c>
+      <c r="D96" s="274"/>
+      <c r="E96" s="274"/>
+      <c r="F96" s="274"/>
+      <c r="G96" s="274"/>
+      <c r="H96" s="274"/>
+      <c r="I96" s="274"/>
+      <c r="J96" s="275"/>
+    </row>
+    <row r="97" spans="3:10">
+      <c r="C97" s="290"/>
+      <c r="D97" s="278">
+        <v>2017</v>
+      </c>
+      <c r="E97" s="293"/>
+      <c r="F97" s="293"/>
+      <c r="G97" s="293"/>
+      <c r="H97" s="293"/>
+      <c r="I97" s="293"/>
+      <c r="J97" s="294"/>
+    </row>
+    <row r="98" spans="3:10">
+      <c r="C98" s="291"/>
+      <c r="D98" s="276" t="s">
+        <v>307</v>
+      </c>
+      <c r="E98" s="278" t="s">
+        <v>308</v>
+      </c>
+      <c r="F98" s="279"/>
+      <c r="G98" s="276" t="s">
+        <v>309</v>
+      </c>
+      <c r="H98" s="281" t="s">
         <v>310</v>
       </c>
-      <c r="D96" s="348"/>
-      <c r="E96" s="348"/>
-      <c r="F96" s="348"/>
-      <c r="G96" s="348"/>
-      <c r="H96" s="348"/>
-      <c r="I96" s="348"/>
-      <c r="J96" s="349"/>
-    </row>
-    <row r="97" spans="3:10">
-      <c r="C97" s="340"/>
-      <c r="D97" s="343">
-        <v>2017</v>
-      </c>
-      <c r="E97" s="344"/>
-      <c r="F97" s="344"/>
-      <c r="G97" s="344"/>
-      <c r="H97" s="344"/>
-      <c r="I97" s="344"/>
-      <c r="J97" s="345"/>
-    </row>
-    <row r="98" spans="3:10">
-      <c r="C98" s="341"/>
-      <c r="D98" s="350" t="s">
+      <c r="I98" s="281" t="s">
         <v>311</v>
       </c>
-      <c r="E98" s="343" t="s">
+      <c r="J98" s="278" t="s">
         <v>312</v>
       </c>
-      <c r="F98" s="352"/>
-      <c r="G98" s="350" t="s">
+    </row>
+    <row r="99" spans="3:10">
+      <c r="C99" s="292"/>
+      <c r="D99" s="277"/>
+      <c r="E99" s="163" t="s">
         <v>313</v>
       </c>
-      <c r="H98" s="354" t="s">
+      <c r="F99" s="162" t="s">
         <v>314</v>
       </c>
-      <c r="I98" s="354" t="s">
-        <v>315</v>
-      </c>
-      <c r="J98" s="343" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="99" spans="3:10">
-      <c r="C99" s="342"/>
-      <c r="D99" s="351"/>
-      <c r="E99" s="163" t="s">
-        <v>317</v>
-      </c>
-      <c r="F99" s="162" t="s">
-        <v>318</v>
-      </c>
-      <c r="G99" s="353"/>
-      <c r="H99" s="355"/>
-      <c r="I99" s="355"/>
-      <c r="J99" s="356"/>
+      <c r="G99" s="280"/>
+      <c r="H99" s="282"/>
+      <c r="I99" s="282"/>
+      <c r="J99" s="283"/>
     </row>
     <row r="100" spans="3:10" ht="51">
       <c r="C100" s="165" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D100" s="160">
         <v>7139.4</v>
@@ -14513,20 +14487,20 @@
       </c>
     </row>
     <row r="101" spans="3:10">
-      <c r="C101" s="338" t="s">
-        <v>295</v>
-      </c>
-      <c r="D101" s="339"/>
-      <c r="E101" s="339"/>
-      <c r="F101" s="339"/>
-      <c r="G101" s="339"/>
-      <c r="H101" s="339"/>
-      <c r="I101" s="339"/>
-      <c r="J101" s="339"/>
+      <c r="C101" s="289" t="s">
+        <v>291</v>
+      </c>
+      <c r="D101" s="273"/>
+      <c r="E101" s="273"/>
+      <c r="F101" s="273"/>
+      <c r="G101" s="273"/>
+      <c r="H101" s="273"/>
+      <c r="I101" s="273"/>
+      <c r="J101" s="273"/>
     </row>
     <row r="102" spans="3:10" ht="38.25">
       <c r="C102" s="166" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D102" s="155">
         <v>92.9</v>
@@ -14552,19 +14526,19 @@
     </row>
     <row r="103" spans="3:10" ht="25.5">
       <c r="C103" s="167" t="s">
-        <v>321</v>
-      </c>
-      <c r="D103" s="338"/>
-      <c r="E103" s="338"/>
-      <c r="F103" s="338"/>
-      <c r="G103" s="338"/>
-      <c r="H103" s="338"/>
-      <c r="I103" s="338"/>
+        <v>317</v>
+      </c>
+      <c r="D103" s="289"/>
+      <c r="E103" s="289"/>
+      <c r="F103" s="289"/>
+      <c r="G103" s="289"/>
+      <c r="H103" s="289"/>
+      <c r="I103" s="289"/>
       <c r="J103" s="178"/>
     </row>
     <row r="104" spans="3:10" ht="89.25">
       <c r="C104" s="168" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D104" s="156">
         <v>47.9</v>
@@ -14590,7 +14564,7 @@
     </row>
     <row r="105" spans="3:10" ht="38.25">
       <c r="C105" s="168" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D105" s="156">
         <v>1.1000000000000001</v>
@@ -14616,7 +14590,7 @@
     </row>
     <row r="106" spans="3:10" ht="38.25">
       <c r="C106" s="168" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D106" s="156">
         <v>2</v>
@@ -14642,7 +14616,7 @@
     </row>
     <row r="107" spans="3:10" ht="25.5">
       <c r="C107" s="168" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D107" s="156">
         <v>5.5</v>
@@ -14668,7 +14642,7 @@
     </row>
     <row r="108" spans="3:10" ht="102">
       <c r="C108" s="168" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D108" s="156">
         <v>17</v>
@@ -14694,7 +14668,7 @@
     </row>
     <row r="109" spans="3:10" ht="178.5">
       <c r="C109" s="169" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D109" s="156">
         <v>15.4</v>
@@ -14720,7 +14694,7 @@
     </row>
     <row r="110" spans="3:10" ht="127.5">
       <c r="C110" s="170" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D110" s="156">
         <v>5.3</v>
@@ -14746,7 +14720,7 @@
     </row>
     <row r="111" spans="3:10" ht="153">
       <c r="C111" s="168" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D111" s="156">
         <v>2</v>
@@ -14772,7 +14746,7 @@
     </row>
     <row r="112" spans="3:10" ht="25.5">
       <c r="C112" s="168" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D112" s="156">
         <v>3.8</v>
@@ -14798,7 +14772,7 @@
     </row>
     <row r="113" spans="3:10" ht="191.25">
       <c r="C113" s="176" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D113" s="156">
         <v>0.1</v>
@@ -14824,7 +14798,7 @@
     </row>
     <row r="114" spans="3:10" ht="25.5">
       <c r="C114" s="168" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D114" s="156">
         <v>3.7</v>
@@ -14850,7 +14824,7 @@
     </row>
     <row r="115" spans="3:10" ht="76.5">
       <c r="C115" s="168" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D115" s="156">
         <v>0.2</v>
@@ -14876,7 +14850,7 @@
     </row>
     <row r="116" spans="3:10">
       <c r="C116" s="168" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D116" s="156">
         <v>2.4</v>
@@ -14902,7 +14876,7 @@
     </row>
     <row r="117" spans="3:10" ht="51">
       <c r="C117" s="168" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D117" s="156">
         <v>1.6</v>
@@ -14928,7 +14902,7 @@
     </row>
     <row r="118" spans="3:10" ht="140.25">
       <c r="C118" s="176" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D118" s="156">
         <v>0.1</v>
@@ -14954,7 +14928,7 @@
     </row>
     <row r="119" spans="3:10">
       <c r="C119" s="168" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D119" s="156">
         <v>1.1000000000000001</v>
@@ -14980,7 +14954,7 @@
     </row>
     <row r="120" spans="3:10" ht="38.25">
       <c r="C120" s="168" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D120" s="156">
         <v>2.2999999999999998</v>
@@ -15006,7 +14980,7 @@
     </row>
     <row r="121" spans="3:10">
       <c r="C121" s="176" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D121" s="156"/>
       <c r="E121" s="156"/>
@@ -15018,7 +14992,7 @@
     </row>
     <row r="122" spans="3:10" ht="76.5">
       <c r="C122" s="176" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D122" s="156">
         <v>1.7</v>
@@ -15044,7 +15018,7 @@
     </row>
     <row r="123" spans="3:10" ht="153">
       <c r="C123" s="164" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D123" s="156">
         <v>0.2</v>
@@ -15070,7 +15044,7 @@
     </row>
     <row r="124" spans="3:10" ht="191.25">
       <c r="C124" s="164" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D124" s="156">
         <v>0</v>
@@ -15096,7 +15070,7 @@
     </row>
     <row r="125" spans="3:10" ht="51">
       <c r="C125" s="172" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D125" s="158">
         <v>2.5</v>
@@ -15122,7 +15096,7 @@
     </row>
     <row r="126" spans="3:10" ht="63.75">
       <c r="C126" s="173" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D126" s="161"/>
       <c r="E126" s="161"/>
@@ -15134,7 +15108,7 @@
     </row>
     <row r="127" spans="3:10" ht="38.25">
       <c r="C127" s="172" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D127" s="158">
         <v>51</v>
@@ -15160,7 +15134,7 @@
     </row>
     <row r="128" spans="3:10" ht="38.25">
       <c r="C128" s="172" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D128" s="158">
         <v>26.4</v>
@@ -15186,7 +15160,7 @@
     </row>
     <row r="129" spans="3:10">
       <c r="C129" s="172" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D129" s="158">
         <v>15.5</v>
@@ -15212,7 +15186,7 @@
     </row>
     <row r="130" spans="3:10" ht="127.5">
       <c r="C130" s="171" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D130" s="158">
         <v>13.8</v>
@@ -15238,7 +15212,7 @@
     </row>
     <row r="131" spans="3:10" ht="127.5">
       <c r="C131" s="174" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D131" s="159">
         <v>52.7</v>
@@ -15264,7 +15238,7 @@
     </row>
     <row r="132" spans="3:10" ht="267.75">
       <c r="C132" s="175" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D132" s="159">
         <v>7.1</v>
@@ -15290,7 +15264,7 @@
     </row>
     <row r="133" spans="3:10" ht="45">
       <c r="C133" s="154" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D133" s="153"/>
       <c r="E133" s="153"/>
@@ -15301,48 +15275,30 @@
       <c r="J133" s="153"/>
     </row>
     <row r="134" spans="3:10">
-      <c r="C134" s="346" t="s">
-        <v>352</v>
-      </c>
-      <c r="D134" s="347"/>
-      <c r="E134" s="347"/>
-      <c r="F134" s="347"/>
-      <c r="G134" s="347"/>
-      <c r="H134" s="347"/>
-      <c r="I134" s="347"/>
-      <c r="J134" s="339"/>
+      <c r="C134" s="271" t="s">
+        <v>348</v>
+      </c>
+      <c r="D134" s="272"/>
+      <c r="E134" s="272"/>
+      <c r="F134" s="272"/>
+      <c r="G134" s="272"/>
+      <c r="H134" s="272"/>
+      <c r="I134" s="272"/>
+      <c r="J134" s="273"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="C134:J134"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="I98:I99"/>
-    <mergeCell ref="H98:H99"/>
-    <mergeCell ref="J98:J99"/>
-    <mergeCell ref="J69:Q69"/>
-    <mergeCell ref="K73:R73"/>
-    <mergeCell ref="I70:R70"/>
-    <mergeCell ref="C101:J101"/>
-    <mergeCell ref="D103:I103"/>
-    <mergeCell ref="C97:C99"/>
-    <mergeCell ref="D97:J97"/>
-    <mergeCell ref="T61:T63"/>
-    <mergeCell ref="N61:N63"/>
-    <mergeCell ref="O61:O63"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="Q61:Q63"/>
-    <mergeCell ref="R61:R63"/>
-    <mergeCell ref="P61:P63"/>
-    <mergeCell ref="N59:N60"/>
-    <mergeCell ref="M59:M60"/>
-    <mergeCell ref="S61:S63"/>
-    <mergeCell ref="O59:O60"/>
-    <mergeCell ref="P59:P60"/>
+    <mergeCell ref="U31:V31"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="K3:M5"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="I30:T30"/>
     <mergeCell ref="I64:V64"/>
     <mergeCell ref="I65:V65"/>
     <mergeCell ref="U61:U63"/>
@@ -15359,31 +15315,52 @@
     <mergeCell ref="R59:R60"/>
     <mergeCell ref="S59:S60"/>
     <mergeCell ref="T59:T60"/>
-    <mergeCell ref="U31:V31"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="K3:M5"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="I30:T30"/>
+    <mergeCell ref="T61:T63"/>
+    <mergeCell ref="N61:N63"/>
+    <mergeCell ref="O61:O63"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="Q61:Q63"/>
+    <mergeCell ref="R61:R63"/>
+    <mergeCell ref="P61:P63"/>
+    <mergeCell ref="N59:N60"/>
+    <mergeCell ref="M59:M60"/>
+    <mergeCell ref="S61:S63"/>
+    <mergeCell ref="O59:O60"/>
+    <mergeCell ref="P59:P60"/>
+    <mergeCell ref="J69:Q69"/>
+    <mergeCell ref="K73:R73"/>
+    <mergeCell ref="I70:R70"/>
+    <mergeCell ref="C101:J101"/>
+    <mergeCell ref="D103:I103"/>
+    <mergeCell ref="C97:C99"/>
+    <mergeCell ref="D97:J97"/>
+    <mergeCell ref="C134:J134"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="I98:I99"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="J98:J99"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="53" fitToHeight="2" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="53" fitToHeight="2" orientation="landscape" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:AH152"/>
   <sheetViews>
-    <sheetView topLeftCell="N7" workbookViewId="0">
-      <selection activeCell="AK9" sqref="AK9"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Y6" sqref="Y6:AH34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15394,13 +15371,13 @@
   <sheetData>
     <row r="1" spans="1:34" ht="19.5">
       <c r="A1" s="192" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="31.5">
       <c r="A2" s="193"/>
       <c r="B2" s="194" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C2" s="195">
         <v>2000</v>
@@ -15420,7 +15397,7 @@
     </row>
     <row r="3" spans="1:34" ht="16.5">
       <c r="A3" s="197" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B3" s="198"/>
       <c r="C3" s="199">
@@ -15443,22 +15420,22 @@
       <c r="A4" s="194"/>
       <c r="B4" s="198"/>
       <c r="C4" s="361" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D4" s="362"/>
       <c r="E4" s="362"/>
       <c r="F4" s="362"/>
       <c r="G4" s="363"/>
       <c r="Z4" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="5" spans="1:34" ht="42">
       <c r="A5" s="200" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B5" s="201" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C5" s="202">
         <v>26106.760780853645</v>
@@ -15476,7 +15453,7 @@
         <v>121972.22569748529</v>
       </c>
       <c r="M5" s="364" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="N5" s="364"/>
       <c r="O5" s="364"/>
@@ -15488,15 +15465,15 @@
       <c r="U5" s="364"/>
       <c r="V5" s="364"/>
       <c r="Z5" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="6" spans="1:34" ht="115.5">
       <c r="A6" s="200" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B6" s="201" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C6" s="202">
         <v>5472.2252858350794</v>
@@ -15520,7 +15497,7 @@
       <c r="U6" s="206"/>
       <c r="V6" s="206"/>
       <c r="Z6" s="199" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="AA6" s="199">
         <v>7.9356</v>
@@ -15549,10 +15526,10 @@
     </row>
     <row r="7" spans="1:34" ht="94.5">
       <c r="A7" s="200" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B7" s="201" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C7" s="202">
         <v>10320.392632623802</v>
@@ -15571,7 +15548,7 @@
       </c>
       <c r="M7" s="208"/>
       <c r="N7" s="209" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="O7" s="209">
         <v>2010</v>
@@ -15599,7 +15576,7 @@
       </c>
       <c r="Y7" s="208"/>
       <c r="Z7" s="209" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AA7" s="209">
         <v>2010</v>
@@ -15628,10 +15605,10 @@
     </row>
     <row r="8" spans="1:34" ht="126">
       <c r="A8" s="200" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B8" s="201" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C8" s="202">
         <v>4974.081835226646</v>
@@ -15651,7 +15628,7 @@
       <c r="M8" s="208"/>
       <c r="N8" s="208"/>
       <c r="O8" s="357" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="P8" s="358"/>
       <c r="Q8" s="358"/>
@@ -15663,7 +15640,7 @@
       <c r="Y8" s="208"/>
       <c r="Z8" s="208"/>
       <c r="AA8" s="357" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="AB8" s="358"/>
       <c r="AC8" s="358"/>
@@ -15675,10 +15652,10 @@
     </row>
     <row r="9" spans="1:34" ht="52.5">
       <c r="A9" s="200" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B9" s="201" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C9" s="202">
         <v>3303.1873828168082</v>
@@ -15696,7 +15673,7 @@
         <v>23114.099837357688</v>
       </c>
       <c r="M9" s="208" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="N9" s="211"/>
       <c r="O9" s="215">
@@ -15724,7 +15701,7 @@
         <v>6719718</v>
       </c>
       <c r="Y9" s="208" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="Z9" s="211"/>
       <c r="AA9" s="250">
@@ -15762,10 +15739,10 @@
     </row>
     <row r="10" spans="1:34" ht="78.75">
       <c r="A10" s="200" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B10" s="201" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C10" s="202">
         <v>4084.7762949891548</v>
@@ -15783,10 +15760,10 @@
         <v>19146.252971349932</v>
       </c>
       <c r="M10" s="212" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="N10" s="211" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="O10" s="216">
         <v>189373</v>
@@ -15813,10 +15790,10 @@
         <v>727352</v>
       </c>
       <c r="Y10" s="212" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="Z10" s="211" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="AA10" s="251">
         <f>O10/$AA$6</f>
@@ -15853,10 +15830,10 @@
     </row>
     <row r="11" spans="1:34" ht="94.5">
       <c r="A11" s="200" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B11" s="201" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C11" s="202">
         <v>4743.5756038380941</v>
@@ -15874,10 +15851,10 @@
         <v>18088.077067434006</v>
       </c>
       <c r="M11" s="212" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="N11" s="211" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="O11" s="216">
         <v>118720</v>
@@ -15904,10 +15881,10 @@
         <v>344157</v>
       </c>
       <c r="Y11" s="212" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="Z11" s="211" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="AA11" s="251">
         <f t="shared" ref="AA11:AA31" si="7">O11/$AA$6</f>
@@ -15944,10 +15921,10 @@
     </row>
     <row r="12" spans="1:34" ht="42">
       <c r="A12" s="200" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B12" s="201" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C12" s="202">
         <v>1598.8382780044851</v>
@@ -15965,10 +15942,10 @@
         <v>15789.94119854873</v>
       </c>
       <c r="M12" s="212" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="N12" s="211" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="O12" s="216">
         <v>792317</v>
@@ -15995,10 +15972,10 @@
         <v>1805097</v>
       </c>
       <c r="Y12" s="212" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="Z12" s="211" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="AA12" s="251">
         <f t="shared" si="7"/>
@@ -16035,10 +16012,10 @@
     </row>
     <row r="13" spans="1:34" ht="78.75">
       <c r="A13" s="200" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B13" s="201" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C13" s="202">
         <v>1942.5756406014484</v>
@@ -16056,10 +16033,10 @@
         <v>13349.430751907919</v>
       </c>
       <c r="M13" s="212" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="N13" s="211" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="O13" s="216">
         <v>93571</v>
@@ -16086,10 +16063,10 @@
         <v>283985</v>
       </c>
       <c r="Y13" s="212" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="Z13" s="211" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AA13" s="251">
         <f t="shared" si="7"/>
@@ -16126,10 +16103,10 @@
     </row>
     <row r="14" spans="1:34" ht="56.25">
       <c r="A14" s="200" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B14" s="201" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C14" s="202">
         <v>1213.9259586044632</v>
@@ -16147,10 +16124,10 @@
         <v>12522.957587889403</v>
       </c>
       <c r="M14" s="212" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N14" s="211" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="O14" s="216">
         <v>24060</v>
@@ -16177,10 +16154,10 @@
         <v>37104</v>
       </c>
       <c r="Y14" s="212" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="Z14" s="211" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="AA14" s="251">
         <f t="shared" si="7"/>
@@ -16217,10 +16194,10 @@
     </row>
     <row r="15" spans="1:34" ht="42">
       <c r="A15" s="200" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B15" s="201" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C15" s="202">
         <v>1709.4959744127054</v>
@@ -16238,10 +16215,10 @@
         <v>11293.506818466158</v>
       </c>
       <c r="M15" s="212" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="N15" s="211" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="O15" s="216">
         <v>132351</v>
@@ -16268,10 +16245,10 @@
         <v>326496</v>
       </c>
       <c r="Y15" s="212" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="Z15" s="211" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="AA15" s="251">
         <f t="shared" si="7"/>
@@ -16308,10 +16285,10 @@
     </row>
     <row r="16" spans="1:34" ht="115.5">
       <c r="A16" s="200" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B16" s="201" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C16" s="202">
         <v>1914.6354913422301</v>
@@ -16329,10 +16306,10 @@
         <v>11147.378956587014</v>
       </c>
       <c r="M16" s="212" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="N16" s="211" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="O16" s="216">
         <v>283566</v>
@@ -16359,10 +16336,10 @@
         <v>832350</v>
       </c>
       <c r="Y16" s="212" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="Z16" s="211" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="AA16" s="251">
         <f t="shared" si="7"/>
@@ -16399,10 +16376,10 @@
     </row>
     <row r="17" spans="1:34" ht="78.75">
       <c r="A17" s="200" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B17" s="201" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C17" s="202">
         <v>773.31715745744646</v>
@@ -16420,10 +16397,10 @@
         <v>11012.63605654948</v>
       </c>
       <c r="M17" s="212" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="N17" s="211" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="O17" s="216">
         <v>161779</v>
@@ -16450,10 +16427,10 @@
         <v>420484</v>
       </c>
       <c r="Y17" s="212" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="Z17" s="211" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="AA17" s="251">
         <f t="shared" si="7"/>
@@ -16490,10 +16467,10 @@
     </row>
     <row r="18" spans="1:34" ht="73.5">
       <c r="A18" s="200" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B18" s="201" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C18" s="202">
         <v>1531.5613396566303</v>
@@ -16511,10 +16488,10 @@
         <v>10076.566996121606</v>
       </c>
       <c r="M18" s="212" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="N18" s="211" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="O18" s="216">
         <v>19910</v>
@@ -16541,10 +16518,10 @@
         <v>37737</v>
       </c>
       <c r="Y18" s="212" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="Z18" s="211" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="AA18" s="251">
         <f t="shared" si="7"/>
@@ -16581,10 +16558,10 @@
     </row>
     <row r="19" spans="1:34" ht="94.5">
       <c r="A19" s="200" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B19" s="201" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C19" s="202">
         <v>399.80147788684241</v>
@@ -16602,10 +16579,10 @@
         <v>4324.1586388089572</v>
       </c>
       <c r="M19" s="212" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="N19" s="211" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="O19" s="216">
         <v>68300</v>
@@ -16632,10 +16609,10 @@
         <v>225659</v>
       </c>
       <c r="Y19" s="212" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="Z19" s="211" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="AA19" s="251">
         <f t="shared" si="7"/>
@@ -16672,10 +16649,10 @@
     </row>
     <row r="20" spans="1:34" ht="84">
       <c r="A20" s="200" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B20" s="201" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C20" s="202">
         <v>365.24392485570382</v>
@@ -16693,10 +16670,10 @@
         <v>3126.8610033779555</v>
       </c>
       <c r="M20" s="212" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="N20" s="211" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="O20" s="216">
         <v>98888</v>
@@ -16723,10 +16700,10 @@
         <v>121142</v>
       </c>
       <c r="Y20" s="212" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="Z20" s="211" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="AA20" s="251">
         <f t="shared" si="7"/>
@@ -16763,10 +16740,10 @@
     </row>
     <row r="21" spans="1:34" ht="84">
       <c r="A21" s="200" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B21" s="201" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C21" s="202">
         <v>797.58097128782026</v>
@@ -16784,10 +16761,10 @@
         <v>3011.3849618416111</v>
       </c>
       <c r="M21" s="212" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="N21" s="211" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="O21" s="216">
         <v>90082</v>
@@ -16814,10 +16791,10 @@
         <v>238141</v>
       </c>
       <c r="Y21" s="212" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="Z21" s="211" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="AA21" s="251">
         <f t="shared" si="7"/>
@@ -16854,10 +16831,10 @@
     </row>
     <row r="22" spans="1:34" ht="45">
       <c r="A22" s="200" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B22" s="201" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C22" s="202">
         <v>393.91934120069118</v>
@@ -16875,10 +16852,10 @@
         <v>2358.9390716877265</v>
       </c>
       <c r="M22" s="212" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="N22" s="211" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="O22" s="216">
         <v>53946</v>
@@ -16905,10 +16882,10 @@
         <v>171630</v>
       </c>
       <c r="Y22" s="212" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="Z22" s="211" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="AA22" s="251">
         <f t="shared" si="7"/>
@@ -16945,10 +16922,10 @@
     </row>
     <row r="23" spans="1:34" ht="90">
       <c r="A23" s="200" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B23" s="201" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C23" s="202">
         <v>206.242417558178</v>
@@ -16966,10 +16943,10 @@
         <v>2287.3764543975976</v>
       </c>
       <c r="M23" s="212" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="N23" s="211" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="O23" s="216">
         <v>24403</v>
@@ -16996,10 +16973,10 @@
         <v>70820</v>
       </c>
       <c r="Y23" s="212" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="Z23" s="211" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="AA23" s="251">
         <f t="shared" si="7"/>
@@ -17036,7 +17013,7 @@
     </row>
     <row r="24" spans="1:34" ht="78.75">
       <c r="A24" s="203" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B24" s="194"/>
       <c r="C24" s="204">
@@ -17055,10 +17032,10 @@
         <v>394176.52946328034</v>
       </c>
       <c r="M24" s="212" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="N24" s="211" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="O24" s="216">
         <v>69434</v>
@@ -17085,10 +17062,10 @@
         <v>236970</v>
       </c>
       <c r="Y24" s="212" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="Z24" s="211" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="AA24" s="251">
         <f t="shared" si="7"/>
@@ -17125,7 +17102,7 @@
     </row>
     <row r="25" spans="1:34" ht="31.5">
       <c r="A25" s="200" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B25" s="201"/>
       <c r="C25" s="202">
@@ -17144,10 +17121,10 @@
         <v>25135.9939947454</v>
       </c>
       <c r="M25" s="212" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="N25" s="211" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="O25" s="216">
         <v>80349</v>
@@ -17174,10 +17151,10 @@
         <v>180011</v>
       </c>
       <c r="Y25" s="212" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="Z25" s="211" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="AA25" s="251">
         <f t="shared" si="7"/>
@@ -17214,7 +17191,7 @@
     </row>
     <row r="26" spans="1:34" ht="56.25">
       <c r="A26" s="200" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B26" s="201"/>
       <c r="C26" s="202">
@@ -17233,10 +17210,10 @@
         <v>-497.05992743650694</v>
       </c>
       <c r="M26" s="212" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="N26" s="211" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="O26" s="216">
         <v>58478</v>
@@ -17263,10 +17240,10 @@
         <v>131970</v>
       </c>
       <c r="Y26" s="212" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="Z26" s="211" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AA26" s="251">
         <f t="shared" si="7"/>
@@ -17303,7 +17280,7 @@
     </row>
     <row r="27" spans="1:34" ht="63">
       <c r="A27" s="203" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B27" s="194"/>
       <c r="C27" s="204">
@@ -17322,10 +17299,10 @@
         <v>418815.46353058924</v>
       </c>
       <c r="M27" s="212" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="N27" s="211" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="O27" s="216">
         <v>9908</v>
@@ -17352,10 +17329,10 @@
         <v>28264</v>
       </c>
       <c r="Y27" s="212" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="Z27" s="211" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="AA27" s="251">
         <f t="shared" si="7"/>
@@ -17392,10 +17369,10 @@
     </row>
     <row r="28" spans="1:34" ht="33.75">
       <c r="M28" s="212" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="N28" s="211" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="O28" s="216">
         <v>13130</v>
@@ -17422,10 +17399,10 @@
         <v>36028</v>
       </c>
       <c r="Y28" s="212" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="Z28" s="211" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="AA28" s="251">
         <f t="shared" si="7"/>
@@ -17462,13 +17439,13 @@
     </row>
     <row r="29" spans="1:34" ht="52.5">
       <c r="A29" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G29" s="204">
         <v>176263.81834104841</v>
       </c>
       <c r="M29" s="208" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="N29" s="213"/>
       <c r="O29" s="217">
@@ -17496,7 +17473,7 @@
         <v>6255397</v>
       </c>
       <c r="Y29" s="208" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="Z29" s="213"/>
       <c r="AA29" s="251">
@@ -17534,14 +17511,14 @@
     </row>
     <row r="30" spans="1:34" ht="22.5">
       <c r="A30" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G30" s="205">
         <f>G29/G27</f>
         <v>0.42086272759643351</v>
       </c>
       <c r="M30" s="212" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="N30" s="214"/>
       <c r="O30" s="218">
@@ -17569,7 +17546,7 @@
         <v>473084</v>
       </c>
       <c r="Y30" s="212" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="Z30" s="214"/>
       <c r="AA30" s="251">
@@ -17607,7 +17584,7 @@
     </row>
     <row r="31" spans="1:34" ht="22.5">
       <c r="A31" s="229" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B31" s="229"/>
       <c r="C31" s="229"/>
@@ -17618,10 +17595,10 @@
         <v>81242.017190041282</v>
       </c>
       <c r="H31" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="M31" s="212" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="N31" s="214"/>
       <c r="O31" s="218">
@@ -17649,7 +17626,7 @@
         <v>-8763</v>
       </c>
       <c r="Y31" s="212" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="Z31" s="214"/>
       <c r="AA31" s="251">
@@ -17687,14 +17664,14 @@
     </row>
     <row r="32" spans="1:34">
       <c r="A32" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G32" s="205">
         <f>G31/G27</f>
         <v>0.19398046219491502</v>
       </c>
       <c r="M32" s="360" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="N32" s="360"/>
       <c r="O32" s="360"/>
@@ -17706,7 +17683,7 @@
       <c r="U32" s="360"/>
       <c r="V32" s="360"/>
       <c r="Y32" s="360" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="Z32" s="360"/>
       <c r="AA32" s="360"/>
@@ -17720,7 +17697,7 @@
     </row>
     <row r="33" spans="1:34">
       <c r="A33" s="229" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B33" s="229"/>
       <c r="C33" s="229"/>
@@ -17731,19 +17708,19 @@
         <v>4855.1510196421859</v>
       </c>
       <c r="H33" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="34" spans="1:34" ht="52.5">
       <c r="A34" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G34" s="205">
         <f>G33/G27</f>
         <v>1.1592578217417174E-2</v>
       </c>
       <c r="Y34" s="208" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="Z34" s="13"/>
       <c r="AA34" s="13">
@@ -17773,7 +17750,7 @@
     </row>
     <row r="35" spans="1:34">
       <c r="A35" s="229" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B35" s="229"/>
       <c r="C35" s="229"/>
@@ -17785,12 +17762,12 @@
         <v>86097.168209683485</v>
       </c>
       <c r="H35" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="36" spans="1:34">
       <c r="A36" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G36" s="205">
         <f>G35/G27</f>
@@ -17810,12 +17787,15 @@
     <mergeCell ref="O8:V8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="90" fitToHeight="0" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17835,27 +17815,27 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26.45" customHeight="1">
       <c r="B1" s="258" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C1" s="259" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="D1" s="259" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="E1" s="259" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="F1" s="259" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="19.5">
       <c r="A2" s="260" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B2" s="259" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C2" s="261">
         <v>27347.555702608606</v>
@@ -17872,10 +17852,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="260" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B3" s="259" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C3" s="261">
         <v>12939.887053232369</v>
@@ -17892,10 +17872,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="260" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B4" s="259" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C4" s="261">
         <v>67869.464518021108</v>
@@ -17912,10 +17892,10 @@
     </row>
     <row r="5" spans="1:6" ht="19.5">
       <c r="A5" s="260" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B5" s="259" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C5" s="261">
         <v>10677.492611837604</v>
@@ -17926,10 +17906,10 @@
     </row>
     <row r="6" spans="1:6" ht="19.5">
       <c r="A6" s="260" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B6" s="259" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C6" s="261">
         <v>1395.0655346924043</v>
@@ -17940,10 +17920,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="260" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B7" s="259" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C7" s="261">
         <v>12275.854808509359</v>
@@ -17960,10 +17940,10 @@
     </row>
     <row r="8" spans="1:6" ht="19.5">
       <c r="A8" s="260" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B8" s="259" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C8" s="261">
         <v>31295.353541430108</v>
@@ -17974,10 +17954,10 @@
     </row>
     <row r="9" spans="1:6" ht="19.5">
       <c r="A9" s="260" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B9" s="259" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C9" s="261">
         <v>15809.689960370875</v>
@@ -17994,10 +17974,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="260" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B10" s="259" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C10" s="261">
         <v>1418.865569283292</v>
@@ -18008,10 +17988,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="260" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B11" s="259" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C11" s="261">
         <v>8484.505538301888</v>
@@ -18028,10 +18008,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="260" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B12" s="259" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C12" s="261">
         <v>4554.7927178661939</v>
@@ -18048,10 +18028,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="260" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B13" s="259" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C13" s="261">
         <v>8953.8136453531661</v>
@@ -18062,10 +18042,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="260" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B14" s="259" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C14" s="261">
         <v>6453.0804689321194</v>
@@ -18076,10 +18056,10 @@
     </row>
     <row r="15" spans="1:6" ht="19.5">
       <c r="A15" s="260" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B15" s="259" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C15" s="261">
         <v>2662.7463660768672</v>
@@ -18096,10 +18076,10 @@
     </row>
     <row r="16" spans="1:6" ht="19.5">
       <c r="A16" s="260" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B16" s="259" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C16" s="261">
         <v>8909.7854612995652</v>
@@ -18116,10 +18096,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="260" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B17" s="259" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C17" s="261">
         <v>6768.1959348187365</v>
@@ -18130,10 +18110,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="260" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B18" s="259" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C18" s="261">
         <v>4961.9124248964154</v>
@@ -18144,10 +18124,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="260" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B19" s="259" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C19" s="261">
         <v>1062.6922238180821</v>
@@ -18164,10 +18144,10 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="260" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B20" s="259" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C20" s="261">
         <v>1354.6092357669777</v>
@@ -18205,12 +18185,12 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -18218,8 +18198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18235,110 +18215,110 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="Q1" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="B2" s="369" t="s">
+      <c r="B2" s="367" t="s">
+        <v>349</v>
+      </c>
+      <c r="C2" s="367"/>
+      <c r="D2" s="367"/>
+      <c r="E2" s="367"/>
+      <c r="F2" s="367"/>
+      <c r="G2" s="367"/>
+      <c r="K2" s="367" t="s">
+        <v>475</v>
+      </c>
+      <c r="L2" s="367"/>
+      <c r="M2" s="367"/>
+      <c r="N2" s="367"/>
+      <c r="O2" s="367"/>
+      <c r="P2" s="367"/>
+      <c r="Q2" s="50" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="B3" s="368" t="s">
+        <v>350</v>
+      </c>
+      <c r="C3" s="368"/>
+      <c r="D3" s="368"/>
+      <c r="E3" s="368"/>
+      <c r="K3" s="368" t="s">
+        <v>350</v>
+      </c>
+      <c r="L3" s="368"/>
+      <c r="M3" s="368"/>
+      <c r="N3" s="368"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="369" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="369" t="s">
+        <v>351</v>
+      </c>
+      <c r="C4" s="371" t="s">
+        <v>352</v>
+      </c>
+      <c r="D4" s="371" t="s">
         <v>353</v>
       </c>
-      <c r="C2" s="369"/>
-      <c r="D2" s="369"/>
-      <c r="E2" s="369"/>
-      <c r="F2" s="369"/>
-      <c r="G2" s="369"/>
-      <c r="K2" s="369" t="s">
-        <v>480</v>
-      </c>
-      <c r="L2" s="369"/>
-      <c r="M2" s="369"/>
-      <c r="N2" s="369"/>
-      <c r="O2" s="369"/>
-      <c r="P2" s="369"/>
-      <c r="Q2" s="50" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="B3" s="370" t="s">
+      <c r="E4" s="371" t="s">
         <v>354</v>
       </c>
-      <c r="C3" s="370"/>
-      <c r="D3" s="370"/>
-      <c r="E3" s="370"/>
-      <c r="K3" s="370" t="s">
+      <c r="F4" s="371" t="s">
+        <v>355</v>
+      </c>
+      <c r="G4" s="371" t="s">
+        <v>356</v>
+      </c>
+      <c r="J4" s="369" t="s">
+        <v>81</v>
+      </c>
+      <c r="K4" s="369" t="s">
+        <v>351</v>
+      </c>
+      <c r="L4" s="371" t="s">
+        <v>352</v>
+      </c>
+      <c r="M4" s="371" t="s">
+        <v>353</v>
+      </c>
+      <c r="N4" s="371" t="s">
         <v>354</v>
       </c>
-      <c r="L3" s="370"/>
-      <c r="M3" s="370"/>
-      <c r="N3" s="370"/>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="371" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="371" t="s">
+      <c r="O4" s="371" t="s">
         <v>355</v>
       </c>
-      <c r="C4" s="373" t="s">
+      <c r="P4" s="371" t="s">
         <v>356</v>
       </c>
-      <c r="D4" s="373" t="s">
-        <v>357</v>
-      </c>
-      <c r="E4" s="373" t="s">
-        <v>358</v>
-      </c>
-      <c r="F4" s="373" t="s">
-        <v>359</v>
-      </c>
-      <c r="G4" s="373" t="s">
-        <v>360</v>
-      </c>
-      <c r="J4" s="371" t="s">
-        <v>84</v>
-      </c>
-      <c r="K4" s="371" t="s">
-        <v>355</v>
-      </c>
-      <c r="L4" s="373" t="s">
-        <v>356</v>
-      </c>
-      <c r="M4" s="373" t="s">
-        <v>357</v>
-      </c>
-      <c r="N4" s="373" t="s">
-        <v>358</v>
-      </c>
-      <c r="O4" s="373" t="s">
-        <v>359</v>
-      </c>
-      <c r="P4" s="373" t="s">
-        <v>360</v>
-      </c>
     </row>
     <row r="5" spans="1:17" ht="24.75" customHeight="1">
-      <c r="A5" s="372"/>
-      <c r="B5" s="372"/>
-      <c r="C5" s="374"/>
-      <c r="D5" s="374"/>
-      <c r="E5" s="374"/>
-      <c r="F5" s="375"/>
-      <c r="G5" s="375"/>
-      <c r="J5" s="372"/>
-      <c r="K5" s="372"/>
-      <c r="L5" s="374"/>
-      <c r="M5" s="374"/>
-      <c r="N5" s="374"/>
-      <c r="O5" s="375"/>
-      <c r="P5" s="375"/>
+      <c r="A5" s="370"/>
+      <c r="B5" s="370"/>
+      <c r="C5" s="372"/>
+      <c r="D5" s="372"/>
+      <c r="E5" s="372"/>
+      <c r="F5" s="373"/>
+      <c r="G5" s="373"/>
+      <c r="J5" s="370"/>
+      <c r="K5" s="370"/>
+      <c r="L5" s="372"/>
+      <c r="M5" s="372"/>
+      <c r="N5" s="372"/>
+      <c r="O5" s="373"/>
+      <c r="P5" s="373"/>
     </row>
     <row r="6" spans="1:17" ht="114.75">
       <c r="A6" s="182">
         <v>1</v>
       </c>
       <c r="B6" s="182" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C6" s="183">
         <v>268373</v>
@@ -18360,10 +18340,10 @@
         <v>1</v>
       </c>
       <c r="K6" s="182" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="L6" s="253" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="M6" s="253">
         <v>423403</v>
@@ -18384,7 +18364,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="184" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C7" s="183">
         <v>147856</v>
@@ -18395,10 +18375,10 @@
       <c r="E7" s="183">
         <v>83203</v>
       </c>
-      <c r="F7" s="365">
+      <c r="F7" s="374">
         <v>3303</v>
       </c>
-      <c r="G7" s="367">
+      <c r="G7" s="376">
         <f>(E7+E8)/F7*1000</f>
         <v>81180.744777475033</v>
       </c>
@@ -18406,10 +18386,10 @@
         <v>2</v>
       </c>
       <c r="K7" s="184" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="L7" s="253" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="M7" s="253">
         <v>166987</v>
@@ -18417,10 +18397,10 @@
       <c r="N7" s="253">
         <v>177170</v>
       </c>
-      <c r="O7" s="376">
+      <c r="O7" s="365">
         <v>2440.6</v>
       </c>
-      <c r="P7" s="376">
+      <c r="P7" s="365">
         <f>(N7+N8)/O7*1000</f>
         <v>220043.02220765388</v>
       </c>
@@ -18430,7 +18410,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="184" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C8" s="183">
         <v>982102</v>
@@ -18441,16 +18421,16 @@
       <c r="E8" s="183">
         <v>184937</v>
       </c>
-      <c r="F8" s="366"/>
-      <c r="G8" s="368"/>
+      <c r="F8" s="375"/>
+      <c r="G8" s="377"/>
       <c r="J8" s="184">
         <v>3</v>
       </c>
       <c r="K8" s="184" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="L8" s="253" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="M8" s="253">
         <v>1445230</v>
@@ -18458,15 +18438,15 @@
       <c r="N8" s="253">
         <v>359867</v>
       </c>
-      <c r="O8" s="377"/>
-      <c r="P8" s="377"/>
+      <c r="O8" s="366"/>
+      <c r="P8" s="366"/>
     </row>
     <row r="9" spans="1:17" ht="102">
       <c r="A9" s="184">
         <v>4</v>
       </c>
       <c r="B9" s="184" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C9" s="183">
         <v>144639</v>
@@ -18487,10 +18467,10 @@
         <v>4</v>
       </c>
       <c r="K9" s="184" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="L9" s="253" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="M9" s="253">
         <v>198015</v>
@@ -18510,7 +18490,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="184" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C10" s="183">
         <v>376417</v>
@@ -18532,10 +18512,10 @@
         <v>5</v>
       </c>
       <c r="K10" s="184" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="L10" s="253" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="M10" s="253">
         <v>422356</v>
@@ -18556,7 +18536,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="184" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C11" s="183">
         <v>132187</v>
@@ -18578,10 +18558,10 @@
         <v>6</v>
       </c>
       <c r="K11" s="184" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="L11" s="253" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="M11" s="253">
         <v>262065</v>
@@ -18602,7 +18582,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="184" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C12" s="183">
         <v>263036</v>
@@ -18624,10 +18604,10 @@
         <v>7</v>
       </c>
       <c r="K12" s="184" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="L12" s="253" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="M12" s="253">
         <v>229275</v>
@@ -18649,7 +18629,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="184" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C13" s="183">
         <v>106481</v>
@@ -18671,10 +18651,10 @@
         <v>8</v>
       </c>
       <c r="K13" s="184" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="L13" s="253" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="M13" s="253">
         <v>46798</v>
@@ -18695,7 +18675,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="184" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C14" s="183">
         <v>81207</v>
@@ -18717,10 +18697,10 @@
         <v>9</v>
       </c>
       <c r="K14" s="184" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="L14" s="253" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="M14" s="253">
         <v>55830</v>
@@ -18741,7 +18721,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="184" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C15" s="183">
         <v>509215</v>
@@ -18764,10 +18744,10 @@
         <v>10</v>
       </c>
       <c r="K15" s="184" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="L15" s="253" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="M15" s="253">
         <v>13538</v>
@@ -18789,10 +18769,10 @@
         <v>11</v>
       </c>
       <c r="B16" s="184" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C16" s="187" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D16" s="183">
         <v>40109</v>
@@ -18811,10 +18791,10 @@
         <v>11</v>
       </c>
       <c r="K16" s="257" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="L16" s="253" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="M16" s="253">
         <v>40109</v>
@@ -18833,16 +18813,16 @@
     <row r="17" spans="1:16" ht="51">
       <c r="A17" s="184"/>
       <c r="B17" s="184" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C17" s="187" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D17" s="187" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E17" s="187" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F17" s="183">
         <v>1079.4000000000001</v>
@@ -18852,10 +18832,10 @@
       </c>
       <c r="J17" s="184"/>
       <c r="K17" s="184" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="L17" s="253" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="M17" s="253">
         <v>73172</v>
@@ -18876,7 +18856,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="189" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C18" s="186">
         <v>3011513</v>
@@ -18899,10 +18879,10 @@
         <v>12</v>
       </c>
       <c r="K18" s="189" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="L18" s="186" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="M18" s="186">
         <v>3735836</v>
@@ -18924,13 +18904,13 @@
         <v>13</v>
       </c>
       <c r="B19" s="184" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C19" s="183">
         <v>200912</v>
       </c>
       <c r="D19" s="187" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E19" s="183">
         <v>200912</v>
@@ -18941,13 +18921,13 @@
         <v>13</v>
       </c>
       <c r="K19" s="184" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="L19" s="183" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="M19" s="187" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="N19" s="183">
         <v>473084</v>
@@ -18960,13 +18940,13 @@
         <v>14</v>
       </c>
       <c r="B20" s="184" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C20" s="183">
         <v>-3973</v>
       </c>
       <c r="D20" s="187" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E20" s="183">
         <v>-3973</v>
@@ -18977,13 +18957,13 @@
         <v>14</v>
       </c>
       <c r="K20" s="184" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="L20" s="183" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="M20" s="187" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="N20" s="183">
         <v>-8763</v>
@@ -18996,7 +18976,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="191" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C21" s="186">
         <v>3208452</v>
@@ -19013,10 +18993,10 @@
         <v>15</v>
       </c>
       <c r="K21" s="191" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="L21" s="186" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="M21" s="186">
         <v>3735836</v>
@@ -19029,6 +19009,17 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
     <mergeCell ref="O7:O8"/>
     <mergeCell ref="P7:P8"/>
     <mergeCell ref="K2:P2"/>
@@ -19040,17 +19031,6 @@
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="Q2" r:id="rId1"/>
@@ -19067,7 +19047,7 @@
   </sheetPr>
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -19086,32 +19066,32 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="U1" s="153" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="153" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="120.75" customHeight="1">
       <c r="A3" s="219" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="220" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="220" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="220" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="220" t="s">
+      <c r="E3" s="220" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="220" t="s">
+      <c r="F3" s="220" t="s">
         <v>64</v>
-      </c>
-      <c r="D3" s="220" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="220" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" s="220" t="s">
-        <v>67</v>
       </c>
       <c r="G3" s="220"/>
       <c r="H3" s="220"/>
@@ -19120,24 +19100,24 @@
       <c r="K3" s="220"/>
       <c r="L3" s="220"/>
       <c r="M3" s="220" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N3" s="221"/>
       <c r="O3" s="221"/>
       <c r="P3" s="221" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Q3" s="221"/>
       <c r="R3" s="221"/>
       <c r="S3" s="221"/>
       <c r="T3" s="221"/>
       <c r="U3" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="222" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B4" s="219">
         <v>0</v>
@@ -19197,13 +19177,13 @@
         <v>85</v>
       </c>
       <c r="U4" s="219" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="9" customHeight="1"/>
     <row r="6" spans="1:21">
       <c r="A6" s="153" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B6" s="223">
         <v>5</v>
@@ -19268,7 +19248,7 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="153" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B7" s="223">
         <v>-100</v>
@@ -19333,7 +19313,7 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="153" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B8" s="223">
         <f>B7*12</f>
@@ -19418,7 +19398,7 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="153" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B9" s="223">
         <f>B8*B6</f>
@@ -19504,7 +19484,7 @@
     <row r="10" spans="1:21" ht="11.25" customHeight="1"/>
     <row r="11" spans="1:21">
       <c r="A11" s="153" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B11" s="153">
         <v>0</v>
@@ -19569,7 +19549,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="153" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B12" s="223">
         <v>0</v>
@@ -19649,7 +19629,7 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="153" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B13" s="153">
         <f t="shared" ref="B13:U13" si="3">B12*B6</f>
@@ -19734,7 +19714,7 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="153" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B15" s="223">
         <f t="shared" ref="B15:U17" si="4">B7+B11</f>
@@ -19819,7 +19799,7 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="153" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B16" s="223">
         <f t="shared" si="4"/>
@@ -19904,7 +19884,7 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="153" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B17" s="223">
         <f t="shared" si="4"/>
@@ -19989,7 +19969,7 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="153" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B18" s="223">
         <f>B17</f>
@@ -20131,7 +20111,7 @@
         <v>85</v>
       </c>
       <c r="U19" s="219" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -20297,65 +20277,65 @@
   <sheetData>
     <row r="5" spans="1:22">
       <c r="A5" s="153" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="69.75" customHeight="1">
       <c r="A6" s="219" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="220" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="220" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="220" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="220" t="s">
+      <c r="E6" s="220" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="220" t="s">
+      <c r="F6" s="220" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="220" t="s">
+      <c r="G6" s="220" t="s">
+        <v>444</v>
+      </c>
+      <c r="H6" s="220" t="s">
+        <v>445</v>
+      </c>
+      <c r="I6" s="220" t="s">
+        <v>446</v>
+      </c>
+      <c r="J6" s="220" t="s">
+        <v>447</v>
+      </c>
+      <c r="K6" s="220" t="s">
+        <v>448</v>
+      </c>
+      <c r="L6" s="220" t="s">
+        <v>449</v>
+      </c>
+      <c r="M6" s="220" t="s">
         <v>65</v>
-      </c>
-      <c r="E6" s="220" t="s">
-        <v>66</v>
-      </c>
-      <c r="F6" s="220" t="s">
-        <v>67</v>
-      </c>
-      <c r="G6" s="220" t="s">
-        <v>448</v>
-      </c>
-      <c r="H6" s="220" t="s">
-        <v>449</v>
-      </c>
-      <c r="I6" s="220" t="s">
-        <v>450</v>
-      </c>
-      <c r="J6" s="220" t="s">
-        <v>451</v>
-      </c>
-      <c r="K6" s="220" t="s">
-        <v>452</v>
-      </c>
-      <c r="L6" s="220" t="s">
-        <v>453</v>
-      </c>
-      <c r="M6" s="220" t="s">
-        <v>68</v>
       </c>
       <c r="N6" s="221"/>
       <c r="O6" s="221"/>
       <c r="P6" s="221" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Q6" s="221"/>
       <c r="R6" s="221"/>
       <c r="S6" s="221"/>
       <c r="T6" s="221"/>
       <c r="U6" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="222" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B7" s="219">
         <v>0</v>
@@ -20415,13 +20395,13 @@
         <v>85</v>
       </c>
       <c r="U7" s="219" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="V7" s="224"/>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="153" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B9" s="223">
         <v>5</v>
@@ -20486,7 +20466,7 @@
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="153" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B10" s="223">
         <v>-100</v>
@@ -20551,7 +20531,7 @@
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="153" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B11" s="223">
         <f>B10*12</f>
@@ -20636,7 +20616,7 @@
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="225" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B12" s="223"/>
       <c r="C12" s="223"/>
@@ -20670,7 +20650,7 @@
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="225" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B13" s="223"/>
       <c r="C13" s="223"/>
@@ -20704,7 +20684,7 @@
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="225" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B14" s="223"/>
       <c r="C14" s="223"/>
@@ -20739,7 +20719,7 @@
     </row>
     <row r="15" spans="1:22">
       <c r="A15" s="225" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B15" s="223"/>
       <c r="C15" s="223"/>
@@ -20774,7 +20754,7 @@
     </row>
     <row r="16" spans="1:22">
       <c r="A16" s="225" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B16" s="223"/>
       <c r="C16" s="223"/>
@@ -20809,7 +20789,7 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="153" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B17" s="223">
         <f>(B10+B12+B13+B14+B15+B16)*12*B9</f>
@@ -20895,7 +20875,7 @@
     <row r="18" spans="1:21" ht="11.25" customHeight="1"/>
     <row r="19" spans="1:21">
       <c r="A19" s="153" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B19" s="153">
         <v>0</v>
@@ -20960,7 +20940,7 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="153" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B20" s="223">
         <v>0</v>
@@ -21040,7 +21020,7 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="153" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B21" s="153">
         <f t="shared" ref="B21:U21" si="3">B20*B9</f>
@@ -21125,7 +21105,7 @@
     </row>
     <row r="23" spans="1:21">
       <c r="A23" s="153" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B23" s="223">
         <f t="shared" ref="B23:U24" si="4">B10+B19</f>
@@ -21210,7 +21190,7 @@
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="153" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B24" s="223">
         <f t="shared" si="4"/>
@@ -21295,7 +21275,7 @@
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="153" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B25" s="223">
         <f t="shared" ref="B25:U25" si="5">B17+B21</f>
@@ -21380,7 +21360,7 @@
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="153" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B26" s="223">
         <f>B25</f>
@@ -21465,7 +21445,7 @@
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="225" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B28" s="223"/>
       <c r="C28" s="223"/>
@@ -21500,7 +21480,7 @@
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="225" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B29" s="223"/>
       <c r="C29" s="223"/>
@@ -21535,7 +21515,7 @@
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="225" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B30" s="223"/>
       <c r="C30" s="223"/>
@@ -21570,7 +21550,7 @@
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="225" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B31" s="223"/>
       <c r="C31" s="223"/>
@@ -21605,7 +21585,7 @@
     </row>
     <row r="32" spans="1:21">
       <c r="A32" s="225" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B32" s="223"/>
       <c r="C32" s="223"/>
@@ -21640,7 +21620,7 @@
     </row>
     <row r="33" spans="1:22">
       <c r="A33" s="225" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B33" s="223">
         <f t="shared" ref="B33:F33" si="7">(B28+B29+B30+B31+B32)*12*B9</f>
@@ -21725,7 +21705,7 @@
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="225" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B34" s="223">
         <f t="shared" ref="B34:U34" si="9">B25+B33</f>
@@ -21810,7 +21790,7 @@
     </row>
     <row r="35" spans="1:22">
       <c r="A35" s="225" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B35" s="223">
         <f>B34</f>
@@ -21960,7 +21940,7 @@
     </row>
     <row r="40" spans="1:22">
       <c r="A40" s="153" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B40" s="153">
         <v>0</v>
@@ -22028,7 +22008,7 @@
     </row>
     <row r="41" spans="1:22">
       <c r="A41" s="153" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B41" s="153">
         <v>0</v>

--- a/Таблицы2017.xlsx
+++ b/Таблицы2017.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="13500" tabRatio="541" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="13500" tabRatio="541" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Slide5" sheetId="1" r:id="rId1"/>
@@ -3950,6 +3950,91 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="63" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="65" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="63" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="15" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="63" fillId="15" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="15" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="67" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="16" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="16" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="65" fillId="16" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="17" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="17" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="65" fillId="17" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="18" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="63" fillId="18" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="18" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="65" fillId="18" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="19" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="67" fillId="19" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="19" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="65" fillId="19" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="67" fillId="17" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="67" fillId="16" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="63" fillId="15" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3959,6 +4044,9 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3971,110 +4059,110 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="55" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="40" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="30" fillId="0" borderId="53" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="0" borderId="52" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="166" fontId="36" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="56" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="52" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="58" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="5" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="49" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="46" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="47" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="48" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="46" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="47" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="48" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -4098,30 +4186,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="46" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="47" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="48" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -4140,89 +4207,107 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="49" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="46" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="47" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="48" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="30" fillId="0" borderId="53" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="30" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="30" fillId="0" borderId="52" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="36" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="56" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="52" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="58" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="40" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="5" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="55" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="40" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4248,6 +4333,33 @@
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="33" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="33" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="48" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -4259,118 +4371,6 @@
     </xf>
     <xf numFmtId="3" fontId="26" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="33" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="33" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="63" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="65" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="63" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="15" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="63" fillId="15" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="15" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="67" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="16" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="16" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="65" fillId="16" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="17" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="17" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="65" fillId="17" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="18" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="63" fillId="18" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="18" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="65" fillId="18" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="19" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="67" fillId="19" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="19" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="65" fillId="19" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="67" fillId="17" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="67" fillId="16" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="63" fillId="15" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -5441,16 +5441,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="270" t="s">
+      <c r="A1" s="295" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="270"/>
-      <c r="C1" s="270"/>
-      <c r="D1" s="270"/>
-      <c r="E1" s="270"/>
-      <c r="F1" s="270"/>
-      <c r="G1" s="270"/>
-      <c r="H1" s="270"/>
+      <c r="B1" s="295"/>
+      <c r="C1" s="295"/>
+      <c r="D1" s="295"/>
+      <c r="E1" s="295"/>
+      <c r="F1" s="295"/>
+      <c r="G1" s="295"/>
+      <c r="H1" s="295"/>
     </row>
     <row r="2" spans="1:20">
       <c r="L2" s="58"/>
@@ -6661,18 +6661,18 @@
       <c r="A38" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="266" t="s">
+      <c r="B38" s="296" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="267"/>
-      <c r="D38" s="267"/>
-      <c r="E38" s="267"/>
-      <c r="F38" s="267"/>
-      <c r="G38" s="267"/>
-      <c r="H38" s="267"/>
-      <c r="I38" s="267"/>
-      <c r="J38" s="267"/>
-      <c r="K38" s="268"/>
+      <c r="C38" s="297"/>
+      <c r="D38" s="297"/>
+      <c r="E38" s="297"/>
+      <c r="F38" s="297"/>
+      <c r="G38" s="297"/>
+      <c r="H38" s="297"/>
+      <c r="I38" s="297"/>
+      <c r="J38" s="297"/>
+      <c r="K38" s="298"/>
     </row>
     <row r="39" spans="1:11" ht="15.75" thickBot="1">
       <c r="A39" s="44" t="s">
@@ -6713,16 +6713,16 @@
       <c r="A40" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="263"/>
-      <c r="C40" s="264"/>
-      <c r="D40" s="264"/>
-      <c r="E40" s="264"/>
-      <c r="F40" s="264"/>
-      <c r="G40" s="264"/>
-      <c r="H40" s="264"/>
-      <c r="I40" s="264"/>
-      <c r="J40" s="264"/>
-      <c r="K40" s="265"/>
+      <c r="B40" s="292"/>
+      <c r="C40" s="293"/>
+      <c r="D40" s="293"/>
+      <c r="E40" s="293"/>
+      <c r="F40" s="293"/>
+      <c r="G40" s="293"/>
+      <c r="H40" s="293"/>
+      <c r="I40" s="293"/>
+      <c r="J40" s="293"/>
+      <c r="K40" s="294"/>
     </row>
     <row r="41" spans="1:11" ht="15.75" thickBot="1">
       <c r="A41" s="46" t="s">
@@ -6830,36 +6830,36 @@
       </c>
     </row>
     <row r="45" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A45" s="269" t="s">
+      <c r="A45" s="299" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="269"/>
-      <c r="C45" s="269"/>
-      <c r="D45" s="269"/>
-      <c r="E45" s="269"/>
-      <c r="F45" s="269"/>
-      <c r="G45" s="269"/>
-      <c r="H45" s="269"/>
-      <c r="I45" s="269"/>
-      <c r="J45" s="269"/>
-      <c r="K45" s="269"/>
+      <c r="B45" s="299"/>
+      <c r="C45" s="299"/>
+      <c r="D45" s="299"/>
+      <c r="E45" s="299"/>
+      <c r="F45" s="299"/>
+      <c r="G45" s="299"/>
+      <c r="H45" s="299"/>
+      <c r="I45" s="299"/>
+      <c r="J45" s="299"/>
+      <c r="K45" s="299"/>
     </row>
     <row r="46" spans="1:11" ht="15.75" thickBot="1">
       <c r="A46" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B46" s="266" t="s">
+      <c r="B46" s="296" t="s">
         <v>31</v>
       </c>
-      <c r="C46" s="267"/>
-      <c r="D46" s="267"/>
-      <c r="E46" s="267"/>
-      <c r="F46" s="267"/>
-      <c r="G46" s="267"/>
-      <c r="H46" s="267"/>
-      <c r="I46" s="267"/>
-      <c r="J46" s="267"/>
-      <c r="K46" s="268"/>
+      <c r="C46" s="297"/>
+      <c r="D46" s="297"/>
+      <c r="E46" s="297"/>
+      <c r="F46" s="297"/>
+      <c r="G46" s="297"/>
+      <c r="H46" s="297"/>
+      <c r="I46" s="297"/>
+      <c r="J46" s="297"/>
+      <c r="K46" s="298"/>
     </row>
     <row r="47" spans="1:11" ht="15.75" thickBot="1">
       <c r="A47" s="44" t="s">
@@ -6900,31 +6900,31 @@
       <c r="A48" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="263"/>
-      <c r="C48" s="264"/>
-      <c r="D48" s="264"/>
-      <c r="E48" s="264"/>
-      <c r="F48" s="264"/>
-      <c r="G48" s="264"/>
-      <c r="H48" s="264"/>
-      <c r="I48" s="264"/>
-      <c r="J48" s="264"/>
-      <c r="K48" s="265"/>
+      <c r="B48" s="292"/>
+      <c r="C48" s="293"/>
+      <c r="D48" s="293"/>
+      <c r="E48" s="293"/>
+      <c r="F48" s="293"/>
+      <c r="G48" s="293"/>
+      <c r="H48" s="293"/>
+      <c r="I48" s="293"/>
+      <c r="J48" s="293"/>
+      <c r="K48" s="294"/>
     </row>
     <row r="49" spans="1:11" ht="15.75" thickBot="1">
       <c r="A49" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B49" s="263"/>
-      <c r="C49" s="264"/>
-      <c r="D49" s="264"/>
-      <c r="E49" s="264"/>
-      <c r="F49" s="264"/>
-      <c r="G49" s="264"/>
-      <c r="H49" s="264"/>
-      <c r="I49" s="264"/>
-      <c r="J49" s="264"/>
-      <c r="K49" s="265"/>
+      <c r="B49" s="292"/>
+      <c r="C49" s="293"/>
+      <c r="D49" s="293"/>
+      <c r="E49" s="293"/>
+      <c r="F49" s="293"/>
+      <c r="G49" s="293"/>
+      <c r="H49" s="293"/>
+      <c r="I49" s="293"/>
+      <c r="J49" s="293"/>
+      <c r="K49" s="294"/>
     </row>
     <row r="50" spans="1:11" ht="15.75" thickBot="1">
       <c r="A50" s="46" t="s">
@@ -7035,16 +7035,16 @@
       <c r="A53" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B53" s="263"/>
-      <c r="C53" s="264"/>
-      <c r="D53" s="264"/>
-      <c r="E53" s="264"/>
-      <c r="F53" s="264"/>
-      <c r="G53" s="264"/>
-      <c r="H53" s="264"/>
-      <c r="I53" s="264"/>
-      <c r="J53" s="264"/>
-      <c r="K53" s="265"/>
+      <c r="B53" s="292"/>
+      <c r="C53" s="293"/>
+      <c r="D53" s="293"/>
+      <c r="E53" s="293"/>
+      <c r="F53" s="293"/>
+      <c r="G53" s="293"/>
+      <c r="H53" s="293"/>
+      <c r="I53" s="293"/>
+      <c r="J53" s="293"/>
+      <c r="K53" s="294"/>
     </row>
     <row r="54" spans="1:11" ht="15.75" thickBot="1">
       <c r="A54" s="46" t="s">
@@ -7155,16 +7155,16 @@
       <c r="A57" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B57" s="263"/>
-      <c r="C57" s="264"/>
-      <c r="D57" s="264"/>
-      <c r="E57" s="264"/>
-      <c r="F57" s="264"/>
-      <c r="G57" s="264"/>
-      <c r="H57" s="264"/>
-      <c r="I57" s="264"/>
-      <c r="J57" s="264"/>
-      <c r="K57" s="265"/>
+      <c r="B57" s="292"/>
+      <c r="C57" s="293"/>
+      <c r="D57" s="293"/>
+      <c r="E57" s="293"/>
+      <c r="F57" s="293"/>
+      <c r="G57" s="293"/>
+      <c r="H57" s="293"/>
+      <c r="I57" s="293"/>
+      <c r="J57" s="293"/>
+      <c r="K57" s="294"/>
     </row>
     <row r="58" spans="1:11" ht="15.75" thickBot="1">
       <c r="A58" s="46" t="s">
@@ -7275,31 +7275,31 @@
       <c r="A61" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B61" s="263"/>
-      <c r="C61" s="264"/>
-      <c r="D61" s="264"/>
-      <c r="E61" s="264"/>
-      <c r="F61" s="264"/>
-      <c r="G61" s="264"/>
-      <c r="H61" s="264"/>
-      <c r="I61" s="264"/>
-      <c r="J61" s="264"/>
-      <c r="K61" s="265"/>
+      <c r="B61" s="292"/>
+      <c r="C61" s="293"/>
+      <c r="D61" s="293"/>
+      <c r="E61" s="293"/>
+      <c r="F61" s="293"/>
+      <c r="G61" s="293"/>
+      <c r="H61" s="293"/>
+      <c r="I61" s="293"/>
+      <c r="J61" s="293"/>
+      <c r="K61" s="294"/>
     </row>
     <row r="62" spans="1:11" ht="15.75" thickBot="1">
       <c r="A62" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B62" s="263"/>
-      <c r="C62" s="264"/>
-      <c r="D62" s="264"/>
-      <c r="E62" s="264"/>
-      <c r="F62" s="264"/>
-      <c r="G62" s="264"/>
-      <c r="H62" s="264"/>
-      <c r="I62" s="264"/>
-      <c r="J62" s="264"/>
-      <c r="K62" s="265"/>
+      <c r="B62" s="292"/>
+      <c r="C62" s="293"/>
+      <c r="D62" s="293"/>
+      <c r="E62" s="293"/>
+      <c r="F62" s="293"/>
+      <c r="G62" s="293"/>
+      <c r="H62" s="293"/>
+      <c r="I62" s="293"/>
+      <c r="J62" s="293"/>
+      <c r="K62" s="294"/>
     </row>
     <row r="63" spans="1:11" ht="15.75" thickBot="1">
       <c r="A63" s="46" t="s">
@@ -7410,16 +7410,16 @@
       <c r="A66" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B66" s="263"/>
-      <c r="C66" s="264"/>
-      <c r="D66" s="264"/>
-      <c r="E66" s="264"/>
-      <c r="F66" s="264"/>
-      <c r="G66" s="264"/>
-      <c r="H66" s="264"/>
-      <c r="I66" s="264"/>
-      <c r="J66" s="264"/>
-      <c r="K66" s="265"/>
+      <c r="B66" s="292"/>
+      <c r="C66" s="293"/>
+      <c r="D66" s="293"/>
+      <c r="E66" s="293"/>
+      <c r="F66" s="293"/>
+      <c r="G66" s="293"/>
+      <c r="H66" s="293"/>
+      <c r="I66" s="293"/>
+      <c r="J66" s="293"/>
+      <c r="K66" s="294"/>
     </row>
     <row r="67" spans="1:11" ht="15.75" thickBot="1">
       <c r="A67" s="46" t="s">
@@ -7530,16 +7530,16 @@
       <c r="A70" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B70" s="263"/>
-      <c r="C70" s="264"/>
-      <c r="D70" s="264"/>
-      <c r="E70" s="264"/>
-      <c r="F70" s="264"/>
-      <c r="G70" s="264"/>
-      <c r="H70" s="264"/>
-      <c r="I70" s="264"/>
-      <c r="J70" s="264"/>
-      <c r="K70" s="265"/>
+      <c r="B70" s="292"/>
+      <c r="C70" s="293"/>
+      <c r="D70" s="293"/>
+      <c r="E70" s="293"/>
+      <c r="F70" s="293"/>
+      <c r="G70" s="293"/>
+      <c r="H70" s="293"/>
+      <c r="I70" s="293"/>
+      <c r="J70" s="293"/>
+      <c r="K70" s="294"/>
     </row>
     <row r="71" spans="1:11" ht="15.75" thickBot="1">
       <c r="A71" s="46" t="s">
@@ -7650,31 +7650,31 @@
       <c r="A74" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="B74" s="263"/>
-      <c r="C74" s="264"/>
-      <c r="D74" s="264"/>
-      <c r="E74" s="264"/>
-      <c r="F74" s="264"/>
-      <c r="G74" s="264"/>
-      <c r="H74" s="264"/>
-      <c r="I74" s="264"/>
-      <c r="J74" s="264"/>
-      <c r="K74" s="265"/>
+      <c r="B74" s="292"/>
+      <c r="C74" s="293"/>
+      <c r="D74" s="293"/>
+      <c r="E74" s="293"/>
+      <c r="F74" s="293"/>
+      <c r="G74" s="293"/>
+      <c r="H74" s="293"/>
+      <c r="I74" s="293"/>
+      <c r="J74" s="293"/>
+      <c r="K74" s="294"/>
     </row>
     <row r="75" spans="1:11" ht="15.75" thickBot="1">
       <c r="A75" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B75" s="263"/>
-      <c r="C75" s="264"/>
-      <c r="D75" s="264"/>
-      <c r="E75" s="264"/>
-      <c r="F75" s="264"/>
-      <c r="G75" s="264"/>
-      <c r="H75" s="264"/>
-      <c r="I75" s="264"/>
-      <c r="J75" s="264"/>
-      <c r="K75" s="265"/>
+      <c r="B75" s="292"/>
+      <c r="C75" s="293"/>
+      <c r="D75" s="293"/>
+      <c r="E75" s="293"/>
+      <c r="F75" s="293"/>
+      <c r="G75" s="293"/>
+      <c r="H75" s="293"/>
+      <c r="I75" s="293"/>
+      <c r="J75" s="293"/>
+      <c r="K75" s="294"/>
     </row>
     <row r="76" spans="1:11" ht="15.75" thickBot="1">
       <c r="A76" s="46" t="s">
@@ -7785,16 +7785,16 @@
       <c r="A79" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B79" s="263"/>
-      <c r="C79" s="264"/>
-      <c r="D79" s="264"/>
-      <c r="E79" s="264"/>
-      <c r="F79" s="264"/>
-      <c r="G79" s="264"/>
-      <c r="H79" s="264"/>
-      <c r="I79" s="264"/>
-      <c r="J79" s="264"/>
-      <c r="K79" s="265"/>
+      <c r="B79" s="292"/>
+      <c r="C79" s="293"/>
+      <c r="D79" s="293"/>
+      <c r="E79" s="293"/>
+      <c r="F79" s="293"/>
+      <c r="G79" s="293"/>
+      <c r="H79" s="293"/>
+      <c r="I79" s="293"/>
+      <c r="J79" s="293"/>
+      <c r="K79" s="294"/>
     </row>
     <row r="80" spans="1:11" ht="15.75" thickBot="1">
       <c r="A80" s="46" t="s">
@@ -7905,16 +7905,16 @@
       <c r="A83" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B83" s="263"/>
-      <c r="C83" s="264"/>
-      <c r="D83" s="264"/>
-      <c r="E83" s="264"/>
-      <c r="F83" s="264"/>
-      <c r="G83" s="264"/>
-      <c r="H83" s="264"/>
-      <c r="I83" s="264"/>
-      <c r="J83" s="264"/>
-      <c r="K83" s="265"/>
+      <c r="B83" s="292"/>
+      <c r="C83" s="293"/>
+      <c r="D83" s="293"/>
+      <c r="E83" s="293"/>
+      <c r="F83" s="293"/>
+      <c r="G83" s="293"/>
+      <c r="H83" s="293"/>
+      <c r="I83" s="293"/>
+      <c r="J83" s="293"/>
+      <c r="K83" s="294"/>
     </row>
     <row r="84" spans="1:11" ht="15.75" thickBot="1">
       <c r="A84" s="46" t="s">
@@ -8022,36 +8022,36 @@
       </c>
     </row>
     <row r="89" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A89" s="269" t="s">
+      <c r="A89" s="299" t="s">
         <v>47</v>
       </c>
-      <c r="B89" s="269"/>
-      <c r="C89" s="269"/>
-      <c r="D89" s="269"/>
-      <c r="E89" s="269"/>
-      <c r="F89" s="269"/>
-      <c r="G89" s="269"/>
-      <c r="H89" s="269"/>
-      <c r="I89" s="269"/>
-      <c r="J89" s="269"/>
-      <c r="K89" s="269"/>
+      <c r="B89" s="299"/>
+      <c r="C89" s="299"/>
+      <c r="D89" s="299"/>
+      <c r="E89" s="299"/>
+      <c r="F89" s="299"/>
+      <c r="G89" s="299"/>
+      <c r="H89" s="299"/>
+      <c r="I89" s="299"/>
+      <c r="J89" s="299"/>
+      <c r="K89" s="299"/>
     </row>
     <row r="90" spans="1:11" ht="15.75" thickBot="1">
       <c r="A90" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B90" s="266" t="s">
+      <c r="B90" s="296" t="s">
         <v>31</v>
       </c>
-      <c r="C90" s="267"/>
-      <c r="D90" s="267"/>
-      <c r="E90" s="267"/>
-      <c r="F90" s="267"/>
-      <c r="G90" s="267"/>
-      <c r="H90" s="267"/>
-      <c r="I90" s="267"/>
-      <c r="J90" s="267"/>
-      <c r="K90" s="268"/>
+      <c r="C90" s="297"/>
+      <c r="D90" s="297"/>
+      <c r="E90" s="297"/>
+      <c r="F90" s="297"/>
+      <c r="G90" s="297"/>
+      <c r="H90" s="297"/>
+      <c r="I90" s="297"/>
+      <c r="J90" s="297"/>
+      <c r="K90" s="298"/>
     </row>
     <row r="91" spans="1:11" ht="15.75" thickBot="1">
       <c r="A91" s="44" t="s">
@@ -8092,31 +8092,31 @@
       <c r="A92" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="B92" s="263"/>
-      <c r="C92" s="264"/>
-      <c r="D92" s="264"/>
-      <c r="E92" s="264"/>
-      <c r="F92" s="264"/>
-      <c r="G92" s="264"/>
-      <c r="H92" s="264"/>
-      <c r="I92" s="264"/>
-      <c r="J92" s="264"/>
-      <c r="K92" s="265"/>
+      <c r="B92" s="292"/>
+      <c r="C92" s="293"/>
+      <c r="D92" s="293"/>
+      <c r="E92" s="293"/>
+      <c r="F92" s="293"/>
+      <c r="G92" s="293"/>
+      <c r="H92" s="293"/>
+      <c r="I92" s="293"/>
+      <c r="J92" s="293"/>
+      <c r="K92" s="294"/>
     </row>
     <row r="93" spans="1:11" ht="15.75" thickBot="1">
       <c r="A93" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="B93" s="263"/>
-      <c r="C93" s="264"/>
-      <c r="D93" s="264"/>
-      <c r="E93" s="264"/>
-      <c r="F93" s="264"/>
-      <c r="G93" s="264"/>
-      <c r="H93" s="264"/>
-      <c r="I93" s="264"/>
-      <c r="J93" s="264"/>
-      <c r="K93" s="265"/>
+      <c r="B93" s="292"/>
+      <c r="C93" s="293"/>
+      <c r="D93" s="293"/>
+      <c r="E93" s="293"/>
+      <c r="F93" s="293"/>
+      <c r="G93" s="293"/>
+      <c r="H93" s="293"/>
+      <c r="I93" s="293"/>
+      <c r="J93" s="293"/>
+      <c r="K93" s="294"/>
     </row>
     <row r="94" spans="1:11" ht="15.75" thickBot="1">
       <c r="A94" s="46" t="s">
@@ -8227,16 +8227,16 @@
       <c r="A97" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="B97" s="263"/>
-      <c r="C97" s="264"/>
-      <c r="D97" s="264"/>
-      <c r="E97" s="264"/>
-      <c r="F97" s="264"/>
-      <c r="G97" s="264"/>
-      <c r="H97" s="264"/>
-      <c r="I97" s="264"/>
-      <c r="J97" s="264"/>
-      <c r="K97" s="265"/>
+      <c r="B97" s="292"/>
+      <c r="C97" s="293"/>
+      <c r="D97" s="293"/>
+      <c r="E97" s="293"/>
+      <c r="F97" s="293"/>
+      <c r="G97" s="293"/>
+      <c r="H97" s="293"/>
+      <c r="I97" s="293"/>
+      <c r="J97" s="293"/>
+      <c r="K97" s="294"/>
     </row>
     <row r="98" spans="1:11" ht="15.75" thickBot="1">
       <c r="A98" s="46" t="s">
@@ -8356,36 +8356,36 @@
       <c r="J101" s="49"/>
     </row>
     <row r="102" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A102" s="269" t="s">
+      <c r="A102" s="299" t="s">
         <v>54</v>
       </c>
-      <c r="B102" s="269"/>
-      <c r="C102" s="269"/>
-      <c r="D102" s="269"/>
-      <c r="E102" s="269"/>
-      <c r="F102" s="269"/>
-      <c r="G102" s="269"/>
-      <c r="H102" s="269"/>
-      <c r="I102" s="269"/>
-      <c r="J102" s="269"/>
-      <c r="K102" s="269"/>
+      <c r="B102" s="299"/>
+      <c r="C102" s="299"/>
+      <c r="D102" s="299"/>
+      <c r="E102" s="299"/>
+      <c r="F102" s="299"/>
+      <c r="G102" s="299"/>
+      <c r="H102" s="299"/>
+      <c r="I102" s="299"/>
+      <c r="J102" s="299"/>
+      <c r="K102" s="299"/>
     </row>
     <row r="103" spans="1:11" ht="15.75" thickBot="1">
       <c r="A103" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B103" s="266" t="s">
+      <c r="B103" s="296" t="s">
         <v>31</v>
       </c>
-      <c r="C103" s="267"/>
-      <c r="D103" s="267"/>
-      <c r="E103" s="267"/>
-      <c r="F103" s="267"/>
-      <c r="G103" s="267"/>
-      <c r="H103" s="267"/>
-      <c r="I103" s="267"/>
-      <c r="J103" s="267"/>
-      <c r="K103" s="268"/>
+      <c r="C103" s="297"/>
+      <c r="D103" s="297"/>
+      <c r="E103" s="297"/>
+      <c r="F103" s="297"/>
+      <c r="G103" s="297"/>
+      <c r="H103" s="297"/>
+      <c r="I103" s="297"/>
+      <c r="J103" s="297"/>
+      <c r="K103" s="298"/>
     </row>
     <row r="104" spans="1:11" ht="15.75" thickBot="1">
       <c r="A104" s="44" t="s">
@@ -8426,31 +8426,31 @@
       <c r="A105" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="B105" s="263"/>
-      <c r="C105" s="264"/>
-      <c r="D105" s="264"/>
-      <c r="E105" s="264"/>
-      <c r="F105" s="264"/>
-      <c r="G105" s="264"/>
-      <c r="H105" s="264"/>
-      <c r="I105" s="264"/>
-      <c r="J105" s="264"/>
-      <c r="K105" s="265"/>
+      <c r="B105" s="292"/>
+      <c r="C105" s="293"/>
+      <c r="D105" s="293"/>
+      <c r="E105" s="293"/>
+      <c r="F105" s="293"/>
+      <c r="G105" s="293"/>
+      <c r="H105" s="293"/>
+      <c r="I105" s="293"/>
+      <c r="J105" s="293"/>
+      <c r="K105" s="294"/>
     </row>
     <row r="106" spans="1:11" ht="15.75" thickBot="1">
       <c r="A106" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="B106" s="263"/>
-      <c r="C106" s="264"/>
-      <c r="D106" s="264"/>
-      <c r="E106" s="264"/>
-      <c r="F106" s="264"/>
-      <c r="G106" s="264"/>
-      <c r="H106" s="264"/>
-      <c r="I106" s="264"/>
-      <c r="J106" s="264"/>
-      <c r="K106" s="265"/>
+      <c r="B106" s="292"/>
+      <c r="C106" s="293"/>
+      <c r="D106" s="293"/>
+      <c r="E106" s="293"/>
+      <c r="F106" s="293"/>
+      <c r="G106" s="293"/>
+      <c r="H106" s="293"/>
+      <c r="I106" s="293"/>
+      <c r="J106" s="293"/>
+      <c r="K106" s="294"/>
     </row>
     <row r="107" spans="1:11" ht="15.75" thickBot="1">
       <c r="A107" s="46" t="s">
@@ -8561,16 +8561,16 @@
       <c r="A110" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="B110" s="263"/>
-      <c r="C110" s="264"/>
-      <c r="D110" s="264"/>
-      <c r="E110" s="264"/>
-      <c r="F110" s="264"/>
-      <c r="G110" s="264"/>
-      <c r="H110" s="264"/>
-      <c r="I110" s="264"/>
-      <c r="J110" s="264"/>
-      <c r="K110" s="265"/>
+      <c r="B110" s="292"/>
+      <c r="C110" s="293"/>
+      <c r="D110" s="293"/>
+      <c r="E110" s="293"/>
+      <c r="F110" s="293"/>
+      <c r="G110" s="293"/>
+      <c r="H110" s="293"/>
+      <c r="I110" s="293"/>
+      <c r="J110" s="293"/>
+      <c r="K110" s="294"/>
     </row>
     <row r="111" spans="1:11" ht="15.75" thickBot="1">
       <c r="A111" s="46" t="s">
@@ -8684,12 +8684,15 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B48:K48"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B38:K38"/>
-    <mergeCell ref="B40:K40"/>
-    <mergeCell ref="A45:K45"/>
-    <mergeCell ref="B46:K46"/>
+    <mergeCell ref="B105:K105"/>
+    <mergeCell ref="B106:K106"/>
+    <mergeCell ref="B110:K110"/>
+    <mergeCell ref="B90:K90"/>
+    <mergeCell ref="B92:K92"/>
+    <mergeCell ref="B93:K93"/>
+    <mergeCell ref="B97:K97"/>
+    <mergeCell ref="A102:K102"/>
+    <mergeCell ref="B103:K103"/>
     <mergeCell ref="A89:K89"/>
     <mergeCell ref="B49:K49"/>
     <mergeCell ref="B53:K53"/>
@@ -8702,15 +8705,12 @@
     <mergeCell ref="B75:K75"/>
     <mergeCell ref="B79:K79"/>
     <mergeCell ref="B83:K83"/>
-    <mergeCell ref="B105:K105"/>
-    <mergeCell ref="B106:K106"/>
-    <mergeCell ref="B110:K110"/>
-    <mergeCell ref="B90:K90"/>
-    <mergeCell ref="B92:K92"/>
-    <mergeCell ref="B93:K93"/>
-    <mergeCell ref="B97:K97"/>
-    <mergeCell ref="A102:K102"/>
-    <mergeCell ref="B103:K103"/>
+    <mergeCell ref="B48:K48"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B38:K38"/>
+    <mergeCell ref="B40:K40"/>
+    <mergeCell ref="A45:K45"/>
+    <mergeCell ref="B46:K46"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A115" r:id="rId1"/>
@@ -8736,147 +8736,147 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A1" s="378" t="s">
+      <c r="A1" s="263" t="s">
         <v>501</v>
       </c>
-      <c r="B1" s="379">
+      <c r="B1" s="264">
         <v>2010</v>
       </c>
-      <c r="C1" s="379">
+      <c r="C1" s="264">
         <v>2015</v>
       </c>
-      <c r="D1" s="379">
+      <c r="D1" s="264">
         <v>2020</v>
       </c>
-      <c r="E1" s="379">
+      <c r="E1" s="264">
         <v>2025</v>
       </c>
-      <c r="F1" s="379">
+      <c r="F1" s="264">
         <v>2030</v>
       </c>
-      <c r="G1" s="379">
+      <c r="G1" s="264">
         <v>2035</v>
       </c>
-      <c r="H1" s="379">
+      <c r="H1" s="264">
         <v>2040</v>
       </c>
-      <c r="I1" s="379">
+      <c r="I1" s="264">
         <v>2045</v>
       </c>
-      <c r="J1" s="379">
+      <c r="J1" s="264">
         <v>2050</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="380" t="s">
+      <c r="A2" s="265" t="s">
         <v>528</v>
       </c>
-      <c r="B2" s="381">
+      <c r="B2" s="266">
         <v>6958</v>
       </c>
-      <c r="C2" s="381">
+      <c r="C2" s="266">
         <v>7383</v>
       </c>
-      <c r="D2" s="381">
+      <c r="D2" s="266">
         <v>7795</v>
       </c>
-      <c r="E2" s="381">
+      <c r="E2" s="266">
         <v>8185</v>
       </c>
-      <c r="F2" s="381">
+      <c r="F2" s="266">
         <v>8551</v>
       </c>
-      <c r="G2" s="381">
+      <c r="G2" s="266">
         <v>8892</v>
       </c>
-      <c r="H2" s="381">
+      <c r="H2" s="266">
         <v>9210</v>
       </c>
-      <c r="I2" s="381">
+      <c r="I2" s="266">
         <v>9504</v>
       </c>
-      <c r="J2" s="381">
+      <c r="J2" s="266">
         <v>9771</v>
       </c>
-      <c r="L2" s="382" t="s">
+      <c r="L2" s="267" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="384" t="s">
+      <c r="A3" s="269" t="s">
         <v>502</v>
       </c>
-      <c r="B3" s="383">
+      <c r="B3" s="268">
         <v>1.18</v>
       </c>
-      <c r="C3" s="383">
+      <c r="C3" s="268">
         <f>((C2-B2)/5)/B2*100</f>
         <v>1.2216154067260707</v>
       </c>
-      <c r="D3" s="383">
+      <c r="D3" s="268">
         <f t="shared" ref="D3:J3" si="0">((D2-C2)/5)/C2*100</f>
         <v>1.1160774752810512</v>
       </c>
-      <c r="E3" s="383">
+      <c r="E3" s="268">
         <f t="shared" si="0"/>
         <v>1.0006414368184735</v>
       </c>
-      <c r="F3" s="383">
+      <c r="F3" s="268">
         <f t="shared" si="0"/>
         <v>0.89431887599266957</v>
       </c>
-      <c r="G3" s="383">
+      <c r="G3" s="268">
         <f t="shared" si="0"/>
         <v>0.7975675359607064</v>
       </c>
-      <c r="H3" s="383">
+      <c r="H3" s="268">
         <f t="shared" si="0"/>
         <v>0.71524966261808365</v>
       </c>
-      <c r="I3" s="383">
+      <c r="I3" s="268">
         <f t="shared" si="0"/>
         <v>0.6384364820846905</v>
       </c>
-      <c r="J3" s="383">
+      <c r="J3" s="268">
         <f t="shared" si="0"/>
         <v>0.56186868686868685</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A4" s="380" t="s">
+      <c r="A4" s="265" t="s">
         <v>503</v>
       </c>
-      <c r="B4" s="381">
+      <c r="B4" s="266">
         <v>66036.387107063027</v>
       </c>
-      <c r="C4" s="381">
+      <c r="C4" s="266">
         <v>75037.186502549754</v>
       </c>
-      <c r="D4" s="381">
+      <c r="D4" s="266">
         <f>D2*D5</f>
         <v>99030.690232184643</v>
       </c>
-      <c r="E4" s="381">
+      <c r="E4" s="266">
         <f t="shared" ref="E4:J4" si="1">E2*E5</f>
         <v>129981.75105042197</v>
       </c>
-      <c r="F4" s="381">
+      <c r="F4" s="266">
         <f t="shared" si="1"/>
         <v>169742.50965671323</v>
       </c>
-      <c r="G4" s="381">
+      <c r="G4" s="266">
         <f t="shared" si="1"/>
         <v>220639.45676930973</v>
       </c>
-      <c r="H4" s="381">
+      <c r="H4" s="266">
         <f t="shared" si="1"/>
         <v>285662.58952504257</v>
       </c>
-      <c r="I4" s="381">
+      <c r="I4" s="266">
         <f t="shared" si="1"/>
         <v>368476.8255762764</v>
       </c>
-      <c r="J4" s="381">
+      <c r="J4" s="266">
         <f t="shared" si="1"/>
         <v>473535.75635335071</v>
       </c>
@@ -8885,889 +8885,889 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A5" s="380" t="s">
+      <c r="A5" s="265" t="s">
         <v>504</v>
       </c>
-      <c r="B5" s="385">
+      <c r="B5" s="270">
         <f>B4/B2</f>
         <v>9.4907138699429474</v>
       </c>
-      <c r="C5" s="385">
+      <c r="C5" s="270">
         <f>C4/C2</f>
         <v>10.163508939800861</v>
       </c>
-      <c r="D5" s="385">
+      <c r="D5" s="270">
         <f>(C5*D6/100)*5+C5</f>
         <v>12.704386174751077</v>
       </c>
-      <c r="E5" s="385">
+      <c r="E5" s="270">
         <f t="shared" ref="E5:J5" si="2">(D5*E6/100)*5+D5</f>
         <v>15.880482718438847</v>
       </c>
-      <c r="F5" s="385">
+      <c r="F5" s="270">
         <f t="shared" si="2"/>
         <v>19.850603398048559</v>
       </c>
-      <c r="G5" s="385">
+      <c r="G5" s="270">
         <f t="shared" si="2"/>
         <v>24.8132542475607</v>
       </c>
-      <c r="H5" s="385">
+      <c r="H5" s="270">
         <f t="shared" si="2"/>
         <v>31.016567809450876</v>
       </c>
-      <c r="I5" s="385">
+      <c r="I5" s="270">
         <f t="shared" si="2"/>
         <v>38.770709761813592</v>
       </c>
-      <c r="J5" s="385">
+      <c r="J5" s="270">
         <f t="shared" si="2"/>
         <v>48.463387202266986</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="384" t="s">
+      <c r="A6" s="269" t="s">
         <v>505</v>
       </c>
-      <c r="B6" s="383">
+      <c r="B6" s="268">
         <v>7.37</v>
       </c>
-      <c r="C6" s="383">
+      <c r="C6" s="268">
         <v>5</v>
       </c>
-      <c r="D6" s="383">
+      <c r="D6" s="268">
         <v>5</v>
       </c>
-      <c r="E6" s="383">
+      <c r="E6" s="268">
         <v>5</v>
       </c>
-      <c r="F6" s="383">
+      <c r="F6" s="268">
         <v>5</v>
       </c>
-      <c r="G6" s="383">
+      <c r="G6" s="268">
         <v>5</v>
       </c>
-      <c r="H6" s="383">
+      <c r="H6" s="268">
         <v>5</v>
       </c>
-      <c r="I6" s="383">
+      <c r="I6" s="268">
         <v>5</v>
       </c>
-      <c r="J6" s="383">
+      <c r="J6" s="268">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A7" s="386" t="s">
+      <c r="A7" s="271" t="s">
         <v>506</v>
       </c>
-      <c r="B7" s="387">
+      <c r="B7" s="272">
         <v>45.792999999999999</v>
       </c>
-      <c r="C7" s="406">
+      <c r="C7" s="291">
         <v>44.658000000000001</v>
       </c>
-      <c r="D7" s="406">
+      <c r="D7" s="291">
         <v>45.651848000000001</v>
       </c>
-      <c r="E7" s="406">
+      <c r="E7" s="291">
         <v>46.997312999999998</v>
       </c>
-      <c r="F7" s="406">
+      <c r="F7" s="291">
         <v>48.234589999999997</v>
       </c>
-      <c r="G7" s="406">
+      <c r="G7" s="291">
         <v>49.279656000000003</v>
       </c>
-      <c r="H7" s="406">
+      <c r="H7" s="291">
         <v>50.197122999999998</v>
       </c>
-      <c r="I7" s="406">
+      <c r="I7" s="291">
         <v>51.313961999999997</v>
       </c>
-      <c r="J7" s="406">
+      <c r="J7" s="291">
         <v>52.832540999999999</v>
       </c>
-      <c r="L7" s="382" t="s">
+      <c r="L7" s="267" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="384" t="s">
+      <c r="A8" s="269" t="s">
         <v>507</v>
       </c>
-      <c r="B8" s="383">
+      <c r="B8" s="268">
         <f t="shared" ref="B8:J8" si="3">B7/B2*100</f>
         <v>0.65813452141419948</v>
       </c>
-      <c r="C8" s="383">
+      <c r="C8" s="268">
         <f t="shared" si="3"/>
         <v>0.60487606663957738</v>
       </c>
-      <c r="D8" s="383">
+      <c r="D8" s="268">
         <f t="shared" si="3"/>
         <v>0.58565552277100708</v>
       </c>
-      <c r="E8" s="383">
+      <c r="E8" s="268">
         <f t="shared" si="3"/>
         <v>0.57418830788026876</v>
       </c>
-      <c r="F8" s="383">
+      <c r="F8" s="268">
         <f t="shared" si="3"/>
         <v>0.56408127704362054</v>
       </c>
-      <c r="G8" s="383">
+      <c r="G8" s="268">
         <f t="shared" si="3"/>
         <v>0.55420215924426453</v>
       </c>
-      <c r="H8" s="383">
+      <c r="H8" s="268">
         <f t="shared" si="3"/>
         <v>0.54502847991313785</v>
       </c>
-      <c r="I8" s="383">
+      <c r="I8" s="268">
         <f t="shared" si="3"/>
         <v>0.53991963383838382</v>
       </c>
-      <c r="J8" s="383">
+      <c r="J8" s="268">
         <f t="shared" si="3"/>
         <v>0.54070761436905124</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A9" s="380" t="s">
+      <c r="A9" s="265" t="s">
         <v>508</v>
       </c>
-      <c r="B9" s="381">
+      <c r="B9" s="266">
         <v>136.4</v>
       </c>
-      <c r="C9" s="381">
+      <c r="C9" s="266">
         <v>91</v>
       </c>
-      <c r="D9" s="381">
+      <c r="D9" s="266">
         <f t="shared" ref="D9:J9" si="4">D7*D10</f>
         <v>150.79446371158977</v>
       </c>
-      <c r="E9" s="381">
+      <c r="E9" s="266">
         <f t="shared" si="4"/>
         <v>208.97520473467719</v>
       </c>
-      <c r="F9" s="381">
+      <c r="F9" s="266">
         <f t="shared" si="4"/>
         <v>277.67085768566892</v>
       </c>
-      <c r="G9" s="381">
+      <c r="G9" s="266">
         <f t="shared" si="4"/>
         <v>366.83659006809904</v>
       </c>
-      <c r="H9" s="381">
+      <c r="H9" s="266">
         <f t="shared" si="4"/>
         <v>482.65216550434229</v>
       </c>
-      <c r="I9" s="381">
+      <c r="I9" s="266">
         <f t="shared" si="4"/>
         <v>636.6331927778341</v>
       </c>
-      <c r="J9" s="381">
+      <c r="J9" s="266">
         <f t="shared" si="4"/>
         <v>819.34204523604672</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A10" s="380" t="s">
+      <c r="A10" s="265" t="s">
         <v>509</v>
       </c>
-      <c r="B10" s="385">
+      <c r="B10" s="270">
         <f>B9/B7</f>
         <v>2.9786211866442471</v>
       </c>
-      <c r="C10" s="385">
+      <c r="C10" s="270">
         <f>C9/C7</f>
         <v>2.0377088091719289</v>
       </c>
-      <c r="D10" s="385">
+      <c r="D10" s="270">
         <f t="shared" ref="D10:J10" si="5">D5*D11/100</f>
         <v>3.30314040543528</v>
       </c>
-      <c r="E10" s="385">
+      <c r="E10" s="270">
         <f t="shared" si="5"/>
         <v>4.4465351611628776</v>
       </c>
-      <c r="F10" s="385">
+      <c r="F10" s="270">
         <f t="shared" si="5"/>
         <v>5.7566749854340822</v>
       </c>
-      <c r="G10" s="385">
+      <c r="G10" s="270">
         <f t="shared" si="5"/>
         <v>7.4439762742682101</v>
       </c>
-      <c r="H10" s="385">
+      <c r="H10" s="270">
         <f t="shared" si="5"/>
         <v>9.6151360209297714</v>
       </c>
-      <c r="I10" s="385">
+      <c r="I10" s="270">
         <f t="shared" si="5"/>
         <v>12.40662712378035</v>
       </c>
-      <c r="J10" s="385">
+      <c r="J10" s="270">
         <f t="shared" si="5"/>
         <v>15.508283904725436</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="384" t="s">
+      <c r="A11" s="269" t="s">
         <v>510</v>
       </c>
-      <c r="B11" s="383">
+      <c r="B11" s="268">
         <f t="shared" ref="B11:C11" si="6">B10/B5*100</f>
         <v>31.384585263681043</v>
       </c>
-      <c r="C11" s="383">
+      <c r="C11" s="268">
         <f t="shared" si="6"/>
         <v>20.049264690388068</v>
       </c>
-      <c r="D11" s="383">
+      <c r="D11" s="268">
         <v>26</v>
       </c>
-      <c r="E11" s="383">
+      <c r="E11" s="268">
         <v>28</v>
       </c>
-      <c r="F11" s="383">
+      <c r="F11" s="268">
         <v>29</v>
       </c>
-      <c r="G11" s="383">
+      <c r="G11" s="268">
         <v>30</v>
       </c>
-      <c r="H11" s="383">
+      <c r="H11" s="268">
         <v>31</v>
       </c>
-      <c r="I11" s="383">
+      <c r="I11" s="268">
         <v>32</v>
       </c>
-      <c r="J11" s="383">
+      <c r="J11" s="268">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A12" s="384" t="s">
+      <c r="A12" s="269" t="s">
         <v>511</v>
       </c>
-      <c r="B12" s="383">
+      <c r="B12" s="268">
         <v>31.269164</v>
       </c>
-      <c r="C12" s="383">
+      <c r="C12" s="268">
         <v>29.6</v>
       </c>
-      <c r="D12" s="383">
+      <c r="D12" s="268">
         <f>D7*D13/100</f>
         <v>31.454123272</v>
       </c>
-      <c r="E12" s="383">
-        <f t="shared" ref="E12:K12" si="7">E7*E13/100</f>
+      <c r="E12" s="268">
+        <f t="shared" ref="E12:J12" si="7">E7*E13/100</f>
         <v>32.992113725999999</v>
       </c>
-      <c r="F12" s="383">
+      <c r="F12" s="268">
         <f t="shared" si="7"/>
         <v>34.005385949999997</v>
       </c>
-      <c r="G12" s="383">
+      <c r="G12" s="268">
         <f t="shared" si="7"/>
         <v>34.889996448000005</v>
       </c>
-      <c r="H12" s="383">
+      <c r="H12" s="268">
         <f t="shared" si="7"/>
         <v>35.690154452999998</v>
       </c>
-      <c r="I12" s="383">
+      <c r="I12" s="268">
         <f t="shared" si="7"/>
         <v>36.638168868000001</v>
       </c>
-      <c r="J12" s="383">
+      <c r="J12" s="268">
         <f t="shared" si="7"/>
         <v>37.880931897000004</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A13" s="384" t="s">
+      <c r="A13" s="269" t="s">
         <v>512</v>
       </c>
-      <c r="B13" s="383">
+      <c r="B13" s="268">
         <v>68.273283842794768</v>
       </c>
-      <c r="C13" s="383">
+      <c r="C13" s="268">
         <v>68.612300000000005</v>
       </c>
-      <c r="D13" s="383">
+      <c r="D13" s="268">
         <v>68.900000000000006</v>
       </c>
-      <c r="E13" s="383">
+      <c r="E13" s="268">
         <v>70.2</v>
       </c>
-      <c r="F13" s="383">
+      <c r="F13" s="268">
         <v>70.5</v>
       </c>
-      <c r="G13" s="383">
+      <c r="G13" s="268">
         <v>70.8</v>
       </c>
-      <c r="H13" s="383">
+      <c r="H13" s="268">
         <v>71.099999999999994</v>
       </c>
-      <c r="I13" s="383">
+      <c r="I13" s="268">
         <v>71.400000000000006</v>
       </c>
-      <c r="J13" s="383">
+      <c r="J13" s="268">
         <v>71.7</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A14" s="380" t="s">
+      <c r="A14" s="265" t="s">
         <v>513</v>
       </c>
-      <c r="B14" s="389">
+      <c r="B14" s="274">
         <v>1.61E-2</v>
       </c>
-      <c r="C14" s="389">
+      <c r="C14" s="274">
         <v>6.1412000000000001E-2</v>
       </c>
-      <c r="D14" s="389">
+      <c r="D14" s="274">
         <v>6.1412000000000001E-2</v>
       </c>
-      <c r="E14" s="389">
+      <c r="E14" s="274">
         <v>6.1412000000000001E-2</v>
       </c>
-      <c r="F14" s="389">
+      <c r="F14" s="274">
         <v>6.1412000000000001E-2</v>
       </c>
-      <c r="G14" s="389">
+      <c r="G14" s="274">
         <v>6.1412000000000001E-2</v>
       </c>
-      <c r="H14" s="389">
+      <c r="H14" s="274">
         <v>6.1412000000000001E-2</v>
       </c>
-      <c r="I14" s="389">
+      <c r="I14" s="274">
         <v>6.1412000000000001E-2</v>
       </c>
-      <c r="J14" s="389">
+      <c r="J14" s="274">
         <v>6.1412000000000001E-2</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A15" s="384" t="s">
+      <c r="A15" s="269" t="s">
         <v>514</v>
       </c>
-      <c r="B15" s="383">
+      <c r="B15" s="268">
         <f t="shared" ref="B15:J15" si="8">B14/B7*100</f>
         <v>3.5158211953792068E-2</v>
       </c>
-      <c r="C15" s="383">
+      <c r="C15" s="268">
         <f t="shared" si="8"/>
         <v>0.13751623449325989</v>
       </c>
-      <c r="D15" s="383">
+      <c r="D15" s="268">
         <f t="shared" si="8"/>
         <v>0.13452248417194415</v>
       </c>
-      <c r="E15" s="383">
+      <c r="E15" s="268">
         <f t="shared" si="8"/>
         <v>0.13067130029327423</v>
       </c>
-      <c r="F15" s="383">
+      <c r="F15" s="268">
         <f t="shared" si="8"/>
         <v>0.12731941952859971</v>
       </c>
-      <c r="G15" s="383">
+      <c r="G15" s="268">
         <f t="shared" si="8"/>
         <v>0.12461937640149111</v>
       </c>
-      <c r="H15" s="383">
+      <c r="H15" s="268">
         <f t="shared" si="8"/>
         <v>0.12234167284846185</v>
       </c>
-      <c r="I15" s="383">
+      <c r="I15" s="268">
         <f t="shared" si="8"/>
         <v>0.11967892870950016</v>
       </c>
-      <c r="J15" s="383">
+      <c r="J15" s="268">
         <f t="shared" si="8"/>
         <v>0.11623896719258686</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A16" s="396" t="s">
+      <c r="A16" s="281" t="s">
         <v>515</v>
       </c>
-      <c r="B16" s="397">
+      <c r="B16" s="282">
         <f>B6*B17/100</f>
         <v>1.7734920191936709</v>
       </c>
-      <c r="C16" s="397">
+      <c r="C16" s="282">
         <v>10.364474</v>
       </c>
-      <c r="D16" s="397">
+      <c r="D16" s="282">
         <v>9.7658047088653799</v>
       </c>
-      <c r="E16" s="397">
+      <c r="E16" s="282">
         <v>9.1544699999999999</v>
       </c>
-      <c r="F16" s="397">
+      <c r="F16" s="282">
         <v>8.7088739999999998</v>
       </c>
-      <c r="G16" s="397">
+      <c r="G16" s="282">
         <v>8.2535600000000002</v>
       </c>
-      <c r="H16" s="397">
+      <c r="H16" s="282">
         <v>8.3802000000000003</v>
       </c>
-      <c r="I16" s="397">
+      <c r="I16" s="282">
         <v>9.1172690000000003</v>
       </c>
-      <c r="J16" s="397">
+      <c r="J16" s="282">
         <v>10.071980999999999</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A17" s="398" t="s">
+      <c r="A17" s="283" t="s">
         <v>516</v>
       </c>
-      <c r="B17" s="399">
+      <c r="B17" s="284">
         <v>24.063663761108153</v>
       </c>
-      <c r="C17" s="399">
+      <c r="C17" s="284">
         <f>C16/C7*100</f>
         <v>23.208549420036722</v>
       </c>
-      <c r="D17" s="399">
+      <c r="D17" s="284">
         <f t="shared" ref="D17:J17" si="9">D16/D7*100</f>
         <v>21.391915413512681</v>
       </c>
-      <c r="E17" s="399">
+      <c r="E17" s="284">
         <f t="shared" si="9"/>
         <v>19.478709346638606</v>
       </c>
-      <c r="F17" s="399">
+      <c r="F17" s="284">
         <f t="shared" si="9"/>
         <v>18.055246245484827</v>
       </c>
-      <c r="G17" s="399">
+      <c r="G17" s="284">
         <f t="shared" si="9"/>
         <v>16.748412367164249</v>
       </c>
-      <c r="H17" s="399">
+      <c r="H17" s="284">
         <f t="shared" si="9"/>
         <v>16.694582277155607</v>
       </c>
-      <c r="I17" s="399">
+      <c r="I17" s="284">
         <f t="shared" si="9"/>
         <v>17.767618489486352</v>
       </c>
-      <c r="J17" s="399">
+      <c r="J17" s="284">
         <f t="shared" si="9"/>
         <v>19.063972334777539</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A18" s="400" t="s">
+      <c r="A18" s="285" t="s">
         <v>517</v>
       </c>
-      <c r="B18" s="401">
+      <c r="B18" s="286">
         <v>8.1</v>
       </c>
-      <c r="C18" s="401">
+      <c r="C18" s="286">
         <v>7.6</v>
       </c>
-      <c r="D18" s="401">
+      <c r="D18" s="286">
         <v>8.3351299999999995</v>
       </c>
-      <c r="E18" s="401">
+      <c r="E18" s="286">
         <v>8.3994222663254501</v>
       </c>
-      <c r="F18" s="401">
+      <c r="F18" s="286">
         <v>7.955343897018075</v>
       </c>
-      <c r="G18" s="401">
+      <c r="G18" s="286">
         <v>7.4657413087604318</v>
       </c>
-      <c r="H18" s="401">
+      <c r="H18" s="286">
         <v>6.9836666655364557</v>
       </c>
-      <c r="I18" s="401">
+      <c r="I18" s="286">
         <v>6.5128469699510321</v>
       </c>
-      <c r="J18" s="401">
+      <c r="J18" s="286">
         <v>6.0942562915725027</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A19" s="402" t="s">
+      <c r="A19" s="287" t="s">
         <v>518</v>
       </c>
-      <c r="B19" s="403">
+      <c r="B19" s="288">
         <v>17.651088868013414</v>
       </c>
-      <c r="C19" s="403">
+      <c r="C19" s="288">
         <f>C18/C7*100</f>
         <v>17.018227417260064</v>
       </c>
-      <c r="D19" s="403">
+      <c r="D19" s="288">
         <f t="shared" ref="D19:J19" si="10">D18/D7*100</f>
         <v>18.258034154499068</v>
       </c>
-      <c r="E19" s="403">
+      <c r="E19" s="288">
         <f t="shared" si="10"/>
         <v>17.872132958591592</v>
       </c>
-      <c r="F19" s="403">
+      <c r="F19" s="288">
         <f t="shared" si="10"/>
         <v>16.493026885929943</v>
       </c>
-      <c r="G19" s="403">
+      <c r="G19" s="288">
         <f t="shared" si="10"/>
         <v>15.149743149100781</v>
       </c>
-      <c r="H19" s="403">
+      <c r="H19" s="288">
         <f t="shared" si="10"/>
         <v>13.912483919718778</v>
       </c>
-      <c r="I19" s="403">
+      <c r="I19" s="288">
         <f t="shared" si="10"/>
         <v>12.692153784482734</v>
       </c>
-      <c r="J19" s="403">
+      <c r="J19" s="288">
         <f t="shared" si="10"/>
         <v>11.535042941759139</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A20" s="400" t="s">
+      <c r="A20" s="285" t="s">
         <v>519</v>
       </c>
-      <c r="B20" s="401">
+      <c r="B20" s="286">
         <f>B18/B16</f>
         <v>4.567260473877246</v>
       </c>
-      <c r="C20" s="401">
+      <c r="C20" s="286">
         <f>C18/C15</f>
         <v>55.266202045202888</v>
       </c>
-      <c r="D20" s="401">
+      <c r="D20" s="286">
         <f t="shared" ref="D20:J20" si="11">D18/D15</f>
         <v>61.96086885628867</v>
       </c>
-      <c r="E20" s="401">
+      <c r="E20" s="286">
         <f t="shared" si="11"/>
         <v>64.279013428917224</v>
       </c>
-      <c r="F20" s="401">
+      <c r="F20" s="286">
         <f t="shared" si="11"/>
         <v>62.483350351994574</v>
       </c>
-      <c r="G20" s="401">
+      <c r="G20" s="286">
         <f t="shared" si="11"/>
         <v>59.908350726357043</v>
       </c>
-      <c r="H20" s="401">
+      <c r="H20" s="286">
         <f t="shared" si="11"/>
         <v>57.083302058381641</v>
       </c>
-      <c r="I20" s="401">
+      <c r="I20" s="286">
         <f t="shared" si="11"/>
         <v>54.419328783931867</v>
       </c>
-      <c r="J20" s="401">
+      <c r="J20" s="286">
         <f t="shared" si="11"/>
         <v>52.428685825085033</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A21" s="400" t="s">
+      <c r="A21" s="285" t="s">
         <v>520</v>
       </c>
-      <c r="B21" s="401">
+      <c r="B21" s="286">
         <v>0.495</v>
       </c>
-      <c r="C21" s="401">
+      <c r="C21" s="286">
         <v>0.41199999999999998</v>
       </c>
-      <c r="D21" s="401">
+      <c r="D21" s="286">
         <f>D16*D22/1000*0.9938</f>
         <v>0.82494682117198526</v>
       </c>
-      <c r="E21" s="401">
+      <c r="E21" s="286">
         <f t="shared" ref="E21:J21" si="12">E16*E22/1000*0.9938</f>
         <v>0.86428266717000002</v>
       </c>
-      <c r="F21" s="401">
+      <c r="F21" s="286">
         <f t="shared" si="12"/>
         <v>0.822213503214</v>
       </c>
-      <c r="G21" s="401">
+      <c r="G21" s="286">
         <f t="shared" si="12"/>
         <v>0.77922685316000007</v>
       </c>
-      <c r="H21" s="401">
+      <c r="H21" s="286">
         <f t="shared" si="12"/>
         <v>0.79118306220000001</v>
       </c>
-      <c r="I21" s="401">
+      <c r="I21" s="286">
         <f t="shared" si="12"/>
         <v>0.8607704835590001</v>
       </c>
-      <c r="J21" s="401">
+      <c r="J21" s="286">
         <f t="shared" si="12"/>
         <v>0.95090579819099996</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A22" s="400" t="s">
+      <c r="A22" s="285" t="s">
         <v>521</v>
       </c>
-      <c r="B22" s="401">
+      <c r="B22" s="286">
         <v>44.9</v>
       </c>
-      <c r="C22" s="401">
+      <c r="C22" s="286">
         <v>46</v>
       </c>
-      <c r="D22" s="401">
+      <c r="D22" s="286">
         <v>85</v>
       </c>
-      <c r="E22" s="401">
+      <c r="E22" s="286">
         <v>95</v>
       </c>
-      <c r="F22" s="401">
+      <c r="F22" s="286">
         <v>95</v>
       </c>
-      <c r="G22" s="401">
+      <c r="G22" s="286">
         <v>95</v>
       </c>
-      <c r="H22" s="401">
+      <c r="H22" s="286">
         <v>95</v>
       </c>
-      <c r="I22" s="401">
+      <c r="I22" s="286">
         <v>95</v>
       </c>
-      <c r="J22" s="401">
+      <c r="J22" s="286">
         <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A23" s="393" t="s">
+      <c r="A23" s="278" t="s">
         <v>522</v>
       </c>
-      <c r="B23" s="404">
+      <c r="B23" s="289">
         <v>17.8</v>
       </c>
-      <c r="C23" s="404">
+      <c r="C23" s="289">
         <v>17.494372219580899</v>
       </c>
-      <c r="D23" s="404">
+      <c r="D23" s="289">
         <v>16.512835287815602</v>
       </c>
-      <c r="E23" s="404">
+      <c r="E23" s="289">
         <v>15.570442595693399</v>
       </c>
-      <c r="F23" s="404">
+      <c r="F23" s="289">
         <v>15.430187054150712</v>
       </c>
-      <c r="G23" s="404">
+      <c r="G23" s="289">
         <v>15.340042792151616</v>
       </c>
-      <c r="H23" s="404">
+      <c r="H23" s="289">
         <v>15.036042733497347</v>
       </c>
-      <c r="I23" s="404">
+      <c r="I23" s="289">
         <v>14.006986945024545</v>
       </c>
-      <c r="J23" s="404">
+      <c r="J23" s="289">
         <v>12.402099472097303</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A24" s="394" t="s">
+      <c r="A24" s="279" t="s">
         <v>523</v>
       </c>
-      <c r="B24" s="395">
+      <c r="B24" s="280">
         <v>38.949275742186025</v>
       </c>
-      <c r="C24" s="395">
+      <c r="C24" s="280">
         <f>C23/C7*100</f>
         <v>39.174105915134803</v>
       </c>
-      <c r="D24" s="395">
+      <c r="D24" s="280">
         <f t="shared" ref="D24:J24" si="13">D23/D7*100</f>
         <v>36.171230763353982</v>
       </c>
-      <c r="E24" s="395">
+      <c r="E24" s="280">
         <f t="shared" si="13"/>
         <v>33.130495344900673</v>
       </c>
-      <c r="F24" s="395">
+      <c r="F24" s="280">
         <f t="shared" si="13"/>
         <v>31.989879159646041</v>
       </c>
-      <c r="G24" s="395">
+      <c r="G24" s="280">
         <f t="shared" si="13"/>
         <v>31.128550881425827</v>
       </c>
-      <c r="H24" s="395">
+      <c r="H24" s="280">
         <f t="shared" si="13"/>
         <v>29.953993047564392</v>
       </c>
-      <c r="I24" s="395">
+      <c r="I24" s="280">
         <f t="shared" si="13"/>
         <v>27.296638963533056</v>
       </c>
-      <c r="J24" s="395">
+      <c r="J24" s="280">
         <f t="shared" si="13"/>
         <v>23.474357351272019</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A25" s="390" t="s">
+      <c r="A25" s="275" t="s">
         <v>524</v>
       </c>
-      <c r="B25" s="405">
+      <c r="B25" s="290">
         <v>9.3000000000000007</v>
       </c>
-      <c r="C25" s="405">
+      <c r="C25" s="290">
         <v>9.2643601509793907</v>
       </c>
-      <c r="D25" s="405">
+      <c r="D25" s="290">
         <f>9.833862</f>
         <v>9.8338619999999999</v>
       </c>
-      <c r="E25" s="405">
+      <c r="E25" s="290">
         <v>10.48898697884826</v>
       </c>
-      <c r="F25" s="405">
+      <c r="F25" s="290">
         <v>10.558664530036811</v>
       </c>
-      <c r="G25" s="405">
+      <c r="G25" s="290">
         <v>10.683061275212019</v>
       </c>
-      <c r="H25" s="405">
+      <c r="H25" s="290">
         <v>10.908168434618553</v>
       </c>
-      <c r="I25" s="405">
+      <c r="I25" s="290">
         <v>11.386691408476544</v>
       </c>
-      <c r="J25" s="405">
+      <c r="J25" s="290">
         <v>12.051735121577604</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A26" s="391" t="s">
+      <c r="A26" s="276" t="s">
         <v>525</v>
       </c>
-      <c r="B26" s="392">
+      <c r="B26" s="277">
         <v>20.224890829694324</v>
       </c>
-      <c r="C26" s="392">
+      <c r="C26" s="277">
         <f>C25/C7*100</f>
         <v>20.745129990101191</v>
       </c>
-      <c r="D26" s="392">
+      <c r="D26" s="277">
         <f t="shared" ref="D26:J26" si="14">D25/D7*100</f>
         <v>21.540994353613023</v>
       </c>
-      <c r="E26" s="392">
+      <c r="E26" s="277">
         <f t="shared" si="14"/>
         <v>22.318269512234156</v>
       </c>
-      <c r="F26" s="392">
+      <c r="F26" s="277">
         <f t="shared" si="14"/>
         <v>21.890233813611378</v>
       </c>
-      <c r="G26" s="392">
+      <c r="G26" s="277">
         <f t="shared" si="14"/>
         <v>21.678441252130533</v>
       </c>
-      <c r="H26" s="392">
+      <c r="H26" s="277">
         <f t="shared" si="14"/>
         <v>21.730664593304585</v>
       </c>
-      <c r="I26" s="392">
+      <c r="I26" s="277">
         <f t="shared" si="14"/>
         <v>22.190240169871398</v>
       </c>
-      <c r="J26" s="392">
+      <c r="J26" s="277">
         <f t="shared" si="14"/>
         <v>22.811197215703867</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A27" s="390" t="s">
+      <c r="A27" s="275" t="s">
         <v>526</v>
       </c>
-      <c r="B27" s="405">
+      <c r="B27" s="290">
         <v>0.69599999999999995</v>
       </c>
-      <c r="C27" s="405">
+      <c r="C27" s="290">
         <v>0.59399999999999997</v>
       </c>
-      <c r="D27" s="405">
+      <c r="D27" s="290">
         <f>D28/1000*D7</f>
         <v>0.66651698079999999</v>
       </c>
-      <c r="E27" s="405">
+      <c r="E27" s="290">
         <f t="shared" ref="E27:J27" si="15">E28/1000*E7</f>
         <v>0.68616076979999996</v>
       </c>
-      <c r="F27" s="405">
+      <c r="F27" s="290">
         <f t="shared" si="15"/>
         <v>0.70422501399999993</v>
       </c>
-      <c r="G27" s="405">
+      <c r="G27" s="290">
         <f t="shared" si="15"/>
         <v>0.71948297760000002</v>
       </c>
-      <c r="H27" s="405">
+      <c r="H27" s="290">
         <f t="shared" si="15"/>
         <v>0.73287799580000001</v>
       </c>
-      <c r="I27" s="405">
+      <c r="I27" s="290">
         <f t="shared" si="15"/>
         <v>0.74918384519999992</v>
       </c>
-      <c r="J27" s="405">
+      <c r="J27" s="290">
         <f t="shared" si="15"/>
         <v>0.77135509859999996</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A28" s="391" t="s">
+      <c r="A28" s="276" t="s">
         <v>527</v>
       </c>
-      <c r="B28" s="392">
+      <c r="B28" s="277">
         <v>19.335971628692409</v>
       </c>
-      <c r="C28" s="392">
+      <c r="C28" s="277">
         <f>14.6</f>
         <v>14.6</v>
       </c>
-      <c r="D28" s="392">
+      <c r="D28" s="277">
         <f t="shared" ref="D28:J28" si="16">14.6</f>
         <v>14.6</v>
       </c>
-      <c r="E28" s="392">
+      <c r="E28" s="277">
         <f t="shared" si="16"/>
         <v>14.6</v>
       </c>
-      <c r="F28" s="392">
+      <c r="F28" s="277">
         <f t="shared" si="16"/>
         <v>14.6</v>
       </c>
-      <c r="G28" s="392">
+      <c r="G28" s="277">
         <f t="shared" si="16"/>
         <v>14.6</v>
       </c>
-      <c r="H28" s="392">
+      <c r="H28" s="277">
         <f t="shared" si="16"/>
         <v>14.6</v>
       </c>
-      <c r="I28" s="392">
+      <c r="I28" s="277">
         <f t="shared" si="16"/>
         <v>14.6</v>
       </c>
-      <c r="J28" s="392">
+      <c r="J28" s="277">
         <f t="shared" si="16"/>
         <v>14.6</v>
       </c>
@@ -9795,147 +9795,147 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A1" s="378" t="s">
+      <c r="A1" s="263" t="s">
         <v>501</v>
       </c>
-      <c r="B1" s="379">
+      <c r="B1" s="264">
         <v>2010</v>
       </c>
-      <c r="C1" s="379">
+      <c r="C1" s="264">
         <v>2015</v>
       </c>
-      <c r="D1" s="379">
+      <c r="D1" s="264">
         <v>2020</v>
       </c>
-      <c r="E1" s="379">
+      <c r="E1" s="264">
         <v>2025</v>
       </c>
-      <c r="F1" s="379">
+      <c r="F1" s="264">
         <v>2030</v>
       </c>
-      <c r="G1" s="379">
+      <c r="G1" s="264">
         <v>2035</v>
       </c>
-      <c r="H1" s="379">
+      <c r="H1" s="264">
         <v>2040</v>
       </c>
-      <c r="I1" s="379">
+      <c r="I1" s="264">
         <v>2045</v>
       </c>
-      <c r="J1" s="379">
+      <c r="J1" s="264">
         <v>2050</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="380" t="s">
+      <c r="A2" s="265" t="s">
         <v>528</v>
       </c>
-      <c r="B2" s="381">
+      <c r="B2" s="266">
         <v>6958</v>
       </c>
-      <c r="C2" s="381">
+      <c r="C2" s="266">
         <v>7383</v>
       </c>
-      <c r="D2" s="381">
+      <c r="D2" s="266">
         <v>7795</v>
       </c>
-      <c r="E2" s="381">
+      <c r="E2" s="266">
         <v>8185</v>
       </c>
-      <c r="F2" s="381">
+      <c r="F2" s="266">
         <v>8551</v>
       </c>
-      <c r="G2" s="381">
+      <c r="G2" s="266">
         <v>8892</v>
       </c>
-      <c r="H2" s="381">
+      <c r="H2" s="266">
         <v>9210</v>
       </c>
-      <c r="I2" s="381">
+      <c r="I2" s="266">
         <v>9504</v>
       </c>
-      <c r="J2" s="381">
+      <c r="J2" s="266">
         <v>9771</v>
       </c>
-      <c r="L2" s="382" t="s">
+      <c r="L2" s="267" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="384" t="s">
+      <c r="A3" s="269" t="s">
         <v>502</v>
       </c>
-      <c r="B3" s="383">
+      <c r="B3" s="268">
         <v>1.18</v>
       </c>
-      <c r="C3" s="383">
+      <c r="C3" s="268">
         <f>((C2-B2)/5)/B2*100</f>
         <v>1.2216154067260707</v>
       </c>
-      <c r="D3" s="383">
+      <c r="D3" s="268">
         <f t="shared" ref="D3:J3" si="0">((D2-C2)/5)/C2*100</f>
         <v>1.1160774752810512</v>
       </c>
-      <c r="E3" s="383">
+      <c r="E3" s="268">
         <f t="shared" si="0"/>
         <v>1.0006414368184735</v>
       </c>
-      <c r="F3" s="383">
+      <c r="F3" s="268">
         <f t="shared" si="0"/>
         <v>0.89431887599266957</v>
       </c>
-      <c r="G3" s="383">
+      <c r="G3" s="268">
         <f t="shared" si="0"/>
         <v>0.7975675359607064</v>
       </c>
-      <c r="H3" s="383">
+      <c r="H3" s="268">
         <f t="shared" si="0"/>
         <v>0.71524966261808365</v>
       </c>
-      <c r="I3" s="383">
+      <c r="I3" s="268">
         <f t="shared" si="0"/>
         <v>0.6384364820846905</v>
       </c>
-      <c r="J3" s="383">
+      <c r="J3" s="268">
         <f t="shared" si="0"/>
         <v>0.56186868686868685</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A4" s="380" t="s">
+      <c r="A4" s="265" t="s">
         <v>503</v>
       </c>
-      <c r="B4" s="381">
+      <c r="B4" s="266">
         <v>66036.387107063027</v>
       </c>
-      <c r="C4" s="381">
+      <c r="C4" s="266">
         <v>75037.186502549754</v>
       </c>
-      <c r="D4" s="381">
+      <c r="D4" s="266">
         <f>D2*D5</f>
         <v>99030.690232184643</v>
       </c>
-      <c r="E4" s="381">
+      <c r="E4" s="266">
         <f t="shared" ref="E4:J4" si="1">E2*E5</f>
         <v>129981.75105042197</v>
       </c>
-      <c r="F4" s="381">
+      <c r="F4" s="266">
         <f t="shared" si="1"/>
         <v>169742.50965671323</v>
       </c>
-      <c r="G4" s="381">
+      <c r="G4" s="266">
         <f t="shared" si="1"/>
         <v>220639.45676930973</v>
       </c>
-      <c r="H4" s="381">
+      <c r="H4" s="266">
         <f t="shared" si="1"/>
         <v>285662.58952504257</v>
       </c>
-      <c r="I4" s="381">
+      <c r="I4" s="266">
         <f t="shared" si="1"/>
         <v>368476.8255762764</v>
       </c>
-      <c r="J4" s="381">
+      <c r="J4" s="266">
         <f t="shared" si="1"/>
         <v>473535.75635335071</v>
       </c>
@@ -9944,889 +9944,889 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A5" s="380" t="s">
+      <c r="A5" s="265" t="s">
         <v>504</v>
       </c>
-      <c r="B5" s="385">
+      <c r="B5" s="270">
         <f>B4/B2</f>
         <v>9.4907138699429474</v>
       </c>
-      <c r="C5" s="385">
+      <c r="C5" s="270">
         <f>C4/C2</f>
         <v>10.163508939800861</v>
       </c>
-      <c r="D5" s="385">
+      <c r="D5" s="270">
         <f>(C5*D6/100)*5+C5</f>
         <v>12.704386174751077</v>
       </c>
-      <c r="E5" s="385">
+      <c r="E5" s="270">
         <f t="shared" ref="E5:J5" si="2">(D5*E6/100)*5+D5</f>
         <v>15.880482718438847</v>
       </c>
-      <c r="F5" s="385">
+      <c r="F5" s="270">
         <f t="shared" si="2"/>
         <v>19.850603398048559</v>
       </c>
-      <c r="G5" s="385">
+      <c r="G5" s="270">
         <f t="shared" si="2"/>
         <v>24.8132542475607</v>
       </c>
-      <c r="H5" s="385">
+      <c r="H5" s="270">
         <f t="shared" si="2"/>
         <v>31.016567809450876</v>
       </c>
-      <c r="I5" s="385">
+      <c r="I5" s="270">
         <f t="shared" si="2"/>
         <v>38.770709761813592</v>
       </c>
-      <c r="J5" s="385">
+      <c r="J5" s="270">
         <f t="shared" si="2"/>
         <v>48.463387202266986</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="384" t="s">
+      <c r="A6" s="269" t="s">
         <v>505</v>
       </c>
-      <c r="B6" s="383">
+      <c r="B6" s="268">
         <v>7.37</v>
       </c>
-      <c r="C6" s="383">
+      <c r="C6" s="268">
         <v>5</v>
       </c>
-      <c r="D6" s="383">
+      <c r="D6" s="268">
         <v>5</v>
       </c>
-      <c r="E6" s="383">
+      <c r="E6" s="268">
         <v>5</v>
       </c>
-      <c r="F6" s="383">
+      <c r="F6" s="268">
         <v>5</v>
       </c>
-      <c r="G6" s="383">
+      <c r="G6" s="268">
         <v>5</v>
       </c>
-      <c r="H6" s="383">
+      <c r="H6" s="268">
         <v>5</v>
       </c>
-      <c r="I6" s="383">
+      <c r="I6" s="268">
         <v>5</v>
       </c>
-      <c r="J6" s="383">
+      <c r="J6" s="268">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A7" s="386" t="s">
+      <c r="A7" s="271" t="s">
         <v>506</v>
       </c>
-      <c r="B7" s="387">
+      <c r="B7" s="272">
         <v>45.792999999999999</v>
       </c>
-      <c r="C7" s="388">
+      <c r="C7" s="273">
         <v>44.658000000000001</v>
       </c>
-      <c r="D7" s="388">
+      <c r="D7" s="273">
         <v>43.579000000000001</v>
       </c>
-      <c r="E7" s="388">
+      <c r="E7" s="273">
         <v>42.453000000000003</v>
       </c>
-      <c r="F7" s="388">
+      <c r="F7" s="273">
         <v>41.2</v>
       </c>
-      <c r="G7" s="388">
+      <c r="G7" s="273">
         <v>39.896000000000001</v>
       </c>
-      <c r="H7" s="388">
+      <c r="H7" s="273">
         <v>38.658000000000001</v>
       </c>
-      <c r="I7" s="388">
+      <c r="I7" s="273">
         <v>37.512999999999998</v>
       </c>
-      <c r="J7" s="388">
+      <c r="J7" s="273">
         <v>36.415999999999997</v>
       </c>
-      <c r="L7" s="382" t="s">
+      <c r="L7" s="267" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="384" t="s">
+      <c r="A8" s="269" t="s">
         <v>507</v>
       </c>
-      <c r="B8" s="383">
+      <c r="B8" s="268">
         <f t="shared" ref="B8:J8" si="3">B7/B2*100</f>
         <v>0.65813452141419948</v>
       </c>
-      <c r="C8" s="383">
+      <c r="C8" s="268">
         <f t="shared" si="3"/>
         <v>0.60487606663957738</v>
       </c>
-      <c r="D8" s="383">
+      <c r="D8" s="268">
         <f t="shared" si="3"/>
         <v>0.55906350224502888</v>
       </c>
-      <c r="E8" s="383">
+      <c r="E8" s="268">
         <f t="shared" si="3"/>
         <v>0.51866829566279782</v>
       </c>
-      <c r="F8" s="383">
+      <c r="F8" s="268">
         <f t="shared" si="3"/>
         <v>0.48181499239854991</v>
       </c>
-      <c r="G8" s="383">
+      <c r="G8" s="268">
         <f t="shared" si="3"/>
         <v>0.44867296446243815</v>
       </c>
-      <c r="H8" s="383">
+      <c r="H8" s="268">
         <f t="shared" si="3"/>
         <v>0.41973941368078177</v>
       </c>
-      <c r="I8" s="383">
+      <c r="I8" s="268">
         <f t="shared" si="3"/>
         <v>0.39470749158249158</v>
       </c>
-      <c r="J8" s="383">
+      <c r="J8" s="268">
         <f t="shared" si="3"/>
         <v>0.37269470883225869</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A9" s="380" t="s">
+      <c r="A9" s="265" t="s">
         <v>508</v>
       </c>
-      <c r="B9" s="381">
+      <c r="B9" s="266">
         <v>136.4</v>
       </c>
-      <c r="C9" s="381">
+      <c r="C9" s="266">
         <v>91</v>
       </c>
-      <c r="D9" s="381">
+      <c r="D9" s="266">
         <f t="shared" ref="D9:J9" si="4">D7*D10</f>
         <v>143.94755572846407</v>
       </c>
-      <c r="E9" s="381">
+      <c r="E9" s="266">
         <f t="shared" si="4"/>
         <v>188.76875719684764</v>
       </c>
-      <c r="F9" s="381">
+      <c r="F9" s="266">
         <f t="shared" si="4"/>
         <v>237.1750093998842</v>
       </c>
-      <c r="G9" s="381">
+      <c r="G9" s="266">
         <f t="shared" si="4"/>
         <v>296.98487743820453</v>
       </c>
-      <c r="H9" s="381">
+      <c r="H9" s="266">
         <f t="shared" si="4"/>
         <v>371.70192829710311</v>
       </c>
-      <c r="I9" s="381">
+      <c r="I9" s="266">
         <f t="shared" si="4"/>
         <v>465.40980329437224</v>
       </c>
-      <c r="J9" s="381">
+      <c r="J9" s="266">
         <f t="shared" si="4"/>
         <v>564.74966667448143</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A10" s="380" t="s">
+      <c r="A10" s="265" t="s">
         <v>509</v>
       </c>
-      <c r="B10" s="385">
+      <c r="B10" s="270">
         <f>B9/B7</f>
         <v>2.9786211866442471</v>
       </c>
-      <c r="C10" s="385">
+      <c r="C10" s="270">
         <f>C9/C7</f>
         <v>2.0377088091719289</v>
       </c>
-      <c r="D10" s="385">
+      <c r="D10" s="270">
         <f t="shared" ref="D10:J10" si="5">D5*D11/100</f>
         <v>3.30314040543528</v>
       </c>
-      <c r="E10" s="385">
+      <c r="E10" s="270">
         <f t="shared" si="5"/>
         <v>4.4465351611628776</v>
       </c>
-      <c r="F10" s="385">
+      <c r="F10" s="270">
         <f t="shared" si="5"/>
         <v>5.7566749854340822</v>
       </c>
-      <c r="G10" s="385">
+      <c r="G10" s="270">
         <f t="shared" si="5"/>
         <v>7.4439762742682101</v>
       </c>
-      <c r="H10" s="385">
+      <c r="H10" s="270">
         <f t="shared" si="5"/>
         <v>9.6151360209297714</v>
       </c>
-      <c r="I10" s="385">
+      <c r="I10" s="270">
         <f t="shared" si="5"/>
         <v>12.40662712378035</v>
       </c>
-      <c r="J10" s="385">
+      <c r="J10" s="270">
         <f t="shared" si="5"/>
         <v>15.508283904725436</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="384" t="s">
+      <c r="A11" s="269" t="s">
         <v>510</v>
       </c>
-      <c r="B11" s="383">
+      <c r="B11" s="268">
         <f t="shared" ref="B11:C11" si="6">B10/B5*100</f>
         <v>31.384585263681043</v>
       </c>
-      <c r="C11" s="383">
+      <c r="C11" s="268">
         <f t="shared" si="6"/>
         <v>20.049264690388068</v>
       </c>
-      <c r="D11" s="383">
+      <c r="D11" s="268">
         <v>26</v>
       </c>
-      <c r="E11" s="383">
+      <c r="E11" s="268">
         <v>28</v>
       </c>
-      <c r="F11" s="383">
+      <c r="F11" s="268">
         <v>29</v>
       </c>
-      <c r="G11" s="383">
+      <c r="G11" s="268">
         <v>30</v>
       </c>
-      <c r="H11" s="383">
+      <c r="H11" s="268">
         <v>31</v>
       </c>
-      <c r="I11" s="383">
+      <c r="I11" s="268">
         <v>32</v>
       </c>
-      <c r="J11" s="383">
+      <c r="J11" s="268">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A12" s="384" t="s">
+      <c r="A12" s="269" t="s">
         <v>511</v>
       </c>
-      <c r="B12" s="383">
+      <c r="B12" s="268">
         <v>31.269164</v>
       </c>
-      <c r="C12" s="383">
+      <c r="C12" s="268">
         <v>29.6</v>
       </c>
-      <c r="D12" s="383">
+      <c r="D12" s="268">
         <f>D7*D13/100</f>
         <v>30.025931000000003</v>
       </c>
-      <c r="E12" s="383">
-        <f t="shared" ref="D12:J12" si="7">E7*E13/100</f>
+      <c r="E12" s="268">
+        <f t="shared" ref="E12:J12" si="7">E7*E13/100</f>
         <v>29.802006000000002</v>
       </c>
-      <c r="F12" s="383">
+      <c r="F12" s="268">
         <f t="shared" si="7"/>
         <v>29.046000000000003</v>
       </c>
-      <c r="G12" s="383">
+      <c r="G12" s="268">
         <f t="shared" si="7"/>
         <v>28.246367999999997</v>
       </c>
-      <c r="H12" s="383">
+      <c r="H12" s="268">
         <f t="shared" si="7"/>
         <v>27.485837999999998</v>
       </c>
-      <c r="I12" s="383">
+      <c r="I12" s="268">
         <f t="shared" si="7"/>
         <v>26.784282000000005</v>
       </c>
-      <c r="J12" s="383">
+      <c r="J12" s="268">
         <f t="shared" si="7"/>
         <v>26.110271999999998</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A13" s="384" t="s">
+      <c r="A13" s="269" t="s">
         <v>512</v>
       </c>
-      <c r="B13" s="383">
+      <c r="B13" s="268">
         <v>68.273283842794768</v>
       </c>
-      <c r="C13" s="383">
+      <c r="C13" s="268">
         <v>68.612300000000005</v>
       </c>
-      <c r="D13" s="383">
+      <c r="D13" s="268">
         <v>68.900000000000006</v>
       </c>
-      <c r="E13" s="383">
+      <c r="E13" s="268">
         <v>70.2</v>
       </c>
-      <c r="F13" s="383">
+      <c r="F13" s="268">
         <v>70.5</v>
       </c>
-      <c r="G13" s="383">
+      <c r="G13" s="268">
         <v>70.8</v>
       </c>
-      <c r="H13" s="383">
+      <c r="H13" s="268">
         <v>71.099999999999994</v>
       </c>
-      <c r="I13" s="383">
+      <c r="I13" s="268">
         <v>71.400000000000006</v>
       </c>
-      <c r="J13" s="383">
+      <c r="J13" s="268">
         <v>71.7</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A14" s="380" t="s">
+      <c r="A14" s="265" t="s">
         <v>513</v>
       </c>
-      <c r="B14" s="389">
+      <c r="B14" s="274">
         <v>1.61E-2</v>
       </c>
-      <c r="C14" s="389">
+      <c r="C14" s="274">
         <v>6.1412000000000001E-2</v>
       </c>
-      <c r="D14" s="389">
+      <c r="D14" s="274">
         <v>6.1412000000000001E-2</v>
       </c>
-      <c r="E14" s="389">
+      <c r="E14" s="274">
         <v>6.1412000000000001E-2</v>
       </c>
-      <c r="F14" s="389">
+      <c r="F14" s="274">
         <v>6.1412000000000001E-2</v>
       </c>
-      <c r="G14" s="389">
+      <c r="G14" s="274">
         <v>6.1412000000000001E-2</v>
       </c>
-      <c r="H14" s="389">
+      <c r="H14" s="274">
         <v>6.1412000000000001E-2</v>
       </c>
-      <c r="I14" s="389">
+      <c r="I14" s="274">
         <v>6.1412000000000001E-2</v>
       </c>
-      <c r="J14" s="389">
+      <c r="J14" s="274">
         <v>6.1412000000000001E-2</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A15" s="384" t="s">
+      <c r="A15" s="269" t="s">
         <v>514</v>
       </c>
-      <c r="B15" s="383">
+      <c r="B15" s="268">
         <f t="shared" ref="B15:J15" si="8">B14/B7*100</f>
         <v>3.5158211953792068E-2</v>
       </c>
-      <c r="C15" s="383">
+      <c r="C15" s="268">
         <f t="shared" si="8"/>
         <v>0.13751623449325989</v>
       </c>
-      <c r="D15" s="383">
+      <c r="D15" s="268">
         <f t="shared" si="8"/>
         <v>0.14092108584409924</v>
       </c>
-      <c r="E15" s="383">
+      <c r="E15" s="268">
         <f t="shared" si="8"/>
         <v>0.1446587991425812</v>
       </c>
-      <c r="F15" s="383">
+      <c r="F15" s="268">
         <f t="shared" si="8"/>
         <v>0.14905825242718446</v>
       </c>
-      <c r="G15" s="383">
+      <c r="G15" s="268">
         <f t="shared" si="8"/>
         <v>0.15393021856827752</v>
       </c>
-      <c r="H15" s="383">
+      <c r="H15" s="268">
         <f t="shared" si="8"/>
         <v>0.15885974442547468</v>
       </c>
-      <c r="I15" s="383">
+      <c r="I15" s="268">
         <f t="shared" si="8"/>
         <v>0.1637085810252446</v>
       </c>
-      <c r="J15" s="383">
+      <c r="J15" s="268">
         <f t="shared" si="8"/>
         <v>0.16864015817223199</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A16" s="396" t="s">
+      <c r="A16" s="281" t="s">
         <v>515</v>
       </c>
-      <c r="B16" s="397">
+      <c r="B16" s="282">
         <f>B6*B17/100</f>
         <v>1.7734920191936709</v>
       </c>
-      <c r="C16" s="397">
+      <c r="C16" s="282">
         <v>10.364474</v>
       </c>
-      <c r="D16" s="397">
+      <c r="D16" s="282">
         <v>9.7652529999999995</v>
       </c>
-      <c r="E16" s="397">
+      <c r="E16" s="282">
         <v>9.1509217508729037</v>
       </c>
-      <c r="F16" s="397">
+      <c r="F16" s="282">
         <v>8.699012274103552</v>
       </c>
-      <c r="G16" s="397">
+      <c r="G16" s="282">
         <v>8.0708054243255862</v>
       </c>
-      <c r="H16" s="397">
+      <c r="H16" s="282">
         <v>7.3799394299405385</v>
       </c>
-      <c r="I16" s="397">
+      <c r="I16" s="282">
         <v>7.0098887653397446</v>
       </c>
-      <c r="J16" s="397">
+      <c r="J16" s="282">
         <v>6.9101597975593796</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A17" s="398" t="s">
+      <c r="A17" s="283" t="s">
         <v>516</v>
       </c>
-      <c r="B17" s="399">
+      <c r="B17" s="284">
         <v>24.063663761108153</v>
       </c>
-      <c r="C17" s="399">
+      <c r="C17" s="284">
         <f>C16/C7*100</f>
         <v>23.208549420036722</v>
       </c>
-      <c r="D17" s="399">
+      <c r="D17" s="284">
         <f t="shared" ref="D17:J17" si="9">D16/D7*100</f>
         <v>22.408162188209914</v>
       </c>
-      <c r="E17" s="399">
+      <c r="E17" s="284">
         <f t="shared" si="9"/>
         <v>21.55541834704945</v>
       </c>
-      <c r="F17" s="399">
+      <c r="F17" s="284">
         <f t="shared" si="9"/>
         <v>21.114107461416388</v>
       </c>
-      <c r="G17" s="399">
+      <c r="G17" s="284">
         <f t="shared" si="9"/>
         <v>20.229610548239389</v>
       </c>
-      <c r="H17" s="399">
+      <c r="H17" s="284">
         <f t="shared" si="9"/>
         <v>19.090329116717207</v>
       </c>
-      <c r="I17" s="399">
+      <c r="I17" s="284">
         <f t="shared" si="9"/>
         <v>18.686558700556461</v>
       </c>
-      <c r="J17" s="399">
+      <c r="J17" s="284">
         <f t="shared" si="9"/>
         <v>18.97561455832431</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A18" s="400" t="s">
+      <c r="A18" s="285" t="s">
         <v>517</v>
       </c>
-      <c r="B18" s="401">
+      <c r="B18" s="286">
         <v>8.1</v>
       </c>
-      <c r="C18" s="401">
+      <c r="C18" s="286">
         <v>7.6</v>
       </c>
-      <c r="D18" s="401">
+      <c r="D18" s="286">
         <v>8.3351299999999995</v>
       </c>
-      <c r="E18" s="401">
+      <c r="E18" s="286">
         <v>8.3994222663254501</v>
       </c>
-      <c r="F18" s="401">
+      <c r="F18" s="286">
         <v>7.955343897018075</v>
       </c>
-      <c r="G18" s="401">
+      <c r="G18" s="286">
         <v>7.4657413087604318</v>
       </c>
-      <c r="H18" s="401">
+      <c r="H18" s="286">
         <v>6.9836666655364557</v>
       </c>
-      <c r="I18" s="401">
+      <c r="I18" s="286">
         <v>6.5128469699510321</v>
       </c>
-      <c r="J18" s="401">
+      <c r="J18" s="286">
         <v>6.0942562915725027</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A19" s="402" t="s">
+      <c r="A19" s="287" t="s">
         <v>518</v>
       </c>
-      <c r="B19" s="403">
+      <c r="B19" s="288">
         <v>17.651088868013414</v>
       </c>
-      <c r="C19" s="403">
+      <c r="C19" s="288">
         <f>C18/C7*100</f>
         <v>17.018227417260064</v>
       </c>
-      <c r="D19" s="403">
+      <c r="D19" s="288">
         <f t="shared" ref="D19:J19" si="10">D18/D7*100</f>
         <v>19.126482939030264</v>
       </c>
-      <c r="E19" s="403">
+      <c r="E19" s="288">
         <f t="shared" si="10"/>
         <v>19.785226641993383</v>
       </c>
-      <c r="F19" s="403">
+      <c r="F19" s="288">
         <f t="shared" si="10"/>
         <v>19.309087128684645</v>
       </c>
-      <c r="G19" s="403">
+      <c r="G19" s="288">
         <f t="shared" si="10"/>
         <v>18.713007090335953</v>
       </c>
-      <c r="H19" s="403">
+      <c r="H19" s="288">
         <f t="shared" si="10"/>
         <v>18.065256002732824</v>
       </c>
-      <c r="I19" s="403">
+      <c r="I19" s="288">
         <f t="shared" si="10"/>
         <v>17.361573241145823</v>
       </c>
-      <c r="J19" s="403">
+      <c r="J19" s="288">
         <f t="shared" si="10"/>
         <v>16.735106248826074</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A20" s="400" t="s">
+      <c r="A20" s="285" t="s">
         <v>519</v>
       </c>
-      <c r="B20" s="401">
+      <c r="B20" s="286">
         <f>B18/B16</f>
         <v>4.567260473877246</v>
       </c>
-      <c r="C20" s="401">
+      <c r="C20" s="286">
         <f>C18/C15</f>
         <v>55.266202045202888</v>
       </c>
-      <c r="D20" s="401">
+      <c r="D20" s="286">
         <f t="shared" ref="D20:J20" si="11">D18/D15</f>
         <v>59.147500532469216</v>
       </c>
-      <c r="E20" s="401">
+      <c r="E20" s="286">
         <f t="shared" si="11"/>
         <v>58.063680302272253</v>
       </c>
-      <c r="F20" s="401">
+      <c r="F20" s="286">
         <f t="shared" si="11"/>
         <v>53.370704187641621</v>
       </c>
-      <c r="G20" s="401">
+      <c r="G20" s="286">
         <f t="shared" si="11"/>
         <v>48.500816657055005</v>
       </c>
-      <c r="H20" s="401">
+      <c r="H20" s="286">
         <f t="shared" si="11"/>
         <v>43.961210505488879</v>
       </c>
-      <c r="I20" s="401">
+      <c r="I20" s="286">
         <f t="shared" si="11"/>
         <v>39.783174035005054</v>
       </c>
-      <c r="J20" s="401">
+      <c r="J20" s="286">
         <f t="shared" si="11"/>
         <v>36.137633868609434</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A21" s="400" t="s">
+      <c r="A21" s="285" t="s">
         <v>520</v>
       </c>
-      <c r="B21" s="401">
+      <c r="B21" s="286">
         <v>0.495</v>
       </c>
-      <c r="C21" s="401">
+      <c r="C21" s="286">
         <v>0.41199999999999998</v>
       </c>
-      <c r="D21" s="401">
+      <c r="D21" s="286">
         <f>D16*D22/1000*0.9938</f>
         <v>0.44641658784440003</v>
       </c>
-      <c r="E21" s="401">
+      <c r="E21" s="286">
         <f t="shared" ref="E21:J21" si="12">E16*E22/1000*0.9938</f>
         <v>0.41833255765680466</v>
       </c>
-      <c r="F21" s="401">
+      <c r="F21" s="286">
         <f t="shared" si="12"/>
         <v>0.3976736063081891</v>
       </c>
-      <c r="G21" s="401">
+      <c r="G21" s="286">
         <f t="shared" si="12"/>
         <v>0.36895525581195926</v>
       </c>
-      <c r="H21" s="401">
+      <c r="H21" s="286">
         <f t="shared" si="12"/>
         <v>0.33737245505184571</v>
       </c>
-      <c r="I21" s="401">
+      <c r="I21" s="286">
         <f t="shared" si="12"/>
         <v>0.32045566292975336</v>
       </c>
-      <c r="J21" s="401">
+      <c r="J21" s="286">
         <f t="shared" si="12"/>
         <v>0.31589657311346753</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A22" s="400" t="s">
+      <c r="A22" s="285" t="s">
         <v>521</v>
       </c>
-      <c r="B22" s="401">
+      <c r="B22" s="286">
         <v>44.9</v>
       </c>
-      <c r="C22" s="401">
+      <c r="C22" s="286">
         <v>46</v>
       </c>
-      <c r="D22" s="401">
+      <c r="D22" s="286">
         <v>46</v>
       </c>
-      <c r="E22" s="401">
+      <c r="E22" s="286">
         <v>46</v>
       </c>
-      <c r="F22" s="401">
+      <c r="F22" s="286">
         <v>46</v>
       </c>
-      <c r="G22" s="401">
+      <c r="G22" s="286">
         <v>46</v>
       </c>
-      <c r="H22" s="401">
+      <c r="H22" s="286">
         <v>46</v>
       </c>
-      <c r="I22" s="401">
+      <c r="I22" s="286">
         <v>46</v>
       </c>
-      <c r="J22" s="401">
+      <c r="J22" s="286">
         <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A23" s="393" t="s">
+      <c r="A23" s="278" t="s">
         <v>522</v>
       </c>
-      <c r="B23" s="404">
+      <c r="B23" s="289">
         <v>17.8</v>
       </c>
-      <c r="C23" s="404">
+      <c r="C23" s="289">
         <v>17.494372219580899</v>
       </c>
-      <c r="D23" s="404">
+      <c r="D23" s="289">
         <v>16.512835287815602</v>
       </c>
-      <c r="E23" s="404">
+      <c r="E23" s="289">
         <v>15.570442595693399</v>
       </c>
-      <c r="F23" s="404">
+      <c r="F23" s="289">
         <v>15.430187054150712</v>
       </c>
-      <c r="G23" s="404">
+      <c r="G23" s="289">
         <v>15.340042792151616</v>
       </c>
-      <c r="H23" s="404">
+      <c r="H23" s="289">
         <v>15.036042733497347</v>
       </c>
-      <c r="I23" s="404">
+      <c r="I23" s="289">
         <v>14.006986945024545</v>
       </c>
-      <c r="J23" s="404">
+      <c r="J23" s="289">
         <v>12.402099472097303</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A24" s="394" t="s">
+      <c r="A24" s="279" t="s">
         <v>523</v>
       </c>
-      <c r="B24" s="395">
+      <c r="B24" s="280">
         <v>38.949275742186025</v>
       </c>
-      <c r="C24" s="395">
+      <c r="C24" s="280">
         <f>C23/C7*100</f>
         <v>39.174105915134803</v>
       </c>
-      <c r="D24" s="395">
+      <c r="D24" s="280">
         <f t="shared" ref="D24:J24" si="13">D23/D7*100</f>
         <v>37.89172603275798</v>
       </c>
-      <c r="E24" s="395">
+      <c r="E24" s="280">
         <f t="shared" si="13"/>
         <v>36.676895851161042</v>
       </c>
-      <c r="F24" s="395">
+      <c r="F24" s="280">
         <f t="shared" si="13"/>
         <v>37.451910325608523</v>
       </c>
-      <c r="G24" s="395">
+      <c r="G24" s="280">
         <f t="shared" si="13"/>
         <v>38.450077181049771</v>
       </c>
-      <c r="H24" s="395">
+      <c r="H24" s="280">
         <f t="shared" si="13"/>
         <v>38.89503526694952</v>
       </c>
-      <c r="I24" s="395">
+      <c r="I24" s="280">
         <f t="shared" si="13"/>
         <v>37.339020992787958</v>
       </c>
-      <c r="J24" s="395">
+      <c r="J24" s="280">
         <f t="shared" si="13"/>
         <v>34.056731854397256</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A25" s="390" t="s">
+      <c r="A25" s="275" t="s">
         <v>524</v>
       </c>
-      <c r="B25" s="405">
+      <c r="B25" s="290">
         <v>9.3000000000000007</v>
       </c>
-      <c r="C25" s="405">
+      <c r="C25" s="290">
         <v>9.2643601509793907</v>
       </c>
-      <c r="D25" s="405">
+      <c r="D25" s="290">
         <f>9.833862</f>
         <v>9.8338619999999999</v>
       </c>
-      <c r="E25" s="405">
+      <c r="E25" s="290">
         <v>10.48898697884826</v>
       </c>
-      <c r="F25" s="405">
+      <c r="F25" s="290">
         <v>10.558664530036811</v>
       </c>
-      <c r="G25" s="405">
+      <c r="G25" s="290">
         <v>10.683061275212019</v>
       </c>
-      <c r="H25" s="405">
+      <c r="H25" s="290">
         <v>10.908168434618553</v>
       </c>
-      <c r="I25" s="405">
+      <c r="I25" s="290">
         <v>11.386691408476544</v>
       </c>
-      <c r="J25" s="405">
+      <c r="J25" s="290">
         <v>12.051735121577604</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A26" s="391" t="s">
+      <c r="A26" s="276" t="s">
         <v>525</v>
       </c>
-      <c r="B26" s="392">
+      <c r="B26" s="277">
         <v>20.224890829694324</v>
       </c>
-      <c r="C26" s="392">
+      <c r="C26" s="277">
         <f>C25/C7*100</f>
         <v>20.745129990101191</v>
       </c>
-      <c r="D26" s="392">
+      <c r="D26" s="277">
         <f t="shared" ref="D26:J26" si="14">D25/D7*100</f>
         <v>22.565598109181025</v>
       </c>
-      <c r="E26" s="392">
+      <c r="E26" s="277">
         <f t="shared" si="14"/>
         <v>24.707292721005015</v>
       </c>
-      <c r="F26" s="392">
+      <c r="F26" s="277">
         <f t="shared" si="14"/>
         <v>25.627826529215557</v>
       </c>
-      <c r="G26" s="392">
+      <c r="G26" s="277">
         <f t="shared" si="14"/>
         <v>26.777274100691844</v>
       </c>
-      <c r="H26" s="392">
+      <c r="H26" s="277">
         <f t="shared" si="14"/>
         <v>28.217104957883365</v>
       </c>
-      <c r="I26" s="392">
+      <c r="I26" s="277">
         <f t="shared" si="14"/>
         <v>30.353987706865738</v>
       </c>
-      <c r="J26" s="392">
+      <c r="J26" s="277">
         <f t="shared" si="14"/>
         <v>33.09461533825133</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A27" s="390" t="s">
+      <c r="A27" s="275" t="s">
         <v>526</v>
       </c>
-      <c r="B27" s="405">
+      <c r="B27" s="290">
         <v>0.69599999999999995</v>
       </c>
-      <c r="C27" s="405">
+      <c r="C27" s="290">
         <v>0.59399999999999997</v>
       </c>
-      <c r="D27" s="405">
+      <c r="D27" s="290">
         <f>D28/1000*D7</f>
         <v>0.63625339999999997</v>
       </c>
-      <c r="E27" s="405">
+      <c r="E27" s="290">
         <f t="shared" ref="E27:J27" si="15">E28/1000*E7</f>
         <v>0.61981380000000008</v>
       </c>
-      <c r="F27" s="405">
+      <c r="F27" s="290">
         <f t="shared" si="15"/>
         <v>0.60152000000000005</v>
       </c>
-      <c r="G27" s="405">
+      <c r="G27" s="290">
         <f t="shared" si="15"/>
         <v>0.58248160000000004</v>
       </c>
-      <c r="H27" s="405">
+      <c r="H27" s="290">
         <f t="shared" si="15"/>
         <v>0.56440679999999999</v>
       </c>
-      <c r="I27" s="405">
+      <c r="I27" s="290">
         <f t="shared" si="15"/>
         <v>0.5476898</v>
       </c>
-      <c r="J27" s="405">
+      <c r="J27" s="290">
         <f t="shared" si="15"/>
         <v>0.53167359999999997</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A28" s="391" t="s">
+      <c r="A28" s="276" t="s">
         <v>527</v>
       </c>
-      <c r="B28" s="392">
+      <c r="B28" s="277">
         <v>19.335971628692409</v>
       </c>
-      <c r="C28" s="392">
+      <c r="C28" s="277">
         <f>14.6</f>
         <v>14.6</v>
       </c>
-      <c r="D28" s="392">
+      <c r="D28" s="277">
         <f t="shared" ref="D28:J28" si="16">14.6</f>
         <v>14.6</v>
       </c>
-      <c r="E28" s="392">
+      <c r="E28" s="277">
         <f t="shared" si="16"/>
         <v>14.6</v>
       </c>
-      <c r="F28" s="392">
+      <c r="F28" s="277">
         <f t="shared" si="16"/>
         <v>14.6</v>
       </c>
-      <c r="G28" s="392">
+      <c r="G28" s="277">
         <f t="shared" si="16"/>
         <v>14.6</v>
       </c>
-      <c r="H28" s="392">
+      <c r="H28" s="277">
         <f t="shared" si="16"/>
         <v>14.6</v>
       </c>
-      <c r="I28" s="392">
+      <c r="I28" s="277">
         <f t="shared" si="16"/>
         <v>14.6</v>
       </c>
-      <c r="J28" s="392">
+      <c r="J28" s="277">
         <f t="shared" si="16"/>
         <v>14.6</v>
       </c>
@@ -12687,16 +12687,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:10">
-      <c r="A3" s="270" t="s">
+      <c r="A3" s="295" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="270"/>
-      <c r="C3" s="270"/>
-      <c r="D3" s="270"/>
-      <c r="E3" s="270"/>
-      <c r="F3" s="270"/>
-      <c r="G3" s="270"/>
-      <c r="H3" s="270"/>
+      <c r="B3" s="295"/>
+      <c r="C3" s="295"/>
+      <c r="D3" s="295"/>
+      <c r="E3" s="295"/>
+      <c r="F3" s="295"/>
+      <c r="G3" s="295"/>
+      <c r="H3" s="295"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
@@ -14793,7 +14793,7 @@
   <dimension ref="A1:V134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19:L20"/>
+      <selection activeCell="C4" sqref="C4:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14805,93 +14805,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75">
-      <c r="A1" s="273" t="s">
+      <c r="A1" s="354" t="s">
         <v>499</v>
       </c>
-      <c r="B1" s="273"/>
-      <c r="C1" s="273"/>
-      <c r="D1" s="273"/>
-      <c r="E1" s="273"/>
-      <c r="F1" s="273"/>
-      <c r="G1" s="273"/>
-      <c r="H1" s="273"/>
-      <c r="I1" s="273"/>
-      <c r="J1" s="273"/>
-      <c r="K1" s="273"/>
-      <c r="L1" s="273"/>
-      <c r="M1" s="273"/>
+      <c r="B1" s="354"/>
+      <c r="C1" s="354"/>
+      <c r="D1" s="354"/>
+      <c r="E1" s="354"/>
+      <c r="F1" s="354"/>
+      <c r="G1" s="354"/>
+      <c r="H1" s="354"/>
+      <c r="I1" s="354"/>
+      <c r="J1" s="354"/>
+      <c r="K1" s="354"/>
+      <c r="L1" s="354"/>
+      <c r="M1" s="354"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="3" spans="1:13">
-      <c r="A3" s="274" t="s">
+      <c r="A3" s="355" t="s">
         <v>81</v>
       </c>
       <c r="B3" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="277" t="s">
+      <c r="C3" s="358" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="278"/>
-      <c r="E3" s="278"/>
-      <c r="F3" s="279"/>
-      <c r="G3" s="280" t="s">
+      <c r="D3" s="359"/>
+      <c r="E3" s="359"/>
+      <c r="F3" s="360"/>
+      <c r="G3" s="361" t="s">
         <v>500</v>
       </c>
-      <c r="H3" s="281"/>
-      <c r="I3" s="281"/>
-      <c r="J3" s="282"/>
-      <c r="K3" s="283" t="s">
+      <c r="H3" s="362"/>
+      <c r="I3" s="362"/>
+      <c r="J3" s="363"/>
+      <c r="K3" s="364" t="s">
         <v>84</v>
       </c>
-      <c r="L3" s="284"/>
-      <c r="M3" s="285"/>
+      <c r="L3" s="365"/>
+      <c r="M3" s="366"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="275"/>
+      <c r="A4" s="356"/>
       <c r="B4" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="292">
+      <c r="C4" s="373">
         <v>42.5</v>
       </c>
-      <c r="D4" s="293"/>
-      <c r="E4" s="293"/>
-      <c r="F4" s="294"/>
-      <c r="G4" s="295">
+      <c r="D4" s="374"/>
+      <c r="E4" s="374"/>
+      <c r="F4" s="375"/>
+      <c r="G4" s="376">
         <v>511.8</v>
       </c>
-      <c r="H4" s="296"/>
-      <c r="I4" s="296"/>
-      <c r="J4" s="297"/>
-      <c r="K4" s="286"/>
-      <c r="L4" s="287"/>
-      <c r="M4" s="288"/>
+      <c r="H4" s="377"/>
+      <c r="I4" s="377"/>
+      <c r="J4" s="378"/>
+      <c r="K4" s="367"/>
+      <c r="L4" s="368"/>
+      <c r="M4" s="369"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="275"/>
+      <c r="A5" s="356"/>
       <c r="B5" s="68" t="s">
         <v>469</v>
       </c>
-      <c r="C5" s="298">
+      <c r="C5" s="379">
         <f>33.4954</f>
         <v>33.495399999999997</v>
       </c>
-      <c r="D5" s="299"/>
-      <c r="E5" s="299"/>
-      <c r="F5" s="300"/>
-      <c r="G5" s="301">
+      <c r="D5" s="380"/>
+      <c r="E5" s="380"/>
+      <c r="F5" s="381"/>
+      <c r="G5" s="382">
         <v>1</v>
       </c>
-      <c r="H5" s="302"/>
-      <c r="I5" s="302"/>
-      <c r="J5" s="303"/>
-      <c r="K5" s="289"/>
-      <c r="L5" s="290"/>
-      <c r="M5" s="291"/>
+      <c r="H5" s="383"/>
+      <c r="I5" s="383"/>
+      <c r="J5" s="384"/>
+      <c r="K5" s="370"/>
+      <c r="L5" s="371"/>
+      <c r="M5" s="372"/>
     </row>
     <row r="6" spans="1:13" ht="52.5" thickBot="1">
-      <c r="A6" s="276"/>
+      <c r="A6" s="357"/>
       <c r="B6" s="69" t="s">
         <v>86</v>
       </c>
@@ -15798,20 +15798,20 @@
       <c r="F30" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="I30" s="304" t="s">
+      <c r="I30" s="385" t="s">
         <v>247</v>
       </c>
-      <c r="J30" s="304"/>
-      <c r="K30" s="304"/>
-      <c r="L30" s="304"/>
-      <c r="M30" s="304"/>
-      <c r="N30" s="304"/>
-      <c r="O30" s="304"/>
-      <c r="P30" s="304"/>
-      <c r="Q30" s="304"/>
-      <c r="R30" s="304"/>
-      <c r="S30" s="304"/>
-      <c r="T30" s="304"/>
+      <c r="J30" s="385"/>
+      <c r="K30" s="385"/>
+      <c r="L30" s="385"/>
+      <c r="M30" s="385"/>
+      <c r="N30" s="385"/>
+      <c r="O30" s="385"/>
+      <c r="P30" s="385"/>
+      <c r="Q30" s="385"/>
+      <c r="R30" s="385"/>
+      <c r="S30" s="385"/>
+      <c r="T30" s="385"/>
       <c r="U30" s="111"/>
       <c r="V30" s="111"/>
     </row>
@@ -15846,10 +15846,10 @@
       <c r="R31" s="111"/>
       <c r="S31" s="111"/>
       <c r="T31" s="111"/>
-      <c r="U31" s="271" t="s">
+      <c r="U31" s="352" t="s">
         <v>248</v>
       </c>
-      <c r="V31" s="272"/>
+      <c r="V31" s="353"/>
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="52">
@@ -17412,46 +17412,46 @@
       <c r="F59" t="s">
         <v>192</v>
       </c>
-      <c r="I59" s="313" t="s">
+      <c r="I59" s="330" t="s">
         <v>279</v>
       </c>
-      <c r="J59" s="319">
+      <c r="J59" s="332">
         <v>6332.1</v>
       </c>
-      <c r="K59" s="319">
+      <c r="K59" s="332">
         <v>7771</v>
       </c>
-      <c r="L59" s="319">
+      <c r="L59" s="332">
         <v>10126</v>
       </c>
-      <c r="M59" s="319">
+      <c r="M59" s="332">
         <v>13716.3</v>
       </c>
-      <c r="N59" s="319">
+      <c r="N59" s="332">
         <v>14372.8</v>
       </c>
-      <c r="O59" s="319">
+      <c r="O59" s="332">
         <v>18485.599999999999</v>
       </c>
-      <c r="P59" s="319">
+      <c r="P59" s="332">
         <v>21637.9</v>
       </c>
-      <c r="Q59" s="319">
+      <c r="Q59" s="332">
         <v>25206.400000000001</v>
       </c>
-      <c r="R59" s="325">
+      <c r="R59" s="350">
         <v>26719.4</v>
       </c>
-      <c r="S59" s="319">
+      <c r="S59" s="332">
         <v>26782.1</v>
       </c>
-      <c r="T59" s="327">
+      <c r="T59" s="324">
         <v>31803.1</v>
       </c>
-      <c r="U59" s="311">
+      <c r="U59" s="343">
         <v>37079.9</v>
       </c>
-      <c r="V59" s="321">
+      <c r="V59" s="346">
         <v>47269.7</v>
       </c>
     </row>
@@ -17474,20 +17474,20 @@
       <c r="F60" t="s">
         <v>194</v>
       </c>
-      <c r="I60" s="315"/>
-      <c r="J60" s="320"/>
-      <c r="K60" s="320"/>
-      <c r="L60" s="320"/>
-      <c r="M60" s="320"/>
-      <c r="N60" s="320"/>
-      <c r="O60" s="320"/>
-      <c r="P60" s="320"/>
-      <c r="Q60" s="320"/>
-      <c r="R60" s="326"/>
-      <c r="S60" s="320"/>
-      <c r="T60" s="328"/>
-      <c r="U60" s="312"/>
-      <c r="V60" s="322"/>
+      <c r="I60" s="331"/>
+      <c r="J60" s="333"/>
+      <c r="K60" s="333"/>
+      <c r="L60" s="333"/>
+      <c r="M60" s="333"/>
+      <c r="N60" s="333"/>
+      <c r="O60" s="333"/>
+      <c r="P60" s="333"/>
+      <c r="Q60" s="333"/>
+      <c r="R60" s="351"/>
+      <c r="S60" s="333"/>
+      <c r="T60" s="326"/>
+      <c r="U60" s="344"/>
+      <c r="V60" s="347"/>
     </row>
     <row r="61" spans="1:22">
       <c r="A61" s="52">
@@ -17508,46 +17508,46 @@
       <c r="F61" t="s">
         <v>196</v>
       </c>
-      <c r="I61" s="313" t="s">
+      <c r="I61" s="330" t="s">
         <v>280</v>
       </c>
-      <c r="J61" s="316">
+      <c r="J61" s="327">
         <v>123.9</v>
       </c>
-      <c r="K61" s="316">
+      <c r="K61" s="327">
         <v>111.8</v>
       </c>
-      <c r="L61" s="316">
+      <c r="L61" s="327">
         <v>114.8</v>
       </c>
-      <c r="M61" s="316">
+      <c r="M61" s="327">
         <v>107.6</v>
       </c>
-      <c r="N61" s="316">
+      <c r="N61" s="327">
         <v>90</v>
       </c>
-      <c r="O61" s="316">
+      <c r="O61" s="327">
         <v>117.1</v>
       </c>
-      <c r="P61" s="316">
+      <c r="P61" s="327">
         <v>108</v>
       </c>
-      <c r="Q61" s="316">
+      <c r="Q61" s="327">
         <v>113.9</v>
       </c>
-      <c r="R61" s="330">
+      <c r="R61" s="334">
         <v>106.1</v>
       </c>
-      <c r="S61" s="316">
+      <c r="S61" s="327">
         <v>88.5</v>
       </c>
-      <c r="T61" s="327">
+      <c r="T61" s="324">
         <v>79.599999999999994</v>
       </c>
-      <c r="U61" s="308">
+      <c r="U61" s="340">
         <v>102</v>
       </c>
-      <c r="V61" s="323">
+      <c r="V61" s="348">
         <v>110.9</v>
       </c>
     </row>
@@ -17570,20 +17570,20 @@
       <c r="F62" t="s">
         <v>198</v>
       </c>
-      <c r="I62" s="314"/>
-      <c r="J62" s="317"/>
-      <c r="K62" s="317"/>
-      <c r="L62" s="317"/>
-      <c r="M62" s="317"/>
-      <c r="N62" s="317"/>
-      <c r="O62" s="317"/>
-      <c r="P62" s="317"/>
-      <c r="Q62" s="317"/>
-      <c r="R62" s="331"/>
-      <c r="S62" s="317"/>
-      <c r="T62" s="329"/>
-      <c r="U62" s="309"/>
-      <c r="V62" s="324"/>
+      <c r="I62" s="345"/>
+      <c r="J62" s="328"/>
+      <c r="K62" s="328"/>
+      <c r="L62" s="328"/>
+      <c r="M62" s="328"/>
+      <c r="N62" s="328"/>
+      <c r="O62" s="328"/>
+      <c r="P62" s="328"/>
+      <c r="Q62" s="328"/>
+      <c r="R62" s="335"/>
+      <c r="S62" s="328"/>
+      <c r="T62" s="325"/>
+      <c r="U62" s="341"/>
+      <c r="V62" s="349"/>
     </row>
     <row r="63" spans="1:22">
       <c r="A63" s="52">
@@ -17604,20 +17604,20 @@
       <c r="F63" t="s">
         <v>200</v>
       </c>
-      <c r="I63" s="315"/>
-      <c r="J63" s="318"/>
-      <c r="K63" s="318"/>
-      <c r="L63" s="318"/>
-      <c r="M63" s="318"/>
-      <c r="N63" s="318"/>
-      <c r="O63" s="318"/>
-      <c r="P63" s="318"/>
-      <c r="Q63" s="318"/>
-      <c r="R63" s="332"/>
-      <c r="S63" s="318"/>
-      <c r="T63" s="328"/>
-      <c r="U63" s="310"/>
-      <c r="V63" s="324"/>
+      <c r="I63" s="331"/>
+      <c r="J63" s="329"/>
+      <c r="K63" s="329"/>
+      <c r="L63" s="329"/>
+      <c r="M63" s="329"/>
+      <c r="N63" s="329"/>
+      <c r="O63" s="329"/>
+      <c r="P63" s="329"/>
+      <c r="Q63" s="329"/>
+      <c r="R63" s="336"/>
+      <c r="S63" s="329"/>
+      <c r="T63" s="326"/>
+      <c r="U63" s="342"/>
+      <c r="V63" s="349"/>
     </row>
     <row r="64" spans="1:22" ht="16.5">
       <c r="A64" s="52">
@@ -17638,22 +17638,22 @@
       <c r="F64" t="s">
         <v>150</v>
       </c>
-      <c r="I64" s="305" t="s">
+      <c r="I64" s="337" t="s">
         <v>281</v>
       </c>
-      <c r="J64" s="305"/>
-      <c r="K64" s="305"/>
-      <c r="L64" s="305"/>
-      <c r="M64" s="305"/>
-      <c r="N64" s="305"/>
-      <c r="O64" s="305"/>
-      <c r="P64" s="305"/>
-      <c r="Q64" s="305"/>
-      <c r="R64" s="305"/>
-      <c r="S64" s="305"/>
-      <c r="T64" s="305"/>
-      <c r="U64" s="305"/>
-      <c r="V64" s="306"/>
+      <c r="J64" s="337"/>
+      <c r="K64" s="337"/>
+      <c r="L64" s="337"/>
+      <c r="M64" s="337"/>
+      <c r="N64" s="337"/>
+      <c r="O64" s="337"/>
+      <c r="P64" s="337"/>
+      <c r="Q64" s="337"/>
+      <c r="R64" s="337"/>
+      <c r="S64" s="337"/>
+      <c r="T64" s="337"/>
+      <c r="U64" s="337"/>
+      <c r="V64" s="338"/>
     </row>
     <row r="65" spans="1:22">
       <c r="A65" s="52">
@@ -17674,22 +17674,22 @@
       <c r="F65" t="s">
         <v>150</v>
       </c>
-      <c r="I65" s="307" t="s">
+      <c r="I65" s="339" t="s">
         <v>282</v>
       </c>
-      <c r="J65" s="307"/>
-      <c r="K65" s="307"/>
-      <c r="L65" s="307"/>
-      <c r="M65" s="307"/>
-      <c r="N65" s="307"/>
-      <c r="O65" s="307"/>
-      <c r="P65" s="307"/>
-      <c r="Q65" s="307"/>
-      <c r="R65" s="307"/>
-      <c r="S65" s="307"/>
-      <c r="T65" s="307"/>
-      <c r="U65" s="307"/>
-      <c r="V65" s="306"/>
+      <c r="J65" s="339"/>
+      <c r="K65" s="339"/>
+      <c r="L65" s="339"/>
+      <c r="M65" s="339"/>
+      <c r="N65" s="339"/>
+      <c r="O65" s="339"/>
+      <c r="P65" s="339"/>
+      <c r="Q65" s="339"/>
+      <c r="R65" s="339"/>
+      <c r="S65" s="339"/>
+      <c r="T65" s="339"/>
+      <c r="U65" s="339"/>
+      <c r="V65" s="338"/>
     </row>
     <row r="66" spans="1:22">
       <c r="A66" s="52">
@@ -17771,16 +17771,16 @@
         <v>209</v>
       </c>
       <c r="I69" s="136"/>
-      <c r="J69" s="333" t="s">
+      <c r="J69" s="313" t="s">
         <v>283</v>
       </c>
-      <c r="K69" s="333"/>
-      <c r="L69" s="333"/>
-      <c r="M69" s="333"/>
-      <c r="N69" s="333"/>
-      <c r="O69" s="333"/>
-      <c r="P69" s="333"/>
-      <c r="Q69" s="333"/>
+      <c r="K69" s="313"/>
+      <c r="L69" s="313"/>
+      <c r="M69" s="313"/>
+      <c r="N69" s="313"/>
+      <c r="O69" s="313"/>
+      <c r="P69" s="313"/>
+      <c r="Q69" s="313"/>
       <c r="R69" s="136"/>
     </row>
     <row r="70" spans="1:22">
@@ -17802,18 +17802,18 @@
       <c r="F70" t="s">
         <v>211</v>
       </c>
-      <c r="I70" s="337" t="s">
+      <c r="I70" s="317" t="s">
         <v>284</v>
       </c>
-      <c r="J70" s="337"/>
-      <c r="K70" s="337"/>
-      <c r="L70" s="337"/>
-      <c r="M70" s="337"/>
-      <c r="N70" s="337"/>
-      <c r="O70" s="337"/>
-      <c r="P70" s="337"/>
-      <c r="Q70" s="337"/>
-      <c r="R70" s="337"/>
+      <c r="J70" s="317"/>
+      <c r="K70" s="317"/>
+      <c r="L70" s="317"/>
+      <c r="M70" s="317"/>
+      <c r="N70" s="317"/>
+      <c r="O70" s="317"/>
+      <c r="P70" s="317"/>
+      <c r="Q70" s="317"/>
+      <c r="R70" s="317"/>
     </row>
     <row r="71" spans="1:22">
       <c r="A71" s="52">
@@ -17932,16 +17932,16 @@
       <c r="J73" s="138" t="s">
         <v>290</v>
       </c>
-      <c r="K73" s="334" t="s">
+      <c r="K73" s="314" t="s">
         <v>291</v>
       </c>
-      <c r="L73" s="335"/>
-      <c r="M73" s="335"/>
-      <c r="N73" s="335"/>
-      <c r="O73" s="335"/>
-      <c r="P73" s="335"/>
-      <c r="Q73" s="335"/>
-      <c r="R73" s="336"/>
+      <c r="L73" s="315"/>
+      <c r="M73" s="315"/>
+      <c r="N73" s="315"/>
+      <c r="O73" s="315"/>
+      <c r="P73" s="315"/>
+      <c r="Q73" s="315"/>
+      <c r="R73" s="316"/>
     </row>
     <row r="74" spans="1:22" ht="25.5">
       <c r="A74" s="52">
@@ -18622,64 +18622,64 @@
       </c>
     </row>
     <row r="96" spans="1:18" ht="15.75">
-      <c r="C96" s="348" t="s">
+      <c r="C96" s="303" t="s">
         <v>306</v>
       </c>
-      <c r="D96" s="348"/>
-      <c r="E96" s="348"/>
-      <c r="F96" s="348"/>
-      <c r="G96" s="348"/>
-      <c r="H96" s="348"/>
-      <c r="I96" s="348"/>
-      <c r="J96" s="349"/>
+      <c r="D96" s="303"/>
+      <c r="E96" s="303"/>
+      <c r="F96" s="303"/>
+      <c r="G96" s="303"/>
+      <c r="H96" s="303"/>
+      <c r="I96" s="303"/>
+      <c r="J96" s="304"/>
     </row>
     <row r="97" spans="3:10">
-      <c r="C97" s="340"/>
-      <c r="D97" s="343">
+      <c r="C97" s="319"/>
+      <c r="D97" s="307">
         <v>2017</v>
       </c>
-      <c r="E97" s="344"/>
-      <c r="F97" s="344"/>
-      <c r="G97" s="344"/>
-      <c r="H97" s="344"/>
-      <c r="I97" s="344"/>
-      <c r="J97" s="345"/>
+      <c r="E97" s="322"/>
+      <c r="F97" s="322"/>
+      <c r="G97" s="322"/>
+      <c r="H97" s="322"/>
+      <c r="I97" s="322"/>
+      <c r="J97" s="323"/>
     </row>
     <row r="98" spans="3:10">
-      <c r="C98" s="341"/>
-      <c r="D98" s="350" t="s">
+      <c r="C98" s="320"/>
+      <c r="D98" s="305" t="s">
         <v>307</v>
       </c>
-      <c r="E98" s="343" t="s">
+      <c r="E98" s="307" t="s">
         <v>308</v>
       </c>
-      <c r="F98" s="352"/>
-      <c r="G98" s="350" t="s">
+      <c r="F98" s="308"/>
+      <c r="G98" s="305" t="s">
         <v>309</v>
       </c>
-      <c r="H98" s="354" t="s">
+      <c r="H98" s="310" t="s">
         <v>310</v>
       </c>
-      <c r="I98" s="354" t="s">
+      <c r="I98" s="310" t="s">
         <v>311</v>
       </c>
-      <c r="J98" s="343" t="s">
+      <c r="J98" s="307" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="99" spans="3:10">
-      <c r="C99" s="342"/>
-      <c r="D99" s="351"/>
+      <c r="C99" s="321"/>
+      <c r="D99" s="306"/>
       <c r="E99" s="163" t="s">
         <v>313</v>
       </c>
       <c r="F99" s="162" t="s">
         <v>314</v>
       </c>
-      <c r="G99" s="353"/>
-      <c r="H99" s="355"/>
-      <c r="I99" s="355"/>
-      <c r="J99" s="356"/>
+      <c r="G99" s="309"/>
+      <c r="H99" s="311"/>
+      <c r="I99" s="311"/>
+      <c r="J99" s="312"/>
     </row>
     <row r="100" spans="3:10" ht="51">
       <c r="C100" s="165" t="s">
@@ -18708,16 +18708,16 @@
       </c>
     </row>
     <row r="101" spans="3:10">
-      <c r="C101" s="338" t="s">
+      <c r="C101" s="318" t="s">
         <v>291</v>
       </c>
-      <c r="D101" s="339"/>
-      <c r="E101" s="339"/>
-      <c r="F101" s="339"/>
-      <c r="G101" s="339"/>
-      <c r="H101" s="339"/>
-      <c r="I101" s="339"/>
-      <c r="J101" s="339"/>
+      <c r="D101" s="302"/>
+      <c r="E101" s="302"/>
+      <c r="F101" s="302"/>
+      <c r="G101" s="302"/>
+      <c r="H101" s="302"/>
+      <c r="I101" s="302"/>
+      <c r="J101" s="302"/>
     </row>
     <row r="102" spans="3:10" ht="38.25">
       <c r="C102" s="166" t="s">
@@ -18749,12 +18749,12 @@
       <c r="C103" s="167" t="s">
         <v>317</v>
       </c>
-      <c r="D103" s="338"/>
-      <c r="E103" s="338"/>
-      <c r="F103" s="338"/>
-      <c r="G103" s="338"/>
-      <c r="H103" s="338"/>
-      <c r="I103" s="338"/>
+      <c r="D103" s="318"/>
+      <c r="E103" s="318"/>
+      <c r="F103" s="318"/>
+      <c r="G103" s="318"/>
+      <c r="H103" s="318"/>
+      <c r="I103" s="318"/>
       <c r="J103" s="178"/>
     </row>
     <row r="104" spans="3:10" ht="89.25">
@@ -19496,48 +19496,30 @@
       <c r="J133" s="153"/>
     </row>
     <row r="134" spans="3:10">
-      <c r="C134" s="346" t="s">
+      <c r="C134" s="300" t="s">
         <v>348</v>
       </c>
-      <c r="D134" s="347"/>
-      <c r="E134" s="347"/>
-      <c r="F134" s="347"/>
-      <c r="G134" s="347"/>
-      <c r="H134" s="347"/>
-      <c r="I134" s="347"/>
-      <c r="J134" s="339"/>
+      <c r="D134" s="301"/>
+      <c r="E134" s="301"/>
+      <c r="F134" s="301"/>
+      <c r="G134" s="301"/>
+      <c r="H134" s="301"/>
+      <c r="I134" s="301"/>
+      <c r="J134" s="302"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="C134:J134"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="I98:I99"/>
-    <mergeCell ref="H98:H99"/>
-    <mergeCell ref="J98:J99"/>
-    <mergeCell ref="J69:Q69"/>
-    <mergeCell ref="K73:R73"/>
-    <mergeCell ref="I70:R70"/>
-    <mergeCell ref="C101:J101"/>
-    <mergeCell ref="D103:I103"/>
-    <mergeCell ref="C97:C99"/>
-    <mergeCell ref="D97:J97"/>
-    <mergeCell ref="T61:T63"/>
-    <mergeCell ref="N61:N63"/>
-    <mergeCell ref="O61:O63"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="Q61:Q63"/>
-    <mergeCell ref="R61:R63"/>
-    <mergeCell ref="P61:P63"/>
-    <mergeCell ref="N59:N60"/>
-    <mergeCell ref="M59:M60"/>
-    <mergeCell ref="S61:S63"/>
-    <mergeCell ref="O59:O60"/>
-    <mergeCell ref="P59:P60"/>
+    <mergeCell ref="U31:V31"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="K3:M5"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="I30:T30"/>
     <mergeCell ref="I64:V64"/>
     <mergeCell ref="I65:V65"/>
     <mergeCell ref="U61:U63"/>
@@ -19554,17 +19536,35 @@
     <mergeCell ref="R59:R60"/>
     <mergeCell ref="S59:S60"/>
     <mergeCell ref="T59:T60"/>
-    <mergeCell ref="U31:V31"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="K3:M5"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="I30:T30"/>
+    <mergeCell ref="T61:T63"/>
+    <mergeCell ref="N61:N63"/>
+    <mergeCell ref="O61:O63"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="Q61:Q63"/>
+    <mergeCell ref="R61:R63"/>
+    <mergeCell ref="P61:P63"/>
+    <mergeCell ref="N59:N60"/>
+    <mergeCell ref="M59:M60"/>
+    <mergeCell ref="S61:S63"/>
+    <mergeCell ref="O59:O60"/>
+    <mergeCell ref="P59:P60"/>
+    <mergeCell ref="J69:Q69"/>
+    <mergeCell ref="K73:R73"/>
+    <mergeCell ref="I70:R70"/>
+    <mergeCell ref="C101:J101"/>
+    <mergeCell ref="D103:I103"/>
+    <mergeCell ref="C97:C99"/>
+    <mergeCell ref="D97:J97"/>
+    <mergeCell ref="C134:J134"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="I98:I99"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="J98:J99"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -19580,8 +19580,8 @@
   </sheetPr>
   <dimension ref="A1:AH90"/>
   <sheetViews>
-    <sheetView topLeftCell="G30" workbookViewId="0">
-      <selection activeCell="Y6" sqref="Y6:AH34"/>
+    <sheetView topLeftCell="R4" workbookViewId="0">
+      <selection activeCell="AA6" sqref="AA6:AH6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19617,7 +19617,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="16.5">
+    <row r="3" spans="1:34">
       <c r="A3" s="197" t="s">
         <v>376</v>
       </c>
@@ -19641,18 +19641,18 @@
     <row r="4" spans="1:34">
       <c r="A4" s="194"/>
       <c r="B4" s="198"/>
-      <c r="C4" s="361" t="s">
+      <c r="C4" s="390" t="s">
         <v>377</v>
       </c>
-      <c r="D4" s="362"/>
-      <c r="E4" s="362"/>
-      <c r="F4" s="362"/>
-      <c r="G4" s="363"/>
+      <c r="D4" s="391"/>
+      <c r="E4" s="391"/>
+      <c r="F4" s="391"/>
+      <c r="G4" s="392"/>
       <c r="Z4" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="42">
+    <row r="5" spans="1:34">
       <c r="A5" s="200" t="s">
         <v>359</v>
       </c>
@@ -19674,23 +19674,23 @@
       <c r="G5" s="202">
         <v>121972.22569748529</v>
       </c>
-      <c r="M5" s="364" t="s">
+      <c r="M5" s="393" t="s">
         <v>421</v>
       </c>
-      <c r="N5" s="364"/>
-      <c r="O5" s="364"/>
-      <c r="P5" s="364"/>
-      <c r="Q5" s="364"/>
-      <c r="R5" s="364"/>
-      <c r="S5" s="364"/>
-      <c r="T5" s="364"/>
-      <c r="U5" s="364"/>
-      <c r="V5" s="364"/>
+      <c r="N5" s="393"/>
+      <c r="O5" s="393"/>
+      <c r="P5" s="393"/>
+      <c r="Q5" s="393"/>
+      <c r="R5" s="393"/>
+      <c r="S5" s="393"/>
+      <c r="T5" s="393"/>
+      <c r="U5" s="393"/>
+      <c r="V5" s="393"/>
       <c r="Z5" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="115.5">
+    <row r="6" spans="1:34" ht="31.5">
       <c r="A6" s="200" t="s">
         <v>379</v>
       </c>
@@ -19746,7 +19746,7 @@
         <v>26.596599999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:34" ht="94.5">
+    <row r="7" spans="1:34" ht="21">
       <c r="A7" s="200" t="s">
         <v>381</v>
       </c>
@@ -19825,7 +19825,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="126">
+    <row r="8" spans="1:34" ht="21">
       <c r="A8" s="200" t="s">
         <v>383</v>
       </c>
@@ -19849,28 +19849,28 @@
       </c>
       <c r="M8" s="208"/>
       <c r="N8" s="208"/>
-      <c r="O8" s="357" t="s">
+      <c r="O8" s="386" t="s">
         <v>422</v>
       </c>
-      <c r="P8" s="358"/>
-      <c r="Q8" s="358"/>
-      <c r="R8" s="358"/>
-      <c r="S8" s="358"/>
-      <c r="T8" s="358"/>
-      <c r="U8" s="358"/>
-      <c r="V8" s="359"/>
+      <c r="P8" s="387"/>
+      <c r="Q8" s="387"/>
+      <c r="R8" s="387"/>
+      <c r="S8" s="387"/>
+      <c r="T8" s="387"/>
+      <c r="U8" s="387"/>
+      <c r="V8" s="388"/>
       <c r="Y8" s="208"/>
       <c r="Z8" s="208"/>
-      <c r="AA8" s="357" t="s">
+      <c r="AA8" s="386" t="s">
         <v>472</v>
       </c>
-      <c r="AB8" s="358"/>
-      <c r="AC8" s="358"/>
-      <c r="AD8" s="358"/>
-      <c r="AE8" s="358"/>
-      <c r="AF8" s="358"/>
-      <c r="AG8" s="358"/>
-      <c r="AH8" s="359"/>
+      <c r="AB8" s="387"/>
+      <c r="AC8" s="387"/>
+      <c r="AD8" s="387"/>
+      <c r="AE8" s="387"/>
+      <c r="AF8" s="387"/>
+      <c r="AG8" s="387"/>
+      <c r="AH8" s="388"/>
     </row>
     <row r="9" spans="1:34" ht="52.5">
       <c r="A9" s="200" t="s">
@@ -20050,7 +20050,7 @@
         <v>27347.555702608606</v>
       </c>
     </row>
-    <row r="11" spans="1:34" ht="94.5">
+    <row r="11" spans="1:34" ht="56.25">
       <c r="A11" s="200" t="s">
         <v>388</v>
       </c>
@@ -20141,7 +20141,7 @@
         <v>12939.887053232369</v>
       </c>
     </row>
-    <row r="12" spans="1:34" ht="42">
+    <row r="12" spans="1:34" ht="33.75">
       <c r="A12" s="200" t="s">
         <v>390</v>
       </c>
@@ -20232,7 +20232,7 @@
         <v>67869.464518021108</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="90">
+    <row r="13" spans="1:34" ht="78.75">
       <c r="A13" s="200" t="s">
         <v>364</v>
       </c>
@@ -20323,7 +20323,7 @@
         <v>10677.492611837604</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="78.75">
+    <row r="14" spans="1:34" ht="56.25">
       <c r="A14" s="200" t="s">
         <v>393</v>
       </c>
@@ -20414,7 +20414,7 @@
         <v>1395.0655346924043</v>
       </c>
     </row>
-    <row r="15" spans="1:34" ht="42">
+    <row r="15" spans="1:34" ht="22.5">
       <c r="A15" s="200" t="s">
         <v>395</v>
       </c>
@@ -20505,7 +20505,7 @@
         <v>12275.854808509359</v>
       </c>
     </row>
-    <row r="16" spans="1:34" ht="126">
+    <row r="16" spans="1:34" ht="90">
       <c r="A16" s="200" t="s">
         <v>397</v>
       </c>
@@ -20687,7 +20687,7 @@
         <v>15809.689960370875</v>
       </c>
     </row>
-    <row r="18" spans="1:34" ht="73.5">
+    <row r="18" spans="1:34" ht="56.25">
       <c r="A18" s="200" t="s">
         <v>401</v>
       </c>
@@ -20778,7 +20778,7 @@
         <v>1418.865569283292</v>
       </c>
     </row>
-    <row r="19" spans="1:34" ht="105">
+    <row r="19" spans="1:34" ht="45">
       <c r="A19" s="200" t="s">
         <v>403</v>
       </c>
@@ -20869,7 +20869,7 @@
         <v>8484.505538301888</v>
       </c>
     </row>
-    <row r="20" spans="1:34" ht="84">
+    <row r="20" spans="1:34" ht="33.75">
       <c r="A20" s="200" t="s">
         <v>405</v>
       </c>
@@ -20960,7 +20960,7 @@
         <v>4554.7927178661939</v>
       </c>
     </row>
-    <row r="21" spans="1:34" ht="84">
+    <row r="21" spans="1:34" ht="33.75">
       <c r="A21" s="200" t="s">
         <v>407</v>
       </c>
@@ -21051,7 +21051,7 @@
         <v>8953.8136453531661</v>
       </c>
     </row>
-    <row r="22" spans="1:34" ht="56.25">
+    <row r="22" spans="1:34" ht="45">
       <c r="A22" s="200" t="s">
         <v>409</v>
       </c>
@@ -21322,7 +21322,7 @@
         <v>8909.7854612995652</v>
       </c>
     </row>
-    <row r="25" spans="1:34" ht="31.5">
+    <row r="25" spans="1:34">
       <c r="A25" s="200" t="s">
         <v>371</v>
       </c>
@@ -21500,7 +21500,7 @@
         <v>4961.9124248964154</v>
       </c>
     </row>
-    <row r="27" spans="1:34" ht="73.5">
+    <row r="27" spans="1:34" ht="45">
       <c r="A27" s="203" t="s">
         <v>414</v>
       </c>
@@ -21589,7 +21589,7 @@
         <v>1062.6922238180821</v>
       </c>
     </row>
-    <row r="28" spans="1:34" ht="45">
+    <row r="28" spans="1:34" ht="33.75">
       <c r="M28" s="212" t="s">
         <v>409</v>
       </c>
@@ -21804,7 +21804,7 @@
         <v>17787.386357654737</v>
       </c>
     </row>
-    <row r="31" spans="1:34" ht="33.75">
+    <row r="31" spans="1:34" ht="22.5">
       <c r="A31" s="229" t="s">
         <v>417</v>
       </c>
@@ -21892,30 +21892,30 @@
         <f>G31/G27</f>
         <v>0.19398046219491502</v>
       </c>
-      <c r="M32" s="360" t="s">
+      <c r="M32" s="389" t="s">
         <v>441</v>
       </c>
-      <c r="N32" s="360"/>
-      <c r="O32" s="360"/>
-      <c r="P32" s="360"/>
-      <c r="Q32" s="360"/>
-      <c r="R32" s="360"/>
-      <c r="S32" s="360"/>
-      <c r="T32" s="360"/>
-      <c r="U32" s="360"/>
-      <c r="V32" s="360"/>
-      <c r="Y32" s="360" t="s">
+      <c r="N32" s="389"/>
+      <c r="O32" s="389"/>
+      <c r="P32" s="389"/>
+      <c r="Q32" s="389"/>
+      <c r="R32" s="389"/>
+      <c r="S32" s="389"/>
+      <c r="T32" s="389"/>
+      <c r="U32" s="389"/>
+      <c r="V32" s="389"/>
+      <c r="Y32" s="389" t="s">
         <v>441</v>
       </c>
-      <c r="Z32" s="360"/>
-      <c r="AA32" s="360"/>
-      <c r="AB32" s="360"/>
-      <c r="AC32" s="360"/>
-      <c r="AD32" s="360"/>
-      <c r="AE32" s="360"/>
-      <c r="AF32" s="360"/>
-      <c r="AG32" s="360"/>
-      <c r="AH32" s="360"/>
+      <c r="Z32" s="389"/>
+      <c r="AA32" s="389"/>
+      <c r="AB32" s="389"/>
+      <c r="AC32" s="389"/>
+      <c r="AD32" s="389"/>
+      <c r="AE32" s="389"/>
+      <c r="AF32" s="389"/>
+      <c r="AG32" s="389"/>
+      <c r="AH32" s="389"/>
     </row>
     <row r="33" spans="1:34">
       <c r="A33" s="229" t="s">
@@ -22836,7 +22836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -22854,7 +22854,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection sqref="A1:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23253,7 +23253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="J1" sqref="J1:P21"/>
     </sheetView>
   </sheetViews>
@@ -23274,99 +23274,99 @@
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="B2" s="369" t="s">
+      <c r="B2" s="396" t="s">
         <v>349</v>
       </c>
-      <c r="C2" s="369"/>
-      <c r="D2" s="369"/>
-      <c r="E2" s="369"/>
-      <c r="F2" s="369"/>
-      <c r="G2" s="369"/>
-      <c r="K2" s="369" t="s">
+      <c r="C2" s="396"/>
+      <c r="D2" s="396"/>
+      <c r="E2" s="396"/>
+      <c r="F2" s="396"/>
+      <c r="G2" s="396"/>
+      <c r="K2" s="396" t="s">
         <v>475</v>
       </c>
-      <c r="L2" s="369"/>
-      <c r="M2" s="369"/>
-      <c r="N2" s="369"/>
-      <c r="O2" s="369"/>
-      <c r="P2" s="369"/>
+      <c r="L2" s="396"/>
+      <c r="M2" s="396"/>
+      <c r="N2" s="396"/>
+      <c r="O2" s="396"/>
+      <c r="P2" s="396"/>
       <c r="Q2" s="50" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="B3" s="370" t="s">
+      <c r="B3" s="397" t="s">
         <v>350</v>
       </c>
-      <c r="C3" s="370"/>
-      <c r="D3" s="370"/>
-      <c r="E3" s="370"/>
-      <c r="K3" s="370" t="s">
+      <c r="C3" s="397"/>
+      <c r="D3" s="397"/>
+      <c r="E3" s="397"/>
+      <c r="K3" s="397" t="s">
         <v>350</v>
       </c>
-      <c r="L3" s="370"/>
-      <c r="M3" s="370"/>
-      <c r="N3" s="370"/>
+      <c r="L3" s="397"/>
+      <c r="M3" s="397"/>
+      <c r="N3" s="397"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="371" t="s">
+      <c r="A4" s="398" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="371" t="s">
+      <c r="B4" s="398" t="s">
         <v>351</v>
       </c>
-      <c r="C4" s="373" t="s">
+      <c r="C4" s="400" t="s">
         <v>352</v>
       </c>
-      <c r="D4" s="373" t="s">
+      <c r="D4" s="400" t="s">
         <v>353</v>
       </c>
-      <c r="E4" s="373" t="s">
+      <c r="E4" s="400" t="s">
         <v>354</v>
       </c>
-      <c r="F4" s="373" t="s">
+      <c r="F4" s="400" t="s">
         <v>355</v>
       </c>
-      <c r="G4" s="373" t="s">
+      <c r="G4" s="400" t="s">
         <v>356</v>
       </c>
-      <c r="J4" s="371" t="s">
+      <c r="J4" s="398" t="s">
         <v>81</v>
       </c>
-      <c r="K4" s="371" t="s">
+      <c r="K4" s="398" t="s">
         <v>351</v>
       </c>
-      <c r="L4" s="373" t="s">
+      <c r="L4" s="400" t="s">
         <v>352</v>
       </c>
-      <c r="M4" s="373" t="s">
+      <c r="M4" s="400" t="s">
         <v>353</v>
       </c>
-      <c r="N4" s="373" t="s">
+      <c r="N4" s="400" t="s">
         <v>354</v>
       </c>
-      <c r="O4" s="373" t="s">
+      <c r="O4" s="400" t="s">
         <v>355</v>
       </c>
-      <c r="P4" s="373" t="s">
+      <c r="P4" s="400" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="24.75" customHeight="1">
-      <c r="A5" s="372"/>
-      <c r="B5" s="372"/>
-      <c r="C5" s="374"/>
-      <c r="D5" s="374"/>
-      <c r="E5" s="374"/>
-      <c r="F5" s="375"/>
-      <c r="G5" s="375"/>
-      <c r="J5" s="372"/>
-      <c r="K5" s="372"/>
-      <c r="L5" s="374"/>
-      <c r="M5" s="374"/>
-      <c r="N5" s="374"/>
-      <c r="O5" s="375"/>
-      <c r="P5" s="375"/>
+      <c r="A5" s="399"/>
+      <c r="B5" s="399"/>
+      <c r="C5" s="401"/>
+      <c r="D5" s="401"/>
+      <c r="E5" s="401"/>
+      <c r="F5" s="402"/>
+      <c r="G5" s="402"/>
+      <c r="J5" s="399"/>
+      <c r="K5" s="399"/>
+      <c r="L5" s="401"/>
+      <c r="M5" s="401"/>
+      <c r="N5" s="401"/>
+      <c r="O5" s="402"/>
+      <c r="P5" s="402"/>
     </row>
     <row r="6" spans="1:17" ht="114.75">
       <c r="A6" s="182">
@@ -23430,10 +23430,10 @@
       <c r="E7" s="183">
         <v>83203</v>
       </c>
-      <c r="F7" s="365">
+      <c r="F7" s="403">
         <v>3303</v>
       </c>
-      <c r="G7" s="367">
+      <c r="G7" s="405">
         <f>(E7+E8)/F7*1000</f>
         <v>81180.744777475033</v>
       </c>
@@ -23452,10 +23452,10 @@
       <c r="N7" s="253">
         <v>177170</v>
       </c>
-      <c r="O7" s="376">
+      <c r="O7" s="394">
         <v>2440.6</v>
       </c>
-      <c r="P7" s="376">
+      <c r="P7" s="394">
         <f>(N7+N8)/O7*1000</f>
         <v>220043.02220765388</v>
       </c>
@@ -23476,8 +23476,8 @@
       <c r="E8" s="183">
         <v>184937</v>
       </c>
-      <c r="F8" s="366"/>
-      <c r="G8" s="368"/>
+      <c r="F8" s="404"/>
+      <c r="G8" s="406"/>
       <c r="J8" s="184">
         <v>3</v>
       </c>
@@ -23493,8 +23493,8 @@
       <c r="N8" s="253">
         <v>359867</v>
       </c>
-      <c r="O8" s="377"/>
-      <c r="P8" s="377"/>
+      <c r="O8" s="395"/>
+      <c r="P8" s="395"/>
     </row>
     <row r="9" spans="1:17" ht="102">
       <c r="A9" s="184">
@@ -24064,6 +24064,17 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
     <mergeCell ref="O7:O8"/>
     <mergeCell ref="P7:P8"/>
     <mergeCell ref="K2:P2"/>
@@ -24075,17 +24086,6 @@
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="Q2" r:id="rId1"/>

--- a/Таблицы2017.xlsx
+++ b/Таблицы2017.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="13500" tabRatio="541" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="13500" tabRatio="541" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Slide5" sheetId="1" r:id="rId1"/>
@@ -18,20 +18,19 @@
     <sheet name="Slide14" sheetId="4" r:id="rId4"/>
     <sheet name="Slide21" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet4" sheetId="15" r:id="rId6"/>
-    <sheet name="Slide22" sheetId="11" r:id="rId7"/>
-    <sheet name="Slide23" sheetId="6" r:id="rId8"/>
-    <sheet name="Модель бездетной" sheetId="8" r:id="rId9"/>
-    <sheet name="Slide7_v1" sheetId="14" r:id="rId10"/>
-    <sheet name="Slide5_v1" sheetId="12" r:id="rId11"/>
-    <sheet name="Модель многодетной" sheetId="9" r:id="rId12"/>
+    <sheet name="Slide23" sheetId="6" r:id="rId7"/>
+    <sheet name="Модель бездетной" sheetId="8" r:id="rId8"/>
+    <sheet name="Slide7_v1" sheetId="14" r:id="rId9"/>
+    <sheet name="Slide5_v1" sheetId="12" r:id="rId10"/>
+    <sheet name="Модель многодетной" sheetId="9" r:id="rId11"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId13"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">Slide14!$A$1:$M$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">Slide21!$Y$6:$AH$34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">Slide23!$J$1:$P$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">Slide23!$J$1:$P$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Slide5!$A$1:$L$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Slide7!$A$2:$J$36</definedName>
   </definedNames>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="525">
   <si>
     <t xml:space="preserve">Демографические параметры населения Украины. Без изменений политики </t>
   </si>
@@ -1745,24 +1744,6 @@
     <t>http://www.ukrstat.gov.ua/operativ/operativ2014/rp/zn_ed/zn_ed_u/zn_ed_2013_u.htm</t>
   </si>
   <si>
-    <t>http://www.ukrstat.gov.ua/druk/publicat/kat_u/2018/zb/06/zb_ztutp2017.xls</t>
-  </si>
-  <si>
-    <t>млн.дол.США</t>
-  </si>
-  <si>
-    <t>Випуск товарів та послуг</t>
-  </si>
-  <si>
-    <t>Екпорт</t>
-  </si>
-  <si>
-    <t>Імпорт</t>
-  </si>
-  <si>
-    <t>Споживання в Україні</t>
-  </si>
-  <si>
     <t>Структура расходов украинских домохозяйств и домохозяйств 28 стран ЕС за 2017 г.</t>
   </si>
   <si>
@@ -1869,7 +1850,7 @@
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="68">
+  <fonts count="67">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2315,31 +2296,29 @@
       <charset val="204"/>
     </font>
     <font>
-      <i/>
-      <sz val="7.5"/>
-      <color theme="1"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <b/>
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <i/>
@@ -3286,7 +3265,7 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="407">
+  <cellXfs count="402">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3935,104 +3914,89 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="62" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="64" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="62" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="15" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="3" fontId="63" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="62" fillId="15" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="65" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="62" fillId="15" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="66" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="16" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="16" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="2" fontId="63" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="64" fillId="16" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="15" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="61" fillId="17" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="3" fontId="63" fillId="15" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="17" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="64" fillId="17" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="15" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="61" fillId="18" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="62" fillId="18" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="2" fontId="67" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="18" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="64" fillId="18" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="16" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="61" fillId="19" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="16" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="66" fillId="19" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="19" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="2" fontId="65" fillId="16" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="64" fillId="19" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="17" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="17" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="65" fillId="17" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="66" fillId="17" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="18" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="63" fillId="18" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="66" fillId="16" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="18" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="65" fillId="18" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="19" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="67" fillId="19" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="19" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="65" fillId="19" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="67" fillId="17" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="67" fillId="16" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="63" fillId="15" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="62" fillId="15" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5441,16 +5405,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="295" t="s">
+      <c r="A1" s="290" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="295"/>
-      <c r="C1" s="295"/>
-      <c r="D1" s="295"/>
-      <c r="E1" s="295"/>
-      <c r="F1" s="295"/>
-      <c r="G1" s="295"/>
-      <c r="H1" s="295"/>
+      <c r="B1" s="290"/>
+      <c r="C1" s="290"/>
+      <c r="D1" s="290"/>
+      <c r="E1" s="290"/>
+      <c r="F1" s="290"/>
+      <c r="G1" s="290"/>
+      <c r="H1" s="290"/>
     </row>
     <row r="2" spans="1:20">
       <c r="L2" s="58"/>
@@ -6661,18 +6625,18 @@
       <c r="A38" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="296" t="s">
+      <c r="B38" s="291" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="297"/>
-      <c r="D38" s="297"/>
-      <c r="E38" s="297"/>
-      <c r="F38" s="297"/>
-      <c r="G38" s="297"/>
-      <c r="H38" s="297"/>
-      <c r="I38" s="297"/>
-      <c r="J38" s="297"/>
-      <c r="K38" s="298"/>
+      <c r="C38" s="292"/>
+      <c r="D38" s="292"/>
+      <c r="E38" s="292"/>
+      <c r="F38" s="292"/>
+      <c r="G38" s="292"/>
+      <c r="H38" s="292"/>
+      <c r="I38" s="292"/>
+      <c r="J38" s="292"/>
+      <c r="K38" s="293"/>
     </row>
     <row r="39" spans="1:11" ht="15.75" thickBot="1">
       <c r="A39" s="44" t="s">
@@ -6713,16 +6677,16 @@
       <c r="A40" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="292"/>
-      <c r="C40" s="293"/>
-      <c r="D40" s="293"/>
-      <c r="E40" s="293"/>
-      <c r="F40" s="293"/>
-      <c r="G40" s="293"/>
-      <c r="H40" s="293"/>
-      <c r="I40" s="293"/>
-      <c r="J40" s="293"/>
-      <c r="K40" s="294"/>
+      <c r="B40" s="287"/>
+      <c r="C40" s="288"/>
+      <c r="D40" s="288"/>
+      <c r="E40" s="288"/>
+      <c r="F40" s="288"/>
+      <c r="G40" s="288"/>
+      <c r="H40" s="288"/>
+      <c r="I40" s="288"/>
+      <c r="J40" s="288"/>
+      <c r="K40" s="289"/>
     </row>
     <row r="41" spans="1:11" ht="15.75" thickBot="1">
       <c r="A41" s="46" t="s">
@@ -6830,36 +6794,36 @@
       </c>
     </row>
     <row r="45" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A45" s="299" t="s">
+      <c r="A45" s="294" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="299"/>
-      <c r="C45" s="299"/>
-      <c r="D45" s="299"/>
-      <c r="E45" s="299"/>
-      <c r="F45" s="299"/>
-      <c r="G45" s="299"/>
-      <c r="H45" s="299"/>
-      <c r="I45" s="299"/>
-      <c r="J45" s="299"/>
-      <c r="K45" s="299"/>
+      <c r="B45" s="294"/>
+      <c r="C45" s="294"/>
+      <c r="D45" s="294"/>
+      <c r="E45" s="294"/>
+      <c r="F45" s="294"/>
+      <c r="G45" s="294"/>
+      <c r="H45" s="294"/>
+      <c r="I45" s="294"/>
+      <c r="J45" s="294"/>
+      <c r="K45" s="294"/>
     </row>
     <row r="46" spans="1:11" ht="15.75" thickBot="1">
       <c r="A46" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B46" s="296" t="s">
+      <c r="B46" s="291" t="s">
         <v>31</v>
       </c>
-      <c r="C46" s="297"/>
-      <c r="D46" s="297"/>
-      <c r="E46" s="297"/>
-      <c r="F46" s="297"/>
-      <c r="G46" s="297"/>
-      <c r="H46" s="297"/>
-      <c r="I46" s="297"/>
-      <c r="J46" s="297"/>
-      <c r="K46" s="298"/>
+      <c r="C46" s="292"/>
+      <c r="D46" s="292"/>
+      <c r="E46" s="292"/>
+      <c r="F46" s="292"/>
+      <c r="G46" s="292"/>
+      <c r="H46" s="292"/>
+      <c r="I46" s="292"/>
+      <c r="J46" s="292"/>
+      <c r="K46" s="293"/>
     </row>
     <row r="47" spans="1:11" ht="15.75" thickBot="1">
       <c r="A47" s="44" t="s">
@@ -6900,31 +6864,31 @@
       <c r="A48" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="292"/>
-      <c r="C48" s="293"/>
-      <c r="D48" s="293"/>
-      <c r="E48" s="293"/>
-      <c r="F48" s="293"/>
-      <c r="G48" s="293"/>
-      <c r="H48" s="293"/>
-      <c r="I48" s="293"/>
-      <c r="J48" s="293"/>
-      <c r="K48" s="294"/>
+      <c r="B48" s="287"/>
+      <c r="C48" s="288"/>
+      <c r="D48" s="288"/>
+      <c r="E48" s="288"/>
+      <c r="F48" s="288"/>
+      <c r="G48" s="288"/>
+      <c r="H48" s="288"/>
+      <c r="I48" s="288"/>
+      <c r="J48" s="288"/>
+      <c r="K48" s="289"/>
     </row>
     <row r="49" spans="1:11" ht="15.75" thickBot="1">
       <c r="A49" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B49" s="292"/>
-      <c r="C49" s="293"/>
-      <c r="D49" s="293"/>
-      <c r="E49" s="293"/>
-      <c r="F49" s="293"/>
-      <c r="G49" s="293"/>
-      <c r="H49" s="293"/>
-      <c r="I49" s="293"/>
-      <c r="J49" s="293"/>
-      <c r="K49" s="294"/>
+      <c r="B49" s="287"/>
+      <c r="C49" s="288"/>
+      <c r="D49" s="288"/>
+      <c r="E49" s="288"/>
+      <c r="F49" s="288"/>
+      <c r="G49" s="288"/>
+      <c r="H49" s="288"/>
+      <c r="I49" s="288"/>
+      <c r="J49" s="288"/>
+      <c r="K49" s="289"/>
     </row>
     <row r="50" spans="1:11" ht="15.75" thickBot="1">
       <c r="A50" s="46" t="s">
@@ -7035,16 +6999,16 @@
       <c r="A53" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B53" s="292"/>
-      <c r="C53" s="293"/>
-      <c r="D53" s="293"/>
-      <c r="E53" s="293"/>
-      <c r="F53" s="293"/>
-      <c r="G53" s="293"/>
-      <c r="H53" s="293"/>
-      <c r="I53" s="293"/>
-      <c r="J53" s="293"/>
-      <c r="K53" s="294"/>
+      <c r="B53" s="287"/>
+      <c r="C53" s="288"/>
+      <c r="D53" s="288"/>
+      <c r="E53" s="288"/>
+      <c r="F53" s="288"/>
+      <c r="G53" s="288"/>
+      <c r="H53" s="288"/>
+      <c r="I53" s="288"/>
+      <c r="J53" s="288"/>
+      <c r="K53" s="289"/>
     </row>
     <row r="54" spans="1:11" ht="15.75" thickBot="1">
       <c r="A54" s="46" t="s">
@@ -7155,16 +7119,16 @@
       <c r="A57" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B57" s="292"/>
-      <c r="C57" s="293"/>
-      <c r="D57" s="293"/>
-      <c r="E57" s="293"/>
-      <c r="F57" s="293"/>
-      <c r="G57" s="293"/>
-      <c r="H57" s="293"/>
-      <c r="I57" s="293"/>
-      <c r="J57" s="293"/>
-      <c r="K57" s="294"/>
+      <c r="B57" s="287"/>
+      <c r="C57" s="288"/>
+      <c r="D57" s="288"/>
+      <c r="E57" s="288"/>
+      <c r="F57" s="288"/>
+      <c r="G57" s="288"/>
+      <c r="H57" s="288"/>
+      <c r="I57" s="288"/>
+      <c r="J57" s="288"/>
+      <c r="K57" s="289"/>
     </row>
     <row r="58" spans="1:11" ht="15.75" thickBot="1">
       <c r="A58" s="46" t="s">
@@ -7275,31 +7239,31 @@
       <c r="A61" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B61" s="292"/>
-      <c r="C61" s="293"/>
-      <c r="D61" s="293"/>
-      <c r="E61" s="293"/>
-      <c r="F61" s="293"/>
-      <c r="G61" s="293"/>
-      <c r="H61" s="293"/>
-      <c r="I61" s="293"/>
-      <c r="J61" s="293"/>
-      <c r="K61" s="294"/>
+      <c r="B61" s="287"/>
+      <c r="C61" s="288"/>
+      <c r="D61" s="288"/>
+      <c r="E61" s="288"/>
+      <c r="F61" s="288"/>
+      <c r="G61" s="288"/>
+      <c r="H61" s="288"/>
+      <c r="I61" s="288"/>
+      <c r="J61" s="288"/>
+      <c r="K61" s="289"/>
     </row>
     <row r="62" spans="1:11" ht="15.75" thickBot="1">
       <c r="A62" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B62" s="292"/>
-      <c r="C62" s="293"/>
-      <c r="D62" s="293"/>
-      <c r="E62" s="293"/>
-      <c r="F62" s="293"/>
-      <c r="G62" s="293"/>
-      <c r="H62" s="293"/>
-      <c r="I62" s="293"/>
-      <c r="J62" s="293"/>
-      <c r="K62" s="294"/>
+      <c r="B62" s="287"/>
+      <c r="C62" s="288"/>
+      <c r="D62" s="288"/>
+      <c r="E62" s="288"/>
+      <c r="F62" s="288"/>
+      <c r="G62" s="288"/>
+      <c r="H62" s="288"/>
+      <c r="I62" s="288"/>
+      <c r="J62" s="288"/>
+      <c r="K62" s="289"/>
     </row>
     <row r="63" spans="1:11" ht="15.75" thickBot="1">
       <c r="A63" s="46" t="s">
@@ -7410,16 +7374,16 @@
       <c r="A66" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B66" s="292"/>
-      <c r="C66" s="293"/>
-      <c r="D66" s="293"/>
-      <c r="E66" s="293"/>
-      <c r="F66" s="293"/>
-      <c r="G66" s="293"/>
-      <c r="H66" s="293"/>
-      <c r="I66" s="293"/>
-      <c r="J66" s="293"/>
-      <c r="K66" s="294"/>
+      <c r="B66" s="287"/>
+      <c r="C66" s="288"/>
+      <c r="D66" s="288"/>
+      <c r="E66" s="288"/>
+      <c r="F66" s="288"/>
+      <c r="G66" s="288"/>
+      <c r="H66" s="288"/>
+      <c r="I66" s="288"/>
+      <c r="J66" s="288"/>
+      <c r="K66" s="289"/>
     </row>
     <row r="67" spans="1:11" ht="15.75" thickBot="1">
       <c r="A67" s="46" t="s">
@@ -7530,16 +7494,16 @@
       <c r="A70" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B70" s="292"/>
-      <c r="C70" s="293"/>
-      <c r="D70" s="293"/>
-      <c r="E70" s="293"/>
-      <c r="F70" s="293"/>
-      <c r="G70" s="293"/>
-      <c r="H70" s="293"/>
-      <c r="I70" s="293"/>
-      <c r="J70" s="293"/>
-      <c r="K70" s="294"/>
+      <c r="B70" s="287"/>
+      <c r="C70" s="288"/>
+      <c r="D70" s="288"/>
+      <c r="E70" s="288"/>
+      <c r="F70" s="288"/>
+      <c r="G70" s="288"/>
+      <c r="H70" s="288"/>
+      <c r="I70" s="288"/>
+      <c r="J70" s="288"/>
+      <c r="K70" s="289"/>
     </row>
     <row r="71" spans="1:11" ht="15.75" thickBot="1">
       <c r="A71" s="46" t="s">
@@ -7650,31 +7614,31 @@
       <c r="A74" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="B74" s="292"/>
-      <c r="C74" s="293"/>
-      <c r="D74" s="293"/>
-      <c r="E74" s="293"/>
-      <c r="F74" s="293"/>
-      <c r="G74" s="293"/>
-      <c r="H74" s="293"/>
-      <c r="I74" s="293"/>
-      <c r="J74" s="293"/>
-      <c r="K74" s="294"/>
+      <c r="B74" s="287"/>
+      <c r="C74" s="288"/>
+      <c r="D74" s="288"/>
+      <c r="E74" s="288"/>
+      <c r="F74" s="288"/>
+      <c r="G74" s="288"/>
+      <c r="H74" s="288"/>
+      <c r="I74" s="288"/>
+      <c r="J74" s="288"/>
+      <c r="K74" s="289"/>
     </row>
     <row r="75" spans="1:11" ht="15.75" thickBot="1">
       <c r="A75" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B75" s="292"/>
-      <c r="C75" s="293"/>
-      <c r="D75" s="293"/>
-      <c r="E75" s="293"/>
-      <c r="F75" s="293"/>
-      <c r="G75" s="293"/>
-      <c r="H75" s="293"/>
-      <c r="I75" s="293"/>
-      <c r="J75" s="293"/>
-      <c r="K75" s="294"/>
+      <c r="B75" s="287"/>
+      <c r="C75" s="288"/>
+      <c r="D75" s="288"/>
+      <c r="E75" s="288"/>
+      <c r="F75" s="288"/>
+      <c r="G75" s="288"/>
+      <c r="H75" s="288"/>
+      <c r="I75" s="288"/>
+      <c r="J75" s="288"/>
+      <c r="K75" s="289"/>
     </row>
     <row r="76" spans="1:11" ht="15.75" thickBot="1">
       <c r="A76" s="46" t="s">
@@ -7785,16 +7749,16 @@
       <c r="A79" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B79" s="292"/>
-      <c r="C79" s="293"/>
-      <c r="D79" s="293"/>
-      <c r="E79" s="293"/>
-      <c r="F79" s="293"/>
-      <c r="G79" s="293"/>
-      <c r="H79" s="293"/>
-      <c r="I79" s="293"/>
-      <c r="J79" s="293"/>
-      <c r="K79" s="294"/>
+      <c r="B79" s="287"/>
+      <c r="C79" s="288"/>
+      <c r="D79" s="288"/>
+      <c r="E79" s="288"/>
+      <c r="F79" s="288"/>
+      <c r="G79" s="288"/>
+      <c r="H79" s="288"/>
+      <c r="I79" s="288"/>
+      <c r="J79" s="288"/>
+      <c r="K79" s="289"/>
     </row>
     <row r="80" spans="1:11" ht="15.75" thickBot="1">
       <c r="A80" s="46" t="s">
@@ -7905,16 +7869,16 @@
       <c r="A83" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B83" s="292"/>
-      <c r="C83" s="293"/>
-      <c r="D83" s="293"/>
-      <c r="E83" s="293"/>
-      <c r="F83" s="293"/>
-      <c r="G83" s="293"/>
-      <c r="H83" s="293"/>
-      <c r="I83" s="293"/>
-      <c r="J83" s="293"/>
-      <c r="K83" s="294"/>
+      <c r="B83" s="287"/>
+      <c r="C83" s="288"/>
+      <c r="D83" s="288"/>
+      <c r="E83" s="288"/>
+      <c r="F83" s="288"/>
+      <c r="G83" s="288"/>
+      <c r="H83" s="288"/>
+      <c r="I83" s="288"/>
+      <c r="J83" s="288"/>
+      <c r="K83" s="289"/>
     </row>
     <row r="84" spans="1:11" ht="15.75" thickBot="1">
       <c r="A84" s="46" t="s">
@@ -8022,36 +7986,36 @@
       </c>
     </row>
     <row r="89" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A89" s="299" t="s">
+      <c r="A89" s="294" t="s">
         <v>47</v>
       </c>
-      <c r="B89" s="299"/>
-      <c r="C89" s="299"/>
-      <c r="D89" s="299"/>
-      <c r="E89" s="299"/>
-      <c r="F89" s="299"/>
-      <c r="G89" s="299"/>
-      <c r="H89" s="299"/>
-      <c r="I89" s="299"/>
-      <c r="J89" s="299"/>
-      <c r="K89" s="299"/>
+      <c r="B89" s="294"/>
+      <c r="C89" s="294"/>
+      <c r="D89" s="294"/>
+      <c r="E89" s="294"/>
+      <c r="F89" s="294"/>
+      <c r="G89" s="294"/>
+      <c r="H89" s="294"/>
+      <c r="I89" s="294"/>
+      <c r="J89" s="294"/>
+      <c r="K89" s="294"/>
     </row>
     <row r="90" spans="1:11" ht="15.75" thickBot="1">
       <c r="A90" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B90" s="296" t="s">
+      <c r="B90" s="291" t="s">
         <v>31</v>
       </c>
-      <c r="C90" s="297"/>
-      <c r="D90" s="297"/>
-      <c r="E90" s="297"/>
-      <c r="F90" s="297"/>
-      <c r="G90" s="297"/>
-      <c r="H90" s="297"/>
-      <c r="I90" s="297"/>
-      <c r="J90" s="297"/>
-      <c r="K90" s="298"/>
+      <c r="C90" s="292"/>
+      <c r="D90" s="292"/>
+      <c r="E90" s="292"/>
+      <c r="F90" s="292"/>
+      <c r="G90" s="292"/>
+      <c r="H90" s="292"/>
+      <c r="I90" s="292"/>
+      <c r="J90" s="292"/>
+      <c r="K90" s="293"/>
     </row>
     <row r="91" spans="1:11" ht="15.75" thickBot="1">
       <c r="A91" s="44" t="s">
@@ -8092,31 +8056,31 @@
       <c r="A92" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="B92" s="292"/>
-      <c r="C92" s="293"/>
-      <c r="D92" s="293"/>
-      <c r="E92" s="293"/>
-      <c r="F92" s="293"/>
-      <c r="G92" s="293"/>
-      <c r="H92" s="293"/>
-      <c r="I92" s="293"/>
-      <c r="J92" s="293"/>
-      <c r="K92" s="294"/>
+      <c r="B92" s="287"/>
+      <c r="C92" s="288"/>
+      <c r="D92" s="288"/>
+      <c r="E92" s="288"/>
+      <c r="F92" s="288"/>
+      <c r="G92" s="288"/>
+      <c r="H92" s="288"/>
+      <c r="I92" s="288"/>
+      <c r="J92" s="288"/>
+      <c r="K92" s="289"/>
     </row>
     <row r="93" spans="1:11" ht="15.75" thickBot="1">
       <c r="A93" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="B93" s="292"/>
-      <c r="C93" s="293"/>
-      <c r="D93" s="293"/>
-      <c r="E93" s="293"/>
-      <c r="F93" s="293"/>
-      <c r="G93" s="293"/>
-      <c r="H93" s="293"/>
-      <c r="I93" s="293"/>
-      <c r="J93" s="293"/>
-      <c r="K93" s="294"/>
+      <c r="B93" s="287"/>
+      <c r="C93" s="288"/>
+      <c r="D93" s="288"/>
+      <c r="E93" s="288"/>
+      <c r="F93" s="288"/>
+      <c r="G93" s="288"/>
+      <c r="H93" s="288"/>
+      <c r="I93" s="288"/>
+      <c r="J93" s="288"/>
+      <c r="K93" s="289"/>
     </row>
     <row r="94" spans="1:11" ht="15.75" thickBot="1">
       <c r="A94" s="46" t="s">
@@ -8227,16 +8191,16 @@
       <c r="A97" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="B97" s="292"/>
-      <c r="C97" s="293"/>
-      <c r="D97" s="293"/>
-      <c r="E97" s="293"/>
-      <c r="F97" s="293"/>
-      <c r="G97" s="293"/>
-      <c r="H97" s="293"/>
-      <c r="I97" s="293"/>
-      <c r="J97" s="293"/>
-      <c r="K97" s="294"/>
+      <c r="B97" s="287"/>
+      <c r="C97" s="288"/>
+      <c r="D97" s="288"/>
+      <c r="E97" s="288"/>
+      <c r="F97" s="288"/>
+      <c r="G97" s="288"/>
+      <c r="H97" s="288"/>
+      <c r="I97" s="288"/>
+      <c r="J97" s="288"/>
+      <c r="K97" s="289"/>
     </row>
     <row r="98" spans="1:11" ht="15.75" thickBot="1">
       <c r="A98" s="46" t="s">
@@ -8356,36 +8320,36 @@
       <c r="J101" s="49"/>
     </row>
     <row r="102" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A102" s="299" t="s">
+      <c r="A102" s="294" t="s">
         <v>54</v>
       </c>
-      <c r="B102" s="299"/>
-      <c r="C102" s="299"/>
-      <c r="D102" s="299"/>
-      <c r="E102" s="299"/>
-      <c r="F102" s="299"/>
-      <c r="G102" s="299"/>
-      <c r="H102" s="299"/>
-      <c r="I102" s="299"/>
-      <c r="J102" s="299"/>
-      <c r="K102" s="299"/>
+      <c r="B102" s="294"/>
+      <c r="C102" s="294"/>
+      <c r="D102" s="294"/>
+      <c r="E102" s="294"/>
+      <c r="F102" s="294"/>
+      <c r="G102" s="294"/>
+      <c r="H102" s="294"/>
+      <c r="I102" s="294"/>
+      <c r="J102" s="294"/>
+      <c r="K102" s="294"/>
     </row>
     <row r="103" spans="1:11" ht="15.75" thickBot="1">
       <c r="A103" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B103" s="296" t="s">
+      <c r="B103" s="291" t="s">
         <v>31</v>
       </c>
-      <c r="C103" s="297"/>
-      <c r="D103" s="297"/>
-      <c r="E103" s="297"/>
-      <c r="F103" s="297"/>
-      <c r="G103" s="297"/>
-      <c r="H103" s="297"/>
-      <c r="I103" s="297"/>
-      <c r="J103" s="297"/>
-      <c r="K103" s="298"/>
+      <c r="C103" s="292"/>
+      <c r="D103" s="292"/>
+      <c r="E103" s="292"/>
+      <c r="F103" s="292"/>
+      <c r="G103" s="292"/>
+      <c r="H103" s="292"/>
+      <c r="I103" s="292"/>
+      <c r="J103" s="292"/>
+      <c r="K103" s="293"/>
     </row>
     <row r="104" spans="1:11" ht="15.75" thickBot="1">
       <c r="A104" s="44" t="s">
@@ -8426,31 +8390,31 @@
       <c r="A105" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="B105" s="292"/>
-      <c r="C105" s="293"/>
-      <c r="D105" s="293"/>
-      <c r="E105" s="293"/>
-      <c r="F105" s="293"/>
-      <c r="G105" s="293"/>
-      <c r="H105" s="293"/>
-      <c r="I105" s="293"/>
-      <c r="J105" s="293"/>
-      <c r="K105" s="294"/>
+      <c r="B105" s="287"/>
+      <c r="C105" s="288"/>
+      <c r="D105" s="288"/>
+      <c r="E105" s="288"/>
+      <c r="F105" s="288"/>
+      <c r="G105" s="288"/>
+      <c r="H105" s="288"/>
+      <c r="I105" s="288"/>
+      <c r="J105" s="288"/>
+      <c r="K105" s="289"/>
     </row>
     <row r="106" spans="1:11" ht="15.75" thickBot="1">
       <c r="A106" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="B106" s="292"/>
-      <c r="C106" s="293"/>
-      <c r="D106" s="293"/>
-      <c r="E106" s="293"/>
-      <c r="F106" s="293"/>
-      <c r="G106" s="293"/>
-      <c r="H106" s="293"/>
-      <c r="I106" s="293"/>
-      <c r="J106" s="293"/>
-      <c r="K106" s="294"/>
+      <c r="B106" s="287"/>
+      <c r="C106" s="288"/>
+      <c r="D106" s="288"/>
+      <c r="E106" s="288"/>
+      <c r="F106" s="288"/>
+      <c r="G106" s="288"/>
+      <c r="H106" s="288"/>
+      <c r="I106" s="288"/>
+      <c r="J106" s="288"/>
+      <c r="K106" s="289"/>
     </row>
     <row r="107" spans="1:11" ht="15.75" thickBot="1">
       <c r="A107" s="46" t="s">
@@ -8561,16 +8525,16 @@
       <c r="A110" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="B110" s="292"/>
-      <c r="C110" s="293"/>
-      <c r="D110" s="293"/>
-      <c r="E110" s="293"/>
-      <c r="F110" s="293"/>
-      <c r="G110" s="293"/>
-      <c r="H110" s="293"/>
-      <c r="I110" s="293"/>
-      <c r="J110" s="293"/>
-      <c r="K110" s="294"/>
+      <c r="B110" s="287"/>
+      <c r="C110" s="288"/>
+      <c r="D110" s="288"/>
+      <c r="E110" s="288"/>
+      <c r="F110" s="288"/>
+      <c r="G110" s="288"/>
+      <c r="H110" s="288"/>
+      <c r="I110" s="288"/>
+      <c r="J110" s="288"/>
+      <c r="K110" s="289"/>
     </row>
     <row r="111" spans="1:11" ht="15.75" thickBot="1">
       <c r="A111" s="46" t="s">
@@ -8727,7 +8691,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H33" sqref="H33:H34"/>
+      <selection sqref="A1:J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8736,1038 +8700,1038 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A1" s="263" t="s">
-        <v>501</v>
-      </c>
-      <c r="B1" s="264">
+      <c r="A1" s="258" t="s">
+        <v>495</v>
+      </c>
+      <c r="B1" s="259">
         <v>2010</v>
       </c>
-      <c r="C1" s="264">
+      <c r="C1" s="259">
         <v>2015</v>
       </c>
-      <c r="D1" s="264">
+      <c r="D1" s="259">
         <v>2020</v>
       </c>
-      <c r="E1" s="264">
+      <c r="E1" s="259">
         <v>2025</v>
       </c>
-      <c r="F1" s="264">
+      <c r="F1" s="259">
         <v>2030</v>
       </c>
-      <c r="G1" s="264">
+      <c r="G1" s="259">
         <v>2035</v>
       </c>
-      <c r="H1" s="264">
+      <c r="H1" s="259">
         <v>2040</v>
       </c>
-      <c r="I1" s="264">
+      <c r="I1" s="259">
         <v>2045</v>
       </c>
-      <c r="J1" s="264">
+      <c r="J1" s="259">
         <v>2050</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="265" t="s">
-        <v>528</v>
-      </c>
-      <c r="B2" s="266">
+      <c r="A2" s="260" t="s">
+        <v>522</v>
+      </c>
+      <c r="B2" s="261">
         <v>6958</v>
       </c>
-      <c r="C2" s="266">
+      <c r="C2" s="261">
         <v>7383</v>
       </c>
-      <c r="D2" s="266">
+      <c r="D2" s="261">
         <v>7795</v>
       </c>
-      <c r="E2" s="266">
+      <c r="E2" s="261">
         <v>8185</v>
       </c>
-      <c r="F2" s="266">
+      <c r="F2" s="261">
         <v>8551</v>
       </c>
-      <c r="G2" s="266">
+      <c r="G2" s="261">
         <v>8892</v>
       </c>
-      <c r="H2" s="266">
+      <c r="H2" s="261">
         <v>9210</v>
       </c>
-      <c r="I2" s="266">
+      <c r="I2" s="261">
         <v>9504</v>
       </c>
-      <c r="J2" s="266">
+      <c r="J2" s="261">
         <v>9771</v>
       </c>
-      <c r="L2" s="267" t="s">
-        <v>529</v>
+      <c r="L2" s="262" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="269" t="s">
-        <v>502</v>
-      </c>
-      <c r="B3" s="268">
+      <c r="A3" s="264" t="s">
+        <v>496</v>
+      </c>
+      <c r="B3" s="263">
         <v>1.18</v>
       </c>
-      <c r="C3" s="268">
+      <c r="C3" s="263">
         <f>((C2-B2)/5)/B2*100</f>
         <v>1.2216154067260707</v>
       </c>
-      <c r="D3" s="268">
+      <c r="D3" s="263">
         <f t="shared" ref="D3:J3" si="0">((D2-C2)/5)/C2*100</f>
         <v>1.1160774752810512</v>
       </c>
-      <c r="E3" s="268">
+      <c r="E3" s="263">
         <f t="shared" si="0"/>
         <v>1.0006414368184735</v>
       </c>
-      <c r="F3" s="268">
+      <c r="F3" s="263">
         <f t="shared" si="0"/>
         <v>0.89431887599266957</v>
       </c>
-      <c r="G3" s="268">
+      <c r="G3" s="263">
         <f t="shared" si="0"/>
         <v>0.7975675359607064</v>
       </c>
-      <c r="H3" s="268">
+      <c r="H3" s="263">
         <f t="shared" si="0"/>
         <v>0.71524966261808365</v>
       </c>
-      <c r="I3" s="268">
+      <c r="I3" s="263">
         <f t="shared" si="0"/>
         <v>0.6384364820846905</v>
       </c>
-      <c r="J3" s="268">
+      <c r="J3" s="263">
         <f t="shared" si="0"/>
         <v>0.56186868686868685</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A4" s="265" t="s">
-        <v>503</v>
-      </c>
-      <c r="B4" s="266">
+      <c r="A4" s="260" t="s">
+        <v>497</v>
+      </c>
+      <c r="B4" s="261">
         <v>66036.387107063027</v>
       </c>
-      <c r="C4" s="266">
+      <c r="C4" s="261">
         <v>75037.186502549754</v>
       </c>
-      <c r="D4" s="266">
+      <c r="D4" s="261">
         <f>D2*D5</f>
         <v>99030.690232184643</v>
       </c>
-      <c r="E4" s="266">
+      <c r="E4" s="261">
         <f t="shared" ref="E4:J4" si="1">E2*E5</f>
         <v>129981.75105042197</v>
       </c>
-      <c r="F4" s="266">
+      <c r="F4" s="261">
         <f t="shared" si="1"/>
         <v>169742.50965671323</v>
       </c>
-      <c r="G4" s="266">
+      <c r="G4" s="261">
         <f t="shared" si="1"/>
         <v>220639.45676930973</v>
       </c>
-      <c r="H4" s="266">
+      <c r="H4" s="261">
         <f t="shared" si="1"/>
         <v>285662.58952504257</v>
       </c>
-      <c r="I4" s="266">
+      <c r="I4" s="261">
         <f t="shared" si="1"/>
         <v>368476.8255762764</v>
       </c>
-      <c r="J4" s="266">
+      <c r="J4" s="261">
         <f t="shared" si="1"/>
         <v>473535.75635335071</v>
       </c>
       <c r="L4" s="50" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A5" s="265" t="s">
-        <v>504</v>
-      </c>
-      <c r="B5" s="270">
+      <c r="A5" s="260" t="s">
+        <v>498</v>
+      </c>
+      <c r="B5" s="265">
         <f>B4/B2</f>
         <v>9.4907138699429474</v>
       </c>
-      <c r="C5" s="270">
+      <c r="C5" s="265">
         <f>C4/C2</f>
         <v>10.163508939800861</v>
       </c>
-      <c r="D5" s="270">
+      <c r="D5" s="265">
         <f>(C5*D6/100)*5+C5</f>
         <v>12.704386174751077</v>
       </c>
-      <c r="E5" s="270">
+      <c r="E5" s="265">
         <f t="shared" ref="E5:J5" si="2">(D5*E6/100)*5+D5</f>
         <v>15.880482718438847</v>
       </c>
-      <c r="F5" s="270">
+      <c r="F5" s="265">
         <f t="shared" si="2"/>
         <v>19.850603398048559</v>
       </c>
-      <c r="G5" s="270">
+      <c r="G5" s="265">
         <f t="shared" si="2"/>
         <v>24.8132542475607</v>
       </c>
-      <c r="H5" s="270">
+      <c r="H5" s="265">
         <f t="shared" si="2"/>
         <v>31.016567809450876</v>
       </c>
-      <c r="I5" s="270">
+      <c r="I5" s="265">
         <f t="shared" si="2"/>
         <v>38.770709761813592</v>
       </c>
-      <c r="J5" s="270">
+      <c r="J5" s="265">
         <f t="shared" si="2"/>
         <v>48.463387202266986</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="269" t="s">
-        <v>505</v>
-      </c>
-      <c r="B6" s="268">
+      <c r="A6" s="264" t="s">
+        <v>499</v>
+      </c>
+      <c r="B6" s="263">
         <v>7.37</v>
       </c>
-      <c r="C6" s="268">
+      <c r="C6" s="263">
         <v>5</v>
       </c>
-      <c r="D6" s="268">
+      <c r="D6" s="263">
         <v>5</v>
       </c>
-      <c r="E6" s="268">
+      <c r="E6" s="263">
         <v>5</v>
       </c>
-      <c r="F6" s="268">
+      <c r="F6" s="263">
         <v>5</v>
       </c>
-      <c r="G6" s="268">
+      <c r="G6" s="263">
         <v>5</v>
       </c>
-      <c r="H6" s="268">
+      <c r="H6" s="263">
         <v>5</v>
       </c>
-      <c r="I6" s="268">
+      <c r="I6" s="263">
         <v>5</v>
       </c>
-      <c r="J6" s="268">
+      <c r="J6" s="263">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A7" s="271" t="s">
-        <v>506</v>
-      </c>
-      <c r="B7" s="272">
+      <c r="A7" s="266" t="s">
+        <v>500</v>
+      </c>
+      <c r="B7" s="267">
         <v>45.792999999999999</v>
       </c>
-      <c r="C7" s="291">
+      <c r="C7" s="268">
         <v>44.658000000000001</v>
       </c>
-      <c r="D7" s="291">
-        <v>45.651848000000001</v>
-      </c>
-      <c r="E7" s="291">
-        <v>46.997312999999998</v>
-      </c>
-      <c r="F7" s="291">
-        <v>48.234589999999997</v>
-      </c>
-      <c r="G7" s="291">
-        <v>49.279656000000003</v>
-      </c>
-      <c r="H7" s="291">
-        <v>50.197122999999998</v>
-      </c>
-      <c r="I7" s="291">
-        <v>51.313961999999997</v>
-      </c>
-      <c r="J7" s="291">
-        <v>52.832540999999999</v>
-      </c>
-      <c r="L7" s="267" t="s">
-        <v>529</v>
+      <c r="D7" s="268">
+        <v>43.579000000000001</v>
+      </c>
+      <c r="E7" s="268">
+        <v>42.453000000000003</v>
+      </c>
+      <c r="F7" s="268">
+        <v>41.2</v>
+      </c>
+      <c r="G7" s="268">
+        <v>39.896000000000001</v>
+      </c>
+      <c r="H7" s="268">
+        <v>38.658000000000001</v>
+      </c>
+      <c r="I7" s="268">
+        <v>37.512999999999998</v>
+      </c>
+      <c r="J7" s="268">
+        <v>36.415999999999997</v>
+      </c>
+      <c r="L7" s="262" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="269" t="s">
-        <v>507</v>
-      </c>
-      <c r="B8" s="268">
+      <c r="A8" s="264" t="s">
+        <v>501</v>
+      </c>
+      <c r="B8" s="263">
         <f t="shared" ref="B8:J8" si="3">B7/B2*100</f>
         <v>0.65813452141419948</v>
       </c>
-      <c r="C8" s="268">
+      <c r="C8" s="263">
         <f t="shared" si="3"/>
         <v>0.60487606663957738</v>
       </c>
-      <c r="D8" s="268">
+      <c r="D8" s="263">
         <f t="shared" si="3"/>
-        <v>0.58565552277100708</v>
-      </c>
-      <c r="E8" s="268">
+        <v>0.55906350224502888</v>
+      </c>
+      <c r="E8" s="263">
         <f t="shared" si="3"/>
-        <v>0.57418830788026876</v>
-      </c>
-      <c r="F8" s="268">
+        <v>0.51866829566279782</v>
+      </c>
+      <c r="F8" s="263">
         <f t="shared" si="3"/>
-        <v>0.56408127704362054</v>
-      </c>
-      <c r="G8" s="268">
+        <v>0.48181499239854991</v>
+      </c>
+      <c r="G8" s="263">
         <f t="shared" si="3"/>
-        <v>0.55420215924426453</v>
-      </c>
-      <c r="H8" s="268">
+        <v>0.44867296446243815</v>
+      </c>
+      <c r="H8" s="263">
         <f t="shared" si="3"/>
-        <v>0.54502847991313785</v>
-      </c>
-      <c r="I8" s="268">
+        <v>0.41973941368078177</v>
+      </c>
+      <c r="I8" s="263">
         <f t="shared" si="3"/>
-        <v>0.53991963383838382</v>
-      </c>
-      <c r="J8" s="268">
+        <v>0.39470749158249158</v>
+      </c>
+      <c r="J8" s="263">
         <f t="shared" si="3"/>
-        <v>0.54070761436905124</v>
+        <v>0.37269470883225869</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A9" s="265" t="s">
-        <v>508</v>
-      </c>
-      <c r="B9" s="266">
+      <c r="A9" s="260" t="s">
+        <v>502</v>
+      </c>
+      <c r="B9" s="261">
         <v>136.4</v>
       </c>
-      <c r="C9" s="266">
+      <c r="C9" s="261">
         <v>91</v>
       </c>
-      <c r="D9" s="266">
+      <c r="D9" s="261">
         <f t="shared" ref="D9:J9" si="4">D7*D10</f>
-        <v>150.79446371158977</v>
-      </c>
-      <c r="E9" s="266">
+        <v>143.94755572846407</v>
+      </c>
+      <c r="E9" s="261">
         <f t="shared" si="4"/>
-        <v>208.97520473467719</v>
-      </c>
-      <c r="F9" s="266">
+        <v>188.76875719684764</v>
+      </c>
+      <c r="F9" s="261">
         <f t="shared" si="4"/>
-        <v>277.67085768566892</v>
-      </c>
-      <c r="G9" s="266">
+        <v>237.1750093998842</v>
+      </c>
+      <c r="G9" s="261">
         <f t="shared" si="4"/>
-        <v>366.83659006809904</v>
-      </c>
-      <c r="H9" s="266">
+        <v>296.98487743820453</v>
+      </c>
+      <c r="H9" s="261">
         <f t="shared" si="4"/>
-        <v>482.65216550434229</v>
-      </c>
-      <c r="I9" s="266">
+        <v>371.70192829710311</v>
+      </c>
+      <c r="I9" s="261">
         <f t="shared" si="4"/>
-        <v>636.6331927778341</v>
-      </c>
-      <c r="J9" s="266">
+        <v>465.40980329437224</v>
+      </c>
+      <c r="J9" s="261">
         <f t="shared" si="4"/>
-        <v>819.34204523604672</v>
+        <v>564.74966667448143</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A10" s="265" t="s">
-        <v>509</v>
-      </c>
-      <c r="B10" s="270">
+      <c r="A10" s="260" t="s">
+        <v>503</v>
+      </c>
+      <c r="B10" s="265">
         <f>B9/B7</f>
         <v>2.9786211866442471</v>
       </c>
-      <c r="C10" s="270">
+      <c r="C10" s="265">
         <f>C9/C7</f>
         <v>2.0377088091719289</v>
       </c>
-      <c r="D10" s="270">
+      <c r="D10" s="265">
         <f t="shared" ref="D10:J10" si="5">D5*D11/100</f>
         <v>3.30314040543528</v>
       </c>
-      <c r="E10" s="270">
+      <c r="E10" s="265">
         <f t="shared" si="5"/>
         <v>4.4465351611628776</v>
       </c>
-      <c r="F10" s="270">
+      <c r="F10" s="265">
         <f t="shared" si="5"/>
         <v>5.7566749854340822</v>
       </c>
-      <c r="G10" s="270">
+      <c r="G10" s="265">
         <f t="shared" si="5"/>
         <v>7.4439762742682101</v>
       </c>
-      <c r="H10" s="270">
+      <c r="H10" s="265">
         <f t="shared" si="5"/>
         <v>9.6151360209297714</v>
       </c>
-      <c r="I10" s="270">
+      <c r="I10" s="265">
         <f t="shared" si="5"/>
         <v>12.40662712378035</v>
       </c>
-      <c r="J10" s="270">
+      <c r="J10" s="265">
         <f t="shared" si="5"/>
         <v>15.508283904725436</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="269" t="s">
-        <v>510</v>
-      </c>
-      <c r="B11" s="268">
+      <c r="A11" s="264" t="s">
+        <v>504</v>
+      </c>
+      <c r="B11" s="263">
         <f t="shared" ref="B11:C11" si="6">B10/B5*100</f>
         <v>31.384585263681043</v>
       </c>
-      <c r="C11" s="268">
+      <c r="C11" s="263">
         <f t="shared" si="6"/>
         <v>20.049264690388068</v>
       </c>
-      <c r="D11" s="268">
+      <c r="D11" s="263">
         <v>26</v>
       </c>
-      <c r="E11" s="268">
+      <c r="E11" s="263">
         <v>28</v>
       </c>
-      <c r="F11" s="268">
+      <c r="F11" s="263">
         <v>29</v>
       </c>
-      <c r="G11" s="268">
+      <c r="G11" s="263">
         <v>30</v>
       </c>
-      <c r="H11" s="268">
+      <c r="H11" s="263">
         <v>31</v>
       </c>
-      <c r="I11" s="268">
+      <c r="I11" s="263">
         <v>32</v>
       </c>
-      <c r="J11" s="268">
+      <c r="J11" s="263">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A12" s="269" t="s">
-        <v>511</v>
-      </c>
-      <c r="B12" s="268">
+      <c r="A12" s="264" t="s">
+        <v>505</v>
+      </c>
+      <c r="B12" s="263">
         <v>31.269164</v>
       </c>
-      <c r="C12" s="268">
+      <c r="C12" s="263">
         <v>29.6</v>
       </c>
-      <c r="D12" s="268">
+      <c r="D12" s="263">
         <f>D7*D13/100</f>
-        <v>31.454123272</v>
-      </c>
-      <c r="E12" s="268">
+        <v>30.025931000000003</v>
+      </c>
+      <c r="E12" s="263">
         <f t="shared" ref="E12:J12" si="7">E7*E13/100</f>
-        <v>32.992113725999999</v>
-      </c>
-      <c r="F12" s="268">
+        <v>29.802006000000002</v>
+      </c>
+      <c r="F12" s="263">
         <f t="shared" si="7"/>
-        <v>34.005385949999997</v>
-      </c>
-      <c r="G12" s="268">
+        <v>29.046000000000003</v>
+      </c>
+      <c r="G12" s="263">
         <f t="shared" si="7"/>
-        <v>34.889996448000005</v>
-      </c>
-      <c r="H12" s="268">
+        <v>28.246367999999997</v>
+      </c>
+      <c r="H12" s="263">
         <f t="shared" si="7"/>
-        <v>35.690154452999998</v>
-      </c>
-      <c r="I12" s="268">
+        <v>27.485837999999998</v>
+      </c>
+      <c r="I12" s="263">
         <f t="shared" si="7"/>
-        <v>36.638168868000001</v>
-      </c>
-      <c r="J12" s="268">
+        <v>26.784282000000005</v>
+      </c>
+      <c r="J12" s="263">
         <f t="shared" si="7"/>
-        <v>37.880931897000004</v>
+        <v>26.110271999999998</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A13" s="269" t="s">
-        <v>512</v>
-      </c>
-      <c r="B13" s="268">
+      <c r="A13" s="264" t="s">
+        <v>506</v>
+      </c>
+      <c r="B13" s="263">
         <v>68.273283842794768</v>
       </c>
-      <c r="C13" s="268">
+      <c r="C13" s="263">
         <v>68.612300000000005</v>
       </c>
-      <c r="D13" s="268">
+      <c r="D13" s="263">
         <v>68.900000000000006</v>
       </c>
-      <c r="E13" s="268">
+      <c r="E13" s="263">
         <v>70.2</v>
       </c>
-      <c r="F13" s="268">
+      <c r="F13" s="263">
         <v>70.5</v>
       </c>
-      <c r="G13" s="268">
+      <c r="G13" s="263">
         <v>70.8</v>
       </c>
-      <c r="H13" s="268">
+      <c r="H13" s="263">
         <v>71.099999999999994</v>
       </c>
-      <c r="I13" s="268">
+      <c r="I13" s="263">
         <v>71.400000000000006</v>
       </c>
-      <c r="J13" s="268">
+      <c r="J13" s="263">
         <v>71.7</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A14" s="265" t="s">
-        <v>513</v>
-      </c>
-      <c r="B14" s="274">
+      <c r="A14" s="260" t="s">
+        <v>507</v>
+      </c>
+      <c r="B14" s="269">
         <v>1.61E-2</v>
       </c>
-      <c r="C14" s="274">
+      <c r="C14" s="269">
         <v>6.1412000000000001E-2</v>
       </c>
-      <c r="D14" s="274">
+      <c r="D14" s="269">
         <v>6.1412000000000001E-2</v>
       </c>
-      <c r="E14" s="274">
+      <c r="E14" s="269">
         <v>6.1412000000000001E-2</v>
       </c>
-      <c r="F14" s="274">
+      <c r="F14" s="269">
         <v>6.1412000000000001E-2</v>
       </c>
-      <c r="G14" s="274">
+      <c r="G14" s="269">
         <v>6.1412000000000001E-2</v>
       </c>
-      <c r="H14" s="274">
+      <c r="H14" s="269">
         <v>6.1412000000000001E-2</v>
       </c>
-      <c r="I14" s="274">
+      <c r="I14" s="269">
         <v>6.1412000000000001E-2</v>
       </c>
-      <c r="J14" s="274">
+      <c r="J14" s="269">
         <v>6.1412000000000001E-2</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A15" s="269" t="s">
-        <v>514</v>
-      </c>
-      <c r="B15" s="268">
+      <c r="A15" s="264" t="s">
+        <v>508</v>
+      </c>
+      <c r="B15" s="263">
         <f t="shared" ref="B15:J15" si="8">B14/B7*100</f>
         <v>3.5158211953792068E-2</v>
       </c>
-      <c r="C15" s="268">
+      <c r="C15" s="263">
         <f t="shared" si="8"/>
         <v>0.13751623449325989</v>
       </c>
-      <c r="D15" s="268">
+      <c r="D15" s="263">
         <f t="shared" si="8"/>
-        <v>0.13452248417194415</v>
-      </c>
-      <c r="E15" s="268">
+        <v>0.14092108584409924</v>
+      </c>
+      <c r="E15" s="263">
         <f t="shared" si="8"/>
-        <v>0.13067130029327423</v>
-      </c>
-      <c r="F15" s="268">
+        <v>0.1446587991425812</v>
+      </c>
+      <c r="F15" s="263">
         <f t="shared" si="8"/>
-        <v>0.12731941952859971</v>
-      </c>
-      <c r="G15" s="268">
+        <v>0.14905825242718446</v>
+      </c>
+      <c r="G15" s="263">
         <f t="shared" si="8"/>
-        <v>0.12461937640149111</v>
-      </c>
-      <c r="H15" s="268">
+        <v>0.15393021856827752</v>
+      </c>
+      <c r="H15" s="263">
         <f t="shared" si="8"/>
-        <v>0.12234167284846185</v>
-      </c>
-      <c r="I15" s="268">
+        <v>0.15885974442547468</v>
+      </c>
+      <c r="I15" s="263">
         <f t="shared" si="8"/>
-        <v>0.11967892870950016</v>
-      </c>
-      <c r="J15" s="268">
+        <v>0.1637085810252446</v>
+      </c>
+      <c r="J15" s="263">
         <f t="shared" si="8"/>
-        <v>0.11623896719258686</v>
+        <v>0.16864015817223199</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A16" s="281" t="s">
-        <v>515</v>
-      </c>
-      <c r="B16" s="282">
+      <c r="A16" s="276" t="s">
+        <v>509</v>
+      </c>
+      <c r="B16" s="277">
         <f>B6*B17/100</f>
         <v>1.7734920191936709</v>
       </c>
-      <c r="C16" s="282">
+      <c r="C16" s="277">
         <v>10.364474</v>
       </c>
-      <c r="D16" s="282">
-        <v>9.7658047088653799</v>
-      </c>
-      <c r="E16" s="282">
-        <v>9.1544699999999999</v>
-      </c>
-      <c r="F16" s="282">
-        <v>8.7088739999999998</v>
-      </c>
-      <c r="G16" s="282">
-        <v>8.2535600000000002</v>
-      </c>
-      <c r="H16" s="282">
-        <v>8.3802000000000003</v>
-      </c>
-      <c r="I16" s="282">
-        <v>9.1172690000000003</v>
-      </c>
-      <c r="J16" s="282">
-        <v>10.071980999999999</v>
+      <c r="D16" s="277">
+        <v>9.7652529999999995</v>
+      </c>
+      <c r="E16" s="277">
+        <v>9.1509217508729037</v>
+      </c>
+      <c r="F16" s="277">
+        <v>8.699012274103552</v>
+      </c>
+      <c r="G16" s="277">
+        <v>8.0708054243255862</v>
+      </c>
+      <c r="H16" s="277">
+        <v>7.3799394299405385</v>
+      </c>
+      <c r="I16" s="277">
+        <v>7.0098887653397446</v>
+      </c>
+      <c r="J16" s="277">
+        <v>6.9101597975593796</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A17" s="283" t="s">
-        <v>516</v>
-      </c>
-      <c r="B17" s="284">
+      <c r="A17" s="278" t="s">
+        <v>510</v>
+      </c>
+      <c r="B17" s="279">
         <v>24.063663761108153</v>
       </c>
-      <c r="C17" s="284">
+      <c r="C17" s="279">
         <f>C16/C7*100</f>
         <v>23.208549420036722</v>
       </c>
-      <c r="D17" s="284">
+      <c r="D17" s="279">
         <f t="shared" ref="D17:J17" si="9">D16/D7*100</f>
-        <v>21.391915413512681</v>
-      </c>
-      <c r="E17" s="284">
+        <v>22.408162188209914</v>
+      </c>
+      <c r="E17" s="279">
         <f t="shared" si="9"/>
-        <v>19.478709346638606</v>
-      </c>
-      <c r="F17" s="284">
+        <v>21.55541834704945</v>
+      </c>
+      <c r="F17" s="279">
         <f t="shared" si="9"/>
-        <v>18.055246245484827</v>
-      </c>
-      <c r="G17" s="284">
+        <v>21.114107461416388</v>
+      </c>
+      <c r="G17" s="279">
         <f t="shared" si="9"/>
-        <v>16.748412367164249</v>
-      </c>
-      <c r="H17" s="284">
+        <v>20.229610548239389</v>
+      </c>
+      <c r="H17" s="279">
         <f t="shared" si="9"/>
-        <v>16.694582277155607</v>
-      </c>
-      <c r="I17" s="284">
+        <v>19.090329116717207</v>
+      </c>
+      <c r="I17" s="279">
         <f t="shared" si="9"/>
-        <v>17.767618489486352</v>
-      </c>
-      <c r="J17" s="284">
+        <v>18.686558700556461</v>
+      </c>
+      <c r="J17" s="279">
         <f t="shared" si="9"/>
-        <v>19.063972334777539</v>
+        <v>18.97561455832431</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A18" s="285" t="s">
-        <v>517</v>
-      </c>
-      <c r="B18" s="286">
+      <c r="A18" s="280" t="s">
+        <v>511</v>
+      </c>
+      <c r="B18" s="281">
         <v>8.1</v>
       </c>
-      <c r="C18" s="286">
+      <c r="C18" s="281">
         <v>7.6</v>
       </c>
-      <c r="D18" s="286">
+      <c r="D18" s="281">
         <v>8.3351299999999995</v>
       </c>
-      <c r="E18" s="286">
+      <c r="E18" s="281">
         <v>8.3994222663254501</v>
       </c>
-      <c r="F18" s="286">
+      <c r="F18" s="281">
         <v>7.955343897018075</v>
       </c>
-      <c r="G18" s="286">
+      <c r="G18" s="281">
         <v>7.4657413087604318</v>
       </c>
-      <c r="H18" s="286">
+      <c r="H18" s="281">
         <v>6.9836666655364557</v>
       </c>
-      <c r="I18" s="286">
+      <c r="I18" s="281">
         <v>6.5128469699510321</v>
       </c>
-      <c r="J18" s="286">
+      <c r="J18" s="281">
         <v>6.0942562915725027</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A19" s="287" t="s">
-        <v>518</v>
-      </c>
-      <c r="B19" s="288">
+      <c r="A19" s="282" t="s">
+        <v>512</v>
+      </c>
+      <c r="B19" s="283">
         <v>17.651088868013414</v>
       </c>
-      <c r="C19" s="288">
+      <c r="C19" s="283">
         <f>C18/C7*100</f>
         <v>17.018227417260064</v>
       </c>
-      <c r="D19" s="288">
+      <c r="D19" s="283">
         <f t="shared" ref="D19:J19" si="10">D18/D7*100</f>
-        <v>18.258034154499068</v>
-      </c>
-      <c r="E19" s="288">
+        <v>19.126482939030264</v>
+      </c>
+      <c r="E19" s="283">
         <f t="shared" si="10"/>
-        <v>17.872132958591592</v>
-      </c>
-      <c r="F19" s="288">
+        <v>19.785226641993383</v>
+      </c>
+      <c r="F19" s="283">
         <f t="shared" si="10"/>
-        <v>16.493026885929943</v>
-      </c>
-      <c r="G19" s="288">
+        <v>19.309087128684645</v>
+      </c>
+      <c r="G19" s="283">
         <f t="shared" si="10"/>
-        <v>15.149743149100781</v>
-      </c>
-      <c r="H19" s="288">
+        <v>18.713007090335953</v>
+      </c>
+      <c r="H19" s="283">
         <f t="shared" si="10"/>
-        <v>13.912483919718778</v>
-      </c>
-      <c r="I19" s="288">
+        <v>18.065256002732824</v>
+      </c>
+      <c r="I19" s="283">
         <f t="shared" si="10"/>
-        <v>12.692153784482734</v>
-      </c>
-      <c r="J19" s="288">
+        <v>17.361573241145823</v>
+      </c>
+      <c r="J19" s="283">
         <f t="shared" si="10"/>
-        <v>11.535042941759139</v>
+        <v>16.735106248826074</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A20" s="285" t="s">
-        <v>519</v>
-      </c>
-      <c r="B20" s="286">
+      <c r="A20" s="280" t="s">
+        <v>513</v>
+      </c>
+      <c r="B20" s="281">
         <f>B18/B16</f>
         <v>4.567260473877246</v>
       </c>
-      <c r="C20" s="286">
+      <c r="C20" s="281">
         <f>C18/C15</f>
         <v>55.266202045202888</v>
       </c>
-      <c r="D20" s="286">
+      <c r="D20" s="281">
         <f t="shared" ref="D20:J20" si="11">D18/D15</f>
-        <v>61.96086885628867</v>
-      </c>
-      <c r="E20" s="286">
+        <v>59.147500532469216</v>
+      </c>
+      <c r="E20" s="281">
         <f t="shared" si="11"/>
-        <v>64.279013428917224</v>
-      </c>
-      <c r="F20" s="286">
+        <v>58.063680302272253</v>
+      </c>
+      <c r="F20" s="281">
         <f t="shared" si="11"/>
-        <v>62.483350351994574</v>
-      </c>
-      <c r="G20" s="286">
+        <v>53.370704187641621</v>
+      </c>
+      <c r="G20" s="281">
         <f t="shared" si="11"/>
-        <v>59.908350726357043</v>
-      </c>
-      <c r="H20" s="286">
+        <v>48.500816657055005</v>
+      </c>
+      <c r="H20" s="281">
         <f t="shared" si="11"/>
-        <v>57.083302058381641</v>
-      </c>
-      <c r="I20" s="286">
+        <v>43.961210505488879</v>
+      </c>
+      <c r="I20" s="281">
         <f t="shared" si="11"/>
-        <v>54.419328783931867</v>
-      </c>
-      <c r="J20" s="286">
+        <v>39.783174035005054</v>
+      </c>
+      <c r="J20" s="281">
         <f t="shared" si="11"/>
-        <v>52.428685825085033</v>
+        <v>36.137633868609434</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A21" s="285" t="s">
-        <v>520</v>
-      </c>
-      <c r="B21" s="286">
+      <c r="A21" s="280" t="s">
+        <v>514</v>
+      </c>
+      <c r="B21" s="281">
         <v>0.495</v>
       </c>
-      <c r="C21" s="286">
+      <c r="C21" s="281">
         <v>0.41199999999999998</v>
       </c>
-      <c r="D21" s="286">
+      <c r="D21" s="281">
         <f>D16*D22/1000*0.9938</f>
-        <v>0.82494682117198526</v>
-      </c>
-      <c r="E21" s="286">
+        <v>0.44641658784440003</v>
+      </c>
+      <c r="E21" s="281">
         <f t="shared" ref="E21:J21" si="12">E16*E22/1000*0.9938</f>
-        <v>0.86428266717000002</v>
-      </c>
-      <c r="F21" s="286">
+        <v>0.41833255765680466</v>
+      </c>
+      <c r="F21" s="281">
         <f t="shared" si="12"/>
-        <v>0.822213503214</v>
-      </c>
-      <c r="G21" s="286">
+        <v>0.3976736063081891</v>
+      </c>
+      <c r="G21" s="281">
         <f t="shared" si="12"/>
-        <v>0.77922685316000007</v>
-      </c>
-      <c r="H21" s="286">
+        <v>0.36895525581195926</v>
+      </c>
+      <c r="H21" s="281">
         <f t="shared" si="12"/>
-        <v>0.79118306220000001</v>
-      </c>
-      <c r="I21" s="286">
+        <v>0.33737245505184571</v>
+      </c>
+      <c r="I21" s="281">
         <f t="shared" si="12"/>
-        <v>0.8607704835590001</v>
-      </c>
-      <c r="J21" s="286">
+        <v>0.32045566292975336</v>
+      </c>
+      <c r="J21" s="281">
         <f t="shared" si="12"/>
-        <v>0.95090579819099996</v>
+        <v>0.31589657311346753</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A22" s="285" t="s">
-        <v>521</v>
-      </c>
-      <c r="B22" s="286">
+      <c r="A22" s="280" t="s">
+        <v>515</v>
+      </c>
+      <c r="B22" s="281">
         <v>44.9</v>
       </c>
-      <c r="C22" s="286">
+      <c r="C22" s="281">
         <v>46</v>
       </c>
-      <c r="D22" s="286">
-        <v>85</v>
-      </c>
-      <c r="E22" s="286">
-        <v>95</v>
-      </c>
-      <c r="F22" s="286">
-        <v>95</v>
-      </c>
-      <c r="G22" s="286">
-        <v>95</v>
-      </c>
-      <c r="H22" s="286">
-        <v>95</v>
-      </c>
-      <c r="I22" s="286">
-        <v>95</v>
-      </c>
-      <c r="J22" s="286">
-        <v>95</v>
+      <c r="D22" s="281">
+        <v>46</v>
+      </c>
+      <c r="E22" s="281">
+        <v>46</v>
+      </c>
+      <c r="F22" s="281">
+        <v>46</v>
+      </c>
+      <c r="G22" s="281">
+        <v>46</v>
+      </c>
+      <c r="H22" s="281">
+        <v>46</v>
+      </c>
+      <c r="I22" s="281">
+        <v>46</v>
+      </c>
+      <c r="J22" s="281">
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A23" s="278" t="s">
-        <v>522</v>
-      </c>
-      <c r="B23" s="289">
+      <c r="A23" s="273" t="s">
+        <v>516</v>
+      </c>
+      <c r="B23" s="284">
         <v>17.8</v>
       </c>
-      <c r="C23" s="289">
+      <c r="C23" s="284">
         <v>17.494372219580899</v>
       </c>
-      <c r="D23" s="289">
+      <c r="D23" s="284">
         <v>16.512835287815602</v>
       </c>
-      <c r="E23" s="289">
+      <c r="E23" s="284">
         <v>15.570442595693399</v>
       </c>
-      <c r="F23" s="289">
+      <c r="F23" s="284">
         <v>15.430187054150712</v>
       </c>
-      <c r="G23" s="289">
+      <c r="G23" s="284">
         <v>15.340042792151616</v>
       </c>
-      <c r="H23" s="289">
+      <c r="H23" s="284">
         <v>15.036042733497347</v>
       </c>
-      <c r="I23" s="289">
+      <c r="I23" s="284">
         <v>14.006986945024545</v>
       </c>
-      <c r="J23" s="289">
+      <c r="J23" s="284">
         <v>12.402099472097303</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A24" s="279" t="s">
-        <v>523</v>
-      </c>
-      <c r="B24" s="280">
+      <c r="A24" s="274" t="s">
+        <v>517</v>
+      </c>
+      <c r="B24" s="275">
         <v>38.949275742186025</v>
       </c>
-      <c r="C24" s="280">
+      <c r="C24" s="275">
         <f>C23/C7*100</f>
         <v>39.174105915134803</v>
       </c>
-      <c r="D24" s="280">
+      <c r="D24" s="275">
         <f t="shared" ref="D24:J24" si="13">D23/D7*100</f>
-        <v>36.171230763353982</v>
-      </c>
-      <c r="E24" s="280">
+        <v>37.89172603275798</v>
+      </c>
+      <c r="E24" s="275">
         <f t="shared" si="13"/>
-        <v>33.130495344900673</v>
-      </c>
-      <c r="F24" s="280">
+        <v>36.676895851161042</v>
+      </c>
+      <c r="F24" s="275">
         <f t="shared" si="13"/>
-        <v>31.989879159646041</v>
-      </c>
-      <c r="G24" s="280">
+        <v>37.451910325608523</v>
+      </c>
+      <c r="G24" s="275">
         <f t="shared" si="13"/>
-        <v>31.128550881425827</v>
-      </c>
-      <c r="H24" s="280">
+        <v>38.450077181049771</v>
+      </c>
+      <c r="H24" s="275">
         <f t="shared" si="13"/>
-        <v>29.953993047564392</v>
-      </c>
-      <c r="I24" s="280">
+        <v>38.89503526694952</v>
+      </c>
+      <c r="I24" s="275">
         <f t="shared" si="13"/>
-        <v>27.296638963533056</v>
-      </c>
-      <c r="J24" s="280">
+        <v>37.339020992787958</v>
+      </c>
+      <c r="J24" s="275">
         <f t="shared" si="13"/>
-        <v>23.474357351272019</v>
+        <v>34.056731854397256</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A25" s="275" t="s">
-        <v>524</v>
-      </c>
-      <c r="B25" s="290">
+      <c r="A25" s="270" t="s">
+        <v>518</v>
+      </c>
+      <c r="B25" s="285">
         <v>9.3000000000000007</v>
       </c>
-      <c r="C25" s="290">
+      <c r="C25" s="285">
         <v>9.2643601509793907</v>
       </c>
-      <c r="D25" s="290">
+      <c r="D25" s="285">
         <f>9.833862</f>
         <v>9.8338619999999999</v>
       </c>
-      <c r="E25" s="290">
+      <c r="E25" s="285">
         <v>10.48898697884826</v>
       </c>
-      <c r="F25" s="290">
+      <c r="F25" s="285">
         <v>10.558664530036811</v>
       </c>
-      <c r="G25" s="290">
+      <c r="G25" s="285">
         <v>10.683061275212019</v>
       </c>
-      <c r="H25" s="290">
+      <c r="H25" s="285">
         <v>10.908168434618553</v>
       </c>
-      <c r="I25" s="290">
+      <c r="I25" s="285">
         <v>11.386691408476544</v>
       </c>
-      <c r="J25" s="290">
+      <c r="J25" s="285">
         <v>12.051735121577604</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A26" s="276" t="s">
-        <v>525</v>
-      </c>
-      <c r="B26" s="277">
+      <c r="A26" s="271" t="s">
+        <v>519</v>
+      </c>
+      <c r="B26" s="272">
         <v>20.224890829694324</v>
       </c>
-      <c r="C26" s="277">
+      <c r="C26" s="272">
         <f>C25/C7*100</f>
         <v>20.745129990101191</v>
       </c>
-      <c r="D26" s="277">
+      <c r="D26" s="272">
         <f t="shared" ref="D26:J26" si="14">D25/D7*100</f>
-        <v>21.540994353613023</v>
-      </c>
-      <c r="E26" s="277">
+        <v>22.565598109181025</v>
+      </c>
+      <c r="E26" s="272">
         <f t="shared" si="14"/>
-        <v>22.318269512234156</v>
-      </c>
-      <c r="F26" s="277">
+        <v>24.707292721005015</v>
+      </c>
+      <c r="F26" s="272">
         <f t="shared" si="14"/>
-        <v>21.890233813611378</v>
-      </c>
-      <c r="G26" s="277">
+        <v>25.627826529215557</v>
+      </c>
+      <c r="G26" s="272">
         <f t="shared" si="14"/>
-        <v>21.678441252130533</v>
-      </c>
-      <c r="H26" s="277">
+        <v>26.777274100691844</v>
+      </c>
+      <c r="H26" s="272">
         <f t="shared" si="14"/>
-        <v>21.730664593304585</v>
-      </c>
-      <c r="I26" s="277">
+        <v>28.217104957883365</v>
+      </c>
+      <c r="I26" s="272">
         <f t="shared" si="14"/>
-        <v>22.190240169871398</v>
-      </c>
-      <c r="J26" s="277">
+        <v>30.353987706865738</v>
+      </c>
+      <c r="J26" s="272">
         <f t="shared" si="14"/>
-        <v>22.811197215703867</v>
+        <v>33.09461533825133</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A27" s="275" t="s">
-        <v>526</v>
-      </c>
-      <c r="B27" s="290">
+      <c r="A27" s="270" t="s">
+        <v>520</v>
+      </c>
+      <c r="B27" s="285">
         <v>0.69599999999999995</v>
       </c>
-      <c r="C27" s="290">
+      <c r="C27" s="285">
         <v>0.59399999999999997</v>
       </c>
-      <c r="D27" s="290">
+      <c r="D27" s="285">
         <f>D28/1000*D7</f>
-        <v>0.66651698079999999</v>
-      </c>
-      <c r="E27" s="290">
+        <v>0.63625339999999997</v>
+      </c>
+      <c r="E27" s="285">
         <f t="shared" ref="E27:J27" si="15">E28/1000*E7</f>
-        <v>0.68616076979999996</v>
-      </c>
-      <c r="F27" s="290">
+        <v>0.61981380000000008</v>
+      </c>
+      <c r="F27" s="285">
         <f t="shared" si="15"/>
-        <v>0.70422501399999993</v>
-      </c>
-      <c r="G27" s="290">
+        <v>0.60152000000000005</v>
+      </c>
+      <c r="G27" s="285">
         <f t="shared" si="15"/>
-        <v>0.71948297760000002</v>
-      </c>
-      <c r="H27" s="290">
+        <v>0.58248160000000004</v>
+      </c>
+      <c r="H27" s="285">
         <f t="shared" si="15"/>
-        <v>0.73287799580000001</v>
-      </c>
-      <c r="I27" s="290">
+        <v>0.56440679999999999</v>
+      </c>
+      <c r="I27" s="285">
         <f t="shared" si="15"/>
-        <v>0.74918384519999992</v>
-      </c>
-      <c r="J27" s="290">
+        <v>0.5476898</v>
+      </c>
+      <c r="J27" s="285">
         <f t="shared" si="15"/>
-        <v>0.77135509859999996</v>
+        <v>0.53167359999999997</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A28" s="276" t="s">
-        <v>527</v>
-      </c>
-      <c r="B28" s="277">
+      <c r="A28" s="271" t="s">
+        <v>521</v>
+      </c>
+      <c r="B28" s="272">
         <v>19.335971628692409</v>
       </c>
-      <c r="C28" s="277">
+      <c r="C28" s="272">
         <f>14.6</f>
         <v>14.6</v>
       </c>
-      <c r="D28" s="277">
+      <c r="D28" s="272">
         <f t="shared" ref="D28:J28" si="16">14.6</f>
         <v>14.6</v>
       </c>
-      <c r="E28" s="277">
+      <c r="E28" s="272">
         <f t="shared" si="16"/>
         <v>14.6</v>
       </c>
-      <c r="F28" s="277">
+      <c r="F28" s="272">
         <f t="shared" si="16"/>
         <v>14.6</v>
       </c>
-      <c r="G28" s="277">
+      <c r="G28" s="272">
         <f t="shared" si="16"/>
         <v>14.6</v>
       </c>
-      <c r="H28" s="277">
+      <c r="H28" s="272">
         <f t="shared" si="16"/>
         <v>14.6</v>
       </c>
-      <c r="I28" s="277">
+      <c r="I28" s="272">
         <f t="shared" si="16"/>
         <v>14.6</v>
       </c>
-      <c r="J28" s="277">
+      <c r="J28" s="272">
         <f t="shared" si="16"/>
         <v>14.6</v>
       </c>
@@ -9782,1065 +9746,6 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="80.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A1" s="263" t="s">
-        <v>501</v>
-      </c>
-      <c r="B1" s="264">
-        <v>2010</v>
-      </c>
-      <c r="C1" s="264">
-        <v>2015</v>
-      </c>
-      <c r="D1" s="264">
-        <v>2020</v>
-      </c>
-      <c r="E1" s="264">
-        <v>2025</v>
-      </c>
-      <c r="F1" s="264">
-        <v>2030</v>
-      </c>
-      <c r="G1" s="264">
-        <v>2035</v>
-      </c>
-      <c r="H1" s="264">
-        <v>2040</v>
-      </c>
-      <c r="I1" s="264">
-        <v>2045</v>
-      </c>
-      <c r="J1" s="264">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="265" t="s">
-        <v>528</v>
-      </c>
-      <c r="B2" s="266">
-        <v>6958</v>
-      </c>
-      <c r="C2" s="266">
-        <v>7383</v>
-      </c>
-      <c r="D2" s="266">
-        <v>7795</v>
-      </c>
-      <c r="E2" s="266">
-        <v>8185</v>
-      </c>
-      <c r="F2" s="266">
-        <v>8551</v>
-      </c>
-      <c r="G2" s="266">
-        <v>8892</v>
-      </c>
-      <c r="H2" s="266">
-        <v>9210</v>
-      </c>
-      <c r="I2" s="266">
-        <v>9504</v>
-      </c>
-      <c r="J2" s="266">
-        <v>9771</v>
-      </c>
-      <c r="L2" s="267" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="269" t="s">
-        <v>502</v>
-      </c>
-      <c r="B3" s="268">
-        <v>1.18</v>
-      </c>
-      <c r="C3" s="268">
-        <f>((C2-B2)/5)/B2*100</f>
-        <v>1.2216154067260707</v>
-      </c>
-      <c r="D3" s="268">
-        <f t="shared" ref="D3:J3" si="0">((D2-C2)/5)/C2*100</f>
-        <v>1.1160774752810512</v>
-      </c>
-      <c r="E3" s="268">
-        <f t="shared" si="0"/>
-        <v>1.0006414368184735</v>
-      </c>
-      <c r="F3" s="268">
-        <f t="shared" si="0"/>
-        <v>0.89431887599266957</v>
-      </c>
-      <c r="G3" s="268">
-        <f t="shared" si="0"/>
-        <v>0.7975675359607064</v>
-      </c>
-      <c r="H3" s="268">
-        <f t="shared" si="0"/>
-        <v>0.71524966261808365</v>
-      </c>
-      <c r="I3" s="268">
-        <f t="shared" si="0"/>
-        <v>0.6384364820846905</v>
-      </c>
-      <c r="J3" s="268">
-        <f t="shared" si="0"/>
-        <v>0.56186868686868685</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A4" s="265" t="s">
-        <v>503</v>
-      </c>
-      <c r="B4" s="266">
-        <v>66036.387107063027</v>
-      </c>
-      <c r="C4" s="266">
-        <v>75037.186502549754</v>
-      </c>
-      <c r="D4" s="266">
-        <f>D2*D5</f>
-        <v>99030.690232184643</v>
-      </c>
-      <c r="E4" s="266">
-        <f t="shared" ref="E4:J4" si="1">E2*E5</f>
-        <v>129981.75105042197</v>
-      </c>
-      <c r="F4" s="266">
-        <f t="shared" si="1"/>
-        <v>169742.50965671323</v>
-      </c>
-      <c r="G4" s="266">
-        <f t="shared" si="1"/>
-        <v>220639.45676930973</v>
-      </c>
-      <c r="H4" s="266">
-        <f t="shared" si="1"/>
-        <v>285662.58952504257</v>
-      </c>
-      <c r="I4" s="266">
-        <f t="shared" si="1"/>
-        <v>368476.8255762764</v>
-      </c>
-      <c r="J4" s="266">
-        <f t="shared" si="1"/>
-        <v>473535.75635335071</v>
-      </c>
-      <c r="L4" s="50" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A5" s="265" t="s">
-        <v>504</v>
-      </c>
-      <c r="B5" s="270">
-        <f>B4/B2</f>
-        <v>9.4907138699429474</v>
-      </c>
-      <c r="C5" s="270">
-        <f>C4/C2</f>
-        <v>10.163508939800861</v>
-      </c>
-      <c r="D5" s="270">
-        <f>(C5*D6/100)*5+C5</f>
-        <v>12.704386174751077</v>
-      </c>
-      <c r="E5" s="270">
-        <f t="shared" ref="E5:J5" si="2">(D5*E6/100)*5+D5</f>
-        <v>15.880482718438847</v>
-      </c>
-      <c r="F5" s="270">
-        <f t="shared" si="2"/>
-        <v>19.850603398048559</v>
-      </c>
-      <c r="G5" s="270">
-        <f t="shared" si="2"/>
-        <v>24.8132542475607</v>
-      </c>
-      <c r="H5" s="270">
-        <f t="shared" si="2"/>
-        <v>31.016567809450876</v>
-      </c>
-      <c r="I5" s="270">
-        <f t="shared" si="2"/>
-        <v>38.770709761813592</v>
-      </c>
-      <c r="J5" s="270">
-        <f t="shared" si="2"/>
-        <v>48.463387202266986</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="269" t="s">
-        <v>505</v>
-      </c>
-      <c r="B6" s="268">
-        <v>7.37</v>
-      </c>
-      <c r="C6" s="268">
-        <v>5</v>
-      </c>
-      <c r="D6" s="268">
-        <v>5</v>
-      </c>
-      <c r="E6" s="268">
-        <v>5</v>
-      </c>
-      <c r="F6" s="268">
-        <v>5</v>
-      </c>
-      <c r="G6" s="268">
-        <v>5</v>
-      </c>
-      <c r="H6" s="268">
-        <v>5</v>
-      </c>
-      <c r="I6" s="268">
-        <v>5</v>
-      </c>
-      <c r="J6" s="268">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A7" s="271" t="s">
-        <v>506</v>
-      </c>
-      <c r="B7" s="272">
-        <v>45.792999999999999</v>
-      </c>
-      <c r="C7" s="273">
-        <v>44.658000000000001</v>
-      </c>
-      <c r="D7" s="273">
-        <v>43.579000000000001</v>
-      </c>
-      <c r="E7" s="273">
-        <v>42.453000000000003</v>
-      </c>
-      <c r="F7" s="273">
-        <v>41.2</v>
-      </c>
-      <c r="G7" s="273">
-        <v>39.896000000000001</v>
-      </c>
-      <c r="H7" s="273">
-        <v>38.658000000000001</v>
-      </c>
-      <c r="I7" s="273">
-        <v>37.512999999999998</v>
-      </c>
-      <c r="J7" s="273">
-        <v>36.415999999999997</v>
-      </c>
-      <c r="L7" s="267" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="269" t="s">
-        <v>507</v>
-      </c>
-      <c r="B8" s="268">
-        <f t="shared" ref="B8:J8" si="3">B7/B2*100</f>
-        <v>0.65813452141419948</v>
-      </c>
-      <c r="C8" s="268">
-        <f t="shared" si="3"/>
-        <v>0.60487606663957738</v>
-      </c>
-      <c r="D8" s="268">
-        <f t="shared" si="3"/>
-        <v>0.55906350224502888</v>
-      </c>
-      <c r="E8" s="268">
-        <f t="shared" si="3"/>
-        <v>0.51866829566279782</v>
-      </c>
-      <c r="F8" s="268">
-        <f t="shared" si="3"/>
-        <v>0.48181499239854991</v>
-      </c>
-      <c r="G8" s="268">
-        <f t="shared" si="3"/>
-        <v>0.44867296446243815</v>
-      </c>
-      <c r="H8" s="268">
-        <f t="shared" si="3"/>
-        <v>0.41973941368078177</v>
-      </c>
-      <c r="I8" s="268">
-        <f t="shared" si="3"/>
-        <v>0.39470749158249158</v>
-      </c>
-      <c r="J8" s="268">
-        <f t="shared" si="3"/>
-        <v>0.37269470883225869</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A9" s="265" t="s">
-        <v>508</v>
-      </c>
-      <c r="B9" s="266">
-        <v>136.4</v>
-      </c>
-      <c r="C9" s="266">
-        <v>91</v>
-      </c>
-      <c r="D9" s="266">
-        <f t="shared" ref="D9:J9" si="4">D7*D10</f>
-        <v>143.94755572846407</v>
-      </c>
-      <c r="E9" s="266">
-        <f t="shared" si="4"/>
-        <v>188.76875719684764</v>
-      </c>
-      <c r="F9" s="266">
-        <f t="shared" si="4"/>
-        <v>237.1750093998842</v>
-      </c>
-      <c r="G9" s="266">
-        <f t="shared" si="4"/>
-        <v>296.98487743820453</v>
-      </c>
-      <c r="H9" s="266">
-        <f t="shared" si="4"/>
-        <v>371.70192829710311</v>
-      </c>
-      <c r="I9" s="266">
-        <f t="shared" si="4"/>
-        <v>465.40980329437224</v>
-      </c>
-      <c r="J9" s="266">
-        <f t="shared" si="4"/>
-        <v>564.74966667448143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A10" s="265" t="s">
-        <v>509</v>
-      </c>
-      <c r="B10" s="270">
-        <f>B9/B7</f>
-        <v>2.9786211866442471</v>
-      </c>
-      <c r="C10" s="270">
-        <f>C9/C7</f>
-        <v>2.0377088091719289</v>
-      </c>
-      <c r="D10" s="270">
-        <f t="shared" ref="D10:J10" si="5">D5*D11/100</f>
-        <v>3.30314040543528</v>
-      </c>
-      <c r="E10" s="270">
-        <f t="shared" si="5"/>
-        <v>4.4465351611628776</v>
-      </c>
-      <c r="F10" s="270">
-        <f t="shared" si="5"/>
-        <v>5.7566749854340822</v>
-      </c>
-      <c r="G10" s="270">
-        <f t="shared" si="5"/>
-        <v>7.4439762742682101</v>
-      </c>
-      <c r="H10" s="270">
-        <f t="shared" si="5"/>
-        <v>9.6151360209297714</v>
-      </c>
-      <c r="I10" s="270">
-        <f t="shared" si="5"/>
-        <v>12.40662712378035</v>
-      </c>
-      <c r="J10" s="270">
-        <f t="shared" si="5"/>
-        <v>15.508283904725436</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="269" t="s">
-        <v>510</v>
-      </c>
-      <c r="B11" s="268">
-        <f t="shared" ref="B11:C11" si="6">B10/B5*100</f>
-        <v>31.384585263681043</v>
-      </c>
-      <c r="C11" s="268">
-        <f t="shared" si="6"/>
-        <v>20.049264690388068</v>
-      </c>
-      <c r="D11" s="268">
-        <v>26</v>
-      </c>
-      <c r="E11" s="268">
-        <v>28</v>
-      </c>
-      <c r="F11" s="268">
-        <v>29</v>
-      </c>
-      <c r="G11" s="268">
-        <v>30</v>
-      </c>
-      <c r="H11" s="268">
-        <v>31</v>
-      </c>
-      <c r="I11" s="268">
-        <v>32</v>
-      </c>
-      <c r="J11" s="268">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A12" s="269" t="s">
-        <v>511</v>
-      </c>
-      <c r="B12" s="268">
-        <v>31.269164</v>
-      </c>
-      <c r="C12" s="268">
-        <v>29.6</v>
-      </c>
-      <c r="D12" s="268">
-        <f>D7*D13/100</f>
-        <v>30.025931000000003</v>
-      </c>
-      <c r="E12" s="268">
-        <f t="shared" ref="E12:J12" si="7">E7*E13/100</f>
-        <v>29.802006000000002</v>
-      </c>
-      <c r="F12" s="268">
-        <f t="shared" si="7"/>
-        <v>29.046000000000003</v>
-      </c>
-      <c r="G12" s="268">
-        <f t="shared" si="7"/>
-        <v>28.246367999999997</v>
-      </c>
-      <c r="H12" s="268">
-        <f t="shared" si="7"/>
-        <v>27.485837999999998</v>
-      </c>
-      <c r="I12" s="268">
-        <f t="shared" si="7"/>
-        <v>26.784282000000005</v>
-      </c>
-      <c r="J12" s="268">
-        <f t="shared" si="7"/>
-        <v>26.110271999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A13" s="269" t="s">
-        <v>512</v>
-      </c>
-      <c r="B13" s="268">
-        <v>68.273283842794768</v>
-      </c>
-      <c r="C13" s="268">
-        <v>68.612300000000005</v>
-      </c>
-      <c r="D13" s="268">
-        <v>68.900000000000006</v>
-      </c>
-      <c r="E13" s="268">
-        <v>70.2</v>
-      </c>
-      <c r="F13" s="268">
-        <v>70.5</v>
-      </c>
-      <c r="G13" s="268">
-        <v>70.8</v>
-      </c>
-      <c r="H13" s="268">
-        <v>71.099999999999994</v>
-      </c>
-      <c r="I13" s="268">
-        <v>71.400000000000006</v>
-      </c>
-      <c r="J13" s="268">
-        <v>71.7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A14" s="265" t="s">
-        <v>513</v>
-      </c>
-      <c r="B14" s="274">
-        <v>1.61E-2</v>
-      </c>
-      <c r="C14" s="274">
-        <v>6.1412000000000001E-2</v>
-      </c>
-      <c r="D14" s="274">
-        <v>6.1412000000000001E-2</v>
-      </c>
-      <c r="E14" s="274">
-        <v>6.1412000000000001E-2</v>
-      </c>
-      <c r="F14" s="274">
-        <v>6.1412000000000001E-2</v>
-      </c>
-      <c r="G14" s="274">
-        <v>6.1412000000000001E-2</v>
-      </c>
-      <c r="H14" s="274">
-        <v>6.1412000000000001E-2</v>
-      </c>
-      <c r="I14" s="274">
-        <v>6.1412000000000001E-2</v>
-      </c>
-      <c r="J14" s="274">
-        <v>6.1412000000000001E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A15" s="269" t="s">
-        <v>514</v>
-      </c>
-      <c r="B15" s="268">
-        <f t="shared" ref="B15:J15" si="8">B14/B7*100</f>
-        <v>3.5158211953792068E-2</v>
-      </c>
-      <c r="C15" s="268">
-        <f t="shared" si="8"/>
-        <v>0.13751623449325989</v>
-      </c>
-      <c r="D15" s="268">
-        <f t="shared" si="8"/>
-        <v>0.14092108584409924</v>
-      </c>
-      <c r="E15" s="268">
-        <f t="shared" si="8"/>
-        <v>0.1446587991425812</v>
-      </c>
-      <c r="F15" s="268">
-        <f t="shared" si="8"/>
-        <v>0.14905825242718446</v>
-      </c>
-      <c r="G15" s="268">
-        <f t="shared" si="8"/>
-        <v>0.15393021856827752</v>
-      </c>
-      <c r="H15" s="268">
-        <f t="shared" si="8"/>
-        <v>0.15885974442547468</v>
-      </c>
-      <c r="I15" s="268">
-        <f t="shared" si="8"/>
-        <v>0.1637085810252446</v>
-      </c>
-      <c r="J15" s="268">
-        <f t="shared" si="8"/>
-        <v>0.16864015817223199</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A16" s="281" t="s">
-        <v>515</v>
-      </c>
-      <c r="B16" s="282">
-        <f>B6*B17/100</f>
-        <v>1.7734920191936709</v>
-      </c>
-      <c r="C16" s="282">
-        <v>10.364474</v>
-      </c>
-      <c r="D16" s="282">
-        <v>9.7652529999999995</v>
-      </c>
-      <c r="E16" s="282">
-        <v>9.1509217508729037</v>
-      </c>
-      <c r="F16" s="282">
-        <v>8.699012274103552</v>
-      </c>
-      <c r="G16" s="282">
-        <v>8.0708054243255862</v>
-      </c>
-      <c r="H16" s="282">
-        <v>7.3799394299405385</v>
-      </c>
-      <c r="I16" s="282">
-        <v>7.0098887653397446</v>
-      </c>
-      <c r="J16" s="282">
-        <v>6.9101597975593796</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A17" s="283" t="s">
-        <v>516</v>
-      </c>
-      <c r="B17" s="284">
-        <v>24.063663761108153</v>
-      </c>
-      <c r="C17" s="284">
-        <f>C16/C7*100</f>
-        <v>23.208549420036722</v>
-      </c>
-      <c r="D17" s="284">
-        <f t="shared" ref="D17:J17" si="9">D16/D7*100</f>
-        <v>22.408162188209914</v>
-      </c>
-      <c r="E17" s="284">
-        <f t="shared" si="9"/>
-        <v>21.55541834704945</v>
-      </c>
-      <c r="F17" s="284">
-        <f t="shared" si="9"/>
-        <v>21.114107461416388</v>
-      </c>
-      <c r="G17" s="284">
-        <f t="shared" si="9"/>
-        <v>20.229610548239389</v>
-      </c>
-      <c r="H17" s="284">
-        <f t="shared" si="9"/>
-        <v>19.090329116717207</v>
-      </c>
-      <c r="I17" s="284">
-        <f t="shared" si="9"/>
-        <v>18.686558700556461</v>
-      </c>
-      <c r="J17" s="284">
-        <f t="shared" si="9"/>
-        <v>18.97561455832431</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A18" s="285" t="s">
-        <v>517</v>
-      </c>
-      <c r="B18" s="286">
-        <v>8.1</v>
-      </c>
-      <c r="C18" s="286">
-        <v>7.6</v>
-      </c>
-      <c r="D18" s="286">
-        <v>8.3351299999999995</v>
-      </c>
-      <c r="E18" s="286">
-        <v>8.3994222663254501</v>
-      </c>
-      <c r="F18" s="286">
-        <v>7.955343897018075</v>
-      </c>
-      <c r="G18" s="286">
-        <v>7.4657413087604318</v>
-      </c>
-      <c r="H18" s="286">
-        <v>6.9836666655364557</v>
-      </c>
-      <c r="I18" s="286">
-        <v>6.5128469699510321</v>
-      </c>
-      <c r="J18" s="286">
-        <v>6.0942562915725027</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A19" s="287" t="s">
-        <v>518</v>
-      </c>
-      <c r="B19" s="288">
-        <v>17.651088868013414</v>
-      </c>
-      <c r="C19" s="288">
-        <f>C18/C7*100</f>
-        <v>17.018227417260064</v>
-      </c>
-      <c r="D19" s="288">
-        <f t="shared" ref="D19:J19" si="10">D18/D7*100</f>
-        <v>19.126482939030264</v>
-      </c>
-      <c r="E19" s="288">
-        <f t="shared" si="10"/>
-        <v>19.785226641993383</v>
-      </c>
-      <c r="F19" s="288">
-        <f t="shared" si="10"/>
-        <v>19.309087128684645</v>
-      </c>
-      <c r="G19" s="288">
-        <f t="shared" si="10"/>
-        <v>18.713007090335953</v>
-      </c>
-      <c r="H19" s="288">
-        <f t="shared" si="10"/>
-        <v>18.065256002732824</v>
-      </c>
-      <c r="I19" s="288">
-        <f t="shared" si="10"/>
-        <v>17.361573241145823</v>
-      </c>
-      <c r="J19" s="288">
-        <f t="shared" si="10"/>
-        <v>16.735106248826074</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A20" s="285" t="s">
-        <v>519</v>
-      </c>
-      <c r="B20" s="286">
-        <f>B18/B16</f>
-        <v>4.567260473877246</v>
-      </c>
-      <c r="C20" s="286">
-        <f>C18/C15</f>
-        <v>55.266202045202888</v>
-      </c>
-      <c r="D20" s="286">
-        <f t="shared" ref="D20:J20" si="11">D18/D15</f>
-        <v>59.147500532469216</v>
-      </c>
-      <c r="E20" s="286">
-        <f t="shared" si="11"/>
-        <v>58.063680302272253</v>
-      </c>
-      <c r="F20" s="286">
-        <f t="shared" si="11"/>
-        <v>53.370704187641621</v>
-      </c>
-      <c r="G20" s="286">
-        <f t="shared" si="11"/>
-        <v>48.500816657055005</v>
-      </c>
-      <c r="H20" s="286">
-        <f t="shared" si="11"/>
-        <v>43.961210505488879</v>
-      </c>
-      <c r="I20" s="286">
-        <f t="shared" si="11"/>
-        <v>39.783174035005054</v>
-      </c>
-      <c r="J20" s="286">
-        <f t="shared" si="11"/>
-        <v>36.137633868609434</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A21" s="285" t="s">
-        <v>520</v>
-      </c>
-      <c r="B21" s="286">
-        <v>0.495</v>
-      </c>
-      <c r="C21" s="286">
-        <v>0.41199999999999998</v>
-      </c>
-      <c r="D21" s="286">
-        <f>D16*D22/1000*0.9938</f>
-        <v>0.44641658784440003</v>
-      </c>
-      <c r="E21" s="286">
-        <f t="shared" ref="E21:J21" si="12">E16*E22/1000*0.9938</f>
-        <v>0.41833255765680466</v>
-      </c>
-      <c r="F21" s="286">
-        <f t="shared" si="12"/>
-        <v>0.3976736063081891</v>
-      </c>
-      <c r="G21" s="286">
-        <f t="shared" si="12"/>
-        <v>0.36895525581195926</v>
-      </c>
-      <c r="H21" s="286">
-        <f t="shared" si="12"/>
-        <v>0.33737245505184571</v>
-      </c>
-      <c r="I21" s="286">
-        <f t="shared" si="12"/>
-        <v>0.32045566292975336</v>
-      </c>
-      <c r="J21" s="286">
-        <f t="shared" si="12"/>
-        <v>0.31589657311346753</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A22" s="285" t="s">
-        <v>521</v>
-      </c>
-      <c r="B22" s="286">
-        <v>44.9</v>
-      </c>
-      <c r="C22" s="286">
-        <v>46</v>
-      </c>
-      <c r="D22" s="286">
-        <v>46</v>
-      </c>
-      <c r="E22" s="286">
-        <v>46</v>
-      </c>
-      <c r="F22" s="286">
-        <v>46</v>
-      </c>
-      <c r="G22" s="286">
-        <v>46</v>
-      </c>
-      <c r="H22" s="286">
-        <v>46</v>
-      </c>
-      <c r="I22" s="286">
-        <v>46</v>
-      </c>
-      <c r="J22" s="286">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A23" s="278" t="s">
-        <v>522</v>
-      </c>
-      <c r="B23" s="289">
-        <v>17.8</v>
-      </c>
-      <c r="C23" s="289">
-        <v>17.494372219580899</v>
-      </c>
-      <c r="D23" s="289">
-        <v>16.512835287815602</v>
-      </c>
-      <c r="E23" s="289">
-        <v>15.570442595693399</v>
-      </c>
-      <c r="F23" s="289">
-        <v>15.430187054150712</v>
-      </c>
-      <c r="G23" s="289">
-        <v>15.340042792151616</v>
-      </c>
-      <c r="H23" s="289">
-        <v>15.036042733497347</v>
-      </c>
-      <c r="I23" s="289">
-        <v>14.006986945024545</v>
-      </c>
-      <c r="J23" s="289">
-        <v>12.402099472097303</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A24" s="279" t="s">
-        <v>523</v>
-      </c>
-      <c r="B24" s="280">
-        <v>38.949275742186025</v>
-      </c>
-      <c r="C24" s="280">
-        <f>C23/C7*100</f>
-        <v>39.174105915134803</v>
-      </c>
-      <c r="D24" s="280">
-        <f t="shared" ref="D24:J24" si="13">D23/D7*100</f>
-        <v>37.89172603275798</v>
-      </c>
-      <c r="E24" s="280">
-        <f t="shared" si="13"/>
-        <v>36.676895851161042</v>
-      </c>
-      <c r="F24" s="280">
-        <f t="shared" si="13"/>
-        <v>37.451910325608523</v>
-      </c>
-      <c r="G24" s="280">
-        <f t="shared" si="13"/>
-        <v>38.450077181049771</v>
-      </c>
-      <c r="H24" s="280">
-        <f t="shared" si="13"/>
-        <v>38.89503526694952</v>
-      </c>
-      <c r="I24" s="280">
-        <f t="shared" si="13"/>
-        <v>37.339020992787958</v>
-      </c>
-      <c r="J24" s="280">
-        <f t="shared" si="13"/>
-        <v>34.056731854397256</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A25" s="275" t="s">
-        <v>524</v>
-      </c>
-      <c r="B25" s="290">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="C25" s="290">
-        <v>9.2643601509793907</v>
-      </c>
-      <c r="D25" s="290">
-        <f>9.833862</f>
-        <v>9.8338619999999999</v>
-      </c>
-      <c r="E25" s="290">
-        <v>10.48898697884826</v>
-      </c>
-      <c r="F25" s="290">
-        <v>10.558664530036811</v>
-      </c>
-      <c r="G25" s="290">
-        <v>10.683061275212019</v>
-      </c>
-      <c r="H25" s="290">
-        <v>10.908168434618553</v>
-      </c>
-      <c r="I25" s="290">
-        <v>11.386691408476544</v>
-      </c>
-      <c r="J25" s="290">
-        <v>12.051735121577604</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A26" s="276" t="s">
-        <v>525</v>
-      </c>
-      <c r="B26" s="277">
-        <v>20.224890829694324</v>
-      </c>
-      <c r="C26" s="277">
-        <f>C25/C7*100</f>
-        <v>20.745129990101191</v>
-      </c>
-      <c r="D26" s="277">
-        <f t="shared" ref="D26:J26" si="14">D25/D7*100</f>
-        <v>22.565598109181025</v>
-      </c>
-      <c r="E26" s="277">
-        <f t="shared" si="14"/>
-        <v>24.707292721005015</v>
-      </c>
-      <c r="F26" s="277">
-        <f t="shared" si="14"/>
-        <v>25.627826529215557</v>
-      </c>
-      <c r="G26" s="277">
-        <f t="shared" si="14"/>
-        <v>26.777274100691844</v>
-      </c>
-      <c r="H26" s="277">
-        <f t="shared" si="14"/>
-        <v>28.217104957883365</v>
-      </c>
-      <c r="I26" s="277">
-        <f t="shared" si="14"/>
-        <v>30.353987706865738</v>
-      </c>
-      <c r="J26" s="277">
-        <f t="shared" si="14"/>
-        <v>33.09461533825133</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A27" s="275" t="s">
-        <v>526</v>
-      </c>
-      <c r="B27" s="290">
-        <v>0.69599999999999995</v>
-      </c>
-      <c r="C27" s="290">
-        <v>0.59399999999999997</v>
-      </c>
-      <c r="D27" s="290">
-        <f>D28/1000*D7</f>
-        <v>0.63625339999999997</v>
-      </c>
-      <c r="E27" s="290">
-        <f t="shared" ref="E27:J27" si="15">E28/1000*E7</f>
-        <v>0.61981380000000008</v>
-      </c>
-      <c r="F27" s="290">
-        <f t="shared" si="15"/>
-        <v>0.60152000000000005</v>
-      </c>
-      <c r="G27" s="290">
-        <f t="shared" si="15"/>
-        <v>0.58248160000000004</v>
-      </c>
-      <c r="H27" s="290">
-        <f t="shared" si="15"/>
-        <v>0.56440679999999999</v>
-      </c>
-      <c r="I27" s="290">
-        <f t="shared" si="15"/>
-        <v>0.5476898</v>
-      </c>
-      <c r="J27" s="290">
-        <f t="shared" si="15"/>
-        <v>0.53167359999999997</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A28" s="276" t="s">
-        <v>527</v>
-      </c>
-      <c r="B28" s="277">
-        <v>19.335971628692409</v>
-      </c>
-      <c r="C28" s="277">
-        <f>14.6</f>
-        <v>14.6</v>
-      </c>
-      <c r="D28" s="277">
-        <f t="shared" ref="D28:J28" si="16">14.6</f>
-        <v>14.6</v>
-      </c>
-      <c r="E28" s="277">
-        <f t="shared" si="16"/>
-        <v>14.6</v>
-      </c>
-      <c r="F28" s="277">
-        <f t="shared" si="16"/>
-        <v>14.6</v>
-      </c>
-      <c r="G28" s="277">
-        <f t="shared" si="16"/>
-        <v>14.6</v>
-      </c>
-      <c r="H28" s="277">
-        <f t="shared" si="16"/>
-        <v>14.6</v>
-      </c>
-      <c r="I28" s="277">
-        <f t="shared" si="16"/>
-        <v>14.6</v>
-      </c>
-      <c r="J28" s="277">
-        <f t="shared" si="16"/>
-        <v>14.6</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="L4" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -12687,16 +11592,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:10">
-      <c r="A3" s="295" t="s">
+      <c r="A3" s="290" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="295"/>
-      <c r="C3" s="295"/>
-      <c r="D3" s="295"/>
-      <c r="E3" s="295"/>
-      <c r="F3" s="295"/>
-      <c r="G3" s="295"/>
-      <c r="H3" s="295"/>
+      <c r="B3" s="290"/>
+      <c r="C3" s="290"/>
+      <c r="D3" s="290"/>
+      <c r="E3" s="290"/>
+      <c r="F3" s="290"/>
+      <c r="G3" s="290"/>
+      <c r="H3" s="290"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
@@ -14805,93 +13710,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75">
-      <c r="A1" s="354" t="s">
-        <v>499</v>
-      </c>
-      <c r="B1" s="354"/>
-      <c r="C1" s="354"/>
-      <c r="D1" s="354"/>
-      <c r="E1" s="354"/>
-      <c r="F1" s="354"/>
-      <c r="G1" s="354"/>
-      <c r="H1" s="354"/>
-      <c r="I1" s="354"/>
-      <c r="J1" s="354"/>
-      <c r="K1" s="354"/>
-      <c r="L1" s="354"/>
-      <c r="M1" s="354"/>
+      <c r="A1" s="349" t="s">
+        <v>493</v>
+      </c>
+      <c r="B1" s="349"/>
+      <c r="C1" s="349"/>
+      <c r="D1" s="349"/>
+      <c r="E1" s="349"/>
+      <c r="F1" s="349"/>
+      <c r="G1" s="349"/>
+      <c r="H1" s="349"/>
+      <c r="I1" s="349"/>
+      <c r="J1" s="349"/>
+      <c r="K1" s="349"/>
+      <c r="L1" s="349"/>
+      <c r="M1" s="349"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="3" spans="1:13">
-      <c r="A3" s="355" t="s">
+      <c r="A3" s="350" t="s">
         <v>81</v>
       </c>
       <c r="B3" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="358" t="s">
+      <c r="C3" s="353" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="359"/>
-      <c r="E3" s="359"/>
-      <c r="F3" s="360"/>
-      <c r="G3" s="361" t="s">
-        <v>500</v>
-      </c>
-      <c r="H3" s="362"/>
-      <c r="I3" s="362"/>
-      <c r="J3" s="363"/>
-      <c r="K3" s="364" t="s">
+      <c r="D3" s="354"/>
+      <c r="E3" s="354"/>
+      <c r="F3" s="355"/>
+      <c r="G3" s="356" t="s">
+        <v>494</v>
+      </c>
+      <c r="H3" s="357"/>
+      <c r="I3" s="357"/>
+      <c r="J3" s="358"/>
+      <c r="K3" s="359" t="s">
         <v>84</v>
       </c>
-      <c r="L3" s="365"/>
-      <c r="M3" s="366"/>
+      <c r="L3" s="360"/>
+      <c r="M3" s="361"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="356"/>
+      <c r="A4" s="351"/>
       <c r="B4" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="373">
+      <c r="C4" s="368">
         <v>42.5</v>
       </c>
-      <c r="D4" s="374"/>
-      <c r="E4" s="374"/>
-      <c r="F4" s="375"/>
-      <c r="G4" s="376">
+      <c r="D4" s="369"/>
+      <c r="E4" s="369"/>
+      <c r="F4" s="370"/>
+      <c r="G4" s="371">
         <v>511.8</v>
       </c>
-      <c r="H4" s="377"/>
-      <c r="I4" s="377"/>
-      <c r="J4" s="378"/>
-      <c r="K4" s="367"/>
-      <c r="L4" s="368"/>
-      <c r="M4" s="369"/>
+      <c r="H4" s="372"/>
+      <c r="I4" s="372"/>
+      <c r="J4" s="373"/>
+      <c r="K4" s="362"/>
+      <c r="L4" s="363"/>
+      <c r="M4" s="364"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="356"/>
+      <c r="A5" s="351"/>
       <c r="B5" s="68" t="s">
         <v>469</v>
       </c>
-      <c r="C5" s="379">
+      <c r="C5" s="374">
         <f>33.4954</f>
         <v>33.495399999999997</v>
       </c>
-      <c r="D5" s="380"/>
-      <c r="E5" s="380"/>
-      <c r="F5" s="381"/>
-      <c r="G5" s="382">
+      <c r="D5" s="375"/>
+      <c r="E5" s="375"/>
+      <c r="F5" s="376"/>
+      <c r="G5" s="377">
         <v>1</v>
       </c>
-      <c r="H5" s="383"/>
-      <c r="I5" s="383"/>
-      <c r="J5" s="384"/>
-      <c r="K5" s="370"/>
-      <c r="L5" s="371"/>
-      <c r="M5" s="372"/>
+      <c r="H5" s="378"/>
+      <c r="I5" s="378"/>
+      <c r="J5" s="379"/>
+      <c r="K5" s="365"/>
+      <c r="L5" s="366"/>
+      <c r="M5" s="367"/>
     </row>
     <row r="6" spans="1:13" ht="52.5" thickBot="1">
-      <c r="A6" s="357"/>
+      <c r="A6" s="352"/>
       <c r="B6" s="69" t="s">
         <v>86</v>
       </c>
@@ -15798,20 +14703,20 @@
       <c r="F30" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="I30" s="385" t="s">
+      <c r="I30" s="380" t="s">
         <v>247</v>
       </c>
-      <c r="J30" s="385"/>
-      <c r="K30" s="385"/>
-      <c r="L30" s="385"/>
-      <c r="M30" s="385"/>
-      <c r="N30" s="385"/>
-      <c r="O30" s="385"/>
-      <c r="P30" s="385"/>
-      <c r="Q30" s="385"/>
-      <c r="R30" s="385"/>
-      <c r="S30" s="385"/>
-      <c r="T30" s="385"/>
+      <c r="J30" s="380"/>
+      <c r="K30" s="380"/>
+      <c r="L30" s="380"/>
+      <c r="M30" s="380"/>
+      <c r="N30" s="380"/>
+      <c r="O30" s="380"/>
+      <c r="P30" s="380"/>
+      <c r="Q30" s="380"/>
+      <c r="R30" s="380"/>
+      <c r="S30" s="380"/>
+      <c r="T30" s="380"/>
       <c r="U30" s="111"/>
       <c r="V30" s="111"/>
     </row>
@@ -15846,10 +14751,10 @@
       <c r="R31" s="111"/>
       <c r="S31" s="111"/>
       <c r="T31" s="111"/>
-      <c r="U31" s="352" t="s">
+      <c r="U31" s="347" t="s">
         <v>248</v>
       </c>
-      <c r="V31" s="353"/>
+      <c r="V31" s="348"/>
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="52">
@@ -17412,46 +16317,46 @@
       <c r="F59" t="s">
         <v>192</v>
       </c>
-      <c r="I59" s="330" t="s">
+      <c r="I59" s="325" t="s">
         <v>279</v>
       </c>
-      <c r="J59" s="332">
+      <c r="J59" s="327">
         <v>6332.1</v>
       </c>
-      <c r="K59" s="332">
+      <c r="K59" s="327">
         <v>7771</v>
       </c>
-      <c r="L59" s="332">
+      <c r="L59" s="327">
         <v>10126</v>
       </c>
-      <c r="M59" s="332">
+      <c r="M59" s="327">
         <v>13716.3</v>
       </c>
-      <c r="N59" s="332">
+      <c r="N59" s="327">
         <v>14372.8</v>
       </c>
-      <c r="O59" s="332">
+      <c r="O59" s="327">
         <v>18485.599999999999</v>
       </c>
-      <c r="P59" s="332">
+      <c r="P59" s="327">
         <v>21637.9</v>
       </c>
-      <c r="Q59" s="332">
+      <c r="Q59" s="327">
         <v>25206.400000000001</v>
       </c>
-      <c r="R59" s="350">
+      <c r="R59" s="345">
         <v>26719.4</v>
       </c>
-      <c r="S59" s="332">
+      <c r="S59" s="327">
         <v>26782.1</v>
       </c>
-      <c r="T59" s="324">
+      <c r="T59" s="319">
         <v>31803.1</v>
       </c>
-      <c r="U59" s="343">
+      <c r="U59" s="338">
         <v>37079.9</v>
       </c>
-      <c r="V59" s="346">
+      <c r="V59" s="341">
         <v>47269.7</v>
       </c>
     </row>
@@ -17474,20 +16379,20 @@
       <c r="F60" t="s">
         <v>194</v>
       </c>
-      <c r="I60" s="331"/>
-      <c r="J60" s="333"/>
-      <c r="K60" s="333"/>
-      <c r="L60" s="333"/>
-      <c r="M60" s="333"/>
-      <c r="N60" s="333"/>
-      <c r="O60" s="333"/>
-      <c r="P60" s="333"/>
-      <c r="Q60" s="333"/>
-      <c r="R60" s="351"/>
-      <c r="S60" s="333"/>
-      <c r="T60" s="326"/>
-      <c r="U60" s="344"/>
-      <c r="V60" s="347"/>
+      <c r="I60" s="326"/>
+      <c r="J60" s="328"/>
+      <c r="K60" s="328"/>
+      <c r="L60" s="328"/>
+      <c r="M60" s="328"/>
+      <c r="N60" s="328"/>
+      <c r="O60" s="328"/>
+      <c r="P60" s="328"/>
+      <c r="Q60" s="328"/>
+      <c r="R60" s="346"/>
+      <c r="S60" s="328"/>
+      <c r="T60" s="321"/>
+      <c r="U60" s="339"/>
+      <c r="V60" s="342"/>
     </row>
     <row r="61" spans="1:22">
       <c r="A61" s="52">
@@ -17508,46 +16413,46 @@
       <c r="F61" t="s">
         <v>196</v>
       </c>
-      <c r="I61" s="330" t="s">
+      <c r="I61" s="325" t="s">
         <v>280</v>
       </c>
-      <c r="J61" s="327">
+      <c r="J61" s="322">
         <v>123.9</v>
       </c>
-      <c r="K61" s="327">
+      <c r="K61" s="322">
         <v>111.8</v>
       </c>
-      <c r="L61" s="327">
+      <c r="L61" s="322">
         <v>114.8</v>
       </c>
-      <c r="M61" s="327">
+      <c r="M61" s="322">
         <v>107.6</v>
       </c>
-      <c r="N61" s="327">
+      <c r="N61" s="322">
         <v>90</v>
       </c>
-      <c r="O61" s="327">
+      <c r="O61" s="322">
         <v>117.1</v>
       </c>
-      <c r="P61" s="327">
+      <c r="P61" s="322">
         <v>108</v>
       </c>
-      <c r="Q61" s="327">
+      <c r="Q61" s="322">
         <v>113.9</v>
       </c>
-      <c r="R61" s="334">
+      <c r="R61" s="329">
         <v>106.1</v>
       </c>
-      <c r="S61" s="327">
+      <c r="S61" s="322">
         <v>88.5</v>
       </c>
-      <c r="T61" s="324">
+      <c r="T61" s="319">
         <v>79.599999999999994</v>
       </c>
-      <c r="U61" s="340">
+      <c r="U61" s="335">
         <v>102</v>
       </c>
-      <c r="V61" s="348">
+      <c r="V61" s="343">
         <v>110.9</v>
       </c>
     </row>
@@ -17570,20 +16475,20 @@
       <c r="F62" t="s">
         <v>198</v>
       </c>
-      <c r="I62" s="345"/>
-      <c r="J62" s="328"/>
-      <c r="K62" s="328"/>
-      <c r="L62" s="328"/>
-      <c r="M62" s="328"/>
-      <c r="N62" s="328"/>
-      <c r="O62" s="328"/>
-      <c r="P62" s="328"/>
-      <c r="Q62" s="328"/>
-      <c r="R62" s="335"/>
-      <c r="S62" s="328"/>
-      <c r="T62" s="325"/>
-      <c r="U62" s="341"/>
-      <c r="V62" s="349"/>
+      <c r="I62" s="340"/>
+      <c r="J62" s="323"/>
+      <c r="K62" s="323"/>
+      <c r="L62" s="323"/>
+      <c r="M62" s="323"/>
+      <c r="N62" s="323"/>
+      <c r="O62" s="323"/>
+      <c r="P62" s="323"/>
+      <c r="Q62" s="323"/>
+      <c r="R62" s="330"/>
+      <c r="S62" s="323"/>
+      <c r="T62" s="320"/>
+      <c r="U62" s="336"/>
+      <c r="V62" s="344"/>
     </row>
     <row r="63" spans="1:22">
       <c r="A63" s="52">
@@ -17604,20 +16509,20 @@
       <c r="F63" t="s">
         <v>200</v>
       </c>
-      <c r="I63" s="331"/>
-      <c r="J63" s="329"/>
-      <c r="K63" s="329"/>
-      <c r="L63" s="329"/>
-      <c r="M63" s="329"/>
-      <c r="N63" s="329"/>
-      <c r="O63" s="329"/>
-      <c r="P63" s="329"/>
-      <c r="Q63" s="329"/>
-      <c r="R63" s="336"/>
-      <c r="S63" s="329"/>
-      <c r="T63" s="326"/>
-      <c r="U63" s="342"/>
-      <c r="V63" s="349"/>
+      <c r="I63" s="326"/>
+      <c r="J63" s="324"/>
+      <c r="K63" s="324"/>
+      <c r="L63" s="324"/>
+      <c r="M63" s="324"/>
+      <c r="N63" s="324"/>
+      <c r="O63" s="324"/>
+      <c r="P63" s="324"/>
+      <c r="Q63" s="324"/>
+      <c r="R63" s="331"/>
+      <c r="S63" s="324"/>
+      <c r="T63" s="321"/>
+      <c r="U63" s="337"/>
+      <c r="V63" s="344"/>
     </row>
     <row r="64" spans="1:22" ht="16.5">
       <c r="A64" s="52">
@@ -17638,22 +16543,22 @@
       <c r="F64" t="s">
         <v>150</v>
       </c>
-      <c r="I64" s="337" t="s">
+      <c r="I64" s="332" t="s">
         <v>281</v>
       </c>
-      <c r="J64" s="337"/>
-      <c r="K64" s="337"/>
-      <c r="L64" s="337"/>
-      <c r="M64" s="337"/>
-      <c r="N64" s="337"/>
-      <c r="O64" s="337"/>
-      <c r="P64" s="337"/>
-      <c r="Q64" s="337"/>
-      <c r="R64" s="337"/>
-      <c r="S64" s="337"/>
-      <c r="T64" s="337"/>
-      <c r="U64" s="337"/>
-      <c r="V64" s="338"/>
+      <c r="J64" s="332"/>
+      <c r="K64" s="332"/>
+      <c r="L64" s="332"/>
+      <c r="M64" s="332"/>
+      <c r="N64" s="332"/>
+      <c r="O64" s="332"/>
+      <c r="P64" s="332"/>
+      <c r="Q64" s="332"/>
+      <c r="R64" s="332"/>
+      <c r="S64" s="332"/>
+      <c r="T64" s="332"/>
+      <c r="U64" s="332"/>
+      <c r="V64" s="333"/>
     </row>
     <row r="65" spans="1:22">
       <c r="A65" s="52">
@@ -17674,22 +16579,22 @@
       <c r="F65" t="s">
         <v>150</v>
       </c>
-      <c r="I65" s="339" t="s">
+      <c r="I65" s="334" t="s">
         <v>282</v>
       </c>
-      <c r="J65" s="339"/>
-      <c r="K65" s="339"/>
-      <c r="L65" s="339"/>
-      <c r="M65" s="339"/>
-      <c r="N65" s="339"/>
-      <c r="O65" s="339"/>
-      <c r="P65" s="339"/>
-      <c r="Q65" s="339"/>
-      <c r="R65" s="339"/>
-      <c r="S65" s="339"/>
-      <c r="T65" s="339"/>
-      <c r="U65" s="339"/>
-      <c r="V65" s="338"/>
+      <c r="J65" s="334"/>
+      <c r="K65" s="334"/>
+      <c r="L65" s="334"/>
+      <c r="M65" s="334"/>
+      <c r="N65" s="334"/>
+      <c r="O65" s="334"/>
+      <c r="P65" s="334"/>
+      <c r="Q65" s="334"/>
+      <c r="R65" s="334"/>
+      <c r="S65" s="334"/>
+      <c r="T65" s="334"/>
+      <c r="U65" s="334"/>
+      <c r="V65" s="333"/>
     </row>
     <row r="66" spans="1:22">
       <c r="A66" s="52">
@@ -17771,16 +16676,16 @@
         <v>209</v>
       </c>
       <c r="I69" s="136"/>
-      <c r="J69" s="313" t="s">
+      <c r="J69" s="308" t="s">
         <v>283</v>
       </c>
-      <c r="K69" s="313"/>
-      <c r="L69" s="313"/>
-      <c r="M69" s="313"/>
-      <c r="N69" s="313"/>
-      <c r="O69" s="313"/>
-      <c r="P69" s="313"/>
-      <c r="Q69" s="313"/>
+      <c r="K69" s="308"/>
+      <c r="L69" s="308"/>
+      <c r="M69" s="308"/>
+      <c r="N69" s="308"/>
+      <c r="O69" s="308"/>
+      <c r="P69" s="308"/>
+      <c r="Q69" s="308"/>
       <c r="R69" s="136"/>
     </row>
     <row r="70" spans="1:22">
@@ -17802,18 +16707,18 @@
       <c r="F70" t="s">
         <v>211</v>
       </c>
-      <c r="I70" s="317" t="s">
+      <c r="I70" s="312" t="s">
         <v>284</v>
       </c>
-      <c r="J70" s="317"/>
-      <c r="K70" s="317"/>
-      <c r="L70" s="317"/>
-      <c r="M70" s="317"/>
-      <c r="N70" s="317"/>
-      <c r="O70" s="317"/>
-      <c r="P70" s="317"/>
-      <c r="Q70" s="317"/>
-      <c r="R70" s="317"/>
+      <c r="J70" s="312"/>
+      <c r="K70" s="312"/>
+      <c r="L70" s="312"/>
+      <c r="M70" s="312"/>
+      <c r="N70" s="312"/>
+      <c r="O70" s="312"/>
+      <c r="P70" s="312"/>
+      <c r="Q70" s="312"/>
+      <c r="R70" s="312"/>
     </row>
     <row r="71" spans="1:22">
       <c r="A71" s="52">
@@ -17932,16 +16837,16 @@
       <c r="J73" s="138" t="s">
         <v>290</v>
       </c>
-      <c r="K73" s="314" t="s">
+      <c r="K73" s="309" t="s">
         <v>291</v>
       </c>
-      <c r="L73" s="315"/>
-      <c r="M73" s="315"/>
-      <c r="N73" s="315"/>
-      <c r="O73" s="315"/>
-      <c r="P73" s="315"/>
-      <c r="Q73" s="315"/>
-      <c r="R73" s="316"/>
+      <c r="L73" s="310"/>
+      <c r="M73" s="310"/>
+      <c r="N73" s="310"/>
+      <c r="O73" s="310"/>
+      <c r="P73" s="310"/>
+      <c r="Q73" s="310"/>
+      <c r="R73" s="311"/>
     </row>
     <row r="74" spans="1:22" ht="25.5">
       <c r="A74" s="52">
@@ -18622,64 +17527,64 @@
       </c>
     </row>
     <row r="96" spans="1:18" ht="15.75">
-      <c r="C96" s="303" t="s">
+      <c r="C96" s="298" t="s">
         <v>306</v>
       </c>
-      <c r="D96" s="303"/>
-      <c r="E96" s="303"/>
-      <c r="F96" s="303"/>
-      <c r="G96" s="303"/>
-      <c r="H96" s="303"/>
-      <c r="I96" s="303"/>
-      <c r="J96" s="304"/>
+      <c r="D96" s="298"/>
+      <c r="E96" s="298"/>
+      <c r="F96" s="298"/>
+      <c r="G96" s="298"/>
+      <c r="H96" s="298"/>
+      <c r="I96" s="298"/>
+      <c r="J96" s="299"/>
     </row>
     <row r="97" spans="3:10">
-      <c r="C97" s="319"/>
-      <c r="D97" s="307">
+      <c r="C97" s="314"/>
+      <c r="D97" s="302">
         <v>2017</v>
       </c>
-      <c r="E97" s="322"/>
-      <c r="F97" s="322"/>
-      <c r="G97" s="322"/>
-      <c r="H97" s="322"/>
-      <c r="I97" s="322"/>
-      <c r="J97" s="323"/>
+      <c r="E97" s="317"/>
+      <c r="F97" s="317"/>
+      <c r="G97" s="317"/>
+      <c r="H97" s="317"/>
+      <c r="I97" s="317"/>
+      <c r="J97" s="318"/>
     </row>
     <row r="98" spans="3:10">
-      <c r="C98" s="320"/>
-      <c r="D98" s="305" t="s">
+      <c r="C98" s="315"/>
+      <c r="D98" s="300" t="s">
         <v>307</v>
       </c>
-      <c r="E98" s="307" t="s">
+      <c r="E98" s="302" t="s">
         <v>308</v>
       </c>
-      <c r="F98" s="308"/>
-      <c r="G98" s="305" t="s">
+      <c r="F98" s="303"/>
+      <c r="G98" s="300" t="s">
         <v>309</v>
       </c>
-      <c r="H98" s="310" t="s">
+      <c r="H98" s="305" t="s">
         <v>310</v>
       </c>
-      <c r="I98" s="310" t="s">
+      <c r="I98" s="305" t="s">
         <v>311</v>
       </c>
-      <c r="J98" s="307" t="s">
+      <c r="J98" s="302" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="99" spans="3:10">
-      <c r="C99" s="321"/>
-      <c r="D99" s="306"/>
+      <c r="C99" s="316"/>
+      <c r="D99" s="301"/>
       <c r="E99" s="163" t="s">
         <v>313</v>
       </c>
       <c r="F99" s="162" t="s">
         <v>314</v>
       </c>
-      <c r="G99" s="309"/>
-      <c r="H99" s="311"/>
-      <c r="I99" s="311"/>
-      <c r="J99" s="312"/>
+      <c r="G99" s="304"/>
+      <c r="H99" s="306"/>
+      <c r="I99" s="306"/>
+      <c r="J99" s="307"/>
     </row>
     <row r="100" spans="3:10" ht="51">
       <c r="C100" s="165" t="s">
@@ -18708,16 +17613,16 @@
       </c>
     </row>
     <row r="101" spans="3:10">
-      <c r="C101" s="318" t="s">
+      <c r="C101" s="313" t="s">
         <v>291</v>
       </c>
-      <c r="D101" s="302"/>
-      <c r="E101" s="302"/>
-      <c r="F101" s="302"/>
-      <c r="G101" s="302"/>
-      <c r="H101" s="302"/>
-      <c r="I101" s="302"/>
-      <c r="J101" s="302"/>
+      <c r="D101" s="297"/>
+      <c r="E101" s="297"/>
+      <c r="F101" s="297"/>
+      <c r="G101" s="297"/>
+      <c r="H101" s="297"/>
+      <c r="I101" s="297"/>
+      <c r="J101" s="297"/>
     </row>
     <row r="102" spans="3:10" ht="38.25">
       <c r="C102" s="166" t="s">
@@ -18749,12 +17654,12 @@
       <c r="C103" s="167" t="s">
         <v>317</v>
       </c>
-      <c r="D103" s="318"/>
-      <c r="E103" s="318"/>
-      <c r="F103" s="318"/>
-      <c r="G103" s="318"/>
-      <c r="H103" s="318"/>
-      <c r="I103" s="318"/>
+      <c r="D103" s="313"/>
+      <c r="E103" s="313"/>
+      <c r="F103" s="313"/>
+      <c r="G103" s="313"/>
+      <c r="H103" s="313"/>
+      <c r="I103" s="313"/>
       <c r="J103" s="178"/>
     </row>
     <row r="104" spans="3:10" ht="89.25">
@@ -19496,16 +18401,16 @@
       <c r="J133" s="153"/>
     </row>
     <row r="134" spans="3:10">
-      <c r="C134" s="300" t="s">
+      <c r="C134" s="295" t="s">
         <v>348</v>
       </c>
-      <c r="D134" s="301"/>
-      <c r="E134" s="301"/>
-      <c r="F134" s="301"/>
-      <c r="G134" s="301"/>
-      <c r="H134" s="301"/>
-      <c r="I134" s="301"/>
-      <c r="J134" s="302"/>
+      <c r="D134" s="296"/>
+      <c r="E134" s="296"/>
+      <c r="F134" s="296"/>
+      <c r="G134" s="296"/>
+      <c r="H134" s="296"/>
+      <c r="I134" s="296"/>
+      <c r="J134" s="297"/>
     </row>
   </sheetData>
   <mergeCells count="56">
@@ -19641,13 +18546,13 @@
     <row r="4" spans="1:34">
       <c r="A4" s="194"/>
       <c r="B4" s="198"/>
-      <c r="C4" s="390" t="s">
+      <c r="C4" s="385" t="s">
         <v>377</v>
       </c>
-      <c r="D4" s="391"/>
-      <c r="E4" s="391"/>
-      <c r="F4" s="391"/>
-      <c r="G4" s="392"/>
+      <c r="D4" s="386"/>
+      <c r="E4" s="386"/>
+      <c r="F4" s="386"/>
+      <c r="G4" s="387"/>
       <c r="Z4" t="s">
         <v>470</v>
       </c>
@@ -19674,18 +18579,18 @@
       <c r="G5" s="202">
         <v>121972.22569748529</v>
       </c>
-      <c r="M5" s="393" t="s">
+      <c r="M5" s="388" t="s">
         <v>421</v>
       </c>
-      <c r="N5" s="393"/>
-      <c r="O5" s="393"/>
-      <c r="P5" s="393"/>
-      <c r="Q5" s="393"/>
-      <c r="R5" s="393"/>
-      <c r="S5" s="393"/>
-      <c r="T5" s="393"/>
-      <c r="U5" s="393"/>
-      <c r="V5" s="393"/>
+      <c r="N5" s="388"/>
+      <c r="O5" s="388"/>
+      <c r="P5" s="388"/>
+      <c r="Q5" s="388"/>
+      <c r="R5" s="388"/>
+      <c r="S5" s="388"/>
+      <c r="T5" s="388"/>
+      <c r="U5" s="388"/>
+      <c r="V5" s="388"/>
       <c r="Z5" t="s">
         <v>471</v>
       </c>
@@ -19849,28 +18754,28 @@
       </c>
       <c r="M8" s="208"/>
       <c r="N8" s="208"/>
-      <c r="O8" s="386" t="s">
+      <c r="O8" s="381" t="s">
         <v>422</v>
       </c>
-      <c r="P8" s="387"/>
-      <c r="Q8" s="387"/>
-      <c r="R8" s="387"/>
-      <c r="S8" s="387"/>
-      <c r="T8" s="387"/>
-      <c r="U8" s="387"/>
-      <c r="V8" s="388"/>
+      <c r="P8" s="382"/>
+      <c r="Q8" s="382"/>
+      <c r="R8" s="382"/>
+      <c r="S8" s="382"/>
+      <c r="T8" s="382"/>
+      <c r="U8" s="382"/>
+      <c r="V8" s="383"/>
       <c r="Y8" s="208"/>
       <c r="Z8" s="208"/>
-      <c r="AA8" s="386" t="s">
+      <c r="AA8" s="381" t="s">
         <v>472</v>
       </c>
-      <c r="AB8" s="387"/>
-      <c r="AC8" s="387"/>
-      <c r="AD8" s="387"/>
-      <c r="AE8" s="387"/>
-      <c r="AF8" s="387"/>
-      <c r="AG8" s="387"/>
-      <c r="AH8" s="388"/>
+      <c r="AB8" s="382"/>
+      <c r="AC8" s="382"/>
+      <c r="AD8" s="382"/>
+      <c r="AE8" s="382"/>
+      <c r="AF8" s="382"/>
+      <c r="AG8" s="382"/>
+      <c r="AH8" s="383"/>
     </row>
     <row r="9" spans="1:34" ht="52.5">
       <c r="A9" s="200" t="s">
@@ -21892,30 +20797,30 @@
         <f>G31/G27</f>
         <v>0.19398046219491502</v>
       </c>
-      <c r="M32" s="389" t="s">
+      <c r="M32" s="384" t="s">
         <v>441</v>
       </c>
-      <c r="N32" s="389"/>
-      <c r="O32" s="389"/>
-      <c r="P32" s="389"/>
-      <c r="Q32" s="389"/>
-      <c r="R32" s="389"/>
-      <c r="S32" s="389"/>
-      <c r="T32" s="389"/>
-      <c r="U32" s="389"/>
-      <c r="V32" s="389"/>
-      <c r="Y32" s="389" t="s">
+      <c r="N32" s="384"/>
+      <c r="O32" s="384"/>
+      <c r="P32" s="384"/>
+      <c r="Q32" s="384"/>
+      <c r="R32" s="384"/>
+      <c r="S32" s="384"/>
+      <c r="T32" s="384"/>
+      <c r="U32" s="384"/>
+      <c r="V32" s="384"/>
+      <c r="Y32" s="384" t="s">
         <v>441</v>
       </c>
-      <c r="Z32" s="389"/>
-      <c r="AA32" s="389"/>
-      <c r="AB32" s="389"/>
-      <c r="AC32" s="389"/>
-      <c r="AD32" s="389"/>
-      <c r="AE32" s="389"/>
-      <c r="AF32" s="389"/>
-      <c r="AG32" s="389"/>
-      <c r="AH32" s="389"/>
+      <c r="Z32" s="384"/>
+      <c r="AA32" s="384"/>
+      <c r="AB32" s="384"/>
+      <c r="AC32" s="384"/>
+      <c r="AD32" s="384"/>
+      <c r="AE32" s="384"/>
+      <c r="AF32" s="384"/>
+      <c r="AG32" s="384"/>
+      <c r="AH32" s="384"/>
     </row>
     <row r="33" spans="1:34">
       <c r="A33" s="229" t="s">
@@ -22848,413 +21753,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:F24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="45.7109375" style="153" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="262" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="153" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="153" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="153" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="153" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="153"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="26.45" customHeight="1">
-      <c r="B1" s="258" t="s">
-        <v>494</v>
-      </c>
-      <c r="C1" s="259" t="s">
-        <v>495</v>
-      </c>
-      <c r="D1" s="259" t="s">
-        <v>496</v>
-      </c>
-      <c r="E1" s="259" t="s">
-        <v>497</v>
-      </c>
-      <c r="F1" s="259" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="19.5">
-      <c r="A2" s="260" t="s">
-        <v>381</v>
-      </c>
-      <c r="B2" s="259" t="s">
-        <v>382</v>
-      </c>
-      <c r="C2" s="261">
-        <v>27347.555702608606</v>
-      </c>
-      <c r="D2" s="261">
-        <v>-10324.464884899999</v>
-      </c>
-      <c r="E2" s="261">
-        <v>2099.5766678800001</v>
-      </c>
-      <c r="F2" s="261">
-        <v>19122.667485588609</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="260" t="s">
-        <v>386</v>
-      </c>
-      <c r="B3" s="259" t="s">
-        <v>387</v>
-      </c>
-      <c r="C3" s="261">
-        <v>12939.887053232369</v>
-      </c>
-      <c r="D3" s="261">
-        <v>-3947.7218735599999</v>
-      </c>
-      <c r="E3" s="261">
-        <v>12504.73243502</v>
-      </c>
-      <c r="F3" s="261">
-        <v>29392.34136181237</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="260" t="s">
-        <v>359</v>
-      </c>
-      <c r="B4" s="259" t="s">
-        <v>378</v>
-      </c>
-      <c r="C4" s="261">
-        <v>67869.464518021108</v>
-      </c>
-      <c r="D4" s="261">
-        <v>-30501.237616150007</v>
-      </c>
-      <c r="E4" s="261">
-        <v>34836.373559850006</v>
-      </c>
-      <c r="F4" s="261">
-        <v>72204.6004617211</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="19.5">
-      <c r="A5" s="260" t="s">
-        <v>388</v>
-      </c>
-      <c r="B5" s="259" t="s">
-        <v>389</v>
-      </c>
-      <c r="C5" s="261">
-        <v>10677.492611837604</v>
-      </c>
-      <c r="D5" s="261"/>
-      <c r="E5" s="261"/>
-      <c r="F5" s="261"/>
-    </row>
-    <row r="6" spans="1:6" ht="19.5">
-      <c r="A6" s="260" t="s">
-        <v>407</v>
-      </c>
-      <c r="B6" s="259" t="s">
-        <v>408</v>
-      </c>
-      <c r="C6" s="261">
-        <v>1395.0655346924043</v>
-      </c>
-      <c r="D6" s="261"/>
-      <c r="E6" s="261"/>
-      <c r="F6" s="261"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="260" t="s">
-        <v>362</v>
-      </c>
-      <c r="B7" s="259" t="s">
-        <v>385</v>
-      </c>
-      <c r="C7" s="261">
-        <v>12275.854808509359</v>
-      </c>
-      <c r="D7" s="261">
-        <v>-102.25636999999999</v>
-      </c>
-      <c r="E7" s="261">
-        <v>106.65017999999999</v>
-      </c>
-      <c r="F7" s="261">
-        <v>12280.24861850936</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="19.5">
-      <c r="A8" s="260" t="s">
-        <v>379</v>
-      </c>
-      <c r="B8" s="259" t="s">
-        <v>380</v>
-      </c>
-      <c r="C8" s="261">
-        <v>31295.353541430108</v>
-      </c>
-      <c r="D8" s="261"/>
-      <c r="E8" s="261"/>
-      <c r="F8" s="261"/>
-    </row>
-    <row r="9" spans="1:6" ht="19.5">
-      <c r="A9" s="260" t="s">
-        <v>383</v>
-      </c>
-      <c r="B9" s="259" t="s">
-        <v>384</v>
-      </c>
-      <c r="C9" s="261">
-        <v>15809.689960370875</v>
-      </c>
-      <c r="D9" s="261">
-        <v>-5861.4056300000002</v>
-      </c>
-      <c r="E9" s="261">
-        <v>1213.0736299999999</v>
-      </c>
-      <c r="F9" s="261">
-        <v>11161.357960370875</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="260" t="s">
-        <v>405</v>
-      </c>
-      <c r="B10" s="259" t="s">
-        <v>406</v>
-      </c>
-      <c r="C10" s="261">
-        <v>1418.865569283292</v>
-      </c>
-      <c r="D10" s="261"/>
-      <c r="E10" s="261"/>
-      <c r="F10" s="261"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="260" t="s">
-        <v>395</v>
-      </c>
-      <c r="B11" s="259" t="s">
-        <v>396</v>
-      </c>
-      <c r="C11" s="261">
-        <v>8484.505538301888</v>
-      </c>
-      <c r="D11" s="261">
-        <v>-1760.79458</v>
-      </c>
-      <c r="E11" s="261">
-        <v>423.96979999999996</v>
-      </c>
-      <c r="F11" s="261">
-        <v>7147.6807583018881</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="260" t="s">
-        <v>393</v>
-      </c>
-      <c r="B12" s="259" t="s">
-        <v>394</v>
-      </c>
-      <c r="C12" s="261">
-        <v>4554.7927178661939</v>
-      </c>
-      <c r="D12" s="261">
-        <v>-114.01109</v>
-      </c>
-      <c r="E12" s="261">
-        <v>552.91029000000003</v>
-      </c>
-      <c r="F12" s="261">
-        <v>4993.6919178661938</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="260" t="s">
-        <v>390</v>
-      </c>
-      <c r="B13" s="259" t="s">
-        <v>391</v>
-      </c>
-      <c r="C13" s="261">
-        <v>8953.8136453531661</v>
-      </c>
-      <c r="D13" s="261"/>
-      <c r="E13" s="261"/>
-      <c r="F13" s="261"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="260" t="s">
-        <v>399</v>
-      </c>
-      <c r="B14" s="259" t="s">
-        <v>400</v>
-      </c>
-      <c r="C14" s="261">
-        <v>6453.0804689321194</v>
-      </c>
-      <c r="D14" s="261"/>
-      <c r="E14" s="261"/>
-      <c r="F14" s="261"/>
-    </row>
-    <row r="15" spans="1:6" ht="19.5">
-      <c r="A15" s="260" t="s">
-        <v>403</v>
-      </c>
-      <c r="B15" s="259" t="s">
-        <v>404</v>
-      </c>
-      <c r="C15" s="261">
-        <v>2662.7463660768672</v>
-      </c>
-      <c r="D15" s="261">
-        <v>-950.91711000000009</v>
-      </c>
-      <c r="E15" s="261">
-        <v>1234.4308000000001</v>
-      </c>
-      <c r="F15" s="261">
-        <v>2946.2600560768669</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="19.5">
-      <c r="A16" s="260" t="s">
-        <v>397</v>
-      </c>
-      <c r="B16" s="259" t="s">
-        <v>398</v>
-      </c>
-      <c r="C16" s="261">
-        <v>8909.7854612995652</v>
-      </c>
-      <c r="D16" s="261">
-        <v>-3.8128699999999998</v>
-      </c>
-      <c r="E16" s="261">
-        <v>1055.27134</v>
-      </c>
-      <c r="F16" s="261">
-        <v>9961.2439312995648</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="260" t="s">
-        <v>364</v>
-      </c>
-      <c r="B17" s="259" t="s">
-        <v>392</v>
-      </c>
-      <c r="C17" s="261">
-        <v>6768.1959348187365</v>
-      </c>
-      <c r="D17" s="261"/>
-      <c r="E17" s="261"/>
-      <c r="F17" s="261"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="260" t="s">
-        <v>401</v>
-      </c>
-      <c r="B18" s="259" t="s">
-        <v>402</v>
-      </c>
-      <c r="C18" s="261">
-        <v>4961.9124248964154</v>
-      </c>
-      <c r="D18" s="261"/>
-      <c r="E18" s="261"/>
-      <c r="F18" s="261"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="260" t="s">
-        <v>411</v>
-      </c>
-      <c r="B19" s="259" t="s">
-        <v>412</v>
-      </c>
-      <c r="C19" s="261">
-        <v>1062.6922238180821</v>
-      </c>
-      <c r="D19" s="261">
-        <v>-242.74900000000002</v>
-      </c>
-      <c r="E19" s="261">
-        <v>795.17393000000004</v>
-      </c>
-      <c r="F19" s="261">
-        <v>1615.117153818082</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="260" t="s">
-        <v>409</v>
-      </c>
-      <c r="B20" s="259" t="s">
-        <v>410</v>
-      </c>
-      <c r="C20" s="261">
-        <v>1354.6092357669777</v>
-      </c>
-      <c r="D20" s="261">
-        <v>-14.73752</v>
-      </c>
-      <c r="E20" s="261">
-        <v>20.57396</v>
-      </c>
-      <c r="F20" s="261">
-        <f>SUM(C20:E20)</f>
-        <v>1360.4456757669777</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="260"/>
-      <c r="B21" s="259"/>
-      <c r="C21" s="261">
-        <f>SUM(C2:C20)</f>
-        <v>235195.3633171157</v>
-      </c>
-      <c r="D21" s="261">
-        <f t="shared" ref="D21:F21" si="0">SUM(D2:D20)</f>
-        <v>-53824.108544610019</v>
-      </c>
-      <c r="E21" s="261">
-        <f t="shared" si="0"/>
-        <v>54842.73659275</v>
-      </c>
-      <c r="F21" s="261">
-        <f t="shared" si="0"/>
-        <v>172185.65538113189</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>493</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:P21"/>
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23274,99 +21776,99 @@
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="B2" s="396" t="s">
+      <c r="B2" s="391" t="s">
         <v>349</v>
       </c>
-      <c r="C2" s="396"/>
-      <c r="D2" s="396"/>
-      <c r="E2" s="396"/>
-      <c r="F2" s="396"/>
-      <c r="G2" s="396"/>
-      <c r="K2" s="396" t="s">
+      <c r="C2" s="391"/>
+      <c r="D2" s="391"/>
+      <c r="E2" s="391"/>
+      <c r="F2" s="391"/>
+      <c r="G2" s="391"/>
+      <c r="K2" s="391" t="s">
         <v>475</v>
       </c>
-      <c r="L2" s="396"/>
-      <c r="M2" s="396"/>
-      <c r="N2" s="396"/>
-      <c r="O2" s="396"/>
-      <c r="P2" s="396"/>
+      <c r="L2" s="391"/>
+      <c r="M2" s="391"/>
+      <c r="N2" s="391"/>
+      <c r="O2" s="391"/>
+      <c r="P2" s="391"/>
       <c r="Q2" s="50" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="B3" s="397" t="s">
+      <c r="B3" s="392" t="s">
         <v>350</v>
       </c>
-      <c r="C3" s="397"/>
-      <c r="D3" s="397"/>
-      <c r="E3" s="397"/>
-      <c r="K3" s="397" t="s">
+      <c r="C3" s="392"/>
+      <c r="D3" s="392"/>
+      <c r="E3" s="392"/>
+      <c r="K3" s="392" t="s">
         <v>350</v>
       </c>
-      <c r="L3" s="397"/>
-      <c r="M3" s="397"/>
-      <c r="N3" s="397"/>
+      <c r="L3" s="392"/>
+      <c r="M3" s="392"/>
+      <c r="N3" s="392"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="398" t="s">
+      <c r="A4" s="393" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="398" t="s">
+      <c r="B4" s="393" t="s">
         <v>351</v>
       </c>
-      <c r="C4" s="400" t="s">
+      <c r="C4" s="395" t="s">
         <v>352</v>
       </c>
-      <c r="D4" s="400" t="s">
+      <c r="D4" s="395" t="s">
         <v>353</v>
       </c>
-      <c r="E4" s="400" t="s">
+      <c r="E4" s="395" t="s">
         <v>354</v>
       </c>
-      <c r="F4" s="400" t="s">
+      <c r="F4" s="395" t="s">
         <v>355</v>
       </c>
-      <c r="G4" s="400" t="s">
+      <c r="G4" s="395" t="s">
         <v>356</v>
       </c>
-      <c r="J4" s="398" t="s">
+      <c r="J4" s="393" t="s">
         <v>81</v>
       </c>
-      <c r="K4" s="398" t="s">
+      <c r="K4" s="393" t="s">
         <v>351</v>
       </c>
-      <c r="L4" s="400" t="s">
+      <c r="L4" s="395" t="s">
         <v>352</v>
       </c>
-      <c r="M4" s="400" t="s">
+      <c r="M4" s="395" t="s">
         <v>353</v>
       </c>
-      <c r="N4" s="400" t="s">
+      <c r="N4" s="395" t="s">
         <v>354</v>
       </c>
-      <c r="O4" s="400" t="s">
+      <c r="O4" s="395" t="s">
         <v>355</v>
       </c>
-      <c r="P4" s="400" t="s">
+      <c r="P4" s="395" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="24.75" customHeight="1">
-      <c r="A5" s="399"/>
-      <c r="B5" s="399"/>
-      <c r="C5" s="401"/>
-      <c r="D5" s="401"/>
-      <c r="E5" s="401"/>
-      <c r="F5" s="402"/>
-      <c r="G5" s="402"/>
-      <c r="J5" s="399"/>
-      <c r="K5" s="399"/>
-      <c r="L5" s="401"/>
-      <c r="M5" s="401"/>
-      <c r="N5" s="401"/>
-      <c r="O5" s="402"/>
-      <c r="P5" s="402"/>
+      <c r="A5" s="394"/>
+      <c r="B5" s="394"/>
+      <c r="C5" s="396"/>
+      <c r="D5" s="396"/>
+      <c r="E5" s="396"/>
+      <c r="F5" s="397"/>
+      <c r="G5" s="397"/>
+      <c r="J5" s="394"/>
+      <c r="K5" s="394"/>
+      <c r="L5" s="396"/>
+      <c r="M5" s="396"/>
+      <c r="N5" s="396"/>
+      <c r="O5" s="397"/>
+      <c r="P5" s="397"/>
     </row>
     <row r="6" spans="1:17" ht="114.75">
       <c r="A6" s="182">
@@ -23430,10 +21932,10 @@
       <c r="E7" s="183">
         <v>83203</v>
       </c>
-      <c r="F7" s="403">
+      <c r="F7" s="398">
         <v>3303</v>
       </c>
-      <c r="G7" s="405">
+      <c r="G7" s="400">
         <f>(E7+E8)/F7*1000</f>
         <v>81180.744777475033</v>
       </c>
@@ -23452,10 +21954,10 @@
       <c r="N7" s="253">
         <v>177170</v>
       </c>
-      <c r="O7" s="394">
+      <c r="O7" s="389">
         <v>2440.6</v>
       </c>
-      <c r="P7" s="394">
+      <c r="P7" s="389">
         <f>(N7+N8)/O7*1000</f>
         <v>220043.02220765388</v>
       </c>
@@ -23476,8 +21978,8 @@
       <c r="E8" s="183">
         <v>184937</v>
       </c>
-      <c r="F8" s="404"/>
-      <c r="G8" s="406"/>
+      <c r="F8" s="399"/>
+      <c r="G8" s="401"/>
       <c r="J8" s="184">
         <v>3</v>
       </c>
@@ -23493,8 +21995,8 @@
       <c r="N8" s="253">
         <v>359867</v>
       </c>
-      <c r="O8" s="395"/>
-      <c r="P8" s="395"/>
+      <c r="O8" s="390"/>
+      <c r="P8" s="390"/>
     </row>
     <row r="9" spans="1:17" ht="102">
       <c r="A9" s="184">
@@ -24095,7 +22597,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -25304,4 +23806,1063 @@
   <pageSetup paperSize="9" scale="71" orientation="landscape" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H33" sqref="H33:H34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="80.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A1" s="258" t="s">
+        <v>495</v>
+      </c>
+      <c r="B1" s="259">
+        <v>2010</v>
+      </c>
+      <c r="C1" s="259">
+        <v>2015</v>
+      </c>
+      <c r="D1" s="259">
+        <v>2020</v>
+      </c>
+      <c r="E1" s="259">
+        <v>2025</v>
+      </c>
+      <c r="F1" s="259">
+        <v>2030</v>
+      </c>
+      <c r="G1" s="259">
+        <v>2035</v>
+      </c>
+      <c r="H1" s="259">
+        <v>2040</v>
+      </c>
+      <c r="I1" s="259">
+        <v>2045</v>
+      </c>
+      <c r="J1" s="259">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A2" s="260" t="s">
+        <v>522</v>
+      </c>
+      <c r="B2" s="261">
+        <v>6958</v>
+      </c>
+      <c r="C2" s="261">
+        <v>7383</v>
+      </c>
+      <c r="D2" s="261">
+        <v>7795</v>
+      </c>
+      <c r="E2" s="261">
+        <v>8185</v>
+      </c>
+      <c r="F2" s="261">
+        <v>8551</v>
+      </c>
+      <c r="G2" s="261">
+        <v>8892</v>
+      </c>
+      <c r="H2" s="261">
+        <v>9210</v>
+      </c>
+      <c r="I2" s="261">
+        <v>9504</v>
+      </c>
+      <c r="J2" s="261">
+        <v>9771</v>
+      </c>
+      <c r="L2" s="262" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A3" s="264" t="s">
+        <v>496</v>
+      </c>
+      <c r="B3" s="263">
+        <v>1.18</v>
+      </c>
+      <c r="C3" s="263">
+        <f>((C2-B2)/5)/B2*100</f>
+        <v>1.2216154067260707</v>
+      </c>
+      <c r="D3" s="263">
+        <f t="shared" ref="D3:J3" si="0">((D2-C2)/5)/C2*100</f>
+        <v>1.1160774752810512</v>
+      </c>
+      <c r="E3" s="263">
+        <f t="shared" si="0"/>
+        <v>1.0006414368184735</v>
+      </c>
+      <c r="F3" s="263">
+        <f t="shared" si="0"/>
+        <v>0.89431887599266957</v>
+      </c>
+      <c r="G3" s="263">
+        <f t="shared" si="0"/>
+        <v>0.7975675359607064</v>
+      </c>
+      <c r="H3" s="263">
+        <f t="shared" si="0"/>
+        <v>0.71524966261808365</v>
+      </c>
+      <c r="I3" s="263">
+        <f t="shared" si="0"/>
+        <v>0.6384364820846905</v>
+      </c>
+      <c r="J3" s="263">
+        <f t="shared" si="0"/>
+        <v>0.56186868686868685</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A4" s="260" t="s">
+        <v>497</v>
+      </c>
+      <c r="B4" s="261">
+        <v>66036.387107063027</v>
+      </c>
+      <c r="C4" s="261">
+        <v>75037.186502549754</v>
+      </c>
+      <c r="D4" s="261">
+        <f>D2*D5</f>
+        <v>99030.690232184643</v>
+      </c>
+      <c r="E4" s="261">
+        <f t="shared" ref="E4:J4" si="1">E2*E5</f>
+        <v>129981.75105042197</v>
+      </c>
+      <c r="F4" s="261">
+        <f t="shared" si="1"/>
+        <v>169742.50965671323</v>
+      </c>
+      <c r="G4" s="261">
+        <f t="shared" si="1"/>
+        <v>220639.45676930973</v>
+      </c>
+      <c r="H4" s="261">
+        <f t="shared" si="1"/>
+        <v>285662.58952504257</v>
+      </c>
+      <c r="I4" s="261">
+        <f t="shared" si="1"/>
+        <v>368476.8255762764</v>
+      </c>
+      <c r="J4" s="261">
+        <f t="shared" si="1"/>
+        <v>473535.75635335071</v>
+      </c>
+      <c r="L4" s="50" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A5" s="260" t="s">
+        <v>498</v>
+      </c>
+      <c r="B5" s="265">
+        <f>B4/B2</f>
+        <v>9.4907138699429474</v>
+      </c>
+      <c r="C5" s="265">
+        <f>C4/C2</f>
+        <v>10.163508939800861</v>
+      </c>
+      <c r="D5" s="265">
+        <f>(C5*D6/100)*5+C5</f>
+        <v>12.704386174751077</v>
+      </c>
+      <c r="E5" s="265">
+        <f t="shared" ref="E5:J5" si="2">(D5*E6/100)*5+D5</f>
+        <v>15.880482718438847</v>
+      </c>
+      <c r="F5" s="265">
+        <f t="shared" si="2"/>
+        <v>19.850603398048559</v>
+      </c>
+      <c r="G5" s="265">
+        <f t="shared" si="2"/>
+        <v>24.8132542475607</v>
+      </c>
+      <c r="H5" s="265">
+        <f t="shared" si="2"/>
+        <v>31.016567809450876</v>
+      </c>
+      <c r="I5" s="265">
+        <f t="shared" si="2"/>
+        <v>38.770709761813592</v>
+      </c>
+      <c r="J5" s="265">
+        <f t="shared" si="2"/>
+        <v>48.463387202266986</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A6" s="264" t="s">
+        <v>499</v>
+      </c>
+      <c r="B6" s="263">
+        <v>7.37</v>
+      </c>
+      <c r="C6" s="263">
+        <v>5</v>
+      </c>
+      <c r="D6" s="263">
+        <v>5</v>
+      </c>
+      <c r="E6" s="263">
+        <v>5</v>
+      </c>
+      <c r="F6" s="263">
+        <v>5</v>
+      </c>
+      <c r="G6" s="263">
+        <v>5</v>
+      </c>
+      <c r="H6" s="263">
+        <v>5</v>
+      </c>
+      <c r="I6" s="263">
+        <v>5</v>
+      </c>
+      <c r="J6" s="263">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A7" s="266" t="s">
+        <v>500</v>
+      </c>
+      <c r="B7" s="267">
+        <v>45.792999999999999</v>
+      </c>
+      <c r="C7" s="286">
+        <v>44.658000000000001</v>
+      </c>
+      <c r="D7" s="286">
+        <v>45.651848000000001</v>
+      </c>
+      <c r="E7" s="286">
+        <v>46.997312999999998</v>
+      </c>
+      <c r="F7" s="286">
+        <v>48.234589999999997</v>
+      </c>
+      <c r="G7" s="286">
+        <v>49.279656000000003</v>
+      </c>
+      <c r="H7" s="286">
+        <v>50.197122999999998</v>
+      </c>
+      <c r="I7" s="286">
+        <v>51.313961999999997</v>
+      </c>
+      <c r="J7" s="286">
+        <v>52.832540999999999</v>
+      </c>
+      <c r="L7" s="262" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A8" s="264" t="s">
+        <v>501</v>
+      </c>
+      <c r="B8" s="263">
+        <f t="shared" ref="B8:J8" si="3">B7/B2*100</f>
+        <v>0.65813452141419948</v>
+      </c>
+      <c r="C8" s="263">
+        <f t="shared" si="3"/>
+        <v>0.60487606663957738</v>
+      </c>
+      <c r="D8" s="263">
+        <f t="shared" si="3"/>
+        <v>0.58565552277100708</v>
+      </c>
+      <c r="E8" s="263">
+        <f t="shared" si="3"/>
+        <v>0.57418830788026876</v>
+      </c>
+      <c r="F8" s="263">
+        <f t="shared" si="3"/>
+        <v>0.56408127704362054</v>
+      </c>
+      <c r="G8" s="263">
+        <f t="shared" si="3"/>
+        <v>0.55420215924426453</v>
+      </c>
+      <c r="H8" s="263">
+        <f t="shared" si="3"/>
+        <v>0.54502847991313785</v>
+      </c>
+      <c r="I8" s="263">
+        <f t="shared" si="3"/>
+        <v>0.53991963383838382</v>
+      </c>
+      <c r="J8" s="263">
+        <f t="shared" si="3"/>
+        <v>0.54070761436905124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A9" s="260" t="s">
+        <v>502</v>
+      </c>
+      <c r="B9" s="261">
+        <v>136.4</v>
+      </c>
+      <c r="C9" s="261">
+        <v>91</v>
+      </c>
+      <c r="D9" s="261">
+        <f t="shared" ref="D9:J9" si="4">D7*D10</f>
+        <v>150.79446371158977</v>
+      </c>
+      <c r="E9" s="261">
+        <f t="shared" si="4"/>
+        <v>208.97520473467719</v>
+      </c>
+      <c r="F9" s="261">
+        <f t="shared" si="4"/>
+        <v>277.67085768566892</v>
+      </c>
+      <c r="G9" s="261">
+        <f t="shared" si="4"/>
+        <v>366.83659006809904</v>
+      </c>
+      <c r="H9" s="261">
+        <f t="shared" si="4"/>
+        <v>482.65216550434229</v>
+      </c>
+      <c r="I9" s="261">
+        <f t="shared" si="4"/>
+        <v>636.6331927778341</v>
+      </c>
+      <c r="J9" s="261">
+        <f t="shared" si="4"/>
+        <v>819.34204523604672</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A10" s="260" t="s">
+        <v>503</v>
+      </c>
+      <c r="B10" s="265">
+        <f>B9/B7</f>
+        <v>2.9786211866442471</v>
+      </c>
+      <c r="C10" s="265">
+        <f>C9/C7</f>
+        <v>2.0377088091719289</v>
+      </c>
+      <c r="D10" s="265">
+        <f t="shared" ref="D10:J10" si="5">D5*D11/100</f>
+        <v>3.30314040543528</v>
+      </c>
+      <c r="E10" s="265">
+        <f t="shared" si="5"/>
+        <v>4.4465351611628776</v>
+      </c>
+      <c r="F10" s="265">
+        <f t="shared" si="5"/>
+        <v>5.7566749854340822</v>
+      </c>
+      <c r="G10" s="265">
+        <f t="shared" si="5"/>
+        <v>7.4439762742682101</v>
+      </c>
+      <c r="H10" s="265">
+        <f t="shared" si="5"/>
+        <v>9.6151360209297714</v>
+      </c>
+      <c r="I10" s="265">
+        <f t="shared" si="5"/>
+        <v>12.40662712378035</v>
+      </c>
+      <c r="J10" s="265">
+        <f t="shared" si="5"/>
+        <v>15.508283904725436</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A11" s="264" t="s">
+        <v>504</v>
+      </c>
+      <c r="B11" s="263">
+        <f t="shared" ref="B11:C11" si="6">B10/B5*100</f>
+        <v>31.384585263681043</v>
+      </c>
+      <c r="C11" s="263">
+        <f t="shared" si="6"/>
+        <v>20.049264690388068</v>
+      </c>
+      <c r="D11" s="263">
+        <v>26</v>
+      </c>
+      <c r="E11" s="263">
+        <v>28</v>
+      </c>
+      <c r="F11" s="263">
+        <v>29</v>
+      </c>
+      <c r="G11" s="263">
+        <v>30</v>
+      </c>
+      <c r="H11" s="263">
+        <v>31</v>
+      </c>
+      <c r="I11" s="263">
+        <v>32</v>
+      </c>
+      <c r="J11" s="263">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A12" s="264" t="s">
+        <v>505</v>
+      </c>
+      <c r="B12" s="263">
+        <v>31.269164</v>
+      </c>
+      <c r="C12" s="263">
+        <v>29.6</v>
+      </c>
+      <c r="D12" s="263">
+        <f>D7*D13/100</f>
+        <v>31.454123272</v>
+      </c>
+      <c r="E12" s="263">
+        <f t="shared" ref="E12:J12" si="7">E7*E13/100</f>
+        <v>32.992113725999999</v>
+      </c>
+      <c r="F12" s="263">
+        <f t="shared" si="7"/>
+        <v>34.005385949999997</v>
+      </c>
+      <c r="G12" s="263">
+        <f t="shared" si="7"/>
+        <v>34.889996448000005</v>
+      </c>
+      <c r="H12" s="263">
+        <f t="shared" si="7"/>
+        <v>35.690154452999998</v>
+      </c>
+      <c r="I12" s="263">
+        <f t="shared" si="7"/>
+        <v>36.638168868000001</v>
+      </c>
+      <c r="J12" s="263">
+        <f t="shared" si="7"/>
+        <v>37.880931897000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A13" s="264" t="s">
+        <v>506</v>
+      </c>
+      <c r="B13" s="263">
+        <v>68.273283842794768</v>
+      </c>
+      <c r="C13" s="263">
+        <v>68.612300000000005</v>
+      </c>
+      <c r="D13" s="263">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="E13" s="263">
+        <v>70.2</v>
+      </c>
+      <c r="F13" s="263">
+        <v>70.5</v>
+      </c>
+      <c r="G13" s="263">
+        <v>70.8</v>
+      </c>
+      <c r="H13" s="263">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="I13" s="263">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="J13" s="263">
+        <v>71.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A14" s="260" t="s">
+        <v>507</v>
+      </c>
+      <c r="B14" s="269">
+        <v>1.61E-2</v>
+      </c>
+      <c r="C14" s="269">
+        <v>6.1412000000000001E-2</v>
+      </c>
+      <c r="D14" s="269">
+        <v>6.1412000000000001E-2</v>
+      </c>
+      <c r="E14" s="269">
+        <v>6.1412000000000001E-2</v>
+      </c>
+      <c r="F14" s="269">
+        <v>6.1412000000000001E-2</v>
+      </c>
+      <c r="G14" s="269">
+        <v>6.1412000000000001E-2</v>
+      </c>
+      <c r="H14" s="269">
+        <v>6.1412000000000001E-2</v>
+      </c>
+      <c r="I14" s="269">
+        <v>6.1412000000000001E-2</v>
+      </c>
+      <c r="J14" s="269">
+        <v>6.1412000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A15" s="264" t="s">
+        <v>508</v>
+      </c>
+      <c r="B15" s="263">
+        <f t="shared" ref="B15:J15" si="8">B14/B7*100</f>
+        <v>3.5158211953792068E-2</v>
+      </c>
+      <c r="C15" s="263">
+        <f t="shared" si="8"/>
+        <v>0.13751623449325989</v>
+      </c>
+      <c r="D15" s="263">
+        <f t="shared" si="8"/>
+        <v>0.13452248417194415</v>
+      </c>
+      <c r="E15" s="263">
+        <f t="shared" si="8"/>
+        <v>0.13067130029327423</v>
+      </c>
+      <c r="F15" s="263">
+        <f t="shared" si="8"/>
+        <v>0.12731941952859971</v>
+      </c>
+      <c r="G15" s="263">
+        <f t="shared" si="8"/>
+        <v>0.12461937640149111</v>
+      </c>
+      <c r="H15" s="263">
+        <f t="shared" si="8"/>
+        <v>0.12234167284846185</v>
+      </c>
+      <c r="I15" s="263">
+        <f t="shared" si="8"/>
+        <v>0.11967892870950016</v>
+      </c>
+      <c r="J15" s="263">
+        <f t="shared" si="8"/>
+        <v>0.11623896719258686</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A16" s="276" t="s">
+        <v>509</v>
+      </c>
+      <c r="B16" s="277">
+        <f>B6*B17/100</f>
+        <v>1.7734920191936709</v>
+      </c>
+      <c r="C16" s="277">
+        <v>10.364474</v>
+      </c>
+      <c r="D16" s="277">
+        <v>9.7658047088653799</v>
+      </c>
+      <c r="E16" s="277">
+        <v>9.1544699999999999</v>
+      </c>
+      <c r="F16" s="277">
+        <v>8.7088739999999998</v>
+      </c>
+      <c r="G16" s="277">
+        <v>8.2535600000000002</v>
+      </c>
+      <c r="H16" s="277">
+        <v>8.3802000000000003</v>
+      </c>
+      <c r="I16" s="277">
+        <v>9.1172690000000003</v>
+      </c>
+      <c r="J16" s="277">
+        <v>10.071980999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A17" s="278" t="s">
+        <v>510</v>
+      </c>
+      <c r="B17" s="279">
+        <v>24.063663761108153</v>
+      </c>
+      <c r="C17" s="279">
+        <f>C16/C7*100</f>
+        <v>23.208549420036722</v>
+      </c>
+      <c r="D17" s="279">
+        <f t="shared" ref="D17:J17" si="9">D16/D7*100</f>
+        <v>21.391915413512681</v>
+      </c>
+      <c r="E17" s="279">
+        <f t="shared" si="9"/>
+        <v>19.478709346638606</v>
+      </c>
+      <c r="F17" s="279">
+        <f t="shared" si="9"/>
+        <v>18.055246245484827</v>
+      </c>
+      <c r="G17" s="279">
+        <f t="shared" si="9"/>
+        <v>16.748412367164249</v>
+      </c>
+      <c r="H17" s="279">
+        <f t="shared" si="9"/>
+        <v>16.694582277155607</v>
+      </c>
+      <c r="I17" s="279">
+        <f t="shared" si="9"/>
+        <v>17.767618489486352</v>
+      </c>
+      <c r="J17" s="279">
+        <f t="shared" si="9"/>
+        <v>19.063972334777539</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A18" s="280" t="s">
+        <v>511</v>
+      </c>
+      <c r="B18" s="281">
+        <v>8.1</v>
+      </c>
+      <c r="C18" s="281">
+        <v>7.6</v>
+      </c>
+      <c r="D18" s="281">
+        <v>8.3351299999999995</v>
+      </c>
+      <c r="E18" s="281">
+        <v>8.3994222663254501</v>
+      </c>
+      <c r="F18" s="281">
+        <v>7.955343897018075</v>
+      </c>
+      <c r="G18" s="281">
+        <v>7.4657413087604318</v>
+      </c>
+      <c r="H18" s="281">
+        <v>6.9836666655364557</v>
+      </c>
+      <c r="I18" s="281">
+        <v>6.5128469699510321</v>
+      </c>
+      <c r="J18" s="281">
+        <v>6.0942562915725027</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A19" s="282" t="s">
+        <v>512</v>
+      </c>
+      <c r="B19" s="283">
+        <v>17.651088868013414</v>
+      </c>
+      <c r="C19" s="283">
+        <f>C18/C7*100</f>
+        <v>17.018227417260064</v>
+      </c>
+      <c r="D19" s="283">
+        <f t="shared" ref="D19:J19" si="10">D18/D7*100</f>
+        <v>18.258034154499068</v>
+      </c>
+      <c r="E19" s="283">
+        <f t="shared" si="10"/>
+        <v>17.872132958591592</v>
+      </c>
+      <c r="F19" s="283">
+        <f t="shared" si="10"/>
+        <v>16.493026885929943</v>
+      </c>
+      <c r="G19" s="283">
+        <f t="shared" si="10"/>
+        <v>15.149743149100781</v>
+      </c>
+      <c r="H19" s="283">
+        <f t="shared" si="10"/>
+        <v>13.912483919718778</v>
+      </c>
+      <c r="I19" s="283">
+        <f t="shared" si="10"/>
+        <v>12.692153784482734</v>
+      </c>
+      <c r="J19" s="283">
+        <f t="shared" si="10"/>
+        <v>11.535042941759139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A20" s="280" t="s">
+        <v>513</v>
+      </c>
+      <c r="B20" s="281">
+        <f>B18/B16</f>
+        <v>4.567260473877246</v>
+      </c>
+      <c r="C20" s="281">
+        <f>C18/C15</f>
+        <v>55.266202045202888</v>
+      </c>
+      <c r="D20" s="281">
+        <f t="shared" ref="D20:J20" si="11">D18/D15</f>
+        <v>61.96086885628867</v>
+      </c>
+      <c r="E20" s="281">
+        <f t="shared" si="11"/>
+        <v>64.279013428917224</v>
+      </c>
+      <c r="F20" s="281">
+        <f t="shared" si="11"/>
+        <v>62.483350351994574</v>
+      </c>
+      <c r="G20" s="281">
+        <f t="shared" si="11"/>
+        <v>59.908350726357043</v>
+      </c>
+      <c r="H20" s="281">
+        <f t="shared" si="11"/>
+        <v>57.083302058381641</v>
+      </c>
+      <c r="I20" s="281">
+        <f t="shared" si="11"/>
+        <v>54.419328783931867</v>
+      </c>
+      <c r="J20" s="281">
+        <f t="shared" si="11"/>
+        <v>52.428685825085033</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A21" s="280" t="s">
+        <v>514</v>
+      </c>
+      <c r="B21" s="281">
+        <v>0.495</v>
+      </c>
+      <c r="C21" s="281">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="D21" s="281">
+        <f>D16*D22/1000*0.9938</f>
+        <v>0.82494682117198526</v>
+      </c>
+      <c r="E21" s="281">
+        <f t="shared" ref="E21:J21" si="12">E16*E22/1000*0.9938</f>
+        <v>0.86428266717000002</v>
+      </c>
+      <c r="F21" s="281">
+        <f t="shared" si="12"/>
+        <v>0.822213503214</v>
+      </c>
+      <c r="G21" s="281">
+        <f t="shared" si="12"/>
+        <v>0.77922685316000007</v>
+      </c>
+      <c r="H21" s="281">
+        <f t="shared" si="12"/>
+        <v>0.79118306220000001</v>
+      </c>
+      <c r="I21" s="281">
+        <f t="shared" si="12"/>
+        <v>0.8607704835590001</v>
+      </c>
+      <c r="J21" s="281">
+        <f t="shared" si="12"/>
+        <v>0.95090579819099996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A22" s="280" t="s">
+        <v>515</v>
+      </c>
+      <c r="B22" s="281">
+        <v>44.9</v>
+      </c>
+      <c r="C22" s="281">
+        <v>46</v>
+      </c>
+      <c r="D22" s="281">
+        <v>85</v>
+      </c>
+      <c r="E22" s="281">
+        <v>95</v>
+      </c>
+      <c r="F22" s="281">
+        <v>95</v>
+      </c>
+      <c r="G22" s="281">
+        <v>95</v>
+      </c>
+      <c r="H22" s="281">
+        <v>95</v>
+      </c>
+      <c r="I22" s="281">
+        <v>95</v>
+      </c>
+      <c r="J22" s="281">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A23" s="273" t="s">
+        <v>516</v>
+      </c>
+      <c r="B23" s="284">
+        <v>17.8</v>
+      </c>
+      <c r="C23" s="284">
+        <v>17.494372219580899</v>
+      </c>
+      <c r="D23" s="284">
+        <v>16.512835287815602</v>
+      </c>
+      <c r="E23" s="284">
+        <v>15.570442595693399</v>
+      </c>
+      <c r="F23" s="284">
+        <v>15.430187054150712</v>
+      </c>
+      <c r="G23" s="284">
+        <v>15.340042792151616</v>
+      </c>
+      <c r="H23" s="284">
+        <v>15.036042733497347</v>
+      </c>
+      <c r="I23" s="284">
+        <v>14.006986945024545</v>
+      </c>
+      <c r="J23" s="284">
+        <v>12.402099472097303</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A24" s="274" t="s">
+        <v>517</v>
+      </c>
+      <c r="B24" s="275">
+        <v>38.949275742186025</v>
+      </c>
+      <c r="C24" s="275">
+        <f>C23/C7*100</f>
+        <v>39.174105915134803</v>
+      </c>
+      <c r="D24" s="275">
+        <f t="shared" ref="D24:J24" si="13">D23/D7*100</f>
+        <v>36.171230763353982</v>
+      </c>
+      <c r="E24" s="275">
+        <f t="shared" si="13"/>
+        <v>33.130495344900673</v>
+      </c>
+      <c r="F24" s="275">
+        <f t="shared" si="13"/>
+        <v>31.989879159646041</v>
+      </c>
+      <c r="G24" s="275">
+        <f t="shared" si="13"/>
+        <v>31.128550881425827</v>
+      </c>
+      <c r="H24" s="275">
+        <f t="shared" si="13"/>
+        <v>29.953993047564392</v>
+      </c>
+      <c r="I24" s="275">
+        <f t="shared" si="13"/>
+        <v>27.296638963533056</v>
+      </c>
+      <c r="J24" s="275">
+        <f t="shared" si="13"/>
+        <v>23.474357351272019</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A25" s="270" t="s">
+        <v>518</v>
+      </c>
+      <c r="B25" s="285">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C25" s="285">
+        <v>9.2643601509793907</v>
+      </c>
+      <c r="D25" s="285">
+        <f>9.833862</f>
+        <v>9.8338619999999999</v>
+      </c>
+      <c r="E25" s="285">
+        <v>10.48898697884826</v>
+      </c>
+      <c r="F25" s="285">
+        <v>10.558664530036811</v>
+      </c>
+      <c r="G25" s="285">
+        <v>10.683061275212019</v>
+      </c>
+      <c r="H25" s="285">
+        <v>10.908168434618553</v>
+      </c>
+      <c r="I25" s="285">
+        <v>11.386691408476544</v>
+      </c>
+      <c r="J25" s="285">
+        <v>12.051735121577604</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A26" s="271" t="s">
+        <v>519</v>
+      </c>
+      <c r="B26" s="272">
+        <v>20.224890829694324</v>
+      </c>
+      <c r="C26" s="272">
+        <f>C25/C7*100</f>
+        <v>20.745129990101191</v>
+      </c>
+      <c r="D26" s="272">
+        <f t="shared" ref="D26:J26" si="14">D25/D7*100</f>
+        <v>21.540994353613023</v>
+      </c>
+      <c r="E26" s="272">
+        <f t="shared" si="14"/>
+        <v>22.318269512234156</v>
+      </c>
+      <c r="F26" s="272">
+        <f t="shared" si="14"/>
+        <v>21.890233813611378</v>
+      </c>
+      <c r="G26" s="272">
+        <f t="shared" si="14"/>
+        <v>21.678441252130533</v>
+      </c>
+      <c r="H26" s="272">
+        <f t="shared" si="14"/>
+        <v>21.730664593304585</v>
+      </c>
+      <c r="I26" s="272">
+        <f t="shared" si="14"/>
+        <v>22.190240169871398</v>
+      </c>
+      <c r="J26" s="272">
+        <f t="shared" si="14"/>
+        <v>22.811197215703867</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A27" s="270" t="s">
+        <v>520</v>
+      </c>
+      <c r="B27" s="285">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="C27" s="285">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="D27" s="285">
+        <f>D28/1000*D7</f>
+        <v>0.66651698079999999</v>
+      </c>
+      <c r="E27" s="285">
+        <f t="shared" ref="E27:J27" si="15">E28/1000*E7</f>
+        <v>0.68616076979999996</v>
+      </c>
+      <c r="F27" s="285">
+        <f t="shared" si="15"/>
+        <v>0.70422501399999993</v>
+      </c>
+      <c r="G27" s="285">
+        <f t="shared" si="15"/>
+        <v>0.71948297760000002</v>
+      </c>
+      <c r="H27" s="285">
+        <f t="shared" si="15"/>
+        <v>0.73287799580000001</v>
+      </c>
+      <c r="I27" s="285">
+        <f t="shared" si="15"/>
+        <v>0.74918384519999992</v>
+      </c>
+      <c r="J27" s="285">
+        <f t="shared" si="15"/>
+        <v>0.77135509859999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A28" s="271" t="s">
+        <v>521</v>
+      </c>
+      <c r="B28" s="272">
+        <v>19.335971628692409</v>
+      </c>
+      <c r="C28" s="272">
+        <f>14.6</f>
+        <v>14.6</v>
+      </c>
+      <c r="D28" s="272">
+        <f t="shared" ref="D28:J28" si="16">14.6</f>
+        <v>14.6</v>
+      </c>
+      <c r="E28" s="272">
+        <f t="shared" si="16"/>
+        <v>14.6</v>
+      </c>
+      <c r="F28" s="272">
+        <f t="shared" si="16"/>
+        <v>14.6</v>
+      </c>
+      <c r="G28" s="272">
+        <f t="shared" si="16"/>
+        <v>14.6</v>
+      </c>
+      <c r="H28" s="272">
+        <f t="shared" si="16"/>
+        <v>14.6</v>
+      </c>
+      <c r="I28" s="272">
+        <f t="shared" si="16"/>
+        <v>14.6</v>
+      </c>
+      <c r="J28" s="272">
+        <f t="shared" si="16"/>
+        <v>14.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L4" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId2"/>
+</worksheet>
 </file>